--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392EE6E2-CB25-4FAD-A38A-83A78180D4E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C07C605-96EB-49C2-BC95-9346C45B5746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="261">
   <si>
     <t>技能ID</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>Effect_fire_spell_01</t>
-  </si>
-  <si>
-    <t>烈焰风暴</t>
   </si>
   <si>
     <t>icon_skill_flameStrom</t>
@@ -941,10 +938,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>寒冰箭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1098,23 +1091,6 @@
   </si>
   <si>
     <r>
-      <t>need</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BallColor</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>c</t>
     </r>
     <r>
@@ -1131,26 +1107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>needBallAmount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求宝珠颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求宝珠数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dontNeedColor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无需颜色判断</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>升级后ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1167,18 +1123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>宝珠数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝珠颜色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>amount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0.2,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1188,6 +1132,52 @@
   </si>
   <si>
     <t>在2秒内减少受到的所有伤害2点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后从本场战斗中移除</t>
+  </si>
+  <si>
+    <t>usedToRemove</t>
+  </si>
+  <si>
+    <t>usedChooseCard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后从牌堆堆抽N张牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后从手牌丢弃N张牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>usedThrowCard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗技能？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifHeal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽牌攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弃牌攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1195,7 +1185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1256,6 +1246,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1290,8 +1288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1304,10 +1301,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1347,11 +1347,17 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1627,10 +1633,10 @@
   <dimension ref="A1:X120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R74" sqref="R74"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1648,9 +1654,8 @@
     <col min="16" max="16" width="14.375" style="2" customWidth="1"/>
     <col min="17" max="17" width="17.5" style="2" customWidth="1"/>
     <col min="18" max="20" width="9" style="2"/>
-    <col min="21" max="21" width="14" style="18" customWidth="1"/>
-    <col min="22" max="22" width="14.875" style="18" customWidth="1"/>
-    <col min="23" max="23" width="16.625" style="18" customWidth="1"/>
+    <col min="21" max="21" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="22.375" customWidth="1"/>
     <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1674,22 +1679,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>7</v>
@@ -1698,10 +1703,10 @@
         <v>8</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>9</v>
@@ -1715,17 +1720,17 @@
       <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>247</v>
+      <c r="U1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="W1" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="X1" s="11" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -1748,22 +1753,22 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>21</v>
@@ -1772,10 +1777,10 @@
         <v>22</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>23</v>
@@ -1789,17 +1794,17 @@
       <c r="T2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="V2" s="17" t="s">
+      <c r="U2" t="s">
+        <v>251</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="X2" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="W2" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -1825,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1851,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -1863,10 +1868,10 @@
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H4" s="2">
         <v>0.8</v>
@@ -1878,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <v>3</v>
@@ -1890,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -1907,7 +1912,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>37</v>
@@ -1919,11 +1924,11 @@
         <v>39</v>
       </c>
       <c r="F5" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
@@ -1934,10 +1939,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" s="2">
         <v>3</v>
@@ -1956,29 +1961,32 @@
       </c>
       <c r="T5" s="2">
         <v>0</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="H6" s="2">
         <v>3</v>
@@ -1993,26 +2001,29 @@
         <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <v>3</v>
       </c>
       <c r="N6" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
       </c>
       <c r="T6" s="2">
         <v>0</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2020,7 +2031,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>32</v>
@@ -2029,13 +2040,13 @@
         <v>33</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
@@ -2047,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2067,16 +2078,16 @@
       <c r="T7" s="1">
         <v>0</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
     </row>
     <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>32</v>
@@ -2085,13 +2096,13 @@
         <v>33</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -2103,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2123,16 +2134,16 @@
       <c r="T8" s="1">
         <v>0</v>
       </c>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
     </row>
     <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
@@ -2141,13 +2152,13 @@
         <v>33</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -2176,16 +2187,16 @@
       <c r="T9" s="1">
         <v>0</v>
       </c>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
     </row>
     <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>32</v>
@@ -2194,13 +2205,13 @@
         <v>33</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="H10" s="1">
         <v>5.5</v>
@@ -2229,16 +2240,16 @@
       <c r="T10" s="1">
         <v>0</v>
       </c>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
     </row>
     <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>32</v>
@@ -2247,13 +2258,13 @@
         <v>33</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>155</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
@@ -2282,16 +2293,16 @@
       <c r="T11" s="1">
         <v>0</v>
       </c>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>32</v>
@@ -2303,10 +2314,10 @@
         <v>34</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H12" s="2">
         <v>4</v>
@@ -2341,7 +2352,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>32</v>
@@ -2353,10 +2364,10 @@
         <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H13" s="2">
         <v>1.2</v>
@@ -2391,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>32</v>
@@ -2403,10 +2414,10 @@
         <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H14" s="2">
         <v>6.5</v>
@@ -2441,7 +2452,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>32</v>
@@ -2450,13 +2461,13 @@
         <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="H15" s="2">
         <v>5</v>
@@ -2478,7 +2489,7 @@
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -2492,7 +2503,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>32</v>
@@ -2501,13 +2512,13 @@
         <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="H16" s="2">
         <v>2</v>
@@ -2529,7 +2540,7 @@
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -2543,7 +2554,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>32</v>
@@ -2552,13 +2563,13 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>165</v>
       </c>
       <c r="H17" s="2">
         <v>8</v>
@@ -2580,7 +2591,7 @@
       </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
@@ -2591,10 +2602,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="J20" s="2">
         <v>0</v>
@@ -2605,10 +2616,10 @@
     </row>
     <row r="21" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -2619,10 +2630,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -2633,10 +2644,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -2650,10 +2661,10 @@
         <v>1001</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>30</v>
@@ -2667,10 +2678,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="K25" s="2">
         <v>9</v>
@@ -2678,10 +2689,10 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -2692,10 +2703,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -2706,10 +2717,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>63</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -2723,10 +2734,10 @@
         <v>1002</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>30</v>
@@ -2746,10 +2757,10 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -2763,13 +2774,13 @@
         <v>1004</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>70</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31" s="2">
         <v>10</v>
@@ -2786,10 +2797,10 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="J32" s="2">
         <v>1</v>
@@ -2803,10 +2814,10 @@
         <v>1011</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>30</v>
@@ -2836,10 +2847,10 @@
         <v>1012</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>33</v>
@@ -2862,10 +2873,10 @@
         <v>1013</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>33</v>
@@ -2885,10 +2896,10 @@
         <v>1014</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>33</v>
@@ -2902,10 +2913,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
@@ -2916,7 +2927,7 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C39" s="7"/>
       <c r="J39" s="2">
@@ -2928,10 +2939,10 @@
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -2942,10 +2953,10 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
@@ -2959,10 +2970,10 @@
         <v>1018</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
@@ -2979,10 +2990,10 @@
         <v>1020</v>
       </c>
       <c r="B43" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H43" s="2">
         <v>0.5</v>
@@ -3018,10 +3029,10 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J46" s="2">
         <v>1</v>
@@ -3035,10 +3046,10 @@
         <v>1021</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>30</v>
@@ -3047,7 +3058,7 @@
         <v>34</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H47" s="2">
         <v>1</v>
@@ -3065,12 +3076,12 @@
         <v>10</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -3084,10 +3095,10 @@
         <v>1010</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>30</v>
@@ -3125,10 +3136,10 @@
         <v>1114</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J51" s="2">
         <v>0</v>
@@ -3155,10 +3166,10 @@
         <v>1110</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>38</v>
@@ -3178,10 +3189,10 @@
         <v>1111</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>38</v>
@@ -3201,16 +3212,16 @@
         <v>1112</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H55" s="2">
         <v>0.5</v>
@@ -3230,10 +3241,10 @@
         <v>1113</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>38</v>
@@ -3263,10 +3274,10 @@
         <v>1115</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>38</v>
@@ -3283,10 +3294,10 @@
         <v>1116</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>38</v>
@@ -3331,19 +3342,19 @@
         <v>1117</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H62" s="2">
         <v>0.5</v>
@@ -3365,15 +3376,15 @@
       </c>
       <c r="P62" s="11"/>
       <c r="Q62" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="J63" s="2">
         <v>0</v>
@@ -3384,10 +3395,10 @@
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="J64" s="2">
         <v>0</v>
@@ -3398,10 +3409,10 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="J65" s="2">
         <v>0</v>
@@ -3412,10 +3423,10 @@
     </row>
     <row r="66" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B66" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="J66" s="2">
         <v>0</v>
@@ -3426,10 +3437,10 @@
     </row>
     <row r="67" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>96</v>
       </c>
       <c r="J67" s="2">
         <v>0</v>
@@ -3443,10 +3454,10 @@
         <v>1201</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>38</v>
@@ -3455,7 +3466,7 @@
         <v>39</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H68" s="2">
         <v>1</v>
@@ -3490,10 +3501,10 @@
     </row>
     <row r="71" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B71" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="J71" s="2">
         <v>0</v>
@@ -3504,10 +3515,10 @@
     </row>
     <row r="72" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B72" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="J72" s="2">
         <v>0</v>
@@ -3518,35 +3529,35 @@
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+    </row>
+    <row r="74" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="17">
         <v>102</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="B74" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D74" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J74" s="2">
-        <v>1</v>
-      </c>
-      <c r="M74" s="2">
+      <c r="J74" s="17">
+        <v>1</v>
+      </c>
+      <c r="M74" s="17">
         <v>3</v>
       </c>
-      <c r="R74" s="2">
-        <v>1</v>
-      </c>
-      <c r="T74" s="2">
+      <c r="R74" s="17">
+        <v>1</v>
+      </c>
+      <c r="T74" s="17">
         <v>9</v>
       </c>
     </row>
@@ -3556,66 +3567,66 @@
     </row>
     <row r="76" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B76" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B77" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B78" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B79" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B80" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B81" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B82" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B83" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H83" s="2">
         <v>0.5</v>
@@ -3623,39 +3634,39 @@
     </row>
     <row r="84" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B84" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B85" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B86" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="47.25" x14ac:dyDescent="0.2">
       <c r="B87" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B88" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H88" s="2">
         <v>1</v>
@@ -3666,18 +3677,18 @@
     </row>
     <row r="90" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B90" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B91" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
@@ -3686,26 +3697,26 @@
     </row>
     <row r="93" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B93" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B94" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B95" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.2">
@@ -3717,10 +3728,10 @@
         <v>1410</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>38</v>
@@ -3749,10 +3760,10 @@
         <v>1411</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>38</v>
@@ -3776,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="Q98" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R98" s="2">
         <v>1</v>
@@ -3790,22 +3801,22 @@
         <v>1412</v>
       </c>
       <c r="B99" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E99" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F99" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F99" s="12" t="s">
+      <c r="G99" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="H99" s="2">
         <v>2</v>
@@ -3828,7 +3839,7 @@
       </c>
       <c r="P99" s="11"/>
       <c r="Q99" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T99" s="2">
         <v>5</v>
@@ -3836,50 +3847,50 @@
     </row>
     <row r="100" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B100" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B101" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B102" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>182</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B104" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B105" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="H105" s="2">
         <v>5</v>
@@ -3890,10 +3901,10 @@
     </row>
     <row r="106" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B106" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H106" s="2">
         <v>1.5</v>
@@ -3901,18 +3912,18 @@
     </row>
     <row r="107" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B107" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B108" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.2">
@@ -3920,79 +3931,79 @@
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B111" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D111" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B112" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D113" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C07C605-96EB-49C2-BC95-9346C45B5746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A944A3-9E24-41BB-842B-5F753DB30345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="263">
   <si>
     <t>技能ID</t>
   </si>
@@ -1161,14 +1161,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>治疗技能？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ifHeal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>抽牌攻击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1178,6 +1170,22 @@
   </si>
   <si>
     <t>普通攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗数值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifSeep</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1630,13 +1638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X120"/>
+  <dimension ref="A1:Y120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1659,7 +1667,7 @@
     <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1694,7 +1702,7 @@
         <v>249</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>7</v>
@@ -1732,8 +1740,11 @@
       <c r="X1" s="11" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y1" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1768,7 +1779,7 @@
         <v>241</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>21</v>
@@ -1806,8 +1817,11 @@
       <c r="X2" s="11" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y2" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1851,12 +1865,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -1907,12 +1921,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>37</v>
@@ -1966,12 +1980,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>173</v>
@@ -2026,7 +2040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2082,7 +2096,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2138,7 +2152,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2191,7 +2205,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2244,7 +2258,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2297,7 +2311,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2347,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2397,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2447,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2498,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A944A3-9E24-41BB-842B-5F753DB30345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A946C4F-0AA9-492E-80DF-2378AA4635DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="264">
   <si>
     <t>技能ID</t>
   </si>
@@ -1186,6 +1186,10 @@
   </si>
   <si>
     <t>ifSeep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.5;1,0.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1644,7 +1648,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y3" sqref="Y3"/>
+      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1855,8 +1859,8 @@
       <c r="O3" s="2">
         <v>1</v>
       </c>
-      <c r="Q3" s="2">
-        <v>0.5</v>
+      <c r="Q3" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A946C4F-0AA9-492E-80DF-2378AA4635DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F47119-CAF8-47F1-8153-CFA09608247C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,12 +57,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{04BD86D2-3BFF-4049-B54D-D3BADA56C7B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">幻月:
+当技能为召唤物技能时，此项表示召唤物攻击 动作开始到 造成伤害 的 时间延迟
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="273">
   <si>
     <t>技能ID</t>
   </si>
@@ -1192,12 +1218,61 @@
     <t>0.5,0.5;1,0.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤物类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>summonType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤物数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>summonNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣剑攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>召唤一把圣剑,每当你打出攻击牌时，圣剑也会进行一次攻击，造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5点伤害。如果圣剑的攻击杀死了敌人，那么圣剑造成的伤害会永久提升1点。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1265,6 +1340,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1642,13 +1730,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y120"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q6" sqref="Q6"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1668,10 +1756,13 @@
     <col min="18" max="20" width="9" style="2"/>
     <col min="21" max="21" width="23.5" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="22.375" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="2"/>
+    <col min="24" max="26" width="9" style="2"/>
+    <col min="27" max="27" width="12.125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="11.625" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1747,8 +1838,17 @@
       <c r="Y1" s="11" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1824,8 +1924,17 @@
       <c r="Y2" s="11" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z2" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA2" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB2" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1869,7 +1978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1925,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1984,7 +2093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2044,7 +2153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2100,7 +2209,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2156,7 +2265,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2209,7 +2318,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2262,7 +2371,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2315,7 +2424,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2365,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2415,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2465,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2516,7 +2625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2567,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2618,7 +2727,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>21</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>5</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -2632,7 +2796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
@@ -2646,7 +2810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>51</v>
       </c>
@@ -2660,7 +2824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
@@ -2674,7 +2838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1001</v>
       </c>
@@ -2694,7 +2858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
         <v>56</v>
       </c>
@@ -2705,7 +2869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
@@ -2719,7 +2883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
         <v>60</v>
       </c>
@@ -2733,7 +2897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
         <v>62</v>
       </c>
@@ -2747,7 +2911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1002</v>
       </c>
@@ -2773,7 +2937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>66</v>
       </c>
@@ -2787,7 +2951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1004</v>
       </c>
@@ -2813,7 +2977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
         <v>70</v>
       </c>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F47119-CAF8-47F1-8153-CFA09608247C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8096A096-1FBB-4C4C-AB3D-05EA97C247B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="275">
   <si>
     <t>技能ID</t>
   </si>
@@ -1265,6 +1265,14 @@
       </rPr>
       <t>5点伤害。如果圣剑的攻击杀死了敌人，那么圣剑造成的伤害会永久提升1点。</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻滚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">弃2张牌，闪避所有受到的攻击，持续1秒 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1730,13 +1738,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AB121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2783,25 +2791,40 @@
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="2">
+        <v>22</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>4</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1002</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="J21" s="2">
         <v>0</v>
@@ -2810,12 +2833,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -2826,10 +2849,10 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -2839,17 +2862,11 @@
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>1001</v>
-      </c>
       <c r="B24" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -2859,11 +2876,20 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>1001</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
       </c>
       <c r="K25" s="2">
         <v>9</v>
@@ -2871,13 +2897,10 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K26" s="2">
         <v>9</v>
@@ -2885,10 +2908,10 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -2899,10 +2922,10 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -2912,20 +2935,11 @@
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>1002</v>
-      </c>
       <c r="B29" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="2">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -2933,16 +2947,22 @@
       <c r="K29" s="2">
         <v>9</v>
       </c>
-      <c r="N29" s="2">
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2">
         <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -2950,22 +2970,16 @@
       <c r="K30" s="2">
         <v>9</v>
       </c>
+      <c r="N30" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>1004</v>
-      </c>
       <c r="B31" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="2">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -2973,92 +2987,89 @@
       <c r="K31" s="2">
         <v>9</v>
       </c>
-      <c r="N31" s="2">
-        <v>2</v>
-      </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>1004</v>
+      </c>
       <c r="B32" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="2">
+        <v>10</v>
       </c>
       <c r="J32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="N32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>1011</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="2">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0</v>
-      </c>
-      <c r="N33" s="2">
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>1012</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>10</v>
-      </c>
-      <c r="T35" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>33</v>
@@ -3070,18 +3081,21 @@
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="T36" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>33</v>
@@ -3092,40 +3106,49 @@
       <c r="K37" s="2">
         <v>0</v>
       </c>
+      <c r="N37" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>1014</v>
+      </c>
       <c r="B38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="13" t="s">
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="C40" s="7"/>
       <c r="J40" s="2">
         <v>0</v>
       </c>
@@ -3135,61 +3158,64 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B42" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>1018</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>1020</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B44" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H44" s="2">
         <v>0.5</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="J44" s="2">
         <v>1</v>
@@ -3200,181 +3226,169 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B45" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B46" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J45" s="2">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="s">
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B47" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J46" s="2">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>1021</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B48" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-      <c r="M47" s="2">
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
         <v>10</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N48" s="2">
         <v>10</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="Q48" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="7" t="s">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B49" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J48" s="2">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>1010</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C50" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H50" s="2">
         <v>2</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I50" s="2">
         <v>5</v>
       </c>
-      <c r="J49" s="2">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-      <c r="M49" s="2">
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
         <v>10</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N50" s="2">
         <v>-10</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="Q50" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R49" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="R50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>1114</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
-        <v>1</v>
-      </c>
-      <c r="N51" s="2">
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1</v>
+      </c>
+      <c r="N52" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>1110</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>1</v>
-      </c>
-      <c r="N53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
-        <v>1111</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>38</v>
@@ -3386,28 +3400,22 @@
         <v>1</v>
       </c>
       <c r="N54" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G55" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0.5</v>
-      </c>
       <c r="J55" s="2">
         <v>0</v>
       </c>
@@ -3415,32 +3423,48 @@
         <v>1</v>
       </c>
       <c r="N55" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="G56" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.5</v>
+      </c>
       <c r="J56" s="2">
         <v>0</v>
       </c>
       <c r="K56" s="2">
         <v>1</v>
       </c>
+      <c r="N56" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+      <c r="A57" s="2">
+        <v>1113</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="D57" s="2" t="s">
         <v>38</v>
       </c>
@@ -3451,16 +3475,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>1115</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>148</v>
-      </c>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="2" t="s">
         <v>38</v>
       </c>
@@ -3473,13 +3490,13 @@
     </row>
     <row r="59" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>38</v>
@@ -3490,28 +3507,38 @@
       <c r="K59" s="2">
         <v>1</v>
       </c>
-      <c r="N59" s="2">
+    </row>
+    <row r="60" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+      <c r="N60" s="2">
         <v>-1</v>
       </c>
-      <c r="R59" s="2">
-        <v>1</v>
-      </c>
-      <c r="T59" s="2">
+      <c r="R60" s="2">
+        <v>1</v>
+      </c>
+      <c r="T60" s="2">
         <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B60" s="7"/>
-      <c r="J60" s="2">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B61" s="7"/>
-      <c r="C61" s="2"/>
       <c r="J61" s="2">
         <v>0</v>
       </c>
@@ -3519,68 +3546,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B62" s="7"/>
+      <c r="C62" s="2"/>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>1117</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G63" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H63" s="2">
         <v>0.5</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I63" s="2">
         <v>10</v>
       </c>
-      <c r="J62" s="2">
-        <v>1</v>
-      </c>
-      <c r="K62" s="2">
-        <v>1</v>
-      </c>
-      <c r="M62" s="2">
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2">
         <v>50</v>
       </c>
-      <c r="N62" s="2">
-        <v>1</v>
-      </c>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11" t="s">
+      <c r="N63" s="2">
+        <v>1</v>
+      </c>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B63" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="J63" s="2">
-        <v>0</v>
-      </c>
-      <c r="K63" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B64" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>89</v>
+        <v>135</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="J64" s="2">
         <v>0</v>
@@ -3591,24 +3614,24 @@
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B66" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B66" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="J66" s="2">
         <v>0</v>
@@ -3619,50 +3642,54 @@
     </row>
     <row r="67" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B68" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C68" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
         <v>1201</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G69" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H68" s="2">
-        <v>1</v>
-      </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
+      <c r="H69" s="2">
+        <v>1</v>
+      </c>
       <c r="J69" s="2">
         <v>1</v>
       </c>
@@ -3671,25 +3698,21 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B71" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J70" s="2">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B71" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="J71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="2">
         <v>1</v>
@@ -3697,434 +3720,437 @@
     </row>
     <row r="72" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B72" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B73" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J72" s="2">
-        <v>0</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B73" s="8" t="s">
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B74" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="17">
+    <row r="75" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="17">
         <v>102</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B75" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="C75" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D75" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J74" s="17">
-        <v>1</v>
-      </c>
-      <c r="M74" s="17">
+      <c r="J75" s="17">
+        <v>1</v>
+      </c>
+      <c r="M75" s="17">
         <v>3</v>
       </c>
-      <c r="R74" s="17">
-        <v>1</v>
-      </c>
-      <c r="T74" s="17">
+      <c r="R75" s="17">
+        <v>1</v>
+      </c>
+      <c r="T75" s="17">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B76" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>102</v>
-      </c>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
     </row>
     <row r="77" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B77" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B78" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C78" s="14" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B78" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B79" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B80" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B81" s="14" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B82" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>223</v>
+        <v>238</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B83" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="H83" s="2">
-        <v>0.5</v>
+        <v>211</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B84" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>226</v>
+        <v>239</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B85" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>240</v>
+        <v>227</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B86" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B87" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B87" s="14" t="s">
+    <row r="88" spans="2:8" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="B88" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C88" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B88" s="14" t="s">
+    <row r="89" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B89" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C89" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="H88" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C89" s="14"/>
-    </row>
-    <row r="90" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B90" s="14" t="s">
+      <c r="H89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C90" s="14"/>
+    </row>
+    <row r="91" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B91" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C91" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B91" s="14" t="s">
+    <row r="92" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B92" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C92" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-    </row>
     <row r="93" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B93" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>218</v>
-      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
     </row>
     <row r="94" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B94" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B95" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B96" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C96" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-    </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
-        <v>1410</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H97" s="2">
-        <v>10</v>
-      </c>
-      <c r="J97" s="2">
-        <v>0</v>
-      </c>
-      <c r="K97" s="2">
-        <v>3</v>
-      </c>
-      <c r="N97" s="2">
-        <v>1</v>
-      </c>
-      <c r="R97" s="2">
-        <v>1</v>
-      </c>
-      <c r="T97" s="2">
-        <v>1</v>
-      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
     </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H98" s="2">
-        <v>1</v>
-      </c>
-      <c r="I98" s="2">
         <v>10</v>
       </c>
       <c r="J98" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="2">
         <v>3</v>
       </c>
-      <c r="M98" s="2">
-        <v>10</v>
-      </c>
       <c r="N98" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="2" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="R98" s="2">
         <v>1</v>
       </c>
       <c r="T98" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E99" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="H99" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" s="2">
         <v>10</v>
       </c>
-      <c r="J99" s="11">
-        <v>1</v>
-      </c>
-      <c r="K99" s="11">
+      <c r="J99" s="2">
+        <v>1</v>
+      </c>
+      <c r="K99" s="2">
         <v>3</v>
       </c>
-      <c r="L99" s="11"/>
       <c r="M99" s="2">
         <v>10</v>
       </c>
       <c r="N99" s="2">
-        <v>1</v>
-      </c>
-      <c r="P99" s="11"/>
-      <c r="Q99" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R99" s="2">
+        <v>1</v>
+      </c>
+      <c r="T99" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H100" s="2">
+        <v>2</v>
+      </c>
+      <c r="I100" s="2">
+        <v>10</v>
+      </c>
+      <c r="J100" s="11">
+        <v>1</v>
+      </c>
+      <c r="K100" s="11">
+        <v>3</v>
+      </c>
+      <c r="L100" s="11"/>
+      <c r="M100" s="2">
+        <v>10</v>
+      </c>
+      <c r="N100" s="2">
+        <v>1</v>
+      </c>
+      <c r="P100" s="11"/>
+      <c r="Q100" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T99" s="2">
+      <c r="T100" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B100" s="7" t="s">
+    <row r="101" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B101" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C101" s="10" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B101" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B102" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B104" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B105" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H105" s="2">
-        <v>5</v>
-      </c>
-      <c r="I105" s="2">
-        <v>15</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B106" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="H106" s="2">
-        <v>1.5</v>
+        <v>5</v>
+      </c>
+      <c r="I106" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B107" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
+      </c>
+      <c r="H107" s="2">
+        <v>1.5</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B108" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B109" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B109" s="7"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B111" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>106</v>
-      </c>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B110" s="7"/>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B112" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>106</v>
@@ -4132,15 +4158,18 @@
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>109</v>
@@ -4148,31 +4177,31 @@
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>116</v>
@@ -4180,11 +4209,19 @@
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="7" t="s">
-        <v>197</v>
+        <v>117</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" s="7" t="s">
         <v>198</v>
       </c>
     </row>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8096A096-1FBB-4C4C-AB3D-05EA97C247B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F42326-AF8E-4EC7-AECA-E73B2BB9D11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,12 +83,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{0191FF4B-6FAE-4217-A46B-664C9D37C722}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>幻月:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0：攻击牌
+1：防御牌
+2：装备牌
+3：魔法牌</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="276">
   <si>
     <t>技能ID</t>
   </si>
@@ -1251,28 +1278,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>召唤一把圣剑,每当你打出攻击牌时，圣剑也会进行一次攻击，造成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5点伤害。如果圣剑的攻击杀死了敌人，那么圣剑造成的伤害会永久提升1点。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>翻滚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">弃2张牌，闪避所有受到的攻击，持续1秒 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一把圣剑,每当你出牌时,圣剑也会进行一次攻击,造成5点伤害。如果圣剑的攻击杀死了敌人，那么圣剑造成的伤害会永久提升1点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物格挡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1738,13 +1756,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB121"/>
+  <dimension ref="A1:AB122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2754,7 +2772,7 @@
         <v>271</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -2795,10 +2813,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>274</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>38</v>
@@ -2820,25 +2838,32 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="2">
+        <v>23</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="T21" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="J22" s="2">
         <v>0</v>
@@ -2847,12 +2872,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -2863,10 +2888,10 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -2876,17 +2901,11 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>1001</v>
-      </c>
       <c r="B25" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -2896,11 +2915,20 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>1001</v>
+      </c>
       <c r="B26" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
       </c>
       <c r="K26" s="2">
         <v>9</v>
@@ -2908,13 +2936,10 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K27" s="2">
         <v>9</v>
@@ -2922,10 +2947,10 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -2936,10 +2961,10 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -2949,20 +2974,11 @@
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>1002</v>
-      </c>
       <c r="B30" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="2">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -2970,16 +2986,22 @@
       <c r="K30" s="2">
         <v>9</v>
       </c>
-      <c r="N30" s="2">
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="2">
         <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -2987,22 +3009,16 @@
       <c r="K31" s="2">
         <v>9</v>
       </c>
+      <c r="N31" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>1004</v>
-      </c>
       <c r="B32" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="2">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -3010,92 +3026,89 @@
       <c r="K32" s="2">
         <v>9</v>
       </c>
-      <c r="N32" s="2">
-        <v>2</v>
-      </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>1004</v>
+      </c>
       <c r="B33" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="2">
+        <v>10</v>
       </c>
       <c r="J33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="N33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>1011</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-      <c r="N34" s="2">
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>1012</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2">
-        <v>10</v>
-      </c>
-      <c r="T36" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>33</v>
@@ -3107,18 +3120,21 @@
         <v>0</v>
       </c>
       <c r="N37" s="2">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="T37" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>33</v>
@@ -3129,40 +3145,49 @@
       <c r="K38" s="2">
         <v>0</v>
       </c>
+      <c r="N38" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>1014</v>
+      </c>
       <c r="B39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="13" t="s">
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="C41" s="7"/>
       <c r="J41" s="2">
         <v>0</v>
       </c>
@@ -3172,61 +3197,64 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B43" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>1018</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H43" s="2">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>1020</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B45" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H45" s="2">
         <v>0.5</v>
-      </c>
-      <c r="J44" s="2">
-        <v>1</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="J45" s="2">
         <v>1</v>
@@ -3237,181 +3265,169 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B47" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="2">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="7" t="s">
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B48" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>1021</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B49" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-      <c r="M48" s="2">
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="M49" s="2">
         <v>10</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N49" s="2">
         <v>10</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="Q49" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B49" s="7" t="s">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J49" s="2">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>1010</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B51" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C51" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H51" s="2">
         <v>2</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I51" s="2">
         <v>5</v>
       </c>
-      <c r="J50" s="2">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="M50" s="2">
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="M51" s="2">
         <v>10</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N51" s="2">
         <v>-10</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="Q51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="R51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>1114</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B53" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2">
-        <v>1</v>
-      </c>
-      <c r="N52" s="2">
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+      <c r="N53" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>1110</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2">
-        <v>1</v>
-      </c>
-      <c r="N54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>1111</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>38</v>
@@ -3423,28 +3439,22 @@
         <v>1</v>
       </c>
       <c r="N55" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G56" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0.5</v>
-      </c>
       <c r="J56" s="2">
         <v>0</v>
       </c>
@@ -3452,32 +3462,48 @@
         <v>1</v>
       </c>
       <c r="N56" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="G57" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.5</v>
+      </c>
       <c r="J57" s="2">
         <v>0</v>
       </c>
       <c r="K57" s="2">
         <v>1</v>
       </c>
+      <c r="N57" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
+      <c r="A58" s="2">
+        <v>1113</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="D58" s="2" t="s">
         <v>38</v>
       </c>
@@ -3488,16 +3514,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>1115</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>148</v>
-      </c>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="2" t="s">
         <v>38</v>
       </c>
@@ -3510,13 +3529,13 @@
     </row>
     <row r="60" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>38</v>
@@ -3527,28 +3546,38 @@
       <c r="K60" s="2">
         <v>1</v>
       </c>
-      <c r="N60" s="2">
+    </row>
+    <row r="61" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1</v>
+      </c>
+      <c r="N61" s="2">
         <v>-1</v>
       </c>
-      <c r="R60" s="2">
-        <v>1</v>
-      </c>
-      <c r="T60" s="2">
+      <c r="R61" s="2">
+        <v>1</v>
+      </c>
+      <c r="T61" s="2">
         <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B61" s="7"/>
-      <c r="J61" s="2">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B62" s="7"/>
-      <c r="C62" s="2"/>
       <c r="J62" s="2">
         <v>0</v>
       </c>
@@ -3556,68 +3585,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B63" s="7"/>
+      <c r="C63" s="2"/>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
         <v>1117</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G64" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H64" s="2">
         <v>0.5</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I64" s="2">
         <v>10</v>
       </c>
-      <c r="J63" s="2">
-        <v>1</v>
-      </c>
-      <c r="K63" s="2">
-        <v>1</v>
-      </c>
-      <c r="M63" s="2">
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2">
         <v>50</v>
       </c>
-      <c r="N63" s="2">
-        <v>1</v>
-      </c>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11" t="s">
+      <c r="N64" s="2">
+        <v>1</v>
+      </c>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B64" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="J64" s="2">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>89</v>
+        <v>135</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="J65" s="2">
         <v>0</v>
@@ -3628,24 +3653,24 @@
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B67" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="J66" s="2">
-        <v>0</v>
-      </c>
-      <c r="K66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B67" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="J67" s="2">
         <v>0</v>
@@ -3656,50 +3681,54 @@
     </row>
     <row r="68" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B68" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B69" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C69" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J68" s="2">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
         <v>1201</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B70" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C70" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G70" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H69" s="2">
-        <v>1</v>
-      </c>
-      <c r="J69" s="2">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B70" s="8"/>
-      <c r="C70" s="9"/>
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
       <c r="J70" s="2">
         <v>1</v>
       </c>
@@ -3708,25 +3737,21 @@
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
+      <c r="J71" s="2">
+        <v>1</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B72" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J71" s="2">
-        <v>1</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B72" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="J72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="2">
         <v>1</v>
@@ -3734,434 +3759,437 @@
     </row>
     <row r="73" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B74" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J73" s="2">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="8" t="s">
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B75" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="17">
+    <row r="76" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="17">
         <v>102</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B76" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C76" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D76" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J75" s="17">
-        <v>1</v>
-      </c>
-      <c r="M75" s="17">
+      <c r="J76" s="17">
+        <v>1</v>
+      </c>
+      <c r="M76" s="17">
         <v>3</v>
       </c>
-      <c r="R75" s="17">
-        <v>1</v>
-      </c>
-      <c r="T75" s="17">
+      <c r="R76" s="17">
+        <v>1</v>
+      </c>
+      <c r="T76" s="17">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-    </row>
-    <row r="77" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B77" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>102</v>
-      </c>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
     </row>
     <row r="78" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B78" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B79" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="14" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B79" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B80" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B81" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B81" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C81" s="14" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B82" s="14" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B83" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>223</v>
+        <v>238</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B84" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="H84" s="2">
-        <v>0.5</v>
+        <v>211</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B85" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>226</v>
+        <v>239</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B86" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>240</v>
+        <v>227</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B87" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B88" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B88" s="14" t="s">
+    <row r="89" spans="2:8" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="B89" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C89" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B89" s="14" t="s">
+    <row r="90" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B90" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C90" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="H89" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C90" s="14"/>
-    </row>
-    <row r="91" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B91" s="14" t="s">
+      <c r="H90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B92" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C92" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B92" s="14" t="s">
+    <row r="93" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B93" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C93" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-    </row>
     <row r="94" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B94" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>218</v>
-      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
     </row>
     <row r="95" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B95" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B96" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B97" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C96" s="14" t="s">
+      <c r="C97" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-    </row>
     <row r="98" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
-        <v>1410</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C98" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H98" s="2">
-        <v>10</v>
-      </c>
-      <c r="J98" s="2">
-        <v>0</v>
-      </c>
-      <c r="K98" s="2">
-        <v>3</v>
-      </c>
-      <c r="N98" s="2">
-        <v>1</v>
-      </c>
-      <c r="R98" s="2">
-        <v>1</v>
-      </c>
-      <c r="T98" s="2">
-        <v>1</v>
-      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>127</v>
+        <v>120</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H99" s="2">
-        <v>1</v>
-      </c>
-      <c r="I99" s="2">
         <v>10</v>
       </c>
       <c r="J99" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="2">
         <v>3</v>
       </c>
-      <c r="M99" s="2">
-        <v>10</v>
-      </c>
       <c r="N99" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="2" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="R99" s="2">
         <v>1</v>
       </c>
       <c r="T99" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E100" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G100" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="H100" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" s="2">
         <v>10</v>
       </c>
-      <c r="J100" s="11">
-        <v>1</v>
-      </c>
-      <c r="K100" s="11">
+      <c r="J100" s="2">
+        <v>1</v>
+      </c>
+      <c r="K100" s="2">
         <v>3</v>
       </c>
-      <c r="L100" s="11"/>
       <c r="M100" s="2">
         <v>10</v>
       </c>
       <c r="N100" s="2">
-        <v>1</v>
-      </c>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R100" s="2">
+        <v>1</v>
+      </c>
+      <c r="T100" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H101" s="2">
+        <v>2</v>
+      </c>
+      <c r="I101" s="2">
+        <v>10</v>
+      </c>
+      <c r="J101" s="11">
+        <v>1</v>
+      </c>
+      <c r="K101" s="11">
+        <v>3</v>
+      </c>
+      <c r="L101" s="11"/>
+      <c r="M101" s="2">
+        <v>10</v>
+      </c>
+      <c r="N101" s="2">
+        <v>1</v>
+      </c>
+      <c r="P101" s="11"/>
+      <c r="Q101" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T100" s="2">
+      <c r="T101" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B101" s="7" t="s">
+    <row r="102" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B102" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C102" s="10" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B102" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B104" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B105" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B106" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H106" s="2">
-        <v>5</v>
-      </c>
-      <c r="I106" s="2">
-        <v>15</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B107" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="H107" s="2">
-        <v>1.5</v>
+        <v>5</v>
+      </c>
+      <c r="I107" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B108" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
+      </c>
+      <c r="H108" s="2">
+        <v>1.5</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B109" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B110" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C110" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B110" s="7"/>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B112" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>106</v>
-      </c>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B111" s="7"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>222</v>
+        <v>105</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>106</v>
@@ -4169,15 +4197,18 @@
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>109</v>
@@ -4185,31 +4216,31 @@
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>116</v>
@@ -4217,11 +4248,19 @@
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="7" t="s">
-        <v>197</v>
+        <v>117</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" s="7" t="s">
         <v>198</v>
       </c>
     </row>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F42326-AF8E-4EC7-AECA-E73B2BB9D11C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19DA8C3-08FA-4842-9C4C-8D66B10ED68F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="279">
   <si>
     <t>技能ID</t>
   </si>
@@ -1291,6 +1291,18 @@
   </si>
   <si>
     <t>怪物格挡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼魔攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤眼魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个眼魔，持续15秒，每2秒进行一次攻击，造成2点伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1756,13 +1768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB122"/>
+  <dimension ref="A1:AB124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2859,39 +2871,79 @@
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>48</v>
+      <c r="A22" s="2">
+        <v>24</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="E22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.25</v>
       </c>
       <c r="J22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>50</v>
+      <c r="A23" s="2">
+        <v>25</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
       </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>4</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -2900,12 +2952,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -2915,17 +2967,11 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>1001</v>
-      </c>
       <c r="B26" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -2936,21 +2982,30 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
       </c>
       <c r="K27" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>1001</v>
+      </c>
       <c r="B28" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -2961,13 +3016,10 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K29" s="2">
         <v>9</v>
@@ -2975,10 +3027,10 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -2988,20 +3040,11 @@
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>1002</v>
-      </c>
       <c r="B31" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="2">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -3009,16 +3052,13 @@
       <c r="K31" s="2">
         <v>9</v>
       </c>
-      <c r="N31" s="2">
-        <v>10</v>
-      </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -3029,16 +3069,16 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2">
         <v>10</v>
@@ -3050,68 +3090,75 @@
         <v>9</v>
       </c>
       <c r="N33" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>1011</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>73</v>
+        <v>1004</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="H35" s="2">
+        <v>10</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
       </c>
       <c r="K35" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N35" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="B36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="J36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
@@ -3122,42 +3169,26 @@
       <c r="N37" s="2">
         <v>10</v>
       </c>
-      <c r="T37" s="2">
-        <v>7</v>
-      </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="J38" s="2">
         <v>0</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
       </c>
-      <c r="N38" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>33</v>
@@ -3168,13 +3199,25 @@
       <c r="K39" s="2">
         <v>0</v>
       </c>
+      <c r="N39" s="2">
+        <v>10</v>
+      </c>
+      <c r="T39" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>1013</v>
+      </c>
       <c r="B40" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -3182,12 +3225,23 @@
       <c r="K40" s="2">
         <v>0</v>
       </c>
+      <c r="N40" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C41" s="7"/>
+      <c r="A41" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J41" s="2">
         <v>0</v>
       </c>
@@ -3197,149 +3251,126 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B43" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B44" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="7" t="s">
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>1018</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H44" s="2">
-        <v>1</v>
-      </c>
-      <c r="J44" s="2">
-        <v>1</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>1020</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B47" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H47" s="2">
         <v>0.5</v>
       </c>
-      <c r="J45" s="2">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="13" t="s">
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B48" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J46" s="2">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="13" t="s">
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B49" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J48" s="2">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>1021</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H49" s="2">
-        <v>1</v>
-      </c>
       <c r="J49" s="2">
         <v>1</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
-      </c>
-      <c r="M49" s="2">
-        <v>10</v>
-      </c>
-      <c r="N49" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
-        <v>82</v>
+        <v>201</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="J50" s="2">
         <v>1</v>
@@ -3350,13 +3381,13 @@
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>118</v>
+        <v>1021</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>30</v>
@@ -3364,11 +3395,11 @@
       <c r="E51" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="F51" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="H51" s="2">
-        <v>2</v>
-      </c>
-      <c r="I51" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
@@ -3380,57 +3411,73 @@
         <v>10</v>
       </c>
       <c r="N51" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B52" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2</v>
+      </c>
+      <c r="I53" s="2">
+        <v>5</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
+        <v>10</v>
+      </c>
+      <c r="N53" s="2">
         <v>-10</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="Q53" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>1114</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>1</v>
-      </c>
-      <c r="N53" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2">
+      <c r="R53" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="J55" s="2">
         <v>0</v>
@@ -3439,51 +3486,32 @@
         <v>1</v>
       </c>
       <c r="N55" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
-        <v>1111</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
       <c r="J56" s="2">
         <v>0</v>
       </c>
       <c r="K56" s="2">
         <v>1</v>
-      </c>
-      <c r="N56" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G57" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H57" s="2">
-        <v>0.5</v>
-      </c>
       <c r="J57" s="2">
         <v>0</v>
       </c>
@@ -3491,18 +3519,18 @@
         <v>1</v>
       </c>
       <c r="N57" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>38</v>
@@ -3513,29 +3541,48 @@
       <c r="K58" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
+      <c r="N58" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>1112</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="D59" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="G59" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.5</v>
+      </c>
       <c r="J59" s="2">
         <v>0</v>
       </c>
       <c r="K59" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="N59" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>38</v>
@@ -3547,16 +3594,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>1116</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>141</v>
-      </c>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="2" t="s">
         <v>38</v>
       </c>
@@ -3566,701 +3606,741 @@
       <c r="K61" s="2">
         <v>1</v>
       </c>
-      <c r="N61" s="2">
+    </row>
+    <row r="62" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>1115</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1</v>
+      </c>
+      <c r="N63" s="2">
         <v>-1</v>
       </c>
-      <c r="R61" s="2">
-        <v>1</v>
-      </c>
-      <c r="T61" s="2">
+      <c r="R63" s="2">
+        <v>1</v>
+      </c>
+      <c r="T63" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B62" s="7"/>
-      <c r="J62" s="2">
-        <v>0</v>
-      </c>
-      <c r="K62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B63" s="7"/>
-      <c r="C63" s="2"/>
-      <c r="J63" s="2">
-        <v>0</v>
-      </c>
-      <c r="K63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B64" s="7"/>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B65" s="7"/>
+      <c r="C65" s="2"/>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>1117</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B66" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E66" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G66" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H66" s="2">
         <v>0.5</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I66" s="2">
         <v>10</v>
       </c>
-      <c r="J64" s="2">
-        <v>1</v>
-      </c>
-      <c r="K64" s="2">
-        <v>1</v>
-      </c>
-      <c r="M64" s="2">
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+      <c r="M66" s="2">
         <v>50</v>
       </c>
-      <c r="N64" s="2">
-        <v>1</v>
-      </c>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11" t="s">
+      <c r="N66" s="2">
+        <v>1</v>
+      </c>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B65" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B66" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J66" s="2">
-        <v>0</v>
-      </c>
-      <c r="K66" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B68" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B69" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B68" s="8" t="s">
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B70" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J68" s="2">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B69" s="8" t="s">
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B71" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J69" s="2">
-        <v>0</v>
-      </c>
-      <c r="K69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
         <v>1201</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G72" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H70" s="2">
-        <v>1</v>
-      </c>
-      <c r="J70" s="2">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B71" s="8"/>
-      <c r="C71" s="9"/>
-      <c r="J71" s="2">
-        <v>1</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B72" s="8" t="s">
+      <c r="H72" s="2">
+        <v>1</v>
+      </c>
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B74" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B73" s="8" t="s">
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B75" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C75" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J73" s="2">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B74" s="8" t="s">
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B76" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J74" s="2">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="8" t="s">
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B77" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="17">
+    <row r="78" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="17">
         <v>102</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B78" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C78" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="D76" s="17" t="s">
+      <c r="D78" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J76" s="17">
-        <v>1</v>
-      </c>
-      <c r="M76" s="17">
+      <c r="J78" s="17">
+        <v>1</v>
+      </c>
+      <c r="M78" s="17">
         <v>3</v>
       </c>
-      <c r="R76" s="17">
-        <v>1</v>
-      </c>
-      <c r="T76" s="17">
+      <c r="R78" s="17">
+        <v>1</v>
+      </c>
+      <c r="T78" s="17">
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-    </row>
-    <row r="78" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B78" s="14" t="s">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+    </row>
+    <row r="80" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B80" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B79" s="14" t="s">
+    <row r="81" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B81" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B80" s="14" t="s">
+    <row r="82" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B82" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C82" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B81" s="14" t="s">
+    <row r="83" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B83" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C83" s="14" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B82" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B84" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>223</v>
+        <v>209</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B85" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="H85" s="2">
-        <v>0.5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B86" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>226</v>
+        <v>211</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B87" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B88" s="14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" ht="47.25" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B89" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>234</v>
+        <v>214</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B90" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="B91" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B92" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C92" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="H90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C91" s="14"/>
-    </row>
-    <row r="92" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B92" s="14" t="s">
+      <c r="H92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C93" s="14"/>
+    </row>
+    <row r="94" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B94" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C94" s="14" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B93" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
     </row>
     <row r="95" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B95" s="14" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B96" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>220</v>
-      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
     </row>
     <row r="97" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B97" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B98" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B99" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C99" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
         <v>1410</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B101" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C101" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H99" s="2">
-        <v>10</v>
-      </c>
-      <c r="J99" s="2">
-        <v>0</v>
-      </c>
-      <c r="K99" s="2">
-        <v>3</v>
-      </c>
-      <c r="N99" s="2">
-        <v>1</v>
-      </c>
-      <c r="R99" s="2">
-        <v>1</v>
-      </c>
-      <c r="T99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
-        <v>1411</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H100" s="2">
-        <v>1</v>
-      </c>
-      <c r="I100" s="2">
-        <v>10</v>
-      </c>
-      <c r="J100" s="2">
-        <v>1</v>
-      </c>
-      <c r="K100" s="2">
-        <v>3</v>
-      </c>
-      <c r="M100" s="2">
-        <v>10</v>
-      </c>
-      <c r="N100" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="R100" s="2">
-        <v>1</v>
-      </c>
-      <c r="T100" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
-        <v>1412</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>179</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="H101" s="2">
+        <v>10</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0</v>
+      </c>
+      <c r="K101" s="2">
+        <v>3</v>
+      </c>
+      <c r="N101" s="2">
+        <v>1</v>
+      </c>
+      <c r="R101" s="2">
+        <v>1</v>
+      </c>
+      <c r="T101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>1411</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H102" s="2">
+        <v>1</v>
+      </c>
+      <c r="I102" s="2">
+        <v>10</v>
+      </c>
+      <c r="J102" s="2">
+        <v>1</v>
+      </c>
+      <c r="K102" s="2">
+        <v>3</v>
+      </c>
+      <c r="M102" s="2">
+        <v>10</v>
+      </c>
+      <c r="N102" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R102" s="2">
+        <v>1</v>
+      </c>
+      <c r="T102" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F101" s="12" t="s">
+      <c r="F103" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G101" s="12" t="s">
+      <c r="G103" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H103" s="2">
         <v>2</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I103" s="2">
         <v>10</v>
       </c>
-      <c r="J101" s="11">
-        <v>1</v>
-      </c>
-      <c r="K101" s="11">
+      <c r="J103" s="11">
+        <v>1</v>
+      </c>
+      <c r="K103" s="11">
         <v>3</v>
       </c>
-      <c r="L101" s="11"/>
-      <c r="M101" s="2">
+      <c r="L103" s="11"/>
+      <c r="M103" s="2">
         <v>10</v>
       </c>
-      <c r="N101" s="2">
-        <v>1</v>
-      </c>
-      <c r="P101" s="11"/>
-      <c r="Q101" s="11" t="s">
+      <c r="N103" s="2">
+        <v>1</v>
+      </c>
+      <c r="P103" s="11"/>
+      <c r="Q103" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T101" s="2">
+      <c r="T103" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B102" s="7" t="s">
+    <row r="104" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B104" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C104" s="10" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B103" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B104" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="105" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B105" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B106" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B107" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H107" s="2">
-        <v>5</v>
-      </c>
-      <c r="I107" s="2">
-        <v>15</v>
+        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B108" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H108" s="2">
-        <v>1.5</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B109" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
+      </c>
+      <c r="H109" s="2">
+        <v>5</v>
+      </c>
+      <c r="I109" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B110" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H110" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B111" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B112" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C112" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B111" s="7"/>
-    </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B113" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B114" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="B113" s="7"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="7" t="s">
-        <v>197</v>
+        <v>115</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" s="7" t="s">
         <v>198</v>
       </c>
     </row>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19DA8C3-08FA-4842-9C4C-8D66B10ED68F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97388DF-86D1-46BC-A305-01B3AB53F844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1771,10 +1771,10 @@
   <dimension ref="A1:AB124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N23" s="2">
         <v>0</v>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97388DF-86D1-46BC-A305-01B3AB53F844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9957AA-4177-4581-ABD9-E09EF098AA7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,12 +110,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{174B9264-2505-4F42-B13F-04B210960C9E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>幻月:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+正数为减少，负数为增加
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="294">
   <si>
     <t>技能ID</t>
   </si>
@@ -1303,6 +1330,79 @@
   </si>
   <si>
     <t>召唤一个眼魔，持续15秒，每2秒进行一次攻击，造成2点伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUSDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUSMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUSHeal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次使用自身伤害改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次使用消耗改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次使用治疗改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气定神闲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15秒内所有卡牌的消耗降低2点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5,1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂热仪式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有仆从的伤害提高2点,攻击速度提升30%,持续10秒.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪耀新星</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有仆从的持续时间延长10秒.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害,每次使用伤害提升1点,消耗降低1点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂风打击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1768,13 +1868,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB124"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1797,10 +1897,13 @@
     <col min="24" max="26" width="9" style="2"/>
     <col min="27" max="27" width="12.125" style="2" customWidth="1"/>
     <col min="28" max="28" width="11.625" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="2"/>
+    <col min="29" max="29" width="19.5" style="2" customWidth="1"/>
+    <col min="30" max="30" width="16" style="2" customWidth="1"/>
+    <col min="31" max="31" width="15.375" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1885,8 +1988,17 @@
       <c r="AB1" s="11" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC1" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1971,8 +2083,17 @@
       <c r="AB2" s="11" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC2" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE2" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2016,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2072,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2131,7 +2252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2191,7 +2312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2247,7 +2368,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2303,7 +2424,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2356,7 +2477,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2409,7 +2530,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2462,7 +2583,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2512,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2562,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2612,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2663,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3899,448 +4020,567 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B80" s="14" t="s">
+    <row r="79" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="17">
+        <v>103</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J79" s="17">
+        <v>1</v>
+      </c>
+      <c r="K79" s="17">
+        <v>3</v>
+      </c>
+      <c r="M79" s="17">
+        <v>2</v>
+      </c>
+      <c r="R79" s="17">
+        <v>1</v>
+      </c>
+      <c r="T79" s="17">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>104</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2">
+        <v>6</v>
+      </c>
+      <c r="R80" s="2">
+        <v>1</v>
+      </c>
+      <c r="T80" s="2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>105</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J81" s="2">
+        <v>1</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
+        <v>3</v>
+      </c>
+      <c r="N81" s="2">
+        <v>2</v>
+      </c>
+      <c r="O81" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC81" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>106</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2">
+        <v>3</v>
+      </c>
+      <c r="M82" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="2">
+        <v>1</v>
+      </c>
+      <c r="T82" s="2">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B83" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C83" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B81" s="14" t="s">
+    <row r="84" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B84" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C84" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B82" s="14" t="s">
+    <row r="85" spans="1:30" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B85" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B83" s="14" t="s">
+    <row r="86" spans="1:30" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B86" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C86" s="14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="84" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B84" s="14" t="s">
+    <row r="87" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B87" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C87" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="85" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B85" s="14" t="s">
+    <row r="88" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B88" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C88" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="86" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B86" s="14" t="s">
+    <row r="89" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B89" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="87" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B87" s="14" t="s">
+    <row r="90" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B90" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C90" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H90" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B88" s="14" t="s">
+    <row r="91" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B91" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C91" s="16" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B89" s="14" t="s">
+    <row r="92" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B92" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C92" s="15" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="90" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B90" s="14" t="s">
+    <row r="93" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B93" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="2:8" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B91" s="14" t="s">
+    <row r="94" spans="1:30" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="B94" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C91" s="14" t="s">
+      <c r="C94" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B92" s="14" t="s">
+    <row r="95" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B95" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C95" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="H92" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C93" s="14"/>
-    </row>
-    <row r="94" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B94" s="14" t="s">
+      <c r="H95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C96" s="14"/>
+    </row>
+    <row r="97" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B97" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C97" s="14" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B95" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-    </row>
-    <row r="97" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B97" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="98" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B98" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+    </row>
+    <row r="100" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B100" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B101" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C101" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B99" s="14" t="s">
+    <row r="102" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B102" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C102" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
         <v>1410</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B104" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C101" s="11" t="s">
+      <c r="C104" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H104" s="2">
         <v>10</v>
       </c>
-      <c r="J101" s="2">
-        <v>0</v>
-      </c>
-      <c r="K101" s="2">
+      <c r="J104" s="2">
+        <v>0</v>
+      </c>
+      <c r="K104" s="2">
         <v>3</v>
       </c>
-      <c r="N101" s="2">
-        <v>1</v>
-      </c>
-      <c r="R101" s="2">
-        <v>1</v>
-      </c>
-      <c r="T101" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
+      <c r="N104" s="2">
+        <v>1</v>
+      </c>
+      <c r="R104" s="2">
+        <v>1</v>
+      </c>
+      <c r="T104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
         <v>1411</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B105" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C105" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H102" s="2">
-        <v>1</v>
-      </c>
-      <c r="I102" s="2">
+      <c r="H105" s="2">
+        <v>1</v>
+      </c>
+      <c r="I105" s="2">
         <v>10</v>
       </c>
-      <c r="J102" s="2">
-        <v>1</v>
-      </c>
-      <c r="K102" s="2">
+      <c r="J105" s="2">
+        <v>1</v>
+      </c>
+      <c r="K105" s="2">
         <v>3</v>
       </c>
-      <c r="M102" s="2">
+      <c r="M105" s="2">
         <v>10</v>
       </c>
-      <c r="N102" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="2" t="s">
+      <c r="N105" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="R102" s="2">
-        <v>1</v>
-      </c>
-      <c r="T102" s="2">
+      <c r="R105" s="2">
+        <v>1</v>
+      </c>
+      <c r="T105" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
+    <row r="106" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
         <v>1412</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B106" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C106" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E103" s="12" t="s">
+      <c r="E106" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F103" s="12" t="s">
+      <c r="F106" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G103" s="12" t="s">
+      <c r="G106" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H106" s="2">
         <v>2</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I106" s="2">
         <v>10</v>
       </c>
-      <c r="J103" s="11">
-        <v>1</v>
-      </c>
-      <c r="K103" s="11">
+      <c r="J106" s="11">
+        <v>1</v>
+      </c>
+      <c r="K106" s="11">
         <v>3</v>
       </c>
-      <c r="L103" s="11"/>
-      <c r="M103" s="2">
+      <c r="L106" s="11"/>
+      <c r="M106" s="2">
         <v>10</v>
       </c>
-      <c r="N103" s="2">
-        <v>1</v>
-      </c>
-      <c r="P103" s="11"/>
-      <c r="Q103" s="11" t="s">
+      <c r="N106" s="2">
+        <v>1</v>
+      </c>
+      <c r="P106" s="11"/>
+      <c r="Q106" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T103" s="2">
+      <c r="T106" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B104" s="7" t="s">
+    <row r="107" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B107" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C107" s="10" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B105" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B106" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B107" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B108" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="109" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B109" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H109" s="2">
-        <v>5</v>
-      </c>
-      <c r="I109" s="2">
-        <v>15</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B110" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H110" s="2">
-        <v>1.5</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B111" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B112" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H112" s="2">
+        <v>5</v>
+      </c>
+      <c r="I112" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B113" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B114" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B115" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C115" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B113" s="7"/>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B115" s="7" t="s">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="7"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B118" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D118" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B116" s="7" t="s">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C119" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D119" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B117" s="7" t="s">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B118" s="7" t="s">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B119" s="7" t="s">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D122" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B120" s="7" t="s">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D123" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B121" s="7" t="s">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B124" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B122" s="7" t="s">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B125" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B123" s="7" t="s">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B126" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B124" s="7" t="s">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" s="7" t="s">
         <v>198</v>
       </c>
     </row>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9957AA-4177-4581-ABD9-E09EF098AA7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F8EE0C-9C69-40A3-9162-B4D5AC00F71B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="317">
   <si>
     <t>技能ID</t>
   </si>
@@ -1211,10 +1211,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在2秒内减少受到的所有伤害2点。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>卡牌颜色</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1310,10 +1306,6 @@
   </si>
   <si>
     <t xml:space="preserve">弃2张牌，闪避所有受到的攻击，持续1秒 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤一把圣剑,每当你出牌时,圣剑也会进行一次攻击,造成5点伤害。如果圣剑的攻击杀死了敌人，那么圣剑造成的伤害会永久提升1点。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1390,19 +1382,119 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>闪耀新星</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有仆从的持续时间延长10秒.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>造成{0}点伤害,每次使用伤害提升1点,消耗降低1点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>狂风打击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝爆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本场战斗中所有仆从的持续时间延长10秒.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢弃所有手牌,每丢弃1张便回复1点能量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>质能转换</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小齿轮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补牌数+1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一把圣剑,每当你出牌时,圣剑便会造成5点伤害。如果圣剑的攻击杀死了敌人,那么伤害会永久提升1点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩杀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害,如果杀死了敌人,那么便回复10点生命值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>破釜沉舟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣剑(弃用）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一把圣剑,每当你出牌便会造成5点伤害。如果圣剑杀死了敌人,伤害永久提升1点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一把圣剑,每当你出牌便会造成6点伤害。如果圣剑杀死了敌人,伤害永久提升1点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一把圣剑,每当你出牌便会造成7点伤害。如果圣剑杀死了敌人,伤害永久提升1点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一把圣剑,每当你出牌便会造成8点伤害。如果圣剑杀死了敌人,伤害永久提升1点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一把圣剑,每当你出牌便会造成9点伤害。如果圣剑杀死了敌人,伤害永久提升1点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一把圣剑,每当你出牌便会造成10点伤害。如果圣剑杀死了敌人,伤害永久提升1点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一把圣剑,每当你出牌便会造成11点伤害。如果圣剑杀死了敌人,伤害永久提升1点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一把圣剑,每当你出牌便会造成12点伤害。如果圣剑杀死了敌人,伤害永久提升1点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一把圣剑,每当你出牌便会造成13点伤害。如果圣剑杀死了敌人,伤害永久提升1点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一把圣剑,每当你出牌便会造成14点伤害。如果圣剑杀死了敌人,伤害永久提升1点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一把圣剑,每当你出牌便会造成15点伤害。无法继续强化。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲的持续时间变为永久</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得4点护甲。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得4点护甲并丢弃所有手牌,每丢弃1张便额外获得4点护甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不屈之盾</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1868,20 +1960,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomRight" activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
     <col min="6" max="7" width="21.375" style="2" customWidth="1"/>
@@ -1935,10 +2027,10 @@
         <v>10</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>7</v>
@@ -1965,37 +2057,37 @@
         <v>13</v>
       </c>
       <c r="U1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V1" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="W1" s="11" t="s">
         <v>253</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>254</v>
       </c>
       <c r="X1" s="11" t="s">
         <v>242</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC1" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE1" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -2033,7 +2125,7 @@
         <v>241</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>21</v>
@@ -2060,37 +2152,37 @@
         <v>27</v>
       </c>
       <c r="U2" t="s">
+        <v>250</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="V2" s="11" t="s">
-        <v>252</v>
-      </c>
       <c r="W2" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>243</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AC2" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE2" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2128,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -2137,12 +2229,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -2198,7 +2290,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>37</v>
@@ -2252,12 +2344,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>173</v>
@@ -2312,7 +2404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2368,7 +2460,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2424,7 +2516,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2477,7 +2569,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2530,7 +2622,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2583,7 +2675,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2633,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2683,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2733,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2784,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2835,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2891,7 +2983,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I18" s="2">
         <v>0.5</v>
@@ -2902,10 +2994,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -2914,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
@@ -2946,10 +3038,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>38</v>
@@ -2975,7 +3067,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C21" s="10"/>
       <c r="J21" s="2">
@@ -2996,7 +3088,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C22" s="10"/>
       <c r="E22" s="2" t="s">
@@ -3026,10 +3118,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -3115,7 +3207,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1001</v>
       </c>
@@ -3135,7 +3227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
@@ -3214,7 +3306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
         <v>66</v>
       </c>
@@ -3228,7 +3320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1004</v>
       </c>
@@ -3301,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1012</v>
       </c>
@@ -3327,7 +3419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1013</v>
       </c>
@@ -3350,7 +3442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1014</v>
       </c>
@@ -3370,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>77</v>
       </c>
@@ -3410,7 +3502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>78</v>
       </c>
@@ -3424,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>1018</v>
       </c>
@@ -3444,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1020</v>
       </c>
@@ -3500,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1021</v>
       </c>
@@ -3643,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1111</v>
       </c>
@@ -3666,7 +3758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1112</v>
       </c>
@@ -3695,7 +3787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1113</v>
       </c>
@@ -3796,7 +3888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1117</v>
       </c>
@@ -3852,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B68" s="7" t="s">
         <v>88</v>
       </c>
@@ -3866,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
         <v>90</v>
       </c>
@@ -4002,7 +4094,7 @@
         <v>247</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>38</v>
@@ -4011,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="M78" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R78" s="17">
         <v>1</v>
@@ -4025,10 +4117,10 @@
         <v>103</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>38</v>
@@ -4049,15 +4141,15 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>104</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>30</v>
@@ -4078,15 +4170,15 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>105</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>38</v>
@@ -4107,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="Q81" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AC81" s="2">
         <v>1</v>
@@ -4143,444 +4235,1107 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B83" s="14" t="s">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>107</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J83" s="2">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2">
+        <v>3</v>
+      </c>
+      <c r="M83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="2">
+        <v>1</v>
+      </c>
+      <c r="W83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>108</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1</v>
+      </c>
+      <c r="K84" s="2">
+        <v>2</v>
+      </c>
+      <c r="M84" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="2">
+        <v>1</v>
+      </c>
+      <c r="T84" s="2">
+        <v>1007</v>
+      </c>
+      <c r="U84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>109</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="J85" s="2">
+        <v>1</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
+        <v>3</v>
+      </c>
+      <c r="N85" s="2">
+        <v>5</v>
+      </c>
+      <c r="O85" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>110</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1</v>
+      </c>
+      <c r="M86" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="2">
+        <v>1</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
+      </c>
+      <c r="W86">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>111</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="2">
+        <v>2</v>
+      </c>
+      <c r="M87" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="2">
+        <v>1</v>
+      </c>
+      <c r="T87" s="2">
+        <v>1010</v>
+      </c>
+      <c r="U87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>200</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H88" s="2">
+        <v>1</v>
+      </c>
+      <c r="J88" s="2">
+        <v>1</v>
+      </c>
+      <c r="K88" s="2">
+        <v>2</v>
+      </c>
+      <c r="L88" s="2">
+        <v>0</v>
+      </c>
+      <c r="M88" s="2">
+        <v>5</v>
+      </c>
+      <c r="N88" s="2">
+        <v>0</v>
+      </c>
+      <c r="R88" s="2">
+        <v>1</v>
+      </c>
+      <c r="T88" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U88">
+        <v>1</v>
+      </c>
+      <c r="X88" s="2">
+        <v>201</v>
+      </c>
+      <c r="AA88" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>201</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H89" s="2">
+        <v>1</v>
+      </c>
+      <c r="J89" s="2">
+        <v>1</v>
+      </c>
+      <c r="K89" s="2">
+        <v>2</v>
+      </c>
+      <c r="L89" s="2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
+        <v>5</v>
+      </c>
+      <c r="N89" s="2">
+        <v>0</v>
+      </c>
+      <c r="R89" s="2">
+        <v>1</v>
+      </c>
+      <c r="T89" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U89">
+        <v>1</v>
+      </c>
+      <c r="X89" s="2">
+        <v>202</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>202</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H90" s="2">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2">
+        <v>2</v>
+      </c>
+      <c r="L90" s="2">
+        <v>0</v>
+      </c>
+      <c r="M90" s="2">
+        <v>5</v>
+      </c>
+      <c r="N90" s="2">
+        <v>0</v>
+      </c>
+      <c r="R90" s="2">
+        <v>1</v>
+      </c>
+      <c r="T90" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U90">
+        <v>1</v>
+      </c>
+      <c r="X90" s="2">
+        <v>203</v>
+      </c>
+      <c r="AA90" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>203</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H91" s="2">
+        <v>1</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1</v>
+      </c>
+      <c r="K91" s="2">
+        <v>2</v>
+      </c>
+      <c r="L91" s="2">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
+        <v>5</v>
+      </c>
+      <c r="N91" s="2">
+        <v>0</v>
+      </c>
+      <c r="R91" s="2">
+        <v>1</v>
+      </c>
+      <c r="T91" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="X91" s="2">
+        <v>204</v>
+      </c>
+      <c r="AA91" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>204</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H92" s="2">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2">
+        <v>1</v>
+      </c>
+      <c r="K92" s="2">
+        <v>2</v>
+      </c>
+      <c r="L92" s="2">
+        <v>0</v>
+      </c>
+      <c r="M92" s="2">
+        <v>5</v>
+      </c>
+      <c r="N92" s="2">
+        <v>0</v>
+      </c>
+      <c r="R92" s="2">
+        <v>1</v>
+      </c>
+      <c r="T92" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U92">
+        <v>1</v>
+      </c>
+      <c r="X92" s="2">
+        <v>205</v>
+      </c>
+      <c r="AA92" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>205</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H93" s="2">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1</v>
+      </c>
+      <c r="K93" s="2">
+        <v>2</v>
+      </c>
+      <c r="L93" s="2">
+        <v>0</v>
+      </c>
+      <c r="M93" s="2">
+        <v>5</v>
+      </c>
+      <c r="N93" s="2">
+        <v>0</v>
+      </c>
+      <c r="R93" s="2">
+        <v>1</v>
+      </c>
+      <c r="T93" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U93">
+        <v>1</v>
+      </c>
+      <c r="X93" s="2">
+        <v>206</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>206</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="H94" s="2">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1</v>
+      </c>
+      <c r="K94" s="2">
+        <v>2</v>
+      </c>
+      <c r="L94" s="2">
+        <v>0</v>
+      </c>
+      <c r="M94" s="2">
+        <v>5</v>
+      </c>
+      <c r="N94" s="2">
+        <v>0</v>
+      </c>
+      <c r="R94" s="2">
+        <v>1</v>
+      </c>
+      <c r="T94" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U94">
+        <v>1</v>
+      </c>
+      <c r="X94" s="2">
+        <v>207</v>
+      </c>
+      <c r="AA94" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>207</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="H95" s="2">
+        <v>1</v>
+      </c>
+      <c r="J95" s="2">
+        <v>1</v>
+      </c>
+      <c r="K95" s="2">
+        <v>2</v>
+      </c>
+      <c r="L95" s="2">
+        <v>0</v>
+      </c>
+      <c r="M95" s="2">
+        <v>5</v>
+      </c>
+      <c r="N95" s="2">
+        <v>0</v>
+      </c>
+      <c r="R95" s="2">
+        <v>1</v>
+      </c>
+      <c r="T95" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U95">
+        <v>1</v>
+      </c>
+      <c r="X95" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA95" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>208</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H96" s="2">
+        <v>1</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2">
+        <v>2</v>
+      </c>
+      <c r="L96" s="2">
+        <v>0</v>
+      </c>
+      <c r="M96" s="2">
+        <v>5</v>
+      </c>
+      <c r="N96" s="2">
+        <v>0</v>
+      </c>
+      <c r="R96" s="2">
+        <v>1</v>
+      </c>
+      <c r="T96" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U96">
+        <v>1</v>
+      </c>
+      <c r="X96" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>209</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H97" s="2">
+        <v>1</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2">
+        <v>2</v>
+      </c>
+      <c r="L97" s="2">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
+        <v>5</v>
+      </c>
+      <c r="N97" s="2">
+        <v>0</v>
+      </c>
+      <c r="R97" s="2">
+        <v>1</v>
+      </c>
+      <c r="T97" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U97">
+        <v>1</v>
+      </c>
+      <c r="X97" s="2">
+        <v>210</v>
+      </c>
+      <c r="AA97" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>210</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H98" s="2">
+        <v>1</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+      <c r="K98" s="2">
+        <v>2</v>
+      </c>
+      <c r="L98" s="2">
+        <v>0</v>
+      </c>
+      <c r="M98" s="2">
+        <v>5</v>
+      </c>
+      <c r="N98" s="2">
+        <v>0</v>
+      </c>
+      <c r="R98" s="2">
+        <v>1</v>
+      </c>
+      <c r="T98" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U98">
+        <v>1</v>
+      </c>
+      <c r="X98" s="2">
+        <v>210</v>
+      </c>
+      <c r="AA98" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B99" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C99" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B84" s="14" t="s">
+    <row r="100" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B100" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C100" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B85" s="14" t="s">
+    <row r="101" spans="1:28" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="B101" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C101" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B86" s="14" t="s">
+    <row r="102" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B102" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C102" s="14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B87" s="14" t="s">
+    <row r="103" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B103" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C103" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B88" s="14" t="s">
+    <row r="104" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B104" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C104" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B89" s="14" t="s">
+    <row r="105" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B105" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C105" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B90" s="14" t="s">
+    <row r="106" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B106" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C106" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H106" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B91" s="14" t="s">
+    <row r="107" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B107" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C107" s="16" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B92" s="14" t="s">
+    <row r="108" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B108" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C108" s="15" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B93" s="14" t="s">
+    <row r="109" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B109" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B94" s="14" t="s">
+    <row r="110" spans="1:28" ht="63" x14ac:dyDescent="0.2">
+      <c r="B110" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C110" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B95" s="14" t="s">
+    <row r="111" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B111" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C111" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="H95" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C96" s="14"/>
-    </row>
-    <row r="97" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B97" s="14" t="s">
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C112" s="14"/>
+    </row>
+    <row r="113" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B113" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C97" s="14" t="s">
+      <c r="C113" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B98" s="14" t="s">
+    <row r="114" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B114" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C98" s="14" t="s">
+      <c r="C114" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-    </row>
-    <row r="100" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B100" s="14" t="s">
+    <row r="115" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+    </row>
+    <row r="116" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B116" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C116" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B101" s="14" t="s">
+    <row r="117" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B117" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C117" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B102" s="14" t="s">
+    <row r="118" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B118" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C118" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
         <v>1410</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B120" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C120" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H120" s="2">
         <v>10</v>
       </c>
-      <c r="J104" s="2">
-        <v>0</v>
-      </c>
-      <c r="K104" s="2">
+      <c r="J120" s="2">
+        <v>0</v>
+      </c>
+      <c r="K120" s="2">
         <v>3</v>
       </c>
-      <c r="N104" s="2">
-        <v>1</v>
-      </c>
-      <c r="R104" s="2">
-        <v>1</v>
-      </c>
-      <c r="T104" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
+      <c r="N120" s="2">
+        <v>1</v>
+      </c>
+      <c r="R120" s="2">
+        <v>1</v>
+      </c>
+      <c r="T120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
         <v>1411</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B121" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C121" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H105" s="2">
-        <v>1</v>
-      </c>
-      <c r="I105" s="2">
+      <c r="H121" s="2">
+        <v>1</v>
+      </c>
+      <c r="I121" s="2">
         <v>10</v>
       </c>
-      <c r="J105" s="2">
-        <v>1</v>
-      </c>
-      <c r="K105" s="2">
+      <c r="J121" s="2">
+        <v>1</v>
+      </c>
+      <c r="K121" s="2">
         <v>3</v>
       </c>
-      <c r="M105" s="2">
+      <c r="M121" s="2">
         <v>10</v>
       </c>
-      <c r="N105" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q105" s="2" t="s">
+      <c r="N121" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="R105" s="2">
-        <v>1</v>
-      </c>
-      <c r="T105" s="2">
+      <c r="R121" s="2">
+        <v>1</v>
+      </c>
+      <c r="T121" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
+    <row r="122" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
         <v>1412</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B122" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C106" s="10" t="s">
+      <c r="C122" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E106" s="12" t="s">
+      <c r="E122" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F106" s="12" t="s">
+      <c r="F122" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G106" s="12" t="s">
+      <c r="G122" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H122" s="2">
         <v>2</v>
       </c>
-      <c r="I106" s="2">
+      <c r="I122" s="2">
         <v>10</v>
       </c>
-      <c r="J106" s="11">
-        <v>1</v>
-      </c>
-      <c r="K106" s="11">
+      <c r="J122" s="11">
+        <v>1</v>
+      </c>
+      <c r="K122" s="11">
         <v>3</v>
       </c>
-      <c r="L106" s="11"/>
-      <c r="M106" s="2">
+      <c r="L122" s="11"/>
+      <c r="M122" s="2">
         <v>10</v>
       </c>
-      <c r="N106" s="2">
-        <v>1</v>
-      </c>
-      <c r="P106" s="11"/>
-      <c r="Q106" s="11" t="s">
+      <c r="N122" s="2">
+        <v>1</v>
+      </c>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T106" s="2">
+      <c r="T122" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B107" s="7" t="s">
+    <row r="123" spans="1:20" ht="57" x14ac:dyDescent="0.2">
+      <c r="B123" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C123" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B108" s="7" t="s">
+    <row r="124" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B124" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C124" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B109" s="7" t="s">
+    <row r="125" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B125" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C125" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B110" s="7" t="s">
+    <row r="126" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B126" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C126" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B111" s="7" t="s">
+    <row r="127" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B127" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C127" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B112" s="7" t="s">
+    <row r="128" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B128" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C128" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H128" s="2">
         <v>5</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I128" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B113" s="7" t="s">
+    <row r="129" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B129" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C129" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H129" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="114" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B114" s="7" t="s">
+    <row r="130" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B130" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C130" s="10" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B115" s="7" t="s">
+    <row r="131" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B131" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B116" s="7"/>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B118" s="7" t="s">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B132" s="7"/>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B134" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D134" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B119" s="7" t="s">
+    <row r="135" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B135" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D135" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B120" s="7" t="s">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B136" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" s="7" t="s">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B137" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B122" s="7" t="s">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B138" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B123" s="7" t="s">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B139" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B124" s="7" t="s">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B140" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B125" s="7" t="s">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B141" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D141" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B126" s="7" t="s">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B142" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B127" s="7" t="s">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B143" s="7" t="s">
         <v>198</v>
       </c>
     </row>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F8EE0C-9C69-40A3-9162-B4D5AC00F71B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532D94DD-9637-4F9E-9C4E-2637E65924F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="319">
   <si>
     <t>技能ID</t>
   </si>
@@ -1495,6 +1495,27 @@
   </si>
   <si>
     <t>不屈之盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补牌治疗效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5,1</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1960,13 +1981,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE143"/>
+  <dimension ref="A1:AE144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M86" sqref="M86"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3152,25 +3173,44 @@
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="2">
+        <v>26</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="G24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="J25" s="2">
         <v>0</v>
@@ -3179,12 +3219,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -3195,10 +3235,10 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -3207,18 +3247,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>1001</v>
-      </c>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -3228,25 +3262,31 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>1001</v>
+      </c>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
       </c>
       <c r="K29" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K30" s="2">
         <v>9</v>
@@ -3254,10 +3294,10 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -3268,10 +3308,10 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -3281,20 +3321,11 @@
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>1002</v>
-      </c>
       <c r="B33" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="2">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -3302,16 +3333,22 @@
       <c r="K33" s="2">
         <v>9</v>
       </c>
-      <c r="N33" s="2">
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="2">
         <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -3319,22 +3356,16 @@
       <c r="K34" s="2">
         <v>9</v>
       </c>
+      <c r="N34" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>1004</v>
-      </c>
       <c r="B35" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" s="2">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -3342,92 +3373,89 @@
       <c r="K35" s="2">
         <v>9</v>
       </c>
-      <c r="N35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>1004</v>
+      </c>
       <c r="B36" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="2">
+        <v>10</v>
       </c>
       <c r="J36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="N36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>1011</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2">
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>1012</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2">
-        <v>10</v>
-      </c>
-      <c r="T39" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>33</v>
@@ -3439,18 +3467,21 @@
         <v>0</v>
       </c>
       <c r="N40" s="2">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="T40" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>33</v>
@@ -3461,104 +3492,116 @@
       <c r="K41" s="2">
         <v>0</v>
       </c>
+      <c r="N41" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="42" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>1014</v>
+      </c>
       <c r="B42" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="13" t="s">
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B44" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="7"/>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B45" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B45" s="7" t="s">
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>1018</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="2">
-        <v>1</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>1020</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B48" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H48" s="2">
         <v>0.5</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="J48" s="2">
         <v>1</v>
@@ -3569,181 +3612,169 @@
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B49" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B50" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J49" s="2">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B50" s="7" t="s">
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B51" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J50" s="2">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>1021</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B52" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H51" s="2">
-        <v>1</v>
-      </c>
-      <c r="J51" s="2">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-      <c r="M51" s="2">
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+      <c r="M52" s="2">
         <v>10</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N52" s="2">
         <v>10</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="Q52" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B52" s="7" t="s">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B53" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J52" s="2">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>1010</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H54" s="2">
         <v>2</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I54" s="2">
         <v>5</v>
       </c>
-      <c r="J53" s="2">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-      <c r="M53" s="2">
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="M54" s="2">
         <v>10</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N54" s="2">
         <v>-10</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="Q54" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="R54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>1114</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
-        <v>1</v>
-      </c>
-      <c r="N55" s="2">
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
+      <c r="N56" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="J56" s="2">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>1110</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>38</v>
-      </c>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
       <c r="J57" s="2">
         <v>0</v>
       </c>
       <c r="K57" s="2">
-        <v>1</v>
-      </c>
-      <c r="N57" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>38</v>
@@ -3755,28 +3786,22 @@
         <v>1</v>
       </c>
       <c r="N58" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G59" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0.5</v>
-      </c>
       <c r="J59" s="2">
         <v>0</v>
       </c>
@@ -3784,32 +3809,48 @@
         <v>1</v>
       </c>
       <c r="N59" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="G60" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0.5</v>
+      </c>
       <c r="J60" s="2">
         <v>0</v>
       </c>
       <c r="K60" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="N60" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>1113</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="D61" s="2" t="s">
         <v>38</v>
       </c>
@@ -3820,16 +3861,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>1115</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>148</v>
-      </c>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="2" t="s">
         <v>38</v>
       </c>
@@ -3842,13 +3876,13 @@
     </row>
     <row r="63" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>38</v>
@@ -3859,28 +3893,38 @@
       <c r="K63" s="2">
         <v>1</v>
       </c>
-      <c r="N63" s="2">
+    </row>
+    <row r="64" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+      <c r="N64" s="2">
         <v>-1</v>
       </c>
-      <c r="R63" s="2">
-        <v>1</v>
-      </c>
-      <c r="T63" s="2">
+      <c r="R64" s="2">
+        <v>1</v>
+      </c>
+      <c r="T64" s="2">
         <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B64" s="7"/>
-      <c r="J64" s="2">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B65" s="7"/>
-      <c r="C65" s="2"/>
       <c r="J65" s="2">
         <v>0</v>
       </c>
@@ -3888,68 +3932,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B66" s="7"/>
+      <c r="C66" s="2"/>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
         <v>1117</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B67" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G67" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H67" s="2">
         <v>0.5</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I67" s="2">
         <v>10</v>
       </c>
-      <c r="J66" s="2">
-        <v>1</v>
-      </c>
-      <c r="K66" s="2">
-        <v>1</v>
-      </c>
-      <c r="M66" s="2">
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2">
         <v>50</v>
       </c>
-      <c r="N66" s="2">
-        <v>1</v>
-      </c>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11" t="s">
+      <c r="N67" s="2">
+        <v>1</v>
+      </c>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B67" s="7" t="s">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B68" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B68" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="J68" s="2">
         <v>0</v>
@@ -3960,24 +4000,24 @@
     </row>
     <row r="69" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B70" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="J69" s="2">
-        <v>0</v>
-      </c>
-      <c r="K69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B70" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="J70" s="2">
         <v>0</v>
@@ -3988,50 +4028,54 @@
     </row>
     <row r="71" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B71" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B72" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C72" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J71" s="2">
-        <v>0</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
         <v>1201</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B73" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G73" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H72" s="2">
-        <v>1</v>
-      </c>
-      <c r="J72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B73" s="8"/>
-      <c r="C73" s="9"/>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
       <c r="J73" s="2">
         <v>1</v>
       </c>
@@ -4040,25 +4084,21 @@
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B75" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J74" s="2">
-        <v>1</v>
-      </c>
-      <c r="K74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B75" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="J75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="2">
         <v>1</v>
@@ -4066,61 +4106,49 @@
     </row>
     <row r="76" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B76" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B77" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J76" s="2">
-        <v>0</v>
-      </c>
-      <c r="K76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="8" t="s">
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B78" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="17">
-        <v>102</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J78" s="17">
-        <v>1</v>
-      </c>
-      <c r="M78" s="17">
-        <v>2</v>
-      </c>
-      <c r="R78" s="17">
-        <v>1</v>
-      </c>
-      <c r="T78" s="17">
-        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="17">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>38</v>
@@ -4128,9 +4156,6 @@
       <c r="J79" s="17">
         <v>1</v>
       </c>
-      <c r="K79" s="17">
-        <v>3</v>
-      </c>
       <c r="M79" s="17">
         <v>2</v>
       </c>
@@ -4138,112 +4163,114 @@
         <v>1</v>
       </c>
       <c r="T79" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="17">
+        <v>103</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J80" s="17">
+        <v>1</v>
+      </c>
+      <c r="K80" s="17">
+        <v>3</v>
+      </c>
+      <c r="M80" s="17">
+        <v>2</v>
+      </c>
+      <c r="R80" s="17">
+        <v>1</v>
+      </c>
+      <c r="T80" s="17">
         <v>1003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
-        <v>104</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J80" s="2">
-        <v>1</v>
-      </c>
-      <c r="K80" s="2">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2">
-        <v>6</v>
-      </c>
-      <c r="R80" s="2">
-        <v>1</v>
-      </c>
-      <c r="T80" s="2">
-        <v>1005</v>
       </c>
     </row>
     <row r="81" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
+        <v>104</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J81" s="2">
+        <v>1</v>
+      </c>
+      <c r="K81" s="2">
+        <v>3</v>
+      </c>
+      <c r="M81" s="2">
+        <v>6</v>
+      </c>
+      <c r="R81" s="2">
+        <v>1</v>
+      </c>
+      <c r="T81" s="2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
         <v>105</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B82" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J81" s="2">
-        <v>1</v>
-      </c>
-      <c r="K81" s="2">
-        <v>0</v>
-      </c>
-      <c r="M81" s="2">
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2">
         <v>3</v>
       </c>
-      <c r="N81" s="2">
+      <c r="N82" s="2">
         <v>2</v>
       </c>
-      <c r="O81" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="11" t="s">
+      <c r="O82" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="AC81" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>106</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="J82" s="2">
-        <v>1</v>
-      </c>
-      <c r="K82" s="2">
-        <v>3</v>
-      </c>
-      <c r="M82" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q82" s="11"/>
-      <c r="R82" s="2">
-        <v>1</v>
-      </c>
-      <c r="T82" s="2">
-        <v>1004</v>
+      <c r="AC82" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD82" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
@@ -4252,147 +4279,141 @@
         <v>3</v>
       </c>
       <c r="M83" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q83" s="11"/>
       <c r="R83" s="2">
         <v>1</v>
       </c>
-      <c r="W83">
-        <v>8</v>
+      <c r="T83" s="2">
+        <v>1004</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J84" s="2">
         <v>1</v>
       </c>
       <c r="K84" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M84" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q84" s="11"/>
       <c r="R84" s="2">
         <v>1</v>
       </c>
-      <c r="T84" s="2">
-        <v>1007</v>
-      </c>
-      <c r="U84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="W84">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
       </c>
       <c r="K85" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M85" s="2">
         <v>3</v>
       </c>
-      <c r="N85" s="2">
-        <v>5</v>
-      </c>
-      <c r="O85" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="11" t="s">
-        <v>300</v>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="2">
+        <v>1</v>
+      </c>
+      <c r="T85" s="2">
+        <v>1007</v>
+      </c>
+      <c r="U85">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
       </c>
       <c r="K86" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" s="2">
         <v>3</v>
       </c>
-      <c r="Q86" s="11"/>
-      <c r="R86" s="2">
-        <v>1</v>
-      </c>
-      <c r="U86">
-        <v>1</v>
-      </c>
-      <c r="W86">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="N86" s="2">
+        <v>5</v>
+      </c>
+      <c r="O86" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
       </c>
       <c r="K87" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M87" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q87" s="11"/>
       <c r="R87" s="2">
         <v>1</v>
       </c>
-      <c r="T87" s="2">
-        <v>1010</v>
-      </c>
       <c r="U87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="W87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>200</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H88" s="2">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
@@ -4400,43 +4421,29 @@
       <c r="K88" s="2">
         <v>2</v>
       </c>
-      <c r="L88" s="2">
-        <v>0</v>
-      </c>
       <c r="M88" s="2">
         <v>5</v>
       </c>
-      <c r="N88" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q88" s="11"/>
       <c r="R88" s="2">
         <v>1</v>
       </c>
       <c r="T88" s="2">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="U88">
-        <v>1</v>
-      </c>
-      <c r="X88" s="2">
-        <v>201</v>
-      </c>
-      <c r="AA88" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB88" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H89" s="2">
         <v>1</v>
@@ -4466,10 +4473,10 @@
         <v>1</v>
       </c>
       <c r="X89" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA89" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB89" s="2">
         <v>1</v>
@@ -4477,13 +4484,13 @@
     </row>
     <row r="90" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H90" s="2">
         <v>1</v>
@@ -4513,10 +4520,10 @@
         <v>1</v>
       </c>
       <c r="X90" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA90" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB90" s="2">
         <v>1</v>
@@ -4524,13 +4531,13 @@
     </row>
     <row r="91" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H91" s="2">
         <v>1</v>
@@ -4560,10 +4567,10 @@
         <v>1</v>
       </c>
       <c r="X91" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA91" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB91" s="2">
         <v>1</v>
@@ -4571,13 +4578,13 @@
     </row>
     <row r="92" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H92" s="2">
         <v>1</v>
@@ -4607,10 +4614,10 @@
         <v>1</v>
       </c>
       <c r="X92" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AA92" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB92" s="2">
         <v>1</v>
@@ -4618,13 +4625,13 @@
     </row>
     <row r="93" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H93" s="2">
         <v>1</v>
@@ -4654,10 +4661,10 @@
         <v>1</v>
       </c>
       <c r="X93" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA93" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB93" s="2">
         <v>1</v>
@@ -4665,13 +4672,13 @@
     </row>
     <row r="94" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H94" s="2">
         <v>1</v>
@@ -4701,10 +4708,10 @@
         <v>1</v>
       </c>
       <c r="X94" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA94" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB94" s="2">
         <v>1</v>
@@ -4712,13 +4719,13 @@
     </row>
     <row r="95" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H95" s="2">
         <v>1</v>
@@ -4748,10 +4755,10 @@
         <v>1</v>
       </c>
       <c r="X95" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA95" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB95" s="2">
         <v>1</v>
@@ -4759,13 +4766,13 @@
     </row>
     <row r="96" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H96" s="2">
         <v>1</v>
@@ -4795,10 +4802,10 @@
         <v>1</v>
       </c>
       <c r="X96" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA96" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB96" s="2">
         <v>1</v>
@@ -4806,13 +4813,13 @@
     </row>
     <row r="97" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H97" s="2">
         <v>1</v>
@@ -4842,10 +4849,10 @@
         <v>1</v>
       </c>
       <c r="X97" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA97" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB97" s="2">
         <v>1</v>
@@ -4853,13 +4860,13 @@
     </row>
     <row r="98" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H98" s="2">
         <v>1</v>
@@ -4892,450 +4899,497 @@
         <v>210</v>
       </c>
       <c r="AA98" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>210</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H99" s="2">
+        <v>1</v>
+      </c>
+      <c r="J99" s="2">
+        <v>1</v>
+      </c>
+      <c r="K99" s="2">
+        <v>2</v>
+      </c>
+      <c r="L99" s="2">
+        <v>0</v>
+      </c>
+      <c r="M99" s="2">
+        <v>5</v>
+      </c>
+      <c r="N99" s="2">
+        <v>0</v>
+      </c>
+      <c r="R99" s="2">
+        <v>1</v>
+      </c>
+      <c r="T99" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U99">
+        <v>1</v>
+      </c>
+      <c r="X99" s="2">
+        <v>210</v>
+      </c>
+      <c r="AA99" s="2">
         <v>12</v>
       </c>
-      <c r="AB98" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B99" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>102</v>
+      <c r="AB99" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B100" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B101" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="14" t="s">
+      <c r="C101" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B101" s="14" t="s">
+    <row r="102" spans="1:28" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="B102" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C102" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B102" s="14" t="s">
+    <row r="103" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B103" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C103" s="14" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B103" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B104" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B105" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C105" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B105" s="14" t="s">
+    <row r="106" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B106" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C106" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B106" s="14" t="s">
+    <row r="107" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B107" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C107" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H107" s="2">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B107" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B108" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B109" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C109" s="15" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B109" s="14" t="s">
+    <row r="110" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B110" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="63" x14ac:dyDescent="0.2">
-      <c r="B110" s="14" t="s">
+    <row r="111" spans="1:28" ht="63" x14ac:dyDescent="0.2">
+      <c r="B111" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C111" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B111" s="14" t="s">
+    <row r="112" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B112" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C112" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="H111" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C112" s="14"/>
-    </row>
-    <row r="113" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B113" s="14" t="s">
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C113" s="14"/>
+    </row>
+    <row r="114" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B114" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C113" s="14" t="s">
+      <c r="C114" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B114" s="14" t="s">
+    <row r="115" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B115" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C115" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-    </row>
-    <row r="116" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B116" s="14" t="s">
+    <row r="116" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+    </row>
+    <row r="117" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B117" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="C117" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B117" s="14" t="s">
+    <row r="118" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B118" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C118" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B118" s="14" t="s">
+    <row r="119" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B119" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C119" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-    </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A120" s="2">
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
         <v>1410</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B121" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C121" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H120" s="2">
-        <v>10</v>
-      </c>
-      <c r="J120" s="2">
-        <v>0</v>
-      </c>
-      <c r="K120" s="2">
-        <v>3</v>
-      </c>
-      <c r="N120" s="2">
-        <v>1</v>
-      </c>
-      <c r="R120" s="2">
-        <v>1</v>
-      </c>
-      <c r="T120" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
-        <v>1411</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H121" s="2">
-        <v>1</v>
-      </c>
-      <c r="I121" s="2">
         <v>10</v>
       </c>
       <c r="J121" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" s="2">
         <v>3</v>
       </c>
-      <c r="M121" s="2">
-        <v>10</v>
-      </c>
       <c r="N121" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="2" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="R121" s="2">
         <v>1</v>
       </c>
       <c r="T121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E122" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="H122" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" s="2">
         <v>10</v>
       </c>
-      <c r="J122" s="11">
-        <v>1</v>
-      </c>
-      <c r="K122" s="11">
+      <c r="J122" s="2">
+        <v>1</v>
+      </c>
+      <c r="K122" s="2">
         <v>3</v>
       </c>
-      <c r="L122" s="11"/>
       <c r="M122" s="2">
         <v>10</v>
       </c>
       <c r="N122" s="2">
-        <v>1</v>
-      </c>
-      <c r="P122" s="11"/>
-      <c r="Q122" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R122" s="2">
+        <v>1</v>
+      </c>
+      <c r="T122" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H123" s="2">
+        <v>2</v>
+      </c>
+      <c r="I123" s="2">
+        <v>10</v>
+      </c>
+      <c r="J123" s="11">
+        <v>1</v>
+      </c>
+      <c r="K123" s="11">
+        <v>3</v>
+      </c>
+      <c r="L123" s="11"/>
+      <c r="M123" s="2">
+        <v>10</v>
+      </c>
+      <c r="N123" s="2">
+        <v>1</v>
+      </c>
+      <c r="P123" s="11"/>
+      <c r="Q123" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T122" s="2">
+      <c r="T123" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="57" x14ac:dyDescent="0.2">
-      <c r="B123" s="7" t="s">
+    <row r="124" spans="1:20" ht="57" x14ac:dyDescent="0.2">
+      <c r="B124" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C124" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B124" s="7" t="s">
+    <row r="125" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B125" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C125" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B125" s="7" t="s">
+    <row r="126" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B126" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C126" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B126" s="7" t="s">
+    <row r="127" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B127" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C127" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B127" s="7" t="s">
+    <row r="128" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B128" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C128" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B128" s="7" t="s">
+    <row r="129" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B129" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C129" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="H128" s="2">
+      <c r="H129" s="2">
         <v>5</v>
       </c>
-      <c r="I128" s="2">
+      <c r="I129" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B129" s="7" t="s">
+    <row r="130" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B130" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C130" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H129" s="2">
+      <c r="H130" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B130" s="7" t="s">
+    <row r="131" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B131" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B131" s="7" t="s">
+    <row r="132" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B132" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C132" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B132" s="7"/>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B134" s="7" t="s">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B133" s="7"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B135" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B135" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B136" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B137" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B137" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B138" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B139" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B139" s="7" t="s">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B140" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B140" s="7" t="s">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B141" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B141" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B142" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B143" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B143" s="7" t="s">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B144" s="7" t="s">
         <v>198</v>
       </c>
     </row>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532D94DD-9637-4F9E-9C4E-2637E65924F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5318EB9B-B7D1-44B3-8722-BBC6F442F99E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,6 +65,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">幻月:
@@ -76,6 +77,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -91,6 +93,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -100,6 +103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -142,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="320">
   <si>
     <t>技能ID</t>
   </si>
@@ -1518,12 +1522,16 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>凸透镜-5点穿透伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1591,19 +1599,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1981,13 +1976,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE144"/>
+  <dimension ref="A1:AE145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3206,25 +3201,37 @@
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="2">
+        <v>27</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>5</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="11"/>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
@@ -3233,12 +3240,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
@@ -3249,10 +3256,10 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -3261,18 +3268,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>1001</v>
-      </c>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -3282,25 +3283,31 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>1001</v>
+      </c>
       <c r="B30" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
       </c>
       <c r="K30" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="K31" s="2">
         <v>9</v>
@@ -3308,10 +3315,10 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -3322,10 +3329,10 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -3335,20 +3342,11 @@
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>1002</v>
-      </c>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="2">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -3356,16 +3354,22 @@
       <c r="K34" s="2">
         <v>9</v>
       </c>
-      <c r="N34" s="2">
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2">
         <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -3373,22 +3377,16 @@
       <c r="K35" s="2">
         <v>9</v>
       </c>
+      <c r="N35" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="36" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>1004</v>
-      </c>
       <c r="B36" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H36" s="2">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -3396,92 +3394,89 @@
       <c r="K36" s="2">
         <v>9</v>
       </c>
-      <c r="N36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>1004</v>
+      </c>
       <c r="B37" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="2">
+        <v>10</v>
       </c>
       <c r="J37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="N37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>1011</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2">
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>1012</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2">
-        <v>10</v>
-      </c>
-      <c r="T40" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>33</v>
@@ -3493,18 +3488,21 @@
         <v>0</v>
       </c>
       <c r="N41" s="2">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="T41" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>33</v>
@@ -3515,289 +3513,289 @@
       <c r="K42" s="2">
         <v>0</v>
       </c>
+      <c r="N42" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="43" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>1014</v>
+      </c>
       <c r="B43" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B44" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="13" t="s">
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B45" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="7" t="s">
+      <c r="C45" s="7"/>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B46" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="s">
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B47" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>1018</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>1020</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B49" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H49" s="2">
         <v>0.5</v>
       </c>
-      <c r="J48" s="2">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B49" s="13" t="s">
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B50" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="2">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B50" s="13" t="s">
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B51" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J50" s="2">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="7" t="s">
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B52" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J51" s="2">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>1021</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B53" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C53" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H52" s="2">
-        <v>1</v>
-      </c>
-      <c r="J52" s="2">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-      <c r="M52" s="2">
+      <c r="H53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="M53" s="2">
         <v>10</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N53" s="2">
         <v>10</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="Q53" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B53" s="7" t="s">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B54" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="J53" s="2">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>1010</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H55" s="2">
         <v>2</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I55" s="2">
         <v>5</v>
       </c>
-      <c r="J54" s="2">
-        <v>1</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-      <c r="M54" s="2">
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="M55" s="2">
         <v>10</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N55" s="2">
         <v>-10</v>
       </c>
-      <c r="Q54" s="2" t="s">
+      <c r="Q55" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R54" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="R55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>1114</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="J56" s="2">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2">
-        <v>1</v>
-      </c>
-      <c r="N56" s="2">
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>1</v>
+      </c>
+      <c r="N57" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="J57" s="2">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>1110</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J58" s="2">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
-        <v>1</v>
-      </c>
-      <c r="N58" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>1111</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>38</v>
@@ -3809,28 +3807,22 @@
         <v>1</v>
       </c>
       <c r="N59" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G60" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H60" s="2">
-        <v>0.5</v>
-      </c>
       <c r="J60" s="2">
         <v>0</v>
       </c>
@@ -3838,32 +3830,48 @@
         <v>1</v>
       </c>
       <c r="N60" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="G61" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0.5</v>
+      </c>
       <c r="J61" s="2">
         <v>0</v>
       </c>
       <c r="K61" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
+      <c r="N61" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>1113</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="D62" s="2" t="s">
         <v>38</v>
       </c>
@@ -3874,16 +3882,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>1115</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>148</v>
-      </c>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="2" t="s">
         <v>38</v>
       </c>
@@ -3894,15 +3895,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>38</v>
@@ -3913,28 +3914,38 @@
       <c r="K64" s="2">
         <v>1</v>
       </c>
-      <c r="N64" s="2">
+    </row>
+    <row r="65" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="N65" s="2">
         <v>-1</v>
       </c>
-      <c r="R64" s="2">
-        <v>1</v>
-      </c>
-      <c r="T64" s="2">
+      <c r="R65" s="2">
+        <v>1</v>
+      </c>
+      <c r="T65" s="2">
         <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B65" s="7"/>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B66" s="7"/>
-      <c r="C66" s="2"/>
       <c r="J66" s="2">
         <v>0</v>
       </c>
@@ -3942,68 +3953,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B67" s="7"/>
+      <c r="C67" s="2"/>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
         <v>1117</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B68" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G67" s="11" t="s">
+      <c r="G68" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H68" s="2">
         <v>0.5</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I68" s="2">
         <v>10</v>
       </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1</v>
-      </c>
-      <c r="M67" s="2">
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+      <c r="M68" s="2">
         <v>50</v>
       </c>
-      <c r="N67" s="2">
-        <v>1</v>
-      </c>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="11" t="s">
+      <c r="N68" s="2">
+        <v>1</v>
+      </c>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B68" s="7" t="s">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B69" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="J68" s="2">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B69" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="J69" s="2">
         <v>0</v>
@@ -4014,24 +4021,24 @@
     </row>
     <row r="70" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B70" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B71" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="J70" s="2">
-        <v>0</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B71" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="J71" s="2">
         <v>0</v>
@@ -4042,50 +4049,54 @@
     </row>
     <row r="72" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B72" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B73" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J72" s="2">
-        <v>0</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
         <v>1201</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B74" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C74" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G73" s="11" t="s">
+      <c r="G74" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H73" s="2">
-        <v>1</v>
-      </c>
-      <c r="J73" s="2">
-        <v>1</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="8"/>
-      <c r="C74" s="9"/>
+      <c r="H74" s="2">
+        <v>1</v>
+      </c>
       <c r="J74" s="2">
         <v>1</v>
       </c>
@@ -4094,25 +4105,21 @@
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="J75" s="2">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B76" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J75" s="2">
-        <v>1</v>
-      </c>
-      <c r="K75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B76" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="J76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="2">
         <v>1</v>
@@ -4120,61 +4127,49 @@
     </row>
     <row r="77" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B78" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J77" s="2">
-        <v>0</v>
-      </c>
-      <c r="K77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B78" s="8" t="s">
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B79" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="17">
-        <v>102</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J79" s="17">
-        <v>1</v>
-      </c>
-      <c r="M79" s="17">
-        <v>2</v>
-      </c>
-      <c r="R79" s="17">
-        <v>1</v>
-      </c>
-      <c r="T79" s="17">
-        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="17">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>38</v>
@@ -4182,9 +4177,6 @@
       <c r="J80" s="17">
         <v>1</v>
       </c>
-      <c r="K80" s="17">
-        <v>3</v>
-      </c>
       <c r="M80" s="17">
         <v>2</v>
       </c>
@@ -4192,112 +4184,114 @@
         <v>1</v>
       </c>
       <c r="T80" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="17">
+        <v>103</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J81" s="17">
+        <v>1</v>
+      </c>
+      <c r="K81" s="17">
+        <v>3</v>
+      </c>
+      <c r="M81" s="17">
+        <v>2</v>
+      </c>
+      <c r="R81" s="17">
+        <v>1</v>
+      </c>
+      <c r="T81" s="17">
         <v>1003</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
-        <v>104</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J81" s="2">
-        <v>1</v>
-      </c>
-      <c r="K81" s="2">
-        <v>3</v>
-      </c>
-      <c r="M81" s="2">
-        <v>6</v>
-      </c>
-      <c r="R81" s="2">
-        <v>1</v>
-      </c>
-      <c r="T81" s="2">
-        <v>1005</v>
       </c>
     </row>
     <row r="82" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
+        <v>104</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2">
+        <v>3</v>
+      </c>
+      <c r="M82" s="2">
+        <v>6</v>
+      </c>
+      <c r="R82" s="2">
+        <v>1</v>
+      </c>
+      <c r="T82" s="2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
         <v>105</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B83" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J82" s="2">
-        <v>1</v>
-      </c>
-      <c r="K82" s="2">
-        <v>0</v>
-      </c>
-      <c r="M82" s="2">
+      <c r="J83" s="2">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2">
+        <v>0</v>
+      </c>
+      <c r="M83" s="2">
         <v>3</v>
       </c>
-      <c r="N82" s="2">
+      <c r="N83" s="2">
         <v>2</v>
       </c>
-      <c r="O82" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="11" t="s">
+      <c r="O83" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="AC82" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>106</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="J83" s="2">
-        <v>1</v>
-      </c>
-      <c r="K83" s="2">
-        <v>3</v>
-      </c>
-      <c r="M83" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q83" s="11"/>
-      <c r="R83" s="2">
-        <v>1</v>
-      </c>
-      <c r="T83" s="2">
-        <v>1004</v>
+      <c r="AC83" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD83" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J84" s="2">
         <v>1</v>
@@ -4306,147 +4300,141 @@
         <v>3</v>
       </c>
       <c r="M84" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q84" s="11"/>
       <c r="R84" s="2">
         <v>1</v>
       </c>
-      <c r="W84">
-        <v>8</v>
+      <c r="T84" s="2">
+        <v>1004</v>
       </c>
     </row>
     <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
       </c>
       <c r="K85" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M85" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="11"/>
       <c r="R85" s="2">
         <v>1</v>
       </c>
-      <c r="T85" s="2">
-        <v>1007</v>
-      </c>
-      <c r="U85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="W85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
       </c>
       <c r="K86" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M86" s="2">
         <v>3</v>
       </c>
-      <c r="N86" s="2">
-        <v>5</v>
-      </c>
-      <c r="O86" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q86" s="11" t="s">
-        <v>300</v>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="2">
+        <v>1</v>
+      </c>
+      <c r="T86" s="2">
+        <v>1007</v>
+      </c>
+      <c r="U86">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
       </c>
       <c r="K87" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87" s="2">
         <v>3</v>
       </c>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="2">
-        <v>1</v>
-      </c>
-      <c r="U87">
-        <v>1</v>
-      </c>
-      <c r="W87">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="N87" s="2">
+        <v>5</v>
+      </c>
+      <c r="O87" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
       </c>
       <c r="K88" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M88" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q88" s="11"/>
       <c r="R88" s="2">
         <v>1</v>
       </c>
-      <c r="T88" s="2">
-        <v>1010</v>
-      </c>
       <c r="U88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="W88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>200</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H89" s="2">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
@@ -4454,43 +4442,29 @@
       <c r="K89" s="2">
         <v>2</v>
       </c>
-      <c r="L89" s="2">
-        <v>0</v>
-      </c>
       <c r="M89" s="2">
         <v>5</v>
       </c>
-      <c r="N89" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q89" s="11"/>
       <c r="R89" s="2">
         <v>1</v>
       </c>
       <c r="T89" s="2">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="U89">
-        <v>1</v>
-      </c>
-      <c r="X89" s="2">
-        <v>201</v>
-      </c>
-      <c r="AA89" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB89" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H90" s="2">
         <v>1</v>
@@ -4520,10 +4494,10 @@
         <v>1</v>
       </c>
       <c r="X90" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA90" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB90" s="2">
         <v>1</v>
@@ -4531,13 +4505,13 @@
     </row>
     <row r="91" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H91" s="2">
         <v>1</v>
@@ -4567,10 +4541,10 @@
         <v>1</v>
       </c>
       <c r="X91" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA91" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB91" s="2">
         <v>1</v>
@@ -4578,13 +4552,13 @@
     </row>
     <row r="92" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H92" s="2">
         <v>1</v>
@@ -4614,10 +4588,10 @@
         <v>1</v>
       </c>
       <c r="X92" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA92" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB92" s="2">
         <v>1</v>
@@ -4625,13 +4599,13 @@
     </row>
     <row r="93" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H93" s="2">
         <v>1</v>
@@ -4661,10 +4635,10 @@
         <v>1</v>
       </c>
       <c r="X93" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AA93" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB93" s="2">
         <v>1</v>
@@ -4672,13 +4646,13 @@
     </row>
     <row r="94" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H94" s="2">
         <v>1</v>
@@ -4708,10 +4682,10 @@
         <v>1</v>
       </c>
       <c r="X94" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA94" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB94" s="2">
         <v>1</v>
@@ -4719,13 +4693,13 @@
     </row>
     <row r="95" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H95" s="2">
         <v>1</v>
@@ -4755,10 +4729,10 @@
         <v>1</v>
       </c>
       <c r="X95" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA95" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB95" s="2">
         <v>1</v>
@@ -4766,13 +4740,13 @@
     </row>
     <row r="96" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H96" s="2">
         <v>1</v>
@@ -4802,10 +4776,10 @@
         <v>1</v>
       </c>
       <c r="X96" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA96" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB96" s="2">
         <v>1</v>
@@ -4813,13 +4787,13 @@
     </row>
     <row r="97" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H97" s="2">
         <v>1</v>
@@ -4849,10 +4823,10 @@
         <v>1</v>
       </c>
       <c r="X97" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA97" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB97" s="2">
         <v>1</v>
@@ -4860,13 +4834,13 @@
     </row>
     <row r="98" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H98" s="2">
         <v>1</v>
@@ -4896,10 +4870,10 @@
         <v>1</v>
       </c>
       <c r="X98" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA98" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB98" s="2">
         <v>1</v>
@@ -4907,13 +4881,13 @@
     </row>
     <row r="99" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H99" s="2">
         <v>1</v>
@@ -4946,406 +4920,445 @@
         <v>210</v>
       </c>
       <c r="AA99" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>210</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H100" s="2">
+        <v>1</v>
+      </c>
+      <c r="J100" s="2">
+        <v>1</v>
+      </c>
+      <c r="K100" s="2">
+        <v>2</v>
+      </c>
+      <c r="L100" s="2">
+        <v>0</v>
+      </c>
+      <c r="M100" s="2">
+        <v>5</v>
+      </c>
+      <c r="N100" s="2">
+        <v>0</v>
+      </c>
+      <c r="R100" s="2">
+        <v>1</v>
+      </c>
+      <c r="T100" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U100">
+        <v>1</v>
+      </c>
+      <c r="X100" s="2">
+        <v>210</v>
+      </c>
+      <c r="AA100" s="2">
         <v>12</v>
       </c>
-      <c r="AB99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B100" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>102</v>
+      <c r="AB100" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B101" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B102" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C101" s="14" t="s">
+      <c r="C102" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B102" s="14" t="s">
+    <row r="103" spans="1:28" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="B103" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C103" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B103" s="14" t="s">
+    <row r="104" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B104" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C104" s="14" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B104" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B105" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B106" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C106" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B106" s="14" t="s">
+    <row r="107" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B107" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C106" s="15" t="s">
+      <c r="C107" s="15" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B107" s="14" t="s">
+    <row r="108" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B108" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C108" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H108" s="2">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B108" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B109" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B110" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C110" s="15" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B110" s="14" t="s">
+    <row r="111" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B111" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="63" x14ac:dyDescent="0.2">
-      <c r="B111" s="14" t="s">
+    <row r="112" spans="1:28" ht="63" x14ac:dyDescent="0.2">
+      <c r="B112" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C112" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B112" s="14" t="s">
+    <row r="113" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B113" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C113" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C113" s="14"/>
-    </row>
-    <row r="114" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B114" s="14" t="s">
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C114" s="14"/>
+    </row>
+    <row r="115" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B115" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C115" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B115" s="14" t="s">
+    <row r="116" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B116" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C116" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-    </row>
-    <row r="117" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B117" s="14" t="s">
+    <row r="117" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+    </row>
+    <row r="118" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B118" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C118" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B118" s="14" t="s">
+    <row r="119" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B119" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C119" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B119" s="14" t="s">
+    <row r="120" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B120" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C120" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-    </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A121" s="2">
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
         <v>1410</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B122" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C122" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H121" s="2">
-        <v>10</v>
-      </c>
-      <c r="J121" s="2">
-        <v>0</v>
-      </c>
-      <c r="K121" s="2">
-        <v>3</v>
-      </c>
-      <c r="N121" s="2">
-        <v>1</v>
-      </c>
-      <c r="R121" s="2">
-        <v>1</v>
-      </c>
-      <c r="T121" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
-        <v>1411</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H122" s="2">
-        <v>1</v>
-      </c>
-      <c r="I122" s="2">
         <v>10</v>
       </c>
       <c r="J122" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122" s="2">
         <v>3</v>
       </c>
-      <c r="M122" s="2">
-        <v>10</v>
-      </c>
       <c r="N122" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q122" s="2" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="R122" s="2">
         <v>1</v>
       </c>
       <c r="T122" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E123" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G123" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="H123" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" s="2">
         <v>10</v>
       </c>
-      <c r="J123" s="11">
-        <v>1</v>
-      </c>
-      <c r="K123" s="11">
+      <c r="J123" s="2">
+        <v>1</v>
+      </c>
+      <c r="K123" s="2">
         <v>3</v>
       </c>
-      <c r="L123" s="11"/>
       <c r="M123" s="2">
         <v>10</v>
       </c>
       <c r="N123" s="2">
-        <v>1</v>
-      </c>
-      <c r="P123" s="11"/>
-      <c r="Q123" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R123" s="2">
+        <v>1</v>
+      </c>
+      <c r="T123" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H124" s="2">
+        <v>2</v>
+      </c>
+      <c r="I124" s="2">
+        <v>10</v>
+      </c>
+      <c r="J124" s="11">
+        <v>1</v>
+      </c>
+      <c r="K124" s="11">
+        <v>3</v>
+      </c>
+      <c r="L124" s="11"/>
+      <c r="M124" s="2">
+        <v>10</v>
+      </c>
+      <c r="N124" s="2">
+        <v>1</v>
+      </c>
+      <c r="P124" s="11"/>
+      <c r="Q124" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="T123" s="2">
+      <c r="T124" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="57" x14ac:dyDescent="0.2">
-      <c r="B124" s="7" t="s">
+    <row r="125" spans="1:20" ht="57" x14ac:dyDescent="0.2">
+      <c r="B125" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C125" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B125" s="7" t="s">
+    <row r="126" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B126" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C126" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B126" s="7" t="s">
+    <row r="127" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B127" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C127" s="10" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B127" s="7" t="s">
+    <row r="128" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B128" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C128" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B128" s="7" t="s">
+    <row r="129" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B129" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C129" s="10" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B129" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H129" s="2">
-        <v>5</v>
-      </c>
-      <c r="I129" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B130" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H130" s="2">
+        <v>5</v>
+      </c>
+      <c r="I130" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B131" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H130" s="2">
+      <c r="H131" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B131" s="7" t="s">
+    <row r="132" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B132" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C132" s="10" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B132" s="7" t="s">
+    <row r="133" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B133" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C133" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B133" s="7"/>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B135" s="7" t="s">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B134" s="7"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B136" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="136" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B136" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C136" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B137" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B138" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>109</v>
@@ -5353,31 +5366,31 @@
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B139" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B140" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B141" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B142" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>116</v>
@@ -5385,11 +5398,19 @@
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B143" s="7" t="s">
-        <v>197</v>
+        <v>117</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B144" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" s="7" t="s">
         <v>198</v>
       </c>
     </row>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5318EB9B-B7D1-44B3-8722-BBC6F442F99E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D1BCF2-4D8F-442D-9758-D8DDA9EB4E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="323">
   <si>
     <t>技能ID</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>火球术</t>
-  </si>
-  <si>
-    <t>消耗{1}点魔力，发射一颗火球，造成{0}点伤害，并生成{2}点魔力</t>
   </si>
   <si>
     <t>icon_skill_fireBall</t>
@@ -1524,6 +1521,22 @@
   </si>
   <si>
     <t>凸透镜-5点穿透伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发1点穿刺伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_fire_fly_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害，并抽2张牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1点伤害并击晕3秒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1976,13 +1989,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE145"/>
+  <dimension ref="A1:AE147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2031,22 +2044,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>7</v>
@@ -2055,10 +2068,10 @@
         <v>8</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>9</v>
@@ -2073,37 +2086,37 @@
         <v>13</v>
       </c>
       <c r="U1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V1" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="W1" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="W1" s="11" t="s">
-        <v>253</v>
-      </c>
       <c r="X1" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Y1" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AC1" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AD1" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>281</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
@@ -2126,22 +2139,22 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>21</v>
@@ -2150,10 +2163,10 @@
         <v>22</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>23</v>
@@ -2168,37 +2181,37 @@
         <v>27</v>
       </c>
       <c r="U2" t="s">
+        <v>249</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="V2" s="11" t="s">
-        <v>251</v>
-      </c>
       <c r="W2" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC2" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD2" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AE2" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="AE2" s="11" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
@@ -2236,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -2250,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>32</v>
@@ -2262,10 +2275,10 @@
         <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H4" s="2">
         <v>0.8</v>
@@ -2289,7 +2302,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -2301,28 +2314,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
@@ -2336,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" s="2">
         <v>3</v>
@@ -2365,22 +2378,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F6" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="H6" s="2">
         <v>3</v>
@@ -2408,7 +2421,7 @@
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -2425,7 +2438,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>32</v>
@@ -2434,13 +2447,13 @@
         <v>33</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
@@ -2481,7 +2494,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>32</v>
@@ -2490,13 +2503,13 @@
         <v>33</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -2537,7 +2550,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
@@ -2546,13 +2559,13 @@
         <v>33</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -2590,7 +2603,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>32</v>
@@ -2599,13 +2612,13 @@
         <v>33</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="H10" s="1">
         <v>5.5</v>
@@ -2643,7 +2656,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>32</v>
@@ -2652,13 +2665,13 @@
         <v>33</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
@@ -2696,7 +2709,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>32</v>
@@ -2708,10 +2721,10 @@
         <v>34</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H12" s="2">
         <v>4</v>
@@ -2746,7 +2759,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>32</v>
@@ -2758,10 +2771,10 @@
         <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H13" s="2">
         <v>1.2</v>
@@ -2796,7 +2809,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>32</v>
@@ -2808,10 +2821,10 @@
         <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H14" s="2">
         <v>6.5</v>
@@ -2846,7 +2859,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>32</v>
@@ -2855,13 +2868,13 @@
         <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F15" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="H15" s="2">
         <v>5</v>
@@ -2883,7 +2896,7 @@
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -2897,7 +2910,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>32</v>
@@ -2906,13 +2919,13 @@
         <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F16" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="H16" s="2">
         <v>2</v>
@@ -2934,7 +2947,7 @@
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -2948,7 +2961,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>32</v>
@@ -2957,13 +2970,13 @@
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>163</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>164</v>
       </c>
       <c r="H17" s="2">
         <v>8</v>
@@ -2985,7 +2998,7 @@
       </c>
       <c r="P17" s="11"/>
       <c r="Q17" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
@@ -2999,7 +3012,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I18" s="2">
         <v>0.5</v>
@@ -3010,10 +3023,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -3054,13 +3067,13 @@
         <v>22</v>
       </c>
       <c r="B20" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>272</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K20" s="2">
         <v>1</v>
@@ -3083,7 +3096,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C21" s="10"/>
       <c r="J21" s="2">
@@ -3104,17 +3117,17 @@
         <v>24</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C22" s="10"/>
       <c r="E22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I22" s="2">
         <v>0.25</v>
@@ -3126,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
@@ -3134,10 +3147,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -3172,11 +3185,11 @@
         <v>26</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C24" s="10"/>
       <c r="G24" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J24" s="2">
         <v>1</v>
@@ -3194,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R24" s="2">
         <v>1</v>
@@ -3205,7 +3218,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C25" s="10"/>
       <c r="G25" s="11"/>
@@ -3227,39 +3240,75 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>48</v>
+      <c r="A26" s="2">
+        <v>28</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="F26" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="J26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>29</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="T27" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="J28" s="2">
         <v>0</v>
@@ -3268,12 +3317,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J29" s="2">
         <v>0</v>
@@ -3282,18 +3331,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>1001</v>
-      </c>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -3302,23 +3345,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0</v>
       </c>
       <c r="K31" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>1001</v>
+      </c>
       <c r="B32" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -3327,15 +3379,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K33" s="2">
         <v>9</v>
@@ -3343,10 +3392,10 @@
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -3356,20 +3405,11 @@
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>1002</v>
-      </c>
       <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H35" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J35" s="2">
         <v>0</v>
@@ -3377,16 +3417,13 @@
       <c r="K35" s="2">
         <v>9</v>
       </c>
-      <c r="N35" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -3395,18 +3432,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H37" s="2">
         <v>10</v>
@@ -3418,18 +3455,18 @@
         <v>9</v>
       </c>
       <c r="N37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2">
         <v>9</v>
@@ -3437,49 +3474,56 @@
     </row>
     <row r="39" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="2">
+        <v>10</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <v>9</v>
+      </c>
+      <c r="N39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>1011</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>1012</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
@@ -3490,42 +3534,26 @@
       <c r="N41" s="2">
         <v>10</v>
       </c>
-      <c r="T41" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
       <c r="J42" s="2">
         <v>0</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
       </c>
-      <c r="N42" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>33</v>
@@ -3536,178 +3564,178 @@
       <c r="K43" s="2">
         <v>0</v>
       </c>
+      <c r="N43" s="2">
+        <v>10</v>
+      </c>
+      <c r="T43" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>1013</v>
+      </c>
       <c r="B44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B47" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B48" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B49" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="J45" s="2">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>1018</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>1018</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="C50" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>1020</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B51" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="H51" s="2">
         <v>0.5</v>
       </c>
-      <c r="J49" s="2">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="13" t="s">
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B52" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J50" s="2">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="13" t="s">
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B53" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J51" s="2">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="J52" s="2">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
-        <v>1021</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H53" s="2">
-        <v>1</v>
-      </c>
       <c r="J53" s="2">
         <v>1</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
-      </c>
-      <c r="M53" s="2">
-        <v>10</v>
-      </c>
-      <c r="N53" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
-        <v>82</v>
+        <v>200</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="J54" s="2">
         <v>1</v>
@@ -3716,15 +3744,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>118</v>
+        <v>1021</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>30</v>
@@ -3732,11 +3760,11 @@
       <c r="E55" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="F55" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="H55" s="2">
-        <v>2</v>
-      </c>
-      <c r="I55" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -3748,109 +3776,106 @@
         <v>10</v>
       </c>
       <c r="N55" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B56" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2</v>
+      </c>
+      <c r="I57" s="2">
+        <v>5</v>
+      </c>
+      <c r="J57" s="2">
+        <v>1</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="M57" s="2">
+        <v>10</v>
+      </c>
+      <c r="N57" s="2">
         <v>-10</v>
       </c>
-      <c r="Q55" s="2" t="s">
+      <c r="Q57" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R55" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>1114</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J57" s="2">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2">
-        <v>1</v>
-      </c>
-      <c r="N57" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="J58" s="2">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
+      <c r="R57" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
+        <v>1114</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
+      <c r="N59" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>1110</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J59" s="2">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2">
-        <v>1</v>
-      </c>
-      <c r="N59" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
-        <v>1111</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60" s="2">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2">
-        <v>1</v>
-      </c>
-      <c r="N60" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>1112</v>
-      </c>
       <c r="B61" s="7" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>146</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0.5</v>
+        <v>37</v>
       </c>
       <c r="J61" s="2">
         <v>0</v>
@@ -3859,21 +3884,21 @@
         <v>1</v>
       </c>
       <c r="N61" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
@@ -3881,417 +3906,405 @@
       <c r="K62" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+      <c r="N62" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>1112</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="D63" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.5</v>
       </c>
       <c r="J63" s="2">
         <v>0</v>
       </c>
       <c r="K63" s="2">
         <v>1</v>
+      </c>
+      <c r="N63" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
+        <v>1113</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
         <v>1115</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B66" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="N67" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R67" s="2">
+        <v>1</v>
+      </c>
+      <c r="T67" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B68" s="7"/>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B69" s="7"/>
+      <c r="C69" s="2"/>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>1117</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="C70" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J64" s="2">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>1116</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="G70" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="2">
+        <v>10</v>
+      </c>
+      <c r="J70" s="2">
+        <v>1</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+      <c r="M70" s="2">
+        <v>50</v>
+      </c>
+      <c r="N70" s="2">
+        <v>1</v>
+      </c>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B71" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B72" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B73" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B74" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B75" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1</v>
-      </c>
-      <c r="N65" s="2">
-        <v>-1</v>
-      </c>
-      <c r="R65" s="2">
-        <v>1</v>
-      </c>
-      <c r="T65" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B66" s="7"/>
-      <c r="J66" s="2">
-        <v>0</v>
-      </c>
-      <c r="K66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B67" s="7"/>
-      <c r="C67" s="2"/>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>1117</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H68" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I68" s="2">
-        <v>10</v>
-      </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1</v>
-      </c>
-      <c r="M68" s="2">
-        <v>50</v>
-      </c>
-      <c r="N68" s="2">
-        <v>1</v>
-      </c>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B69" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="J69" s="2">
-        <v>0</v>
-      </c>
-      <c r="K69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B70" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J70" s="2">
-        <v>0</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B71" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J71" s="2">
-        <v>0</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B72" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J72" s="2">
-        <v>0</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B73" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J73" s="2">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
-        <v>1201</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C74" s="9" t="s">
+      <c r="G76" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B78" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B79" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G74" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="H74" s="2">
-        <v>1</v>
-      </c>
-      <c r="J74" s="2">
-        <v>1</v>
-      </c>
-      <c r="K74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="8"/>
-      <c r="C75" s="9"/>
-      <c r="J75" s="2">
-        <v>1</v>
-      </c>
-      <c r="K75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B76" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J76" s="2">
-        <v>1</v>
-      </c>
-      <c r="K76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B77" s="8" t="s">
+      <c r="C79" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B80" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J77" s="2">
-        <v>0</v>
-      </c>
-      <c r="K77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B78" s="8" t="s">
+      <c r="C80" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J78" s="2">
-        <v>0</v>
-      </c>
-      <c r="K78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B79" s="8" t="s">
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B81" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="17">
+    </row>
+    <row r="82" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="17">
         <v>102</v>
       </c>
-      <c r="B80" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J80" s="17">
-        <v>1</v>
-      </c>
-      <c r="M80" s="17">
+      <c r="B82" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J82" s="17">
+        <v>1</v>
+      </c>
+      <c r="M82" s="17">
         <v>2</v>
       </c>
-      <c r="R80" s="17">
-        <v>1</v>
-      </c>
-      <c r="T80" s="17">
+      <c r="R82" s="17">
+        <v>1</v>
+      </c>
+      <c r="T82" s="17">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="17">
+    <row r="83" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="17">
         <v>103</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B83" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="C83" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C81" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J81" s="17">
-        <v>1</v>
-      </c>
-      <c r="K81" s="17">
+      <c r="D83" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J83" s="17">
+        <v>1</v>
+      </c>
+      <c r="K83" s="17">
         <v>3</v>
       </c>
-      <c r="M81" s="17">
+      <c r="M83" s="17">
         <v>2</v>
       </c>
-      <c r="R81" s="17">
-        <v>1</v>
-      </c>
-      <c r="T81" s="17">
+      <c r="R83" s="17">
+        <v>1</v>
+      </c>
+      <c r="T83" s="17">
         <v>1003</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+    <row r="84" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
         <v>104</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B84" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="J82" s="2">
-        <v>1</v>
-      </c>
-      <c r="K82" s="2">
-        <v>3</v>
-      </c>
-      <c r="M82" s="2">
-        <v>6</v>
-      </c>
-      <c r="R82" s="2">
-        <v>1</v>
-      </c>
-      <c r="T82" s="2">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
-        <v>105</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J83" s="2">
-        <v>1</v>
-      </c>
-      <c r="K83" s="2">
-        <v>0</v>
-      </c>
-      <c r="M83" s="2">
-        <v>3</v>
-      </c>
-      <c r="N83" s="2">
-        <v>2</v>
-      </c>
-      <c r="O83" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AC83" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
-        <v>106</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="J84" s="2">
         <v>1</v>
@@ -4302,115 +4315,120 @@
       <c r="M84" s="2">
         <v>6</v>
       </c>
-      <c r="Q84" s="11"/>
       <c r="R84" s="2">
         <v>1</v>
       </c>
       <c r="T84" s="2">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
       </c>
       <c r="K85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
         <v>3</v>
       </c>
-      <c r="M85" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="11"/>
-      <c r="R85" s="2">
-        <v>1</v>
-      </c>
-      <c r="W85">
-        <v>8</v>
+      <c r="N85" s="2">
+        <v>2</v>
+      </c>
+      <c r="O85" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC85" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD85" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
       </c>
       <c r="K86" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M86" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q86" s="11"/>
       <c r="R86" s="2">
         <v>1</v>
       </c>
       <c r="T86" s="2">
-        <v>1007</v>
-      </c>
-      <c r="U86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
       </c>
       <c r="K87" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M87" s="2">
-        <v>3</v>
-      </c>
-      <c r="N87" s="2">
-        <v>5</v>
-      </c>
-      <c r="O87" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="11"/>
+      <c r="R87" s="2">
+        <v>1</v>
+      </c>
+      <c r="W87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
       </c>
       <c r="K88" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M88" s="2">
         <v>3</v>
@@ -4419,102 +4437,81 @@
       <c r="R88" s="2">
         <v>1</v>
       </c>
+      <c r="T88" s="2">
+        <v>1007</v>
+      </c>
       <c r="U88">
         <v>1</v>
       </c>
-      <c r="W88">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
       </c>
       <c r="K89" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M89" s="2">
+        <v>3</v>
+      </c>
+      <c r="N89" s="2">
         <v>5</v>
       </c>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="2">
-        <v>1</v>
-      </c>
-      <c r="T89" s="2">
-        <v>1010</v>
-      </c>
-      <c r="U89">
-        <v>1</v>
+      <c r="O89" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="11" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>200</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H90" s="2">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
       </c>
       <c r="K90" s="2">
-        <v>2</v>
-      </c>
-      <c r="L90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M90" s="2">
-        <v>5</v>
-      </c>
-      <c r="N90" s="2">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q90" s="11"/>
       <c r="R90" s="2">
         <v>1</v>
       </c>
-      <c r="T90" s="2">
-        <v>1001</v>
-      </c>
       <c r="U90">
         <v>1</v>
       </c>
-      <c r="X90" s="2">
-        <v>201</v>
-      </c>
-      <c r="AA90" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="W90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>201</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="H91" s="2">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="J91" s="2">
         <v>1</v>
@@ -4522,43 +4519,29 @@
       <c r="K91" s="2">
         <v>2</v>
       </c>
-      <c r="L91" s="2">
-        <v>0</v>
-      </c>
       <c r="M91" s="2">
         <v>5</v>
       </c>
-      <c r="N91" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q91" s="11"/>
       <c r="R91" s="2">
         <v>1</v>
       </c>
       <c r="T91" s="2">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="U91">
-        <v>1</v>
-      </c>
-      <c r="X91" s="2">
-        <v>202</v>
-      </c>
-      <c r="AA91" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB91" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H92" s="2">
         <v>1</v>
@@ -4588,10 +4571,10 @@
         <v>1</v>
       </c>
       <c r="X92" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AA92" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB92" s="2">
         <v>1</v>
@@ -4599,13 +4582,13 @@
     </row>
     <row r="93" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H93" s="2">
         <v>1</v>
@@ -4635,10 +4618,10 @@
         <v>1</v>
       </c>
       <c r="X93" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA93" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB93" s="2">
         <v>1</v>
@@ -4646,13 +4629,13 @@
     </row>
     <row r="94" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H94" s="2">
         <v>1</v>
@@ -4682,10 +4665,10 @@
         <v>1</v>
       </c>
       <c r="X94" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AA94" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB94" s="2">
         <v>1</v>
@@ -4693,13 +4676,13 @@
     </row>
     <row r="95" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H95" s="2">
         <v>1</v>
@@ -4729,10 +4712,10 @@
         <v>1</v>
       </c>
       <c r="X95" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AA95" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB95" s="2">
         <v>1</v>
@@ -4740,13 +4723,13 @@
     </row>
     <row r="96" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H96" s="2">
         <v>1</v>
@@ -4776,10 +4759,10 @@
         <v>1</v>
       </c>
       <c r="X96" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AA96" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB96" s="2">
         <v>1</v>
@@ -4787,13 +4770,13 @@
     </row>
     <row r="97" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H97" s="2">
         <v>1</v>
@@ -4823,10 +4806,10 @@
         <v>1</v>
       </c>
       <c r="X97" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AA97" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB97" s="2">
         <v>1</v>
@@ -4834,13 +4817,13 @@
     </row>
     <row r="98" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H98" s="2">
         <v>1</v>
@@ -4870,10 +4853,10 @@
         <v>1</v>
       </c>
       <c r="X98" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AA98" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB98" s="2">
         <v>1</v>
@@ -4881,13 +4864,13 @@
     </row>
     <row r="99" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H99" s="2">
         <v>1</v>
@@ -4917,10 +4900,10 @@
         <v>1</v>
       </c>
       <c r="X99" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AA99" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB99" s="2">
         <v>1</v>
@@ -4928,13 +4911,13 @@
     </row>
     <row r="100" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H100" s="2">
         <v>1</v>
@@ -4964,454 +4947,548 @@
         <v>1</v>
       </c>
       <c r="X100" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA100" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>209</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H101" s="2">
+        <v>1</v>
+      </c>
+      <c r="J101" s="2">
+        <v>1</v>
+      </c>
+      <c r="K101" s="2">
+        <v>2</v>
+      </c>
+      <c r="L101" s="2">
+        <v>0</v>
+      </c>
+      <c r="M101" s="2">
+        <v>5</v>
+      </c>
+      <c r="N101" s="2">
+        <v>0</v>
+      </c>
+      <c r="R101" s="2">
+        <v>1</v>
+      </c>
+      <c r="T101" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="X101" s="2">
         <v>210</v>
       </c>
-      <c r="AA100" s="2">
+      <c r="AA101" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>210</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H102" s="2">
+        <v>1</v>
+      </c>
+      <c r="J102" s="2">
+        <v>1</v>
+      </c>
+      <c r="K102" s="2">
+        <v>2</v>
+      </c>
+      <c r="L102" s="2">
+        <v>0</v>
+      </c>
+      <c r="M102" s="2">
+        <v>5</v>
+      </c>
+      <c r="N102" s="2">
+        <v>0</v>
+      </c>
+      <c r="R102" s="2">
+        <v>1</v>
+      </c>
+      <c r="T102" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="X102" s="2">
+        <v>210</v>
+      </c>
+      <c r="AA102" s="2">
         <v>12</v>
       </c>
-      <c r="AB100" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B101" s="14" t="s">
+      <c r="AB102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B103" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C101" s="14" t="s">
+    </row>
+    <row r="104" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B104" s="14" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="102" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B102" s="14" t="s">
+      <c r="C104" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="B105" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B106" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C102" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B103" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B104" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B105" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="C105" s="14" t="s">
+      <c r="C106" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B106" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B107" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C107" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="14" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B108" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="H108" s="2">
-        <v>0.5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B109" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C109" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B110" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="H110" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B111" s="14" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="110" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B110" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B111" s="14" t="s">
+      <c r="C111" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B112" s="14" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="112" spans="1:28" ht="63" x14ac:dyDescent="0.2">
-      <c r="B112" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>234</v>
+      <c r="C112" s="15" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B113" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" ht="63" x14ac:dyDescent="0.2">
+      <c r="B114" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B115" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C113" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="H113" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C114" s="14"/>
-    </row>
-    <row r="115" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B115" s="14" t="s">
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C116" s="14"/>
+    </row>
+    <row r="117" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B117" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B118" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C115" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B116" s="14" t="s">
+      <c r="C118" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C116" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-    </row>
-    <row r="118" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B118" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>218</v>
-      </c>
     </row>
     <row r="119" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B119" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>220</v>
-      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
     </row>
     <row r="120" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B120" s="14" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B121" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B122" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
         <v>1410</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B124" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H124" s="2">
+        <v>10</v>
+      </c>
+      <c r="J124" s="2">
+        <v>0</v>
+      </c>
+      <c r="K124" s="2">
+        <v>3</v>
+      </c>
+      <c r="N124" s="2">
+        <v>1</v>
+      </c>
+      <c r="R124" s="2">
+        <v>1</v>
+      </c>
+      <c r="T124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>1411</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H125" s="2">
+        <v>1</v>
+      </c>
+      <c r="I125" s="2">
+        <v>10</v>
+      </c>
+      <c r="J125" s="2">
+        <v>1</v>
+      </c>
+      <c r="K125" s="2">
+        <v>3</v>
+      </c>
+      <c r="M125" s="2">
+        <v>10</v>
+      </c>
+      <c r="N125" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C122" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H122" s="2">
-        <v>10</v>
-      </c>
-      <c r="J122" s="2">
-        <v>0</v>
-      </c>
-      <c r="K122" s="2">
-        <v>3</v>
-      </c>
-      <c r="N122" s="2">
-        <v>1</v>
-      </c>
-      <c r="R122" s="2">
-        <v>1</v>
-      </c>
-      <c r="T122" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
-        <v>1411</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H123" s="2">
-        <v>1</v>
-      </c>
-      <c r="I123" s="2">
-        <v>10</v>
-      </c>
-      <c r="J123" s="2">
-        <v>1</v>
-      </c>
-      <c r="K123" s="2">
-        <v>3</v>
-      </c>
-      <c r="M123" s="2">
-        <v>10</v>
-      </c>
-      <c r="N123" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q123" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="R123" s="2">
-        <v>1</v>
-      </c>
-      <c r="T123" s="2">
+      <c r="R125" s="2">
+        <v>1</v>
+      </c>
+      <c r="T125" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
+    <row r="126" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
         <v>1412</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G124" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H124" s="2">
-        <v>2</v>
-      </c>
-      <c r="I124" s="2">
-        <v>10</v>
-      </c>
-      <c r="J124" s="11">
-        <v>1</v>
-      </c>
-      <c r="K124" s="11">
-        <v>3</v>
-      </c>
-      <c r="L124" s="11"/>
-      <c r="M124" s="2">
-        <v>10</v>
-      </c>
-      <c r="N124" s="2">
-        <v>1</v>
-      </c>
-      <c r="P124" s="11"/>
-      <c r="Q124" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="T124" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" ht="57" x14ac:dyDescent="0.2">
-      <c r="B125" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B126" s="7" t="s">
         <v>177</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H126" s="2">
+        <v>2</v>
+      </c>
+      <c r="I126" s="2">
+        <v>10</v>
+      </c>
+      <c r="J126" s="11">
+        <v>1</v>
+      </c>
+      <c r="K126" s="11">
+        <v>3</v>
+      </c>
+      <c r="L126" s="11"/>
+      <c r="M126" s="2">
+        <v>10</v>
+      </c>
+      <c r="N126" s="2">
+        <v>1</v>
+      </c>
+      <c r="P126" s="11"/>
+      <c r="Q126" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="T126" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="57" x14ac:dyDescent="0.2">
       <c r="B127" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B128" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B129" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="130" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B130" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B131" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B132" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C130" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H130" s="2">
+      <c r="H132" s="2">
         <v>5</v>
       </c>
-      <c r="I130" s="2">
+      <c r="I132" s="2">
         <v>15</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B131" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="H131" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B132" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="133" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B133" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C133" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H133" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B134" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B135" s="7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B134" s="7"/>
+      <c r="C135" s="10" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B136" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="137" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B137" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="B136" s="7"/>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B138" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B139" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B140" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B141" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B142" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B143" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B144" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B145" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B146" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B147" s="7" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B145" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D1BCF2-4D8F-442D-9758-D8DDA9EB4E10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565B0E6-3150-470E-9805-FB27D1A589F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="331">
   <si>
     <t>技能ID</t>
   </si>
@@ -1537,6 +1537,38 @@
   </si>
   <si>
     <t>1点伤害并击晕3秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次遗留自身伤害改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次遗留自身消耗改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次遗留自身治疗改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELCDamage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELCMP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELCHeal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点穿透伤害,每当这张牌被&lt;color=red&gt;遗留&lt;/color&gt;,能量消耗就会降低1点。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1989,13 +2021,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE147"/>
+  <dimension ref="A1:AH148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2021,10 +2053,12 @@
     <col min="29" max="29" width="19.5" style="2" customWidth="1"/>
     <col min="30" max="30" width="16" style="2" customWidth="1"/>
     <col min="31" max="31" width="15.375" style="2" customWidth="1"/>
-    <col min="32" max="16384" width="9" style="2"/>
+    <col min="32" max="33" width="19.875" style="2" customWidth="1"/>
+    <col min="34" max="34" width="20.25" style="2" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2118,8 +2152,17 @@
       <c r="AE1" s="11" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF1" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -2213,8 +2256,17 @@
       <c r="AE2" s="11" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF2" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2258,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2314,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2373,7 +2425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2433,7 +2485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2489,7 +2541,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2545,7 +2597,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2598,7 +2650,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2651,7 +2703,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:31" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2704,7 +2756,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2754,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2804,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2854,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2905,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -4768,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>205</v>
       </c>
@@ -4815,7 +4867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>206</v>
       </c>
@@ -4862,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>207</v>
       </c>
@@ -4909,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>208</v>
       </c>
@@ -4956,7 +5008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>209</v>
       </c>
@@ -5003,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>210</v>
       </c>
@@ -5050,400 +5102,424 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B103" s="14" t="s">
+    <row r="103" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>211</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="J103" s="2">
+        <v>1</v>
+      </c>
+      <c r="K103" s="2">
+        <v>1</v>
+      </c>
+      <c r="M103" s="2">
+        <v>10</v>
+      </c>
+      <c r="N103" s="2">
+        <v>10</v>
+      </c>
+      <c r="O103" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y103" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B104" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="14" t="s">
+      <c r="C104" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B104" s="14" t="s">
+    <row r="105" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B105" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C105" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B105" s="14" t="s">
+    <row r="106" spans="1:33" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="B106" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C106" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B106" s="14" t="s">
+    <row r="107" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B107" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="14" t="s">
+      <c r="C107" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B107" s="14" t="s">
+    <row r="108" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B108" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C107" s="14" t="s">
+      <c r="C108" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B108" s="14" t="s">
+    <row r="109" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B109" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C109" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B109" s="14" t="s">
+    <row r="110" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B110" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C110" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B110" s="14" t="s">
+    <row r="111" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B111" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C111" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H111" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="111" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B111" s="14" t="s">
+    <row r="112" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B112" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C112" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B112" s="14" t="s">
+    <row r="113" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B113" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C113" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B113" s="14" t="s">
+    <row r="114" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B114" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="63" x14ac:dyDescent="0.2">
-      <c r="B114" s="14" t="s">
+    <row r="115" spans="1:20" ht="63" x14ac:dyDescent="0.2">
+      <c r="B115" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="C114" s="14" t="s">
+      <c r="C115" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B115" s="14" t="s">
+    <row r="116" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B116" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C116" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C116" s="14"/>
-    </row>
-    <row r="117" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B117" s="14" t="s">
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C117" s="14"/>
+    </row>
+    <row r="118" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B118" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C118" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B118" s="14" t="s">
+    <row r="119" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B119" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C119" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B119" s="14"/>
-      <c r="C119" s="14"/>
-    </row>
-    <row r="120" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B120" s="14" t="s">
+    <row r="120" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+    </row>
+    <row r="121" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B121" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C121" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B121" s="14" t="s">
+    <row r="122" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B122" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C122" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B122" s="14" t="s">
+    <row r="123" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B123" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C123" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-    </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
         <v>1410</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B125" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C124" s="11" t="s">
+      <c r="C125" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H124" s="2">
-        <v>10</v>
-      </c>
-      <c r="J124" s="2">
-        <v>0</v>
-      </c>
-      <c r="K124" s="2">
-        <v>3</v>
-      </c>
-      <c r="N124" s="2">
-        <v>1</v>
-      </c>
-      <c r="R124" s="2">
-        <v>1</v>
-      </c>
-      <c r="T124" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
-        <v>1411</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H125" s="2">
-        <v>1</v>
-      </c>
-      <c r="I125" s="2">
         <v>10</v>
       </c>
       <c r="J125" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" s="2">
         <v>3</v>
       </c>
-      <c r="M125" s="2">
-        <v>10</v>
-      </c>
       <c r="N125" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q125" s="2" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="R125" s="2">
         <v>1</v>
       </c>
       <c r="T125" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E126" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F126" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G126" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="H126" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" s="2">
         <v>10</v>
       </c>
-      <c r="J126" s="11">
-        <v>1</v>
-      </c>
-      <c r="K126" s="11">
+      <c r="J126" s="2">
+        <v>1</v>
+      </c>
+      <c r="K126" s="2">
         <v>3</v>
       </c>
-      <c r="L126" s="11"/>
       <c r="M126" s="2">
         <v>10</v>
       </c>
       <c r="N126" s="2">
-        <v>1</v>
-      </c>
-      <c r="P126" s="11"/>
-      <c r="Q126" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="R126" s="2">
+        <v>1</v>
+      </c>
+      <c r="T126" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H127" s="2">
+        <v>2</v>
+      </c>
+      <c r="I127" s="2">
+        <v>10</v>
+      </c>
+      <c r="J127" s="11">
+        <v>1</v>
+      </c>
+      <c r="K127" s="11">
+        <v>3</v>
+      </c>
+      <c r="L127" s="11"/>
+      <c r="M127" s="2">
+        <v>10</v>
+      </c>
+      <c r="N127" s="2">
+        <v>1</v>
+      </c>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="T126" s="2">
+      <c r="T127" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="57" x14ac:dyDescent="0.2">
-      <c r="B127" s="7" t="s">
+    <row r="128" spans="1:20" ht="57" x14ac:dyDescent="0.2">
+      <c r="B128" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C128" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B128" s="7" t="s">
+    <row r="129" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B129" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C129" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B129" s="7" t="s">
+    <row r="130" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B130" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C130" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B130" s="7" t="s">
+    <row r="131" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B131" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B131" s="7" t="s">
+    <row r="132" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B132" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C132" s="10" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B132" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="H132" s="2">
-        <v>5</v>
-      </c>
-      <c r="I132" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="133" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B133" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H133" s="2">
+        <v>5</v>
+      </c>
+      <c r="I133" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B134" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H133" s="2">
+      <c r="H134" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B134" s="7" t="s">
+    <row r="135" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B135" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B135" s="7" t="s">
+    <row r="136" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B136" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C136" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B136" s="7"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B138" s="7" t="s">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B137" s="7"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B139" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="139" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B139" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B140" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B141" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>108</v>
@@ -5451,31 +5527,31 @@
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B142" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B143" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B144" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>115</v>
@@ -5483,11 +5559,19 @@
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" s="7" t="s">
-        <v>196</v>
+        <v>116</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B148" s="7" t="s">
         <v>197</v>
       </c>
     </row>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A565B0E6-3150-470E-9805-FB27D1A589F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF0AA42-24D2-4B34-BFA8-364131AFCA5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="332">
   <si>
     <t>技能ID</t>
   </si>
@@ -1569,6 +1569,10 @@
   </si>
   <si>
     <t>造成10点穿透伤害,每当这张牌被&lt;color=red&gt;遗留&lt;/color&gt;,能量消耗就会降低1点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2024,10 +2028,10 @@
   <dimension ref="A1:AH148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C103" sqref="C103"/>
+      <selection pane="bottomRight" activeCell="Q103" sqref="Q103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5127,6 +5131,9 @@
       <c r="O103" s="2">
         <v>1</v>
       </c>
+      <c r="Q103" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="Y103" s="2">
         <v>1</v>
       </c>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF0AA42-24D2-4B34-BFA8-364131AFCA5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2179E4F9-832E-4B3B-874B-9D105B5E2E58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="340">
   <si>
     <t>技能ID</t>
   </si>
@@ -1573,6 +1573,38 @@
   </si>
   <si>
     <t>0.5,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果-回复1点能量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果-抽一张牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当成功格挡时，回复1点能量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当成功格挡时，随机从牌堆抽一张牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动能回收器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功格挡时，回复1点能量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>震荡装甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功格挡时，抽1张牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2025,13 +2057,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH148"/>
+  <dimension ref="A1:AH152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q103" sqref="Q103"/>
+      <selection pane="bottomRight" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3360,39 +3392,63 @@
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="A28" s="2">
+        <v>30</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
       <c r="J28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="2">
+        <v>1</v>
+      </c>
+      <c r="S28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>31</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
       <c r="J29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="2">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="J30" s="2">
         <v>0</v>
@@ -3401,12 +3457,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J31" s="2">
         <v>0</v>
@@ -3415,18 +3471,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>1001</v>
-      </c>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -3435,23 +3485,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
       </c>
       <c r="K33" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>1001</v>
+      </c>
       <c r="B34" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -3460,15 +3519,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K35" s="2">
         <v>9</v>
@@ -3476,10 +3532,10 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -3489,20 +3545,11 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>1002</v>
-      </c>
       <c r="B37" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
@@ -3510,16 +3557,13 @@
       <c r="K37" s="2">
         <v>9</v>
       </c>
-      <c r="N37" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
@@ -3528,18 +3572,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H39" s="2">
         <v>10</v>
@@ -3551,18 +3595,18 @@
         <v>9</v>
       </c>
       <c r="N39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J40" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="2">
         <v>9</v>
@@ -3570,49 +3614,56 @@
     </row>
     <row r="41" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="2">
+        <v>10</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>9</v>
+      </c>
+      <c r="N41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>1011</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C43" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>1012</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
@@ -3623,42 +3674,26 @@
       <c r="N43" s="2">
         <v>10</v>
       </c>
-      <c r="T43" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="J44" s="2">
         <v>0</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
       </c>
-      <c r="N44" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>33</v>
@@ -3669,178 +3704,178 @@
       <c r="K45" s="2">
         <v>0</v>
       </c>
+      <c r="N45" s="2">
+        <v>10</v>
+      </c>
+      <c r="T45" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="46" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>1013</v>
+      </c>
       <c r="B46" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B48" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="13" t="s">
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B49" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="7" t="s">
+      <c r="C49" s="7"/>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="7" t="s">
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B51" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>1018</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B52" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H50" s="2">
-        <v>1</v>
-      </c>
-      <c r="J50" s="2">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="H52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>1020</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B53" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H53" s="2">
         <v>0.5</v>
       </c>
-      <c r="J51" s="2">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="13" t="s">
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B54" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J52" s="2">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="13" t="s">
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B55" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J53" s="2">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J54" s="2">
-        <v>1</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>1021</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H55" s="2">
-        <v>1</v>
-      </c>
       <c r="J55" s="2">
         <v>1</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
-      </c>
-      <c r="M55" s="2">
-        <v>10</v>
-      </c>
-      <c r="N55" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
-        <v>81</v>
+        <v>200</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -3849,15 +3884,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>117</v>
+        <v>1021</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>30</v>
@@ -3865,11 +3900,11 @@
       <c r="E57" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="F57" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="H57" s="2">
-        <v>2</v>
-      </c>
-      <c r="I57" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -3881,110 +3916,107 @@
         <v>10</v>
       </c>
       <c r="N57" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B58" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="2">
+        <v>2</v>
+      </c>
+      <c r="I59" s="2">
+        <v>5</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2">
+        <v>10</v>
+      </c>
+      <c r="N59" s="2">
         <v>-10</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="Q59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R57" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
-        <v>1114</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J59" s="2">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2">
-        <v>1</v>
-      </c>
-      <c r="N59" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="J60" s="2">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2">
+      <c r="R59" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
+        <v>1114</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1</v>
+      </c>
+      <c r="N61" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
         <v>1110</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J61" s="2">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
-        <v>1</v>
-      </c>
-      <c r="N61" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
-        <v>1111</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J62" s="2">
-        <v>0</v>
-      </c>
-      <c r="K62" s="2">
-        <v>1</v>
-      </c>
-      <c r="N62" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
-        <v>1112</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G63" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H63" s="2">
-        <v>0.5</v>
-      </c>
       <c r="J63" s="2">
         <v>0</v>
       </c>
@@ -3992,18 +4024,18 @@
         <v>1</v>
       </c>
       <c r="N63" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>37</v>
@@ -4014,29 +4046,48 @@
       <c r="K64" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
+      <c r="N64" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>1112</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="D65" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="G65" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0.5</v>
+      </c>
       <c r="J65" s="2">
         <v>0</v>
       </c>
       <c r="K65" s="2">
         <v>1</v>
+      </c>
+      <c r="N65" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>37</v>
@@ -4048,16 +4099,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>1116</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>140</v>
-      </c>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
@@ -4067,364 +4111,340 @@
       <c r="K67" s="2">
         <v>1</v>
       </c>
-      <c r="N67" s="2">
+    </row>
+    <row r="68" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>1115</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1</v>
+      </c>
+      <c r="N69" s="2">
         <v>-1</v>
       </c>
-      <c r="R67" s="2">
-        <v>1</v>
-      </c>
-      <c r="T67" s="2">
+      <c r="R69" s="2">
+        <v>1</v>
+      </c>
+      <c r="T69" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B68" s="7"/>
-      <c r="J68" s="2">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B69" s="7"/>
-      <c r="C69" s="2"/>
-      <c r="J69" s="2">
-        <v>0</v>
-      </c>
-      <c r="K69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B70" s="7"/>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B71" s="7"/>
+      <c r="C71" s="2"/>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
         <v>1117</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B72" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E72" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G72" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H72" s="2">
         <v>0.5</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I72" s="2">
         <v>10</v>
       </c>
-      <c r="J70" s="2">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-      <c r="M70" s="2">
+      <c r="J72" s="2">
+        <v>1</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+      <c r="M72" s="2">
         <v>50</v>
       </c>
-      <c r="N70" s="2">
-        <v>1</v>
-      </c>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11" t="s">
+      <c r="N72" s="2">
+        <v>1</v>
+      </c>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B71" s="7" t="s">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B73" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="J71" s="2">
-        <v>0</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B72" s="7" t="s">
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B74" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J72" s="2">
-        <v>0</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B73" s="7" t="s">
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B75" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J73" s="2">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B74" s="8" t="s">
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B76" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J74" s="2">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B75" s="8" t="s">
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B77" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J75" s="2">
-        <v>0</v>
-      </c>
-      <c r="K75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
         <v>1201</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B78" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C78" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G76" s="11" t="s">
+      <c r="G78" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H76" s="2">
-        <v>1</v>
-      </c>
-      <c r="J76" s="2">
-        <v>1</v>
-      </c>
-      <c r="K76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="8"/>
-      <c r="C77" s="9"/>
-      <c r="J77" s="2">
-        <v>1</v>
-      </c>
-      <c r="K77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B78" s="8" t="s">
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B80" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J78" s="2">
-        <v>1</v>
-      </c>
-      <c r="K78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B79" s="8" t="s">
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B81" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C81" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J79" s="2">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B80" s="8" t="s">
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B82" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J80" s="2">
-        <v>0</v>
-      </c>
-      <c r="K80" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B81" s="8" t="s">
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B83" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="82" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="17">
+    <row r="84" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="17">
         <v>102</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B84" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C84" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="D82" s="17" t="s">
+      <c r="D84" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J82" s="17">
-        <v>1</v>
-      </c>
-      <c r="M82" s="17">
+      <c r="J84" s="17">
+        <v>1</v>
+      </c>
+      <c r="M84" s="17">
         <v>2</v>
       </c>
-      <c r="R82" s="17">
-        <v>1</v>
-      </c>
-      <c r="T82" s="17">
+      <c r="R84" s="17">
+        <v>1</v>
+      </c>
+      <c r="T84" s="17">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="17">
+    <row r="85" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="17">
         <v>103</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B85" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C85" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="D83" s="17" t="s">
+      <c r="D85" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J83" s="17">
-        <v>1</v>
-      </c>
-      <c r="K83" s="17">
+      <c r="J85" s="17">
+        <v>1</v>
+      </c>
+      <c r="K85" s="17">
         <v>3</v>
       </c>
-      <c r="M83" s="17">
+      <c r="M85" s="17">
         <v>2</v>
       </c>
-      <c r="R83" s="17">
-        <v>1</v>
-      </c>
-      <c r="T83" s="17">
+      <c r="R85" s="17">
+        <v>1</v>
+      </c>
+      <c r="T85" s="17">
         <v>1003</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
+    <row r="86" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
         <v>104</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B86" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C86" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="J84" s="2">
-        <v>1</v>
-      </c>
-      <c r="K84" s="2">
-        <v>3</v>
-      </c>
-      <c r="M84" s="2">
-        <v>6</v>
-      </c>
-      <c r="R84" s="2">
-        <v>1</v>
-      </c>
-      <c r="T84" s="2">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>105</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J85" s="2">
-        <v>1</v>
-      </c>
-      <c r="K85" s="2">
-        <v>0</v>
-      </c>
-      <c r="M85" s="2">
-        <v>3</v>
-      </c>
-      <c r="N85" s="2">
-        <v>2</v>
-      </c>
-      <c r="O85" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC85" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
-        <v>106</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
@@ -4435,115 +4455,120 @@
       <c r="M86" s="2">
         <v>6</v>
       </c>
-      <c r="Q86" s="11"/>
       <c r="R86" s="2">
         <v>1</v>
       </c>
       <c r="T86" s="2">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
       </c>
       <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
         <v>3</v>
       </c>
-      <c r="M87" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="11"/>
-      <c r="R87" s="2">
-        <v>1</v>
-      </c>
-      <c r="W87">
-        <v>8</v>
+      <c r="N87" s="2">
+        <v>2</v>
+      </c>
+      <c r="O87" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC87" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD87" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
       </c>
       <c r="K88" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M88" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q88" s="11"/>
       <c r="R88" s="2">
         <v>1</v>
       </c>
       <c r="T88" s="2">
-        <v>1007</v>
-      </c>
-      <c r="U88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
       </c>
       <c r="K89" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M89" s="2">
-        <v>3</v>
-      </c>
-      <c r="N89" s="2">
-        <v>5</v>
-      </c>
-      <c r="O89" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q89" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="11"/>
+      <c r="R89" s="2">
+        <v>1</v>
+      </c>
+      <c r="W89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
       </c>
       <c r="K90" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M90" s="2">
         <v>3</v>
@@ -4552,102 +4577,81 @@
       <c r="R90" s="2">
         <v>1</v>
       </c>
+      <c r="T90" s="2">
+        <v>1007</v>
+      </c>
       <c r="U90">
         <v>1</v>
       </c>
-      <c r="W90">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="J91" s="2">
         <v>1</v>
       </c>
       <c r="K91" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M91" s="2">
+        <v>3</v>
+      </c>
+      <c r="N91" s="2">
         <v>5</v>
       </c>
-      <c r="Q91" s="11"/>
-      <c r="R91" s="2">
-        <v>1</v>
-      </c>
-      <c r="T91" s="2">
-        <v>1010</v>
-      </c>
-      <c r="U91">
-        <v>1</v>
+      <c r="O91" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="11" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="92" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>200</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="H92" s="2">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
       </c>
       <c r="K92" s="2">
-        <v>2</v>
-      </c>
-      <c r="L92" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" s="2">
-        <v>5</v>
-      </c>
-      <c r="N92" s="2">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q92" s="11"/>
       <c r="R92" s="2">
         <v>1</v>
       </c>
-      <c r="T92" s="2">
-        <v>1001</v>
-      </c>
       <c r="U92">
         <v>1</v>
       </c>
-      <c r="X92" s="2">
-        <v>201</v>
-      </c>
-      <c r="AA92" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB92" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="W92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>201</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H93" s="2">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="J93" s="2">
         <v>1</v>
@@ -4655,46 +4659,29 @@
       <c r="K93" s="2">
         <v>2</v>
       </c>
-      <c r="L93" s="2">
-        <v>0</v>
-      </c>
       <c r="M93" s="2">
         <v>5</v>
       </c>
-      <c r="N93" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q93" s="11"/>
       <c r="R93" s="2">
         <v>1</v>
       </c>
       <c r="T93" s="2">
-        <v>1001</v>
+        <v>1010</v>
       </c>
       <c r="U93">
         <v>1</v>
       </c>
-      <c r="X93" s="2">
-        <v>202</v>
-      </c>
-      <c r="AA93" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>202</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="H94" s="2">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="J94" s="2">
         <v>1</v>
@@ -4702,46 +4689,29 @@
       <c r="K94" s="2">
         <v>2</v>
       </c>
-      <c r="L94" s="2">
-        <v>0</v>
-      </c>
       <c r="M94" s="2">
-        <v>5</v>
-      </c>
-      <c r="N94" s="2">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q94" s="11"/>
       <c r="R94" s="2">
         <v>1</v>
       </c>
       <c r="T94" s="2">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="U94">
         <v>1</v>
       </c>
-      <c r="X94" s="2">
-        <v>203</v>
-      </c>
-      <c r="AA94" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB94" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>203</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="H95" s="2">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="J95" s="2">
         <v>1</v>
@@ -4749,43 +4719,29 @@
       <c r="K95" s="2">
         <v>2</v>
       </c>
-      <c r="L95" s="2">
-        <v>0</v>
-      </c>
       <c r="M95" s="2">
-        <v>5</v>
-      </c>
-      <c r="N95" s="2">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q95" s="11"/>
       <c r="R95" s="2">
         <v>1</v>
       </c>
       <c r="T95" s="2">
-        <v>1001</v>
+        <v>1014</v>
       </c>
       <c r="U95">
-        <v>1</v>
-      </c>
-      <c r="X95" s="2">
-        <v>204</v>
-      </c>
-      <c r="AA95" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB95" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H96" s="2">
         <v>1</v>
@@ -4815,10 +4771,10 @@
         <v>1</v>
       </c>
       <c r="X96" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AA96" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB96" s="2">
         <v>1</v>
@@ -4826,13 +4782,13 @@
     </row>
     <row r="97" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H97" s="2">
         <v>1</v>
@@ -4862,10 +4818,10 @@
         <v>1</v>
       </c>
       <c r="X97" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AA97" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB97" s="2">
         <v>1</v>
@@ -4873,13 +4829,13 @@
     </row>
     <row r="98" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H98" s="2">
         <v>1</v>
@@ -4909,10 +4865,10 @@
         <v>1</v>
       </c>
       <c r="X98" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AA98" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AB98" s="2">
         <v>1</v>
@@ -4920,13 +4876,13 @@
     </row>
     <row r="99" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H99" s="2">
         <v>1</v>
@@ -4956,10 +4912,10 @@
         <v>1</v>
       </c>
       <c r="X99" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AA99" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AB99" s="2">
         <v>1</v>
@@ -4967,13 +4923,13 @@
     </row>
     <row r="100" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H100" s="2">
         <v>1</v>
@@ -5003,10 +4959,10 @@
         <v>1</v>
       </c>
       <c r="X100" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AA100" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AB100" s="2">
         <v>1</v>
@@ -5014,13 +4970,13 @@
     </row>
     <row r="101" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H101" s="2">
         <v>1</v>
@@ -5050,10 +5006,10 @@
         <v>1</v>
       </c>
       <c r="X101" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AA101" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AB101" s="2">
         <v>1</v>
@@ -5061,13 +5017,13 @@
     </row>
     <row r="102" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H102" s="2">
         <v>1</v>
@@ -5097,10 +5053,10 @@
         <v>1</v>
       </c>
       <c r="X102" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AA102" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AB102" s="2">
         <v>1</v>
@@ -5108,477 +5064,665 @@
     </row>
     <row r="103" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
+        <v>207</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="H103" s="2">
+        <v>1</v>
+      </c>
+      <c r="J103" s="2">
+        <v>1</v>
+      </c>
+      <c r="K103" s="2">
+        <v>2</v>
+      </c>
+      <c r="L103" s="2">
+        <v>0</v>
+      </c>
+      <c r="M103" s="2">
+        <v>5</v>
+      </c>
+      <c r="N103" s="2">
+        <v>0</v>
+      </c>
+      <c r="R103" s="2">
+        <v>1</v>
+      </c>
+      <c r="T103" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="X103" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA103" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>208</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="H104" s="2">
+        <v>1</v>
+      </c>
+      <c r="J104" s="2">
+        <v>1</v>
+      </c>
+      <c r="K104" s="2">
+        <v>2</v>
+      </c>
+      <c r="L104" s="2">
+        <v>0</v>
+      </c>
+      <c r="M104" s="2">
+        <v>5</v>
+      </c>
+      <c r="N104" s="2">
+        <v>0</v>
+      </c>
+      <c r="R104" s="2">
+        <v>1</v>
+      </c>
+      <c r="T104" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U104">
+        <v>1</v>
+      </c>
+      <c r="X104" s="2">
+        <v>209</v>
+      </c>
+      <c r="AA104" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>209</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H105" s="2">
+        <v>1</v>
+      </c>
+      <c r="J105" s="2">
+        <v>1</v>
+      </c>
+      <c r="K105" s="2">
+        <v>2</v>
+      </c>
+      <c r="L105" s="2">
+        <v>0</v>
+      </c>
+      <c r="M105" s="2">
+        <v>5</v>
+      </c>
+      <c r="N105" s="2">
+        <v>0</v>
+      </c>
+      <c r="R105" s="2">
+        <v>1</v>
+      </c>
+      <c r="T105" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="X105" s="2">
+        <v>210</v>
+      </c>
+      <c r="AA105" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>210</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H106" s="2">
+        <v>1</v>
+      </c>
+      <c r="J106" s="2">
+        <v>1</v>
+      </c>
+      <c r="K106" s="2">
+        <v>2</v>
+      </c>
+      <c r="L106" s="2">
+        <v>0</v>
+      </c>
+      <c r="M106" s="2">
+        <v>5</v>
+      </c>
+      <c r="N106" s="2">
+        <v>0</v>
+      </c>
+      <c r="R106" s="2">
+        <v>1</v>
+      </c>
+      <c r="T106" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="X106" s="2">
+        <v>210</v>
+      </c>
+      <c r="AA106" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
         <v>211</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B107" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C107" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="J103" s="2">
-        <v>1</v>
-      </c>
-      <c r="K103" s="2">
-        <v>1</v>
-      </c>
-      <c r="M103" s="2">
+      <c r="J107" s="2">
+        <v>1</v>
+      </c>
+      <c r="K107" s="2">
+        <v>1</v>
+      </c>
+      <c r="M107" s="2">
         <v>10</v>
       </c>
-      <c r="N103" s="2">
+      <c r="N107" s="2">
         <v>10</v>
       </c>
-      <c r="O103" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q103" s="2" t="s">
+      <c r="O107" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="Y103" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG103" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B104" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B105" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="106" spans="1:33" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B106" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="107" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B107" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>224</v>
+      <c r="Y107" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG107" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B108" s="14" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B109" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="B110" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B111" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B112" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B113" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C113" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B110" s="14" t="s">
+    <row r="114" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B114" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C114" s="15" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B111" s="14" t="s">
+    <row r="115" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B115" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C115" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H115" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B112" s="14" t="s">
+    <row r="116" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B116" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C112" s="16" t="s">
+      <c r="C116" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B113" s="14" t="s">
+    <row r="117" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B117" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C113" s="15" t="s">
+      <c r="C117" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B114" s="14" t="s">
+    <row r="118" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B118" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="63" x14ac:dyDescent="0.2">
-      <c r="B115" s="14" t="s">
+    <row r="119" spans="2:8" ht="63" x14ac:dyDescent="0.2">
+      <c r="B119" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C119" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B116" s="14" t="s">
+    <row r="120" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B120" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C116" s="14" t="s">
+      <c r="C120" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="H116" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C117" s="14"/>
-    </row>
-    <row r="118" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B118" s="14" t="s">
+      <c r="H120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C121" s="14"/>
+    </row>
+    <row r="122" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B122" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C118" s="14" t="s">
+      <c r="C122" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B119" s="14" t="s">
+    <row r="123" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B123" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C119" s="14" t="s">
+      <c r="C123" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-    </row>
-    <row r="121" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B121" s="14" t="s">
+    <row r="124" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+    </row>
+    <row r="125" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B125" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="C121" s="14" t="s">
+      <c r="C125" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B122" s="14" t="s">
+    <row r="126" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B126" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C126" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B123" s="14" t="s">
+    <row r="127" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B127" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C127" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
         <v>1410</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B129" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C125" s="11" t="s">
+      <c r="C129" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D129" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H129" s="2">
         <v>10</v>
       </c>
-      <c r="J125" s="2">
-        <v>0</v>
-      </c>
-      <c r="K125" s="2">
+      <c r="J129" s="2">
+        <v>0</v>
+      </c>
+      <c r="K129" s="2">
         <v>3</v>
       </c>
-      <c r="N125" s="2">
-        <v>1</v>
-      </c>
-      <c r="R125" s="2">
-        <v>1</v>
-      </c>
-      <c r="T125" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
+      <c r="N129" s="2">
+        <v>1</v>
+      </c>
+      <c r="R129" s="2">
+        <v>1</v>
+      </c>
+      <c r="T129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
         <v>1411</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B130" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C130" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D130" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H126" s="2">
-        <v>1</v>
-      </c>
-      <c r="I126" s="2">
+      <c r="H130" s="2">
+        <v>1</v>
+      </c>
+      <c r="I130" s="2">
         <v>10</v>
       </c>
-      <c r="J126" s="2">
-        <v>1</v>
-      </c>
-      <c r="K126" s="2">
+      <c r="J130" s="2">
+        <v>1</v>
+      </c>
+      <c r="K130" s="2">
         <v>3</v>
       </c>
-      <c r="M126" s="2">
+      <c r="M130" s="2">
         <v>10</v>
       </c>
-      <c r="N126" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q126" s="2" t="s">
+      <c r="N130" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="R126" s="2">
-        <v>1</v>
-      </c>
-      <c r="T126" s="2">
+      <c r="R130" s="2">
+        <v>1</v>
+      </c>
+      <c r="T130" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
+    <row r="131" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
         <v>1412</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B131" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C131" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D131" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E127" s="12" t="s">
+      <c r="E131" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F127" s="12" t="s">
+      <c r="F131" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G127" s="12" t="s">
+      <c r="G131" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H127" s="2">
+      <c r="H131" s="2">
         <v>2</v>
       </c>
-      <c r="I127" s="2">
+      <c r="I131" s="2">
         <v>10</v>
       </c>
-      <c r="J127" s="11">
-        <v>1</v>
-      </c>
-      <c r="K127" s="11">
+      <c r="J131" s="11">
+        <v>1</v>
+      </c>
+      <c r="K131" s="11">
         <v>3</v>
       </c>
-      <c r="L127" s="11"/>
-      <c r="M127" s="2">
+      <c r="L131" s="11"/>
+      <c r="M131" s="2">
         <v>10</v>
       </c>
-      <c r="N127" s="2">
-        <v>1</v>
-      </c>
-      <c r="P127" s="11"/>
-      <c r="Q127" s="11" t="s">
+      <c r="N131" s="2">
+        <v>1</v>
+      </c>
+      <c r="P131" s="11"/>
+      <c r="Q131" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="T127" s="2">
+      <c r="T131" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="57" x14ac:dyDescent="0.2">
-      <c r="B128" s="7" t="s">
+    <row r="132" spans="1:20" ht="57" x14ac:dyDescent="0.2">
+      <c r="B132" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C132" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="129" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B129" s="7" t="s">
+    <row r="133" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B133" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C133" s="10" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="130" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B130" s="7" t="s">
+    <row r="134" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B134" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="131" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B131" s="7" t="s">
+    <row r="135" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B135" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="C135" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B132" s="7" t="s">
+    <row r="136" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B136" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C136" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="133" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B133" s="7" t="s">
+    <row r="137" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B137" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C137" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H133" s="2">
+      <c r="H137" s="2">
         <v>5</v>
       </c>
-      <c r="I133" s="2">
+      <c r="I137" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B134" s="7" t="s">
+    <row r="138" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B138" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C138" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H134" s="2">
+      <c r="H138" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="135" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B135" s="7" t="s">
+    <row r="139" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B139" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="C139" s="10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="136" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B136" s="7" t="s">
+    <row r="140" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B140" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C140" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B137" s="7"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B139" s="7" t="s">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B141" s="7"/>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B143" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="140" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B140" s="7" t="s">
+    <row r="144" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B144" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C144" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B141" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B142" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B143" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B144" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" s="7" t="s">
-        <v>196</v>
+        <v>110</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B149" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B150" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B151" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B152" s="7" t="s">
         <v>197</v>
       </c>
     </row>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2179E4F9-832E-4B3B-874B-9D105B5E2E58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE7FF18-56DD-4071-A5B0-E8D4E14A5870}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="343">
   <si>
     <t>技能ID</t>
   </si>
@@ -1605,6 +1605,18 @@
   </si>
   <si>
     <t>成功格挡时，抽1张牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口魔治疗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤口魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个口魔，持续15秒，每3秒进行一次治疗，回复自身1点生命</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2057,13 +2069,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH152"/>
+  <dimension ref="A1:AH154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G95" sqref="G95"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3247,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L23" s="2">
         <v>0</v>
@@ -3407,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q28" s="11"/>
       <c r="R28" s="2">
@@ -3433,7 +3445,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q29" s="11"/>
       <c r="R29" s="2">
@@ -3444,39 +3456,75 @@
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="A30" s="2">
+        <v>32</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
       <c r="J30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="R30" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>49</v>
+      <c r="A31" s="2">
+        <v>33</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
       </c>
       <c r="J31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>3</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>13</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="J32" s="2">
         <v>0</v>
@@ -3485,12 +3533,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J33" s="2">
         <v>0</v>
@@ -3499,18 +3547,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>1001</v>
-      </c>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="J34" s="2">
         <v>0</v>
@@ -3519,23 +3561,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
       </c>
       <c r="K35" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>1001</v>
+      </c>
       <c r="B36" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="J36" s="2">
         <v>0</v>
@@ -3544,15 +3595,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K37" s="2">
         <v>9</v>
@@ -3560,10 +3608,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
@@ -3573,20 +3621,11 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>1002</v>
-      </c>
       <c r="B39" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J39" s="2">
         <v>0</v>
@@ -3594,16 +3633,13 @@
       <c r="K39" s="2">
         <v>9</v>
       </c>
-      <c r="N39" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -3612,18 +3648,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H41" s="2">
         <v>10</v>
@@ -3635,18 +3671,18 @@
         <v>9</v>
       </c>
       <c r="N41" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J42" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="2">
         <v>9</v>
@@ -3654,49 +3690,56 @@
     </row>
     <row r="43" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="2">
+        <v>10</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>9</v>
+      </c>
+      <c r="N43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>1011</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>1012</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
@@ -3707,42 +3750,26 @@
       <c r="N45" s="2">
         <v>10</v>
       </c>
-      <c r="T45" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
       <c r="J46" s="2">
         <v>0</v>
       </c>
       <c r="K46" s="2">
         <v>0</v>
       </c>
-      <c r="N46" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>33</v>
@@ -3753,178 +3780,178 @@
       <c r="K47" s="2">
         <v>0</v>
       </c>
+      <c r="N47" s="2">
+        <v>10</v>
+      </c>
+      <c r="T47" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>1013</v>
+      </c>
       <c r="B48" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B50" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="13" t="s">
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B51" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="7" t="s">
+      <c r="C51" s="7"/>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B52" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="7" t="s">
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>1018</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H52" s="2">
-        <v>1</v>
-      </c>
-      <c r="J52" s="2">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>1020</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B55" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H55" s="2">
         <v>0.5</v>
       </c>
-      <c r="J53" s="2">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="13" t="s">
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B56" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J54" s="2">
-        <v>1</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="13" t="s">
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B57" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J55" s="2">
-        <v>1</v>
-      </c>
-      <c r="K55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J56" s="2">
-        <v>1</v>
-      </c>
-      <c r="K56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
-        <v>1021</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H57" s="2">
-        <v>1</v>
-      </c>
       <c r="J57" s="2">
         <v>1</v>
       </c>
       <c r="K57" s="2">
         <v>0</v>
-      </c>
-      <c r="M57" s="2">
-        <v>10</v>
-      </c>
-      <c r="N57" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>81</v>
+        <v>200</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="J58" s="2">
         <v>1</v>
@@ -3933,15 +3960,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>117</v>
+        <v>1021</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>30</v>
@@ -3949,11 +3976,11 @@
       <c r="E59" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="F59" s="2" t="s">
+        <v>203</v>
+      </c>
       <c r="H59" s="2">
-        <v>2</v>
-      </c>
-      <c r="I59" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -3965,110 +3992,107 @@
         <v>10</v>
       </c>
       <c r="N59" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="2">
+        <v>2</v>
+      </c>
+      <c r="I61" s="2">
+        <v>5</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
+        <v>10</v>
+      </c>
+      <c r="N61" s="2">
         <v>-10</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="Q61" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R59" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>1114</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="J61" s="2">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
-        <v>1</v>
-      </c>
-      <c r="N61" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="J62" s="2">
-        <v>0</v>
-      </c>
-      <c r="K62" s="2">
+      <c r="R61" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
+        <v>1114</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1</v>
+      </c>
+      <c r="N63" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
         <v>1110</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B65" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J63" s="2">
-        <v>0</v>
-      </c>
-      <c r="K63" s="2">
-        <v>1</v>
-      </c>
-      <c r="N63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>1111</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J64" s="2">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <v>1</v>
-      </c>
-      <c r="N64" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
-        <v>1112</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G65" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H65" s="2">
-        <v>0.5</v>
-      </c>
       <c r="J65" s="2">
         <v>0</v>
       </c>
@@ -4076,18 +4100,18 @@
         <v>1</v>
       </c>
       <c r="N65" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>37</v>
@@ -4098,29 +4122,48 @@
       <c r="K66" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="N66" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>1112</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="G67" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0.5</v>
+      </c>
       <c r="J67" s="2">
         <v>0</v>
       </c>
       <c r="K67" s="2">
         <v>1</v>
+      </c>
+      <c r="N67" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>37</v>
@@ -4132,16 +4175,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>1116</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>140</v>
-      </c>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="2" t="s">
         <v>37</v>
       </c>
@@ -4151,364 +4187,340 @@
       <c r="K69" s="2">
         <v>1</v>
       </c>
-      <c r="N69" s="2">
+    </row>
+    <row r="70" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>1115</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+      <c r="N71" s="2">
         <v>-1</v>
       </c>
-      <c r="R69" s="2">
-        <v>1</v>
-      </c>
-      <c r="T69" s="2">
+      <c r="R71" s="2">
+        <v>1</v>
+      </c>
+      <c r="T71" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B70" s="7"/>
-      <c r="J70" s="2">
-        <v>0</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B71" s="7"/>
-      <c r="C71" s="2"/>
-      <c r="J71" s="2">
-        <v>0</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B72" s="7"/>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B73" s="7"/>
+      <c r="C73" s="2"/>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
         <v>1117</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G72" s="11" t="s">
+      <c r="G74" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H74" s="2">
         <v>0.5</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I74" s="2">
         <v>10</v>
       </c>
-      <c r="J72" s="2">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-      <c r="M72" s="2">
+      <c r="J74" s="2">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+      <c r="M74" s="2">
         <v>50</v>
       </c>
-      <c r="N72" s="2">
-        <v>1</v>
-      </c>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11" t="s">
+      <c r="N74" s="2">
+        <v>1</v>
+      </c>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B73" s="7" t="s">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B75" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="J73" s="2">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B74" s="7" t="s">
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B76" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J74" s="2">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B75" s="7" t="s">
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B77" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J75" s="2">
-        <v>0</v>
-      </c>
-      <c r="K75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B76" s="8" t="s">
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B78" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J76" s="2">
-        <v>0</v>
-      </c>
-      <c r="K76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B77" s="8" t="s">
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B79" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C79" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J77" s="2">
-        <v>0</v>
-      </c>
-      <c r="K77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
         <v>1201</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B80" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C80" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G78" s="11" t="s">
+      <c r="G80" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="H78" s="2">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2">
-        <v>1</v>
-      </c>
-      <c r="K78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B79" s="8"/>
-      <c r="C79" s="9"/>
-      <c r="J79" s="2">
-        <v>1</v>
-      </c>
-      <c r="K79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B80" s="8" t="s">
+      <c r="H80" s="2">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
+      <c r="J81" s="2">
+        <v>1</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B82" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J80" s="2">
-        <v>1</v>
-      </c>
-      <c r="K80" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B81" s="8" t="s">
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B83" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J81" s="2">
-        <v>0</v>
-      </c>
-      <c r="K81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B82" s="8" t="s">
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B84" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="2">
-        <v>0</v>
-      </c>
-      <c r="K82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B83" s="8" t="s">
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B85" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="84" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="17">
+    <row r="86" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="17">
         <v>102</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B86" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C86" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D86" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J84" s="17">
-        <v>1</v>
-      </c>
-      <c r="M84" s="17">
+      <c r="J86" s="17">
+        <v>1</v>
+      </c>
+      <c r="M86" s="17">
         <v>2</v>
       </c>
-      <c r="R84" s="17">
-        <v>1</v>
-      </c>
-      <c r="T84" s="17">
+      <c r="R86" s="17">
+        <v>1</v>
+      </c>
+      <c r="T86" s="17">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="17">
+    <row r="87" spans="1:30" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="17">
         <v>103</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B87" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C87" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="D85" s="17" t="s">
+      <c r="D87" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J85" s="17">
-        <v>1</v>
-      </c>
-      <c r="K85" s="17">
+      <c r="J87" s="17">
+        <v>1</v>
+      </c>
+      <c r="K87" s="17">
         <v>3</v>
       </c>
-      <c r="M85" s="17">
+      <c r="M87" s="17">
         <v>2</v>
       </c>
-      <c r="R85" s="17">
-        <v>1</v>
-      </c>
-      <c r="T85" s="17">
+      <c r="R87" s="17">
+        <v>1</v>
+      </c>
+      <c r="T87" s="17">
         <v>1003</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+    <row r="88" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
         <v>104</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B88" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="J86" s="2">
-        <v>1</v>
-      </c>
-      <c r="K86" s="2">
-        <v>3</v>
-      </c>
-      <c r="M86" s="2">
-        <v>6</v>
-      </c>
-      <c r="R86" s="2">
-        <v>1</v>
-      </c>
-      <c r="T86" s="2">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>105</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J87" s="2">
-        <v>1</v>
-      </c>
-      <c r="K87" s="2">
-        <v>0</v>
-      </c>
-      <c r="M87" s="2">
-        <v>3</v>
-      </c>
-      <c r="N87" s="2">
-        <v>2</v>
-      </c>
-      <c r="O87" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC87" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD87" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>106</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
@@ -4519,115 +4531,120 @@
       <c r="M88" s="2">
         <v>6</v>
       </c>
-      <c r="Q88" s="11"/>
       <c r="R88" s="2">
         <v>1</v>
       </c>
       <c r="T88" s="2">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="J89" s="2">
         <v>1</v>
       </c>
       <c r="K89" s="2">
+        <v>0</v>
+      </c>
+      <c r="M89" s="2">
         <v>3</v>
       </c>
-      <c r="M89" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="11"/>
-      <c r="R89" s="2">
-        <v>1</v>
-      </c>
-      <c r="W89">
-        <v>8</v>
+      <c r="N89" s="2">
+        <v>2</v>
+      </c>
+      <c r="O89" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD89" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="J90" s="2">
         <v>1</v>
       </c>
       <c r="K90" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M90" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q90" s="11"/>
       <c r="R90" s="2">
         <v>1</v>
       </c>
       <c r="T90" s="2">
-        <v>1007</v>
-      </c>
-      <c r="U90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J91" s="2">
         <v>1</v>
       </c>
       <c r="K91" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M91" s="2">
-        <v>3</v>
-      </c>
-      <c r="N91" s="2">
-        <v>5</v>
-      </c>
-      <c r="O91" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="11" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="11"/>
+      <c r="R91" s="2">
+        <v>1</v>
+      </c>
+      <c r="W91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
       </c>
       <c r="K92" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M92" s="2">
         <v>3</v>
@@ -4636,58 +4653,57 @@
       <c r="R92" s="2">
         <v>1</v>
       </c>
+      <c r="T92" s="2">
+        <v>1007</v>
+      </c>
       <c r="U92">
         <v>1</v>
       </c>
-      <c r="W92">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="J93" s="2">
         <v>1</v>
       </c>
       <c r="K93" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M93" s="2">
+        <v>3</v>
+      </c>
+      <c r="N93" s="2">
         <v>5</v>
       </c>
-      <c r="Q93" s="11"/>
-      <c r="R93" s="2">
-        <v>1</v>
-      </c>
-      <c r="T93" s="2">
-        <v>1010</v>
-      </c>
-      <c r="U93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="O93" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="J94" s="2">
         <v>1</v>
       </c>
       <c r="K94" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M94" s="2">
         <v>3</v>
@@ -4696,22 +4712,22 @@
       <c r="R94" s="2">
         <v>1</v>
       </c>
-      <c r="T94" s="2">
-        <v>1013</v>
-      </c>
       <c r="U94">
         <v>1</v>
+      </c>
+      <c r="W94">
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="J95" s="2">
         <v>1</v>
@@ -4720,31 +4736,28 @@
         <v>2</v>
       </c>
       <c r="M95" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q95" s="11"/>
       <c r="R95" s="2">
         <v>1</v>
       </c>
       <c r="T95" s="2">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="U95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>200</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="H96" s="2">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="J96" s="2">
         <v>1</v>
@@ -4752,46 +4765,29 @@
       <c r="K96" s="2">
         <v>2</v>
       </c>
-      <c r="L96" s="2">
-        <v>0</v>
-      </c>
       <c r="M96" s="2">
-        <v>5</v>
-      </c>
-      <c r="N96" s="2">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q96" s="11"/>
       <c r="R96" s="2">
         <v>1</v>
       </c>
       <c r="T96" s="2">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="U96">
         <v>1</v>
       </c>
-      <c r="X96" s="2">
-        <v>201</v>
-      </c>
-      <c r="AA96" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB96" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>201</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H97" s="2">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>339</v>
       </c>
       <c r="J97" s="2">
         <v>1</v>
@@ -4799,43 +4795,29 @@
       <c r="K97" s="2">
         <v>2</v>
       </c>
-      <c r="L97" s="2">
-        <v>0</v>
-      </c>
       <c r="M97" s="2">
-        <v>5</v>
-      </c>
-      <c r="N97" s="2">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q97" s="11"/>
       <c r="R97" s="2">
         <v>1</v>
       </c>
       <c r="T97" s="2">
-        <v>1001</v>
+        <v>1014</v>
       </c>
       <c r="U97">
-        <v>1</v>
-      </c>
-      <c r="X97" s="2">
-        <v>202</v>
-      </c>
-      <c r="AA97" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB97" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H98" s="2">
         <v>1</v>
@@ -4865,10 +4847,10 @@
         <v>1</v>
       </c>
       <c r="X98" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AA98" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB98" s="2">
         <v>1</v>
@@ -4876,13 +4858,13 @@
     </row>
     <row r="99" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H99" s="2">
         <v>1</v>
@@ -4912,10 +4894,10 @@
         <v>1</v>
       </c>
       <c r="X99" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA99" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB99" s="2">
         <v>1</v>
@@ -4923,13 +4905,13 @@
     </row>
     <row r="100" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H100" s="2">
         <v>1</v>
@@ -4959,10 +4941,10 @@
         <v>1</v>
       </c>
       <c r="X100" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AA100" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AB100" s="2">
         <v>1</v>
@@ -4970,13 +4952,13 @@
     </row>
     <row r="101" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H101" s="2">
         <v>1</v>
@@ -5006,10 +4988,10 @@
         <v>1</v>
       </c>
       <c r="X101" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AA101" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB101" s="2">
         <v>1</v>
@@ -5017,13 +4999,13 @@
     </row>
     <row r="102" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H102" s="2">
         <v>1</v>
@@ -5053,10 +5035,10 @@
         <v>1</v>
       </c>
       <c r="X102" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AA102" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB102" s="2">
         <v>1</v>
@@ -5064,13 +5046,13 @@
     </row>
     <row r="103" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B103" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H103" s="2">
         <v>1</v>
@@ -5100,10 +5082,10 @@
         <v>1</v>
       </c>
       <c r="X103" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AA103" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB103" s="2">
         <v>1</v>
@@ -5111,13 +5093,13 @@
     </row>
     <row r="104" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H104" s="2">
         <v>1</v>
@@ -5147,10 +5129,10 @@
         <v>1</v>
       </c>
       <c r="X104" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AA104" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB104" s="2">
         <v>1</v>
@@ -5158,13 +5140,13 @@
     </row>
     <row r="105" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H105" s="2">
         <v>1</v>
@@ -5194,10 +5176,10 @@
         <v>1</v>
       </c>
       <c r="X105" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AA105" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB105" s="2">
         <v>1</v>
@@ -5205,13 +5187,13 @@
     </row>
     <row r="106" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H106" s="2">
         <v>1</v>
@@ -5241,10 +5223,10 @@
         <v>1</v>
       </c>
       <c r="X106" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AA106" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB106" s="2">
         <v>1</v>
@@ -5252,477 +5234,571 @@
     </row>
     <row r="107" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
+        <v>209</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H107" s="2">
+        <v>1</v>
+      </c>
+      <c r="J107" s="2">
+        <v>1</v>
+      </c>
+      <c r="K107" s="2">
+        <v>2</v>
+      </c>
+      <c r="L107" s="2">
+        <v>0</v>
+      </c>
+      <c r="M107" s="2">
+        <v>5</v>
+      </c>
+      <c r="N107" s="2">
+        <v>0</v>
+      </c>
+      <c r="R107" s="2">
+        <v>1</v>
+      </c>
+      <c r="T107" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U107">
+        <v>1</v>
+      </c>
+      <c r="X107" s="2">
+        <v>210</v>
+      </c>
+      <c r="AA107" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>210</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H108" s="2">
+        <v>1</v>
+      </c>
+      <c r="J108" s="2">
+        <v>1</v>
+      </c>
+      <c r="K108" s="2">
+        <v>2</v>
+      </c>
+      <c r="L108" s="2">
+        <v>0</v>
+      </c>
+      <c r="M108" s="2">
+        <v>5</v>
+      </c>
+      <c r="N108" s="2">
+        <v>0</v>
+      </c>
+      <c r="R108" s="2">
+        <v>1</v>
+      </c>
+      <c r="T108" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U108">
+        <v>1</v>
+      </c>
+      <c r="X108" s="2">
+        <v>210</v>
+      </c>
+      <c r="AA108" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
         <v>211</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B109" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C109" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="J107" s="2">
-        <v>1</v>
-      </c>
-      <c r="K107" s="2">
-        <v>1</v>
-      </c>
-      <c r="M107" s="2">
+      <c r="J109" s="2">
+        <v>1</v>
+      </c>
+      <c r="K109" s="2">
+        <v>1</v>
+      </c>
+      <c r="M109" s="2">
         <v>10</v>
       </c>
-      <c r="N107" s="2">
+      <c r="N109" s="2">
         <v>10</v>
       </c>
-      <c r="O107" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="2" t="s">
+      <c r="O109" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="Y107" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG107" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B108" s="14" t="s">
+      <c r="Y109" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B110" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="C110" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B109" s="14" t="s">
+    <row r="111" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B111" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C111" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="110" spans="1:33" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B110" s="14" t="s">
+    <row r="112" spans="1:33" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="B112" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="C110" s="14" t="s">
+      <c r="C112" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B111" s="14" t="s">
+    <row r="113" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B113" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C111" s="14" t="s">
+      <c r="C113" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B112" s="14" t="s">
+    <row r="114" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B114" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C114" s="14" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B113" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B114" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="115" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B115" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="H115" s="2">
-        <v>0.5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B116" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B117" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B118" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C116" s="16" t="s">
+      <c r="C118" s="16" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B117" s="14" t="s">
+    <row r="119" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B119" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C117" s="15" t="s">
+      <c r="C119" s="15" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B118" s="14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" ht="63" x14ac:dyDescent="0.2">
-      <c r="B119" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="C119" s="14" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="120" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B120" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" ht="63" x14ac:dyDescent="0.2">
+      <c r="B121" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B122" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C120" s="14" t="s">
+      <c r="C122" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="H120" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C121" s="14"/>
-    </row>
-    <row r="122" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B122" s="14" t="s">
+      <c r="H122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C123" s="14"/>
+    </row>
+    <row r="124" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B124" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C124" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="123" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B123" s="14" t="s">
+    <row r="125" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B125" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="C123" s="14" t="s">
+      <c r="C125" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="124" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-    </row>
-    <row r="125" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B125" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
     <row r="126" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B126" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>219</v>
-      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
     </row>
     <row r="127" spans="2:8" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B127" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B128" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B129" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C127" s="14" t="s">
+      <c r="C129" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
         <v>1410</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B131" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C129" s="11" t="s">
+      <c r="C131" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H129" s="2">
-        <v>10</v>
-      </c>
-      <c r="J129" s="2">
-        <v>0</v>
-      </c>
-      <c r="K129" s="2">
-        <v>3</v>
-      </c>
-      <c r="N129" s="2">
-        <v>1</v>
-      </c>
-      <c r="R129" s="2">
-        <v>1</v>
-      </c>
-      <c r="T129" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
-        <v>1411</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H130" s="2">
-        <v>1</v>
-      </c>
-      <c r="I130" s="2">
-        <v>10</v>
-      </c>
-      <c r="J130" s="2">
-        <v>1</v>
-      </c>
-      <c r="K130" s="2">
-        <v>3</v>
-      </c>
-      <c r="M130" s="2">
-        <v>10</v>
-      </c>
-      <c r="N130" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q130" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="R130" s="2">
-        <v>1</v>
-      </c>
-      <c r="T130" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
-        <v>1412</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E131" s="12" t="s">
+      <c r="H131" s="2">
+        <v>10</v>
+      </c>
+      <c r="J131" s="2">
+        <v>0</v>
+      </c>
+      <c r="K131" s="2">
+        <v>3</v>
+      </c>
+      <c r="N131" s="2">
+        <v>1</v>
+      </c>
+      <c r="R131" s="2">
+        <v>1</v>
+      </c>
+      <c r="T131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>1411</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H132" s="2">
+        <v>1</v>
+      </c>
+      <c r="I132" s="2">
+        <v>10</v>
+      </c>
+      <c r="J132" s="2">
+        <v>1</v>
+      </c>
+      <c r="K132" s="2">
+        <v>3</v>
+      </c>
+      <c r="M132" s="2">
+        <v>10</v>
+      </c>
+      <c r="N132" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="R132" s="2">
+        <v>1</v>
+      </c>
+      <c r="T132" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E133" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F131" s="12" t="s">
+      <c r="F133" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="G131" s="12" t="s">
+      <c r="G133" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H131" s="2">
+      <c r="H133" s="2">
         <v>2</v>
       </c>
-      <c r="I131" s="2">
+      <c r="I133" s="2">
         <v>10</v>
       </c>
-      <c r="J131" s="11">
-        <v>1</v>
-      </c>
-      <c r="K131" s="11">
+      <c r="J133" s="11">
+        <v>1</v>
+      </c>
+      <c r="K133" s="11">
         <v>3</v>
       </c>
-      <c r="L131" s="11"/>
-      <c r="M131" s="2">
+      <c r="L133" s="11"/>
+      <c r="M133" s="2">
         <v>10</v>
       </c>
-      <c r="N131" s="2">
-        <v>1</v>
-      </c>
-      <c r="P131" s="11"/>
-      <c r="Q131" s="11" t="s">
+      <c r="N133" s="2">
+        <v>1</v>
+      </c>
+      <c r="P133" s="11"/>
+      <c r="Q133" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="T131" s="2">
+      <c r="T133" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="57" x14ac:dyDescent="0.2">
-      <c r="B132" s="7" t="s">
+    <row r="134" spans="1:20" ht="57" x14ac:dyDescent="0.2">
+      <c r="B134" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C134" s="10" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B133" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B134" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="135" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B135" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B136" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B137" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B138" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B139" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="C139" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H137" s="2">
+      <c r="H139" s="2">
         <v>5</v>
       </c>
-      <c r="I137" s="2">
+      <c r="I139" s="2">
         <v>15</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B138" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C138" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="H138" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B139" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="140" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B140" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H140" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B141" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B142" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C142" s="10" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B141" s="7"/>
-    </row>
     <row r="143" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B143" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B144" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="B143" s="7"/>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B146" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B148" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B149" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B151" s="7" t="s">
-        <v>196</v>
+        <v>114</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B152" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B153" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B154" s="7" t="s">
         <v>197</v>
       </c>
     </row>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE7FF18-56DD-4071-A5B0-E8D4E14A5870}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EFEF72-C2EC-43C3-AB1E-FBB8EAC3B383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="344">
   <si>
     <t>技能ID</t>
   </si>
@@ -1617,6 +1617,10 @@
   </si>
   <si>
     <t>召唤一个口魔，持续15秒，每3秒进行一次治疗，回复自身1点生命</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2072,10 +2076,10 @@
   <dimension ref="A1:AH154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3117,6 +3121,9 @@
       <c r="I18" s="2">
         <v>0.5</v>
       </c>
+      <c r="Q18" s="11" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="19" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -1590,7 +1590,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1598,6 +1597,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1655,6 +1655,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1673,25 +1685,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,37 +1721,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,7 +1751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,7 +1769,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,13 +1799,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,25 +1823,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,10 +1940,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1952,16 +1952,16 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1973,10 +1973,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1997,7 +1997,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2006,22 +2006,22 @@
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2030,37 +2030,46 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2070,15 +2079,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2446,11 +2446,11 @@
   <dimension ref="A1:AH155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I96" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T34" sqref="T34"/>
+      <selection pane="bottomRight" activeCell="P110" sqref="P110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:20">
+    <row r="4" ht="27" spans="1:26">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2788,8 +2788,11 @@
       <c r="T4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2847,8 +2850,11 @@
       <c r="V5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" ht="27" spans="1:23">
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:26">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2905,6 +2911,9 @@
       </c>
       <c r="W6">
         <v>2</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" spans="1:23">
@@ -3536,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:26">
       <c r="A20" s="2">
         <v>22</v>
       </c>
@@ -3562,6 +3571,9 @@
         <v>1002</v>
       </c>
       <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="2">
         <v>2</v>
       </c>
     </row>
@@ -3645,6 +3657,9 @@
       <c r="R23" s="2">
         <v>1</v>
       </c>
+      <c r="Z23" s="2">
+        <v>3</v>
+      </c>
       <c r="AA23" s="2">
         <v>2</v>
       </c>
@@ -3868,6 +3883,9 @@
       <c r="R31" s="2">
         <v>1</v>
       </c>
+      <c r="Z31" s="2">
+        <v>3</v>
+      </c>
       <c r="AA31" s="2">
         <v>13</v>
       </c>
@@ -3883,28 +3901,15 @@
         <v>129</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
       <c r="J32" s="2">
         <v>1</v>
       </c>
       <c r="K32" s="2">
         <v>1</v>
       </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
       <c r="R32" s="2">
         <v>1</v>
       </c>
-      <c r="S32" s="2"/>
       <c r="T32" s="2">
         <v>11</v>
       </c>
@@ -4846,7 +4851,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="87" s="3" customFormat="1" spans="1:20">
+    <row r="87" s="3" customFormat="1" spans="1:26">
       <c r="A87" s="3">
         <v>102</v>
       </c>
@@ -4871,8 +4876,11 @@
       <c r="T87" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" s="3" customFormat="1" spans="1:20">
+      <c r="Z87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" s="3" customFormat="1" spans="1:26">
       <c r="A88" s="3">
         <v>103</v>
       </c>
@@ -4900,8 +4908,11 @@
       <c r="T88" s="3">
         <v>1003</v>
       </c>
-    </row>
-    <row r="89" ht="27" spans="1:20">
+      <c r="Z88" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" ht="27" spans="1:26">
       <c r="A89" s="2">
         <v>104</v>
       </c>
@@ -4928,6 +4939,9 @@
       </c>
       <c r="T89" s="2">
         <v>1005</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="27" spans="1:30">
@@ -4961,6 +4975,9 @@
       <c r="Q90" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="Z90" s="2">
+        <v>3</v>
+      </c>
       <c r="AC90" s="2">
         <v>1</v>
       </c>
@@ -4968,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:26">
       <c r="A91" s="2">
         <v>106</v>
       </c>
@@ -4993,8 +5010,11 @@
       <c r="T91" s="2">
         <v>1004</v>
       </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="Z91" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" s="2">
         <v>107</v>
       </c>
@@ -5019,8 +5039,11 @@
       <c r="W92">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:21">
+      <c r="Z92" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" s="2">
         <v>108</v>
       </c>
@@ -5048,8 +5071,11 @@
       <c r="U93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" ht="27" spans="1:17">
+      <c r="Z93" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" ht="27" spans="1:26">
       <c r="A94" s="2">
         <v>109</v>
       </c>
@@ -5077,8 +5103,11 @@
       <c r="Q94" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="95" ht="27" spans="1:23">
+      <c r="Z94" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" ht="27" spans="1:26">
       <c r="A95" s="2">
         <v>110</v>
       </c>
@@ -5106,8 +5135,11 @@
       <c r="W95">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:21">
+      <c r="Z95" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" s="2">
         <v>111</v>
       </c>
@@ -5135,8 +5167,11 @@
       <c r="U96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:21">
+      <c r="Z96" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" s="2">
         <v>112</v>
       </c>
@@ -5164,8 +5199,11 @@
       <c r="U97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:21">
+      <c r="Z97" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" s="2">
         <v>113</v>
       </c>
@@ -5192,6 +5230,9 @@
       </c>
       <c r="U98">
         <v>1</v>
+      </c>
+      <c r="Z98" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="99" ht="27" spans="1:28">
@@ -5234,6 +5275,9 @@
       <c r="X99" s="2">
         <v>201</v>
       </c>
+      <c r="Z99" s="2">
+        <v>5</v>
+      </c>
       <c r="AA99" s="2">
         <v>1</v>
       </c>
@@ -5281,6 +5325,9 @@
       <c r="X100" s="2">
         <v>202</v>
       </c>
+      <c r="Z100" s="2">
+        <v>5</v>
+      </c>
       <c r="AA100" s="2">
         <v>3</v>
       </c>
@@ -5328,6 +5375,9 @@
       <c r="X101" s="2">
         <v>203</v>
       </c>
+      <c r="Z101" s="2">
+        <v>5</v>
+      </c>
       <c r="AA101" s="2">
         <v>4</v>
       </c>
@@ -5375,6 +5425,9 @@
       <c r="X102" s="2">
         <v>204</v>
       </c>
+      <c r="Z102" s="2">
+        <v>5</v>
+      </c>
       <c r="AA102" s="2">
         <v>5</v>
       </c>
@@ -5422,6 +5475,9 @@
       <c r="X103" s="2">
         <v>205</v>
       </c>
+      <c r="Z103" s="2">
+        <v>5</v>
+      </c>
       <c r="AA103" s="2">
         <v>6</v>
       </c>
@@ -5469,6 +5525,9 @@
       <c r="X104" s="2">
         <v>206</v>
       </c>
+      <c r="Z104" s="2">
+        <v>5</v>
+      </c>
       <c r="AA104" s="2">
         <v>7</v>
       </c>
@@ -5516,6 +5575,9 @@
       <c r="X105" s="2">
         <v>207</v>
       </c>
+      <c r="Z105" s="2">
+        <v>5</v>
+      </c>
       <c r="AA105" s="2">
         <v>8</v>
       </c>
@@ -5563,6 +5625,9 @@
       <c r="X106" s="2">
         <v>208</v>
       </c>
+      <c r="Z106" s="2">
+        <v>5</v>
+      </c>
       <c r="AA106" s="2">
         <v>9</v>
       </c>
@@ -5610,6 +5675,9 @@
       <c r="X107" s="2">
         <v>209</v>
       </c>
+      <c r="Z107" s="2">
+        <v>5</v>
+      </c>
       <c r="AA107" s="2">
         <v>10</v>
       </c>
@@ -5657,6 +5725,9 @@
       <c r="X108" s="2">
         <v>210</v>
       </c>
+      <c r="Z108" s="2">
+        <v>5</v>
+      </c>
       <c r="AA108" s="2">
         <v>11</v>
       </c>
@@ -5704,6 +5775,9 @@
       <c r="X109" s="2">
         <v>210</v>
       </c>
+      <c r="Z109" s="2">
+        <v>5</v>
+      </c>
       <c r="AA109" s="2">
         <v>12</v>
       </c>
@@ -5731,7 +5805,7 @@
         <v>10</v>
       </c>
       <c r="N110" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O110" s="2">
         <v>1</v>
@@ -5741,6 +5815,9 @@
       </c>
       <c r="Y110" s="2">
         <v>1</v>
+      </c>
+      <c r="Z110" s="2">
+        <v>4</v>
       </c>
       <c r="AG110" s="2">
         <v>1</v>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="346">
   <si>
     <t>技能ID</t>
   </si>
@@ -383,7 +383,7 @@
     <t>普通攻击</t>
   </si>
   <si>
-    <t>发射一根冰箭，造成{0}点伤害，并生成{2}点魔力</t>
+    <t>发射一根冰箭，造成{0}点伤害</t>
   </si>
   <si>
     <t>icon_skill_iceArrow</t>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>怪物投石（普通中速）</t>
+  </si>
+  <si>
+    <t>发射一根冰箭，造成{0}点伤害，并生成{2}点魔力</t>
   </si>
   <si>
     <r>
@@ -667,6 +670,9 @@
     <t>召唤一个口魔，持续15秒，每3秒进行一次治疗，回复自身1点生命</t>
   </si>
   <si>
+    <t>触发6点伤害</t>
+  </si>
+  <si>
     <t>boss格挡</t>
   </si>
   <si>
@@ -1032,7 +1038,7 @@
     <t>气定神闲</t>
   </si>
   <si>
-    <t>5秒内所有卡牌的消耗降低2点。</t>
+    <t>6秒内所有卡牌的消耗降低2点，移除</t>
   </si>
   <si>
     <t>狂热仪式</t>
@@ -1074,7 +1080,7 @@
     <t>破釜沉舟</t>
   </si>
   <si>
-    <t>获得4点护甲并丢弃所有手牌,每丢弃1张便额外获得4点护甲</t>
+    <t>获得4点护甲并丢弃所有手牌,每丢弃1张便额外获得4点护甲，移除</t>
   </si>
   <si>
     <t>不屈之盾</t>
@@ -1095,6 +1101,27 @@
     <t>成功格挡时，抽1张牌</t>
   </si>
   <si>
+    <t>强化普通攻击</t>
+  </si>
+  <si>
+    <t>尖刺外壳</t>
+  </si>
+  <si>
+    <t>每当获得护甲时，造成6点伤害</t>
+  </si>
+  <si>
+    <t>举起盾牌</t>
+  </si>
+  <si>
+    <t>获得6点护甲并抽1张牌</t>
+  </si>
+  <si>
+    <t>点燃攻击</t>
+  </si>
+  <si>
+    <t>12秒内造成12点伤害</t>
+  </si>
+  <si>
     <t>圣剑</t>
   </si>
   <si>
@@ -1134,7 +1161,7 @@
     <t>加班</t>
   </si>
   <si>
-    <t>造成10点穿透伤害,每当这张牌被&lt;color=red&gt;遗留&lt;/color&gt;,能量消耗就会降低1点。</t>
+    <t>造成12点穿透伤害,每当这张牌被&lt;color=red&gt;遗留&lt;/color&gt;,能量消耗就会降低1点。</t>
   </si>
   <si>
     <t>风障</t>
@@ -1240,9 +1267,6 @@
   </si>
   <si>
     <t>你的阵风每层还会提高你的风系魔法命中｛4｝点</t>
-  </si>
-  <si>
-    <t>尖刺外壳</t>
   </si>
   <si>
     <r>
@@ -1433,12 +1457,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1449,6 +1473,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1590,6 +1620,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1597,7 +1628,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1655,13 +1685,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,25 +1709,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,19 +1763,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,79 +1847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1937,176 +1967,177 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
@@ -2115,13 +2146,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2443,21 +2480,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH155"/>
+  <dimension ref="A1:AH160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C101" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P110" sqref="P110"/>
+      <selection pane="bottomRight" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
     <col min="6" max="7" width="21.375" style="2" customWidth="1"/>
@@ -2481,14 +2518,14 @@
     <col min="35" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" ht="30" customHeight="1" spans="1:34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2592,7 +2629,7 @@
       <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2696,7 +2733,7 @@
       <c r="B3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2733,14 +2770,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:26">
+    <row r="4" spans="1:26">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2799,7 +2836,7 @@
       <c r="B5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2861,7 +2898,7 @@
       <c r="B6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2923,20 +2960,20 @@
       <c r="B7" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>73</v>
+      <c r="C7" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
@@ -2977,22 +3014,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>98</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -3033,22 +3070,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>73</v>
+        <v>99</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
@@ -3086,22 +3123,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>100</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H10" s="1">
         <v>5.5</v>
@@ -3139,22 +3176,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>73</v>
+        <v>101</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H11" s="1">
         <v>3</v>
@@ -3192,10 +3229,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>102</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>74</v>
@@ -3242,10 +3279,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>73</v>
+        <v>103</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>74</v>
@@ -3292,10 +3329,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>73</v>
+        <v>104</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>74</v>
@@ -3342,10 +3379,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>105</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>74</v>
@@ -3392,10 +3429,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>73</v>
+        <v>106</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>74</v>
@@ -3442,10 +3479,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>73</v>
+        <v>107</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>74</v>
@@ -3492,13 +3529,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I18" s="2">
         <v>0.5</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:28">
@@ -3506,10 +3543,10 @@
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="4" t="s">
         <v>110</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -3550,10 +3587,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="4" t="s">
         <v>112</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>81</v>
@@ -3582,7 +3619,7 @@
         <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J21" s="2">
         <v>1</v>
@@ -3602,7 +3639,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>75</v>
@@ -3631,10 +3668,10 @@
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="4" t="s">
         <v>116</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="H23" s="2">
         <v>1</v>
@@ -3672,7 +3709,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>77</v>
@@ -3693,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R24" s="2">
         <v>1</v>
@@ -3704,7 +3741,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J25" s="2">
         <v>1</v>
@@ -3727,7 +3764,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>83</v>
@@ -3748,7 +3785,7 @@
         <v>1</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Y26" s="2">
         <v>1</v>
@@ -3759,7 +3796,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>91</v>
@@ -3777,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="T27" s="2">
         <v>10</v>
@@ -3788,10 +3825,10 @@
         <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="4" t="s">
         <v>123</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="J28" s="2">
         <v>1</v>
@@ -3811,10 +3848,10 @@
         <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="4" t="s">
         <v>125</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -3834,7 +3871,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -3846,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R30" s="2">
         <v>1</v>
@@ -3857,10 +3894,10 @@
         <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="4" t="s">
         <v>128</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="H31" s="2">
         <v>1</v>
@@ -3895,47 +3932,66 @@
     </row>
     <row r="32" s="2" customFormat="1" spans="1:23">
       <c r="A32" s="2">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="F32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="J32" s="2">
         <v>1</v>
       </c>
       <c r="K32" s="2">
         <v>1</v>
       </c>
-      <c r="R32" s="2">
-        <v>1</v>
-      </c>
-      <c r="T32" s="2">
-        <v>11</v>
+      <c r="N32" s="2">
+        <v>6</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="U32"/>
       <c r="V32"/>
       <c r="W32"/>
     </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="7" t="s">
+    <row r="33" s="2" customFormat="1" spans="1:23">
+      <c r="A33" s="2">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="C33" s="5"/>
       <c r="J33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" ht="27" spans="2:11">
-      <c r="B34" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R33" s="2">
+        <v>1</v>
+      </c>
+      <c r="T33" s="2">
+        <v>11</v>
+      </c>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="8" t="s">
         <v>133</v>
       </c>
       <c r="J34" s="2">
@@ -3945,11 +4001,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="6" t="s">
+    <row r="35" ht="27" spans="2:11">
+      <c r="B35" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>135</v>
       </c>
       <c r="J35" s="2">
@@ -3960,10 +4016,10 @@
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>137</v>
       </c>
       <c r="J36" s="2">
@@ -3973,18 +4029,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" ht="27" spans="1:11">
-      <c r="A37" s="2">
-        <v>1001</v>
-      </c>
-      <c r="B37" s="6" t="s">
+    <row r="37" spans="2:11">
+      <c r="B37" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J37" s="2">
         <v>0</v>
@@ -3993,36 +4043,42 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" ht="27" spans="2:11">
-      <c r="B38" s="6" t="s">
+    <row r="38" ht="27" spans="1:11">
+      <c r="A38" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="8" t="s">
         <v>141</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
       </c>
       <c r="K38" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="6" t="s">
+    <row r="39" ht="27" spans="2:11">
+      <c r="B39" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0</v>
       </c>
       <c r="K39" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>145</v>
       </c>
       <c r="J40" s="2">
@@ -4033,10 +4089,10 @@
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="8" t="s">
         <v>147</v>
       </c>
       <c r="J41" s="2">
@@ -4046,21 +4102,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="2:11">
+      <c r="B42" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H42" s="2">
-        <v>10</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -4068,16 +4115,22 @@
       <c r="K42" s="2">
         <v>9</v>
       </c>
-      <c r="N42" s="2">
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="2">
         <v>10</v>
-      </c>
-    </row>
-    <row r="43" ht="27" spans="2:11">
-      <c r="B43" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="J43" s="2">
         <v>0</v>
@@ -4085,22 +4138,16 @@
       <c r="K43" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" ht="27" spans="1:14">
-      <c r="A44" s="2">
-        <v>1004</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="N43" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="2:11">
+      <c r="B44" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H44" s="2">
-        <v>10</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
@@ -4108,91 +4155,88 @@
       <c r="K44" s="2">
         <v>9</v>
       </c>
-      <c r="N44" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="6" t="s">
+    </row>
+    <row r="45" ht="27" spans="1:14">
+      <c r="A45" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="8" t="s">
         <v>155</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="2">
+        <v>10</v>
+      </c>
       <c r="J45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="46" ht="27" spans="1:14">
-      <c r="A46" s="2">
-        <v>1011</v>
-      </c>
-      <c r="B46" s="8" t="s">
+      <c r="N45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="7" t="s">
         <v>156</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="27" spans="1:14">
+      <c r="A47" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0</v>
-      </c>
-      <c r="N46" s="2">
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="40.5" spans="1:20">
-      <c r="A48" s="2">
+    <row r="48" spans="2:11">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="40.5" spans="1:20">
+      <c r="A49" s="2">
         <v>1012</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2">
-        <v>10</v>
-      </c>
-      <c r="T48" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" ht="27" spans="1:14">
-      <c r="A49" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="9" t="s">
         <v>161</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -4205,17 +4249,20 @@
         <v>0</v>
       </c>
       <c r="N49" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" ht="27" spans="1:11">
+        <v>10</v>
+      </c>
+      <c r="T49" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" ht="27" spans="1:14">
       <c r="A50" s="2">
-        <v>1014</v>
-      </c>
-      <c r="B50" s="8" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>163</v>
       </c>
       <c r="D50" s="2" t="s">
@@ -4227,14 +4274,23 @@
       <c r="K50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" ht="27" spans="2:11">
-      <c r="B51" s="8" t="s">
+      <c r="N50" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" ht="27" spans="1:11">
+      <c r="A51" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>165</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="J51" s="2">
         <v>0</v>
       </c>
@@ -4242,11 +4298,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" ht="27" spans="2:11">
       <c r="B52" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="8"/>
+      <c r="C52" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="J52" s="2">
         <v>0</v>
       </c>
@@ -4255,12 +4313,10 @@
       </c>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="B53" s="10" t="s">
         <v>168</v>
       </c>
+      <c r="C53" s="9"/>
       <c r="J53" s="2">
         <v>0</v>
       </c>
@@ -4268,11 +4324,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="27" spans="2:11">
-      <c r="B54" s="8" t="s">
+    <row r="54" spans="2:11">
+      <c r="B54" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>170</v>
       </c>
       <c r="J54" s="2">
@@ -4282,50 +4338,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="40.5" spans="1:11">
-      <c r="A55" s="2">
+    <row r="55" ht="27" spans="2:11">
+      <c r="B55" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="40.5" spans="1:11">
+      <c r="A56" s="2">
         <v>1018</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H55" s="2">
-        <v>1</v>
-      </c>
-      <c r="J55" s="2">
-        <v>1</v>
-      </c>
-      <c r="K55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" ht="27" spans="1:11">
-      <c r="A56" s="2">
-        <v>1020</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>174</v>
       </c>
       <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="27" spans="1:11">
+      <c r="A57" s="2">
+        <v>1020</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H57" s="2">
         <v>0.5</v>
       </c>
-      <c r="J56" s="2">
-        <v>1</v>
-      </c>
-      <c r="K56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="9" t="s">
-        <v>175</v>
-      </c>
       <c r="J57" s="2">
         <v>1</v>
       </c>
@@ -4334,23 +4393,20 @@
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J58" s="2">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="J59" s="2">
         <v>1</v>
       </c>
@@ -4358,157 +4414,148 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="27" spans="1:17">
-      <c r="A60" s="2">
-        <v>1021</v>
-      </c>
+    <row r="60" spans="2:11">
       <c r="B60" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="F60" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:17">
+      <c r="A61" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
-      <c r="J60" s="2">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2">
+      <c r="F61" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2">
         <v>10</v>
       </c>
-      <c r="N60" s="2">
+      <c r="N61" s="2">
         <v>10</v>
       </c>
-      <c r="Q60" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18">
-      <c r="A62" s="2">
+      <c r="Q61" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="2">
         <v>1010</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="B63" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H63" s="2">
         <v>2</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I63" s="2">
         <v>5</v>
       </c>
-      <c r="J62" s="2">
-        <v>1</v>
-      </c>
-      <c r="K62" s="2">
-        <v>0</v>
-      </c>
-      <c r="M62" s="2">
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
         <v>10</v>
       </c>
-      <c r="N62" s="2">
+      <c r="N63" s="2">
         <v>-10</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="Q63" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="R62" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" ht="27" spans="1:14">
-      <c r="A64" s="2">
+      <c r="R63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" ht="27" spans="1:14">
+      <c r="A65" s="2">
         <v>1114</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="J64" s="2">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
-        <v>1</v>
-      </c>
-      <c r="N64" s="2">
+      <c r="B65" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="J65" s="2">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="N65" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" ht="27" spans="1:14">
-      <c r="A66" s="2">
-        <v>1110</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>81</v>
-      </c>
+    <row r="66" spans="2:11">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
       <c r="J66" s="2">
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>1</v>
-      </c>
-      <c r="N66" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="67" ht="27" spans="1:14">
       <c r="A67" s="2">
-        <v>1111</v>
-      </c>
-      <c r="B67" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>190</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -4521,61 +4568,71 @@
         <v>1</v>
       </c>
       <c r="N67" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" ht="40.5" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" ht="27" spans="1:14">
       <c r="A68" s="2">
-        <v>1112</v>
-      </c>
-      <c r="B68" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>192</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
+      <c r="N68" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" ht="40.5" spans="1:14">
+      <c r="A69" s="2">
+        <v>1112</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="H68" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J68" s="2">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1</v>
-      </c>
-      <c r="N68" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" ht="27" spans="1:11">
-      <c r="A69" s="2">
-        <v>1113</v>
-      </c>
-      <c r="B69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="G69" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.5</v>
+      </c>
       <c r="J69" s="2">
         <v>0</v>
       </c>
       <c r="K69" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="2:11">
-      <c r="B70" s="8"/>
-      <c r="C70" s="8"/>
+      <c r="N69" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" ht="27" spans="1:11">
+      <c r="A70" s="2">
+        <v>1113</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>197</v>
+      </c>
       <c r="D70" s="2" t="s">
         <v>81</v>
       </c>
@@ -4586,16 +4643,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" ht="27" spans="1:11">
-      <c r="A71" s="2">
-        <v>1115</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>197</v>
-      </c>
+    <row r="71" spans="2:11">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="2" t="s">
         <v>81</v>
       </c>
@@ -4606,14 +4656,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" ht="27" spans="1:20">
+    <row r="72" ht="27" spans="1:11">
       <c r="A72" s="2">
-        <v>1116</v>
-      </c>
-      <c r="B72" s="8" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>199</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -4625,28 +4675,38 @@
       <c r="K72" s="2">
         <v>1</v>
       </c>
-      <c r="N72" s="2">
+    </row>
+    <row r="73" ht="27" spans="1:20">
+      <c r="A73" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+      <c r="N73" s="2">
         <v>-1</v>
       </c>
-      <c r="R72" s="2">
-        <v>1</v>
-      </c>
-      <c r="T72" s="2">
+      <c r="R73" s="2">
+        <v>1</v>
+      </c>
+      <c r="T73" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
-      <c r="B73" s="8"/>
-      <c r="J73" s="2">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-    </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="8"/>
-      <c r="C74" s="2"/>
+      <c r="B74" s="9"/>
       <c r="J74" s="2">
         <v>0</v>
       </c>
@@ -4654,66 +4714,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" ht="40.5" spans="1:17">
-      <c r="A75" s="2">
+    <row r="75" spans="2:11">
+      <c r="B75" s="9"/>
+      <c r="C75" s="2"/>
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" ht="40.5" spans="1:17">
+      <c r="A76" s="2">
         <v>1117</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="B76" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H76" s="2">
         <v>0.5</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I76" s="2">
         <v>10</v>
       </c>
-      <c r="J75" s="2">
-        <v>1</v>
-      </c>
-      <c r="K75" s="2">
-        <v>1</v>
-      </c>
-      <c r="M75" s="2">
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1</v>
+      </c>
+      <c r="M76" s="2">
         <v>50</v>
       </c>
-      <c r="N75" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11">
-      <c r="B76" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="N76" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J76" s="2">
-        <v>0</v>
-      </c>
-      <c r="K76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" ht="27" spans="2:11">
-      <c r="B77" s="8" t="s">
+    </row>
+    <row r="77" spans="2:11">
+      <c r="B77" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="2" t="s">
         <v>206</v>
       </c>
       <c r="J77" s="2">
@@ -4724,10 +4780,10 @@
       </c>
     </row>
     <row r="78" ht="27" spans="2:11">
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>208</v>
       </c>
       <c r="J78" s="2">
@@ -4738,10 +4794,10 @@
       </c>
     </row>
     <row r="79" ht="27" spans="2:11">
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>210</v>
       </c>
       <c r="J79" s="2">
@@ -4752,10 +4808,10 @@
       </c>
     </row>
     <row r="80" ht="27" spans="2:11">
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="9" t="s">
         <v>212</v>
       </c>
       <c r="J80" s="2">
@@ -4765,38 +4821,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="2">
+    <row r="81" ht="27" spans="2:11">
+      <c r="B81" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="2">
         <v>1201</v>
       </c>
-      <c r="B81" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="B82" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H81" s="2">
-        <v>1</v>
-      </c>
-      <c r="J81" s="2">
-        <v>1</v>
-      </c>
-      <c r="K81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11">
-      <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
+      <c r="H82" s="2">
+        <v>1</v>
+      </c>
       <c r="J82" s="2">
         <v>1</v>
       </c>
@@ -4805,9 +4865,8 @@
       </c>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="10" t="s">
-        <v>215</v>
-      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="12"/>
       <c r="J83" s="2">
         <v>1</v>
       </c>
@@ -4815,25 +4874,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="27" spans="2:11">
-      <c r="B84" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C84" s="4" t="s">
+    <row r="84" spans="2:11">
+      <c r="B84" s="11" t="s">
         <v>217</v>
       </c>
       <c r="J84" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K84" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="85" ht="27" spans="2:11">
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="5" t="s">
         <v>219</v>
       </c>
       <c r="J85" s="2">
@@ -4843,51 +4899,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
-      <c r="B86" s="10" t="s">
+    <row r="86" ht="27" spans="2:11">
+      <c r="B86" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="8" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="87" s="3" customFormat="1" spans="1:26">
-      <c r="A87" s="3">
-        <v>102</v>
-      </c>
-      <c r="B87" s="12" t="s">
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J87" s="3">
-        <v>1</v>
-      </c>
-      <c r="M87" s="3">
-        <v>2</v>
-      </c>
-      <c r="R87" s="3">
-        <v>1</v>
-      </c>
-      <c r="T87" s="3">
-        <v>9</v>
-      </c>
-      <c r="Z87" s="3">
-        <v>1</v>
       </c>
     </row>
     <row r="88" s="3" customFormat="1" spans="1:26">
       <c r="A88" s="3">
-        <v>103</v>
-      </c>
-      <c r="B88" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="14" t="s">
         <v>225</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -4896,9 +4937,6 @@
       <c r="J88" s="3">
         <v>1</v>
       </c>
-      <c r="K88" s="3">
-        <v>3</v>
-      </c>
       <c r="M88" s="3">
         <v>2</v>
       </c>
@@ -4906,122 +4944,128 @@
         <v>1</v>
       </c>
       <c r="T88" s="3">
+        <v>9</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" s="3" customFormat="1" spans="1:26">
+      <c r="A89" s="3">
+        <v>103</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1</v>
+      </c>
+      <c r="K89" s="3">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3">
+        <v>2</v>
+      </c>
+      <c r="R89" s="3">
+        <v>1</v>
+      </c>
+      <c r="T89" s="3">
         <v>1003</v>
       </c>
-      <c r="Z88" s="3">
+      <c r="U89" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z89" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="89" ht="27" spans="1:26">
-      <c r="A89" s="2">
+    <row r="90" ht="27" spans="1:26">
+      <c r="A90" s="2">
         <v>104</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="B90" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J89" s="2">
-        <v>1</v>
-      </c>
-      <c r="K89" s="2">
+      <c r="J90" s="2">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2">
         <v>3</v>
       </c>
-      <c r="M89" s="2">
+      <c r="M90" s="2">
         <v>6</v>
       </c>
-      <c r="R89" s="2">
-        <v>1</v>
-      </c>
-      <c r="T89" s="2">
+      <c r="R90" s="2">
+        <v>1</v>
+      </c>
+      <c r="T90" s="2">
         <v>1005</v>
-      </c>
-      <c r="Z89" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" ht="27" spans="1:30">
-      <c r="A90" s="2">
-        <v>105</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J90" s="2">
-        <v>1</v>
-      </c>
-      <c r="K90" s="2">
-        <v>0</v>
-      </c>
-      <c r="M90" s="2">
-        <v>3</v>
-      </c>
-      <c r="N90" s="2">
-        <v>2</v>
-      </c>
-      <c r="O90" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="Z90" s="2">
         <v>3</v>
       </c>
-      <c r="AC90" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26">
+    </row>
+    <row r="91" ht="27" spans="1:30">
       <c r="A91" s="2">
-        <v>106</v>
-      </c>
-      <c r="B91" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>231</v>
       </c>
+      <c r="D91" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="J91" s="2">
         <v>1</v>
       </c>
       <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="M91" s="2">
         <v>3</v>
       </c>
-      <c r="M91" s="2">
-        <v>6</v>
-      </c>
-      <c r="R91" s="2">
-        <v>1</v>
-      </c>
-      <c r="T91" s="2">
-        <v>1004</v>
+      <c r="N91" s="2">
+        <v>2</v>
+      </c>
+      <c r="O91" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="Z91" s="2">
         <v>3</v>
       </c>
+      <c r="AC91" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="2">
-        <v>107</v>
-      </c>
-      <c r="B92" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>233</v>
       </c>
       <c r="J92" s="2">
@@ -5031,77 +5075,74 @@
         <v>3</v>
       </c>
       <c r="M92" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R92" s="2">
         <v>1</v>
       </c>
-      <c r="W92">
-        <v>8</v>
+      <c r="T92" s="2">
+        <v>1004</v>
       </c>
       <c r="Z92" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:26">
       <c r="A93" s="2">
+        <v>107</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="J93" s="2">
+        <v>1</v>
+      </c>
+      <c r="K93" s="2">
+        <v>3</v>
+      </c>
+      <c r="M93" s="2">
+        <v>0</v>
+      </c>
+      <c r="R93" s="2">
+        <v>1</v>
+      </c>
+      <c r="W93">
+        <v>8</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94" s="2">
         <v>108</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="J93" s="2">
-        <v>1</v>
-      </c>
-      <c r="K93" s="2">
+      <c r="B94" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="J94" s="2">
+        <v>1</v>
+      </c>
+      <c r="K94" s="2">
         <v>2</v>
-      </c>
-      <c r="M93" s="2">
-        <v>3</v>
-      </c>
-      <c r="R93" s="2">
-        <v>1</v>
-      </c>
-      <c r="T93" s="2">
-        <v>1007</v>
-      </c>
-      <c r="U93">
-        <v>1</v>
-      </c>
-      <c r="Z93" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" ht="27" spans="1:26">
-      <c r="A94" s="2">
-        <v>109</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="J94" s="2">
-        <v>1</v>
-      </c>
-      <c r="K94" s="2">
-        <v>0</v>
       </c>
       <c r="M94" s="2">
         <v>3</v>
       </c>
-      <c r="N94" s="2">
-        <v>5</v>
-      </c>
-      <c r="O94" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q94" s="2" t="s">
-        <v>85</v>
+      <c r="R94" s="2">
+        <v>1</v>
+      </c>
+      <c r="T94" s="2">
+        <v>1007</v>
+      </c>
+      <c r="U94">
+        <v>1</v>
       </c>
       <c r="Z94" s="2">
         <v>3</v>
@@ -5109,76 +5150,76 @@
     </row>
     <row r="95" ht="27" spans="1:26">
       <c r="A95" s="2">
-        <v>110</v>
-      </c>
-      <c r="B95" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>239</v>
       </c>
       <c r="J95" s="2">
         <v>1</v>
       </c>
       <c r="K95" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95" s="2">
         <v>3</v>
       </c>
-      <c r="R95" s="2">
-        <v>1</v>
-      </c>
-      <c r="U95">
-        <v>1</v>
-      </c>
-      <c r="W95">
+      <c r="N95" s="2">
+        <v>5</v>
+      </c>
+      <c r="O95" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" ht="27" spans="1:26">
+      <c r="A96" s="2">
+        <v>110</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2">
+        <v>1</v>
+      </c>
+      <c r="M96" s="2">
+        <v>3</v>
+      </c>
+      <c r="R96" s="2">
+        <v>1</v>
+      </c>
+      <c r="U96">
+        <v>1</v>
+      </c>
+      <c r="W96">
         <v>8</v>
       </c>
-      <c r="Z95" s="2">
+      <c r="Z96" s="2">
         <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26">
-      <c r="A96" s="2">
-        <v>111</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="J96" s="2">
-        <v>1</v>
-      </c>
-      <c r="K96" s="2">
-        <v>2</v>
-      </c>
-      <c r="M96" s="2">
-        <v>5</v>
-      </c>
-      <c r="R96" s="2">
-        <v>1</v>
-      </c>
-      <c r="T96" s="2">
-        <v>1010</v>
-      </c>
-      <c r="U96">
-        <v>1</v>
-      </c>
-      <c r="Z96" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="2">
-        <v>112</v>
-      </c>
-      <c r="B97" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>243</v>
       </c>
       <c r="J97" s="2">
@@ -5188,29 +5229,29 @@
         <v>2</v>
       </c>
       <c r="M97" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R97" s="2">
         <v>1</v>
       </c>
       <c r="T97" s="2">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="U97">
         <v>1</v>
       </c>
       <c r="Z97" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="2">
-        <v>113</v>
-      </c>
-      <c r="B98" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>245</v>
       </c>
       <c r="J98" s="2">
@@ -5220,13 +5261,13 @@
         <v>2</v>
       </c>
       <c r="M98" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R98" s="2">
         <v>1</v>
       </c>
       <c r="T98" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="U98">
         <v>1</v>
@@ -5235,18 +5276,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" ht="27" spans="1:28">
+    <row r="99" spans="1:26">
       <c r="A99" s="2">
-        <v>200</v>
-      </c>
-      <c r="B99" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="H99" s="2">
-        <v>1</v>
       </c>
       <c r="J99" s="2">
         <v>1</v>
@@ -5254,99 +5292,93 @@
       <c r="K99" s="2">
         <v>2</v>
       </c>
-      <c r="L99" s="2">
-        <v>0</v>
-      </c>
       <c r="M99" s="2">
+        <v>4</v>
+      </c>
+      <c r="R99" s="2">
+        <v>1</v>
+      </c>
+      <c r="T99" s="2">
+        <v>1014</v>
+      </c>
+      <c r="U99">
+        <v>1</v>
+      </c>
+      <c r="Z99" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" s="2" customFormat="1" spans="1:26">
+      <c r="A100" s="2">
+        <v>114</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J100" s="2">
+        <v>1</v>
+      </c>
+      <c r="K100" s="2">
+        <v>0</v>
+      </c>
+      <c r="L100" s="2">
+        <v>0</v>
+      </c>
+      <c r="M100" s="2">
+        <v>4</v>
+      </c>
+      <c r="N100" s="2">
         <v>5</v>
       </c>
-      <c r="N99" s="2">
-        <v>0</v>
-      </c>
-      <c r="R99" s="2">
-        <v>1</v>
-      </c>
-      <c r="T99" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U99">
-        <v>1</v>
-      </c>
-      <c r="X99" s="2">
-        <v>201</v>
-      </c>
-      <c r="Z99" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA99" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" ht="27" spans="1:28">
-      <c r="A100" s="2">
-        <v>201</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H100" s="2">
-        <v>1</v>
-      </c>
-      <c r="J100" s="2">
-        <v>1</v>
-      </c>
-      <c r="K100" s="2">
-        <v>2</v>
-      </c>
-      <c r="L100" s="2">
-        <v>0</v>
-      </c>
-      <c r="M100" s="2">
-        <v>5</v>
-      </c>
-      <c r="N100" s="2">
-        <v>0</v>
+      <c r="O100" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="R100" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S100" s="2">
+        <v>0</v>
       </c>
       <c r="T100" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U100">
-        <v>1</v>
-      </c>
-      <c r="X100" s="2">
-        <v>202</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
       <c r="Z100" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA100" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB100" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" ht="27" spans="1:28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" s="2" customFormat="1" spans="1:26">
       <c r="A101" s="2">
-        <v>202</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C101" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="H101" s="2">
-        <v>1</v>
+      <c r="C101" s="9" t="s">
+        <v>250</v>
       </c>
       <c r="J101" s="2">
         <v>1</v>
@@ -5354,146 +5386,97 @@
       <c r="K101" s="2">
         <v>2</v>
       </c>
-      <c r="L101" s="2">
-        <v>0</v>
-      </c>
       <c r="M101" s="2">
+        <v>4</v>
+      </c>
+      <c r="R101" s="2">
+        <v>1</v>
+      </c>
+      <c r="T101" s="2">
+        <v>2008</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="Z101" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" s="4" customFormat="1" spans="1:26">
+      <c r="A102" s="4">
+        <v>116</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J102" s="4">
+        <v>1</v>
+      </c>
+      <c r="M102" s="4">
+        <v>2</v>
+      </c>
+      <c r="R102" s="4">
+        <v>1</v>
+      </c>
+      <c r="T102" s="4">
+        <v>12</v>
+      </c>
+      <c r="V102" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z102" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" s="4" customFormat="1" spans="1:26">
+      <c r="A103" s="4">
+        <v>117</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J103" s="4">
+        <v>1</v>
+      </c>
+      <c r="K103" s="4">
+        <v>0</v>
+      </c>
+      <c r="M103" s="4">
         <v>5</v>
       </c>
-      <c r="N101" s="2">
-        <v>0</v>
-      </c>
-      <c r="R101" s="2">
-        <v>1</v>
-      </c>
-      <c r="T101" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U101">
-        <v>1</v>
-      </c>
-      <c r="X101" s="2">
-        <v>203</v>
-      </c>
-      <c r="Z101" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA101" s="2">
+      <c r="R103" s="4">
+        <v>0</v>
+      </c>
+      <c r="T103" s="4">
         <v>4</v>
       </c>
-      <c r="AB101" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" ht="27" spans="1:28">
-      <c r="A102" s="2">
-        <v>203</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H102" s="2">
-        <v>1</v>
-      </c>
-      <c r="J102" s="2">
-        <v>1</v>
-      </c>
-      <c r="K102" s="2">
-        <v>2</v>
-      </c>
-      <c r="L102" s="2">
-        <v>0</v>
-      </c>
-      <c r="M102" s="2">
-        <v>5</v>
-      </c>
-      <c r="N102" s="2">
-        <v>0</v>
-      </c>
-      <c r="R102" s="2">
-        <v>1</v>
-      </c>
-      <c r="T102" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U102">
-        <v>1</v>
-      </c>
-      <c r="X102" s="2">
-        <v>204</v>
-      </c>
-      <c r="Z102" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA102" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB102" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" ht="27" spans="1:28">
-      <c r="A103" s="2">
-        <v>204</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H103" s="2">
-        <v>1</v>
-      </c>
-      <c r="J103" s="2">
-        <v>1</v>
-      </c>
-      <c r="K103" s="2">
-        <v>2</v>
-      </c>
-      <c r="L103" s="2">
-        <v>0</v>
-      </c>
-      <c r="M103" s="2">
-        <v>5</v>
-      </c>
-      <c r="N103" s="2">
-        <v>0</v>
-      </c>
-      <c r="R103" s="2">
-        <v>1</v>
-      </c>
-      <c r="T103" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U103">
-        <v>1</v>
-      </c>
-      <c r="X103" s="2">
-        <v>205</v>
-      </c>
-      <c r="Z103" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA103" s="2">
-        <v>6</v>
-      </c>
-      <c r="AB103" s="2">
-        <v>1</v>
+      <c r="Z103" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="104" ht="27" spans="1:28">
       <c r="A104" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="H104" s="2">
         <v>1</v>
@@ -5523,13 +5506,13 @@
         <v>1</v>
       </c>
       <c r="X104" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Z104" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA104" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB104" s="2">
         <v>1</v>
@@ -5537,13 +5520,13 @@
     </row>
     <row r="105" ht="27" spans="1:28">
       <c r="A105" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="H105" s="2">
         <v>1</v>
@@ -5573,13 +5556,13 @@
         <v>1</v>
       </c>
       <c r="X105" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Z105" s="2">
         <v>5</v>
       </c>
       <c r="AA105" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AB105" s="2">
         <v>1</v>
@@ -5587,13 +5570,13 @@
     </row>
     <row r="106" ht="27" spans="1:28">
       <c r="A106" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="H106" s="2">
         <v>1</v>
@@ -5623,13 +5606,13 @@
         <v>1</v>
       </c>
       <c r="X106" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="Z106" s="2">
         <v>5</v>
       </c>
       <c r="AA106" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AB106" s="2">
         <v>1</v>
@@ -5637,13 +5620,13 @@
     </row>
     <row r="107" ht="27" spans="1:28">
       <c r="A107" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C107" s="4" t="s">
         <v>255</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="H107" s="2">
         <v>1</v>
@@ -5673,13 +5656,13 @@
         <v>1</v>
       </c>
       <c r="X107" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Z107" s="2">
         <v>5</v>
       </c>
       <c r="AA107" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AB107" s="2">
         <v>1</v>
@@ -5687,13 +5670,13 @@
     </row>
     <row r="108" ht="27" spans="1:28">
       <c r="A108" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="H108" s="2">
         <v>1</v>
@@ -5723,13 +5706,13 @@
         <v>1</v>
       </c>
       <c r="X108" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Z108" s="2">
         <v>5</v>
       </c>
       <c r="AA108" s="2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AB108" s="2">
         <v>1</v>
@@ -5737,13 +5720,13 @@
     </row>
     <row r="109" ht="27" spans="1:28">
       <c r="A109" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="H109" s="2">
         <v>1</v>
@@ -5773,493 +5756,743 @@
         <v>1</v>
       </c>
       <c r="X109" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Z109" s="2">
         <v>5</v>
       </c>
       <c r="AA109" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB109" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" ht="27" spans="1:28">
+      <c r="A110" s="2">
+        <v>206</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H110" s="2">
+        <v>1</v>
+      </c>
+      <c r="J110" s="2">
+        <v>1</v>
+      </c>
+      <c r="K110" s="2">
+        <v>2</v>
+      </c>
+      <c r="L110" s="2">
+        <v>0</v>
+      </c>
+      <c r="M110" s="2">
+        <v>5</v>
+      </c>
+      <c r="N110" s="2">
+        <v>0</v>
+      </c>
+      <c r="R110" s="2">
+        <v>1</v>
+      </c>
+      <c r="T110" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U110">
+        <v>1</v>
+      </c>
+      <c r="X110" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z110" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA110" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" ht="27" spans="1:28">
+      <c r="A111" s="2">
+        <v>207</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="J111" s="2">
+        <v>1</v>
+      </c>
+      <c r="K111" s="2">
+        <v>2</v>
+      </c>
+      <c r="L111" s="2">
+        <v>0</v>
+      </c>
+      <c r="M111" s="2">
+        <v>5</v>
+      </c>
+      <c r="N111" s="2">
+        <v>0</v>
+      </c>
+      <c r="R111" s="2">
+        <v>1</v>
+      </c>
+      <c r="T111" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U111">
+        <v>1</v>
+      </c>
+      <c r="X111" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z111" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA111" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB111" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" ht="27" spans="1:28">
+      <c r="A112" s="2">
+        <v>208</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+      <c r="J112" s="2">
+        <v>1</v>
+      </c>
+      <c r="K112" s="2">
+        <v>2</v>
+      </c>
+      <c r="L112" s="2">
+        <v>0</v>
+      </c>
+      <c r="M112" s="2">
+        <v>5</v>
+      </c>
+      <c r="N112" s="2">
+        <v>0</v>
+      </c>
+      <c r="R112" s="2">
+        <v>1</v>
+      </c>
+      <c r="T112" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U112">
+        <v>1</v>
+      </c>
+      <c r="X112" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z112" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA112" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" ht="27" spans="1:28">
+      <c r="A113" s="2">
+        <v>209</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
+      <c r="J113" s="2">
+        <v>1</v>
+      </c>
+      <c r="K113" s="2">
+        <v>2</v>
+      </c>
+      <c r="L113" s="2">
+        <v>0</v>
+      </c>
+      <c r="M113" s="2">
+        <v>5</v>
+      </c>
+      <c r="N113" s="2">
+        <v>0</v>
+      </c>
+      <c r="R113" s="2">
+        <v>1</v>
+      </c>
+      <c r="T113" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U113">
+        <v>1</v>
+      </c>
+      <c r="X113" s="2">
+        <v>210</v>
+      </c>
+      <c r="Z113" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA113" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB113" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" ht="27" spans="1:28">
+      <c r="A114" s="2">
+        <v>210</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+      <c r="J114" s="2">
+        <v>1</v>
+      </c>
+      <c r="K114" s="2">
+        <v>2</v>
+      </c>
+      <c r="L114" s="2">
+        <v>0</v>
+      </c>
+      <c r="M114" s="2">
+        <v>5</v>
+      </c>
+      <c r="N114" s="2">
+        <v>0</v>
+      </c>
+      <c r="R114" s="2">
+        <v>1</v>
+      </c>
+      <c r="T114" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U114">
+        <v>1</v>
+      </c>
+      <c r="X114" s="2">
+        <v>210</v>
+      </c>
+      <c r="Z114" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA114" s="2">
         <v>12</v>
       </c>
-      <c r="AB109" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" ht="40.5" spans="1:33">
-      <c r="A110" s="2">
+      <c r="AB114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" ht="40.5" spans="1:33">
+      <c r="A115" s="2">
         <v>211</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="J110" s="2">
-        <v>1</v>
-      </c>
-      <c r="K110" s="2">
-        <v>1</v>
-      </c>
-      <c r="M110" s="2">
+      <c r="B115" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="J115" s="2">
+        <v>1</v>
+      </c>
+      <c r="K115" s="2">
+        <v>1</v>
+      </c>
+      <c r="M115" s="2">
         <v>10</v>
       </c>
-      <c r="N110" s="2">
+      <c r="N115" s="2">
+        <v>12</v>
+      </c>
+      <c r="O115" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y115" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z115" s="2">
+        <v>5</v>
+      </c>
+      <c r="AG115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" ht="14.25" spans="2:3">
+      <c r="B116" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C116" s="17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" spans="2:3">
+      <c r="B117" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="118" ht="42.75" spans="2:3">
+      <c r="B118" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" ht="28.5" spans="2:3">
+      <c r="B119" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="120" ht="14.25" spans="2:3">
+      <c r="B120" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" ht="14.25" spans="2:3">
+      <c r="B121" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="122" ht="28.5" spans="2:3">
+      <c r="B122" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" spans="2:8">
+      <c r="B123" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="H123" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124" ht="28.5" spans="2:3">
+      <c r="B124" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="125" ht="28.5" spans="2:3">
+      <c r="B125" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="126" ht="14.25" spans="2:2">
+      <c r="B126" s="17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="127" ht="57" spans="2:3">
+      <c r="B127" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" spans="2:8">
+      <c r="B128" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="H128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25" spans="3:3">
+      <c r="C129" s="17"/>
+    </row>
+    <row r="130" ht="28.5" spans="2:3">
+      <c r="B130" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="131" ht="14.25" spans="2:3">
+      <c r="B131" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" spans="2:3">
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+    </row>
+    <row r="133" ht="28.5" spans="2:3">
+      <c r="B133" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" spans="2:3">
+      <c r="B134" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="135" ht="28.5" spans="2:3">
+      <c r="B135" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+    </row>
+    <row r="137" spans="1:20">
+      <c r="A137" s="2">
+        <v>1410</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H137" s="2">
+        <v>10</v>
+      </c>
+      <c r="J137" s="2">
+        <v>0</v>
+      </c>
+      <c r="K137" s="2">
+        <v>3</v>
+      </c>
+      <c r="N137" s="2">
+        <v>1</v>
+      </c>
+      <c r="R137" s="2">
+        <v>1</v>
+      </c>
+      <c r="T137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" ht="27" spans="1:20">
+      <c r="A138" s="2">
+        <v>1411</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H138" s="2">
+        <v>1</v>
+      </c>
+      <c r="I138" s="2">
+        <v>10</v>
+      </c>
+      <c r="J138" s="2">
+        <v>1</v>
+      </c>
+      <c r="K138" s="2">
+        <v>3</v>
+      </c>
+      <c r="M138" s="2">
+        <v>10</v>
+      </c>
+      <c r="N138" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R138" s="2">
+        <v>1</v>
+      </c>
+      <c r="T138" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" ht="27" spans="1:20">
+      <c r="A139" s="2">
+        <v>1412</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H139" s="2">
+        <v>2</v>
+      </c>
+      <c r="I139" s="2">
+        <v>10</v>
+      </c>
+      <c r="J139" s="2">
+        <v>1</v>
+      </c>
+      <c r="K139" s="2">
+        <v>3</v>
+      </c>
+      <c r="M139" s="2">
+        <v>10</v>
+      </c>
+      <c r="N139" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="T139" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" ht="54" spans="2:3">
+      <c r="B140" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="141" ht="27" spans="2:3">
+      <c r="B141" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="142" ht="40.5" spans="2:3">
+      <c r="B142" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="143" ht="27" spans="2:3">
+      <c r="B143" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="144" ht="40.5" spans="2:3">
+      <c r="B144" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="145" ht="27" spans="2:9">
+      <c r="B145" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H145" s="2">
+        <v>5</v>
+      </c>
+      <c r="I145" s="2">
         <v>15</v>
       </c>
-      <c r="O110" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y110" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z110" s="2">
-        <v>4</v>
-      </c>
-      <c r="AG110" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" ht="14.25" spans="2:3">
-      <c r="B111" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" spans="2:3">
-      <c r="B112" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="113" ht="42.75" spans="2:3">
-      <c r="B113" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="C113" s="14" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="114" ht="28.5" spans="2:3">
-      <c r="B114" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C114" s="14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="115" ht="14.25" spans="2:3">
-      <c r="B115" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" spans="2:3">
-      <c r="B116" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="C116" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="117" ht="28.5" spans="2:3">
-      <c r="B117" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25" spans="2:8">
-      <c r="B118" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="C118" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="H118" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="119" ht="28.5" spans="2:3">
-      <c r="B119" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="120" ht="28.5" spans="2:3">
-      <c r="B120" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" spans="2:2">
-      <c r="B121" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="122" ht="57" spans="2:3">
-      <c r="B122" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C122" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" spans="2:8">
-      <c r="B123" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C123" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="H123" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25" spans="3:3">
-      <c r="C124" s="14"/>
-    </row>
-    <row r="125" ht="28.5" spans="2:3">
-      <c r="B125" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C125" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25" spans="2:3">
-      <c r="B126" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C126" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25" spans="2:3">
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-    </row>
-    <row r="128" ht="28.5" spans="2:3">
-      <c r="B128" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25" spans="2:3">
-      <c r="B129" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="C129" s="14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="130" ht="28.5" spans="2:3">
-      <c r="B130" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="131" spans="2:3">
-      <c r="B131" s="8"/>
-      <c r="C131" s="8"/>
-    </row>
-    <row r="132" spans="1:20">
-      <c r="A132" s="2">
-        <v>1410</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H132" s="2">
-        <v>10</v>
-      </c>
-      <c r="J132" s="2">
-        <v>0</v>
-      </c>
-      <c r="K132" s="2">
-        <v>3</v>
-      </c>
-      <c r="N132" s="2">
-        <v>1</v>
-      </c>
-      <c r="R132" s="2">
-        <v>1</v>
-      </c>
-      <c r="T132" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" ht="27" spans="1:20">
-      <c r="A133" s="2">
-        <v>1411</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H133" s="2">
-        <v>1</v>
-      </c>
-      <c r="I133" s="2">
-        <v>10</v>
-      </c>
-      <c r="J133" s="2">
-        <v>1</v>
-      </c>
-      <c r="K133" s="2">
-        <v>3</v>
-      </c>
-      <c r="M133" s="2">
-        <v>10</v>
-      </c>
-      <c r="N133" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q133" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="R133" s="2">
-        <v>1</v>
-      </c>
-      <c r="T133" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" ht="27" spans="1:20">
-      <c r="A134" s="2">
-        <v>1412</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H134" s="2">
-        <v>2</v>
-      </c>
-      <c r="I134" s="2">
-        <v>10</v>
-      </c>
-      <c r="J134" s="2">
-        <v>1</v>
-      </c>
-      <c r="K134" s="2">
-        <v>3</v>
-      </c>
-      <c r="M134" s="2">
-        <v>10</v>
-      </c>
-      <c r="N134" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q134" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="T134" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" ht="54" spans="2:3">
-      <c r="B135" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="136" ht="27" spans="2:3">
-      <c r="B136" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="137" ht="40.5" spans="2:3">
-      <c r="B137" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="138" ht="27" spans="2:3">
-      <c r="B138" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="139" ht="40.5" spans="2:3">
-      <c r="B139" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="140" ht="27" spans="2:9">
-      <c r="B140" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H140" s="2">
-        <v>5</v>
-      </c>
-      <c r="I140" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" ht="27" spans="2:8">
-      <c r="B141" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="H141" s="2">
+    </row>
+    <row r="146" ht="27" spans="2:8">
+      <c r="B146" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H146" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="142" ht="40.5" spans="2:3">
-      <c r="B142" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="143" ht="27" spans="2:3">
-      <c r="B143" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="8"/>
-    </row>
-    <row r="146" spans="2:4">
-      <c r="B146" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="147" ht="27" spans="2:4">
-      <c r="B147" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4">
-      <c r="B148" s="8" t="s">
+    <row r="147" ht="40.5" spans="2:3">
+      <c r="B147" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="C147" s="5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="149" spans="2:4">
-      <c r="B149" s="8" t="s">
+    <row r="148" ht="27" spans="2:3">
+      <c r="B148" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="D149" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4">
-      <c r="B150" s="8" t="s">
+      <c r="C148" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D150" s="4" t="s">
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="9"/>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" s="9" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="151" spans="2:4">
-      <c r="B151" s="8" t="s">
+      <c r="D151" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D151" s="4" t="s">
+    </row>
+    <row r="152" ht="27" spans="2:4">
+      <c r="B152" s="9" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="152" spans="2:4">
-      <c r="B152" s="8" t="s">
+      <c r="C152" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="D152" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" s="9" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="153" spans="2:4">
-      <c r="B153" s="8" t="s">
+      <c r="D153" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D153" s="4" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="8" t="s">
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" s="9" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="8" t="s">
+      <c r="D154" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" s="9" t="s">
         <v>337</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="B157" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="9" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -670,7 +670,7 @@
     <t>召唤一个口魔，持续15秒，每3秒进行一次治疗，回复自身1点生命</t>
   </si>
   <si>
-    <t>触发6点伤害</t>
+    <t>触发5点伤害</t>
   </si>
   <si>
     <t>boss格挡</t>
@@ -1107,7 +1107,7 @@
     <t>尖刺外壳</t>
   </si>
   <si>
-    <t>每当获得护甲时，造成6点伤害</t>
+    <t>每当获得护甲时，造成5点伤害</t>
   </si>
   <si>
     <t>举起盾牌</t>
@@ -1457,10 +1457,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1505,24 +1505,85 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1537,48 +1598,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1590,46 +1628,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1685,7 +1685,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1697,37 +1781,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1745,115 +1853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1864,6 +1864,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1891,32 +1936,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1931,49 +1964,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1982,133 +1982,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2483,11 +2483,11 @@
   <dimension ref="A1:AH160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D115" sqref="D115"/>
+      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3951,7 +3951,7 @@
         <v>1</v>
       </c>
       <c r="N32" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O32" s="2">
         <v>1</v>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBB00C1-5B3F-4A17-957A-2FA0AF2BDB33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1455,14 +1461,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1498,143 +1498,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1645,8 +1508,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1667,13 +1536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1683,182 +1552,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1866,249 +1561,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2116,8 +1572,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2140,16 +1596,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2162,61 +1618,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2474,23 +1887,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
@@ -2518,7 +1930,7 @@
     <col min="35" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2034,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2726,7 +2138,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2770,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2826,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2888,10 +2300,10 @@
         <v>2</v>
       </c>
       <c r="Z5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2953,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="27" spans="1:23">
+    <row r="7" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3009,7 +2421,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="27" spans="1:23">
+    <row r="8" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3065,7 +2477,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="27" spans="1:23">
+    <row r="9" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3118,7 +2530,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="27" spans="1:23">
+    <row r="10" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3171,7 +2583,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="27" spans="1:23">
+    <row r="11" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3224,7 +2636,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" ht="27" spans="1:20">
+    <row r="12" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3274,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:20">
+    <row r="13" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3324,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="1:20">
+    <row r="14" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -3374,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="1:20">
+    <row r="15" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3424,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:20">
+    <row r="16" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3474,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:20">
+    <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -3524,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>20</v>
       </c>
@@ -3538,7 +2950,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" ht="40.5" spans="1:28">
+    <row r="19" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>21</v>
       </c>
@@ -3582,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>22</v>
       </c>
@@ -3614,7 +3026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>23</v>
       </c>
@@ -3634,7 +3046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>24</v>
       </c>
@@ -3663,7 +3075,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:28">
+    <row r="23" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>25</v>
       </c>
@@ -3704,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>26</v>
       </c>
@@ -3736,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>27</v>
       </c>
@@ -3759,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>28</v>
       </c>
@@ -3791,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>29</v>
       </c>
@@ -3820,7 +3232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>30</v>
       </c>
@@ -3843,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>31</v>
       </c>
@@ -3866,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>32</v>
       </c>
@@ -3889,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="27" spans="1:28">
+    <row r="31" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>33</v>
       </c>
@@ -3930,14 +3342,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:23">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>34</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="5"/>
       <c r="F32" s="2" t="s">
         <v>83</v>
       </c>
@@ -3959,18 +3370,14 @@
       <c r="Q32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:23">
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>50</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="5"/>
       <c r="J33" s="2">
         <v>1</v>
       </c>
@@ -3983,11 +3390,8 @@
       <c r="T33" s="2">
         <v>11</v>
       </c>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-    </row>
-    <row r="34" spans="2:11">
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>132</v>
       </c>
@@ -4001,7 +3405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" ht="27" spans="2:11">
+    <row r="35" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>134</v>
       </c>
@@ -4015,7 +3419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>136</v>
       </c>
@@ -4029,7 +3433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>138</v>
       </c>
@@ -4043,7 +3447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" ht="27" spans="1:11">
+    <row r="38" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1001</v>
       </c>
@@ -4063,7 +3467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" ht="27" spans="2:11">
+    <row r="39" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>142</v>
       </c>
@@ -4074,7 +3478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>144</v>
       </c>
@@ -4088,7 +3492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>146</v>
       </c>
@@ -4102,7 +3506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
         <v>148</v>
       </c>
@@ -4116,7 +3520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1002</v>
       </c>
@@ -4142,7 +3546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" ht="27" spans="2:11">
+    <row r="44" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>152</v>
       </c>
@@ -4156,7 +3560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" ht="27" spans="1:14">
+    <row r="45" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>1004</v>
       </c>
@@ -4182,7 +3586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>156</v>
       </c>
@@ -4196,7 +3600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" ht="27" spans="1:14">
+    <row r="47" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1011</v>
       </c>
@@ -4219,7 +3623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="J48" s="2">
@@ -4229,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="40.5" spans="1:20">
+    <row r="49" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1012</v>
       </c>
@@ -4255,7 +3659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" ht="27" spans="1:14">
+    <row r="50" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1013</v>
       </c>
@@ -4278,7 +3682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" ht="27" spans="1:11">
+    <row r="51" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1014</v>
       </c>
@@ -4298,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="27" spans="2:11">
+    <row r="52" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B52" s="9" t="s">
         <v>166</v>
       </c>
@@ -4312,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B53" s="10" t="s">
         <v>168</v>
       </c>
@@ -4324,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
         <v>169</v>
       </c>
@@ -4338,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="27" spans="2:11">
+    <row r="55" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
         <v>171</v>
       </c>
@@ -4352,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="40.5" spans="1:11">
+    <row r="56" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1018</v>
       </c>
@@ -4372,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="27" spans="1:11">
+    <row r="57" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1020</v>
       </c>
@@ -4392,7 +3796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
         <v>177</v>
       </c>
@@ -4403,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
         <v>68</v>
       </c>
@@ -4414,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B60" s="9" t="s">
         <v>178</v>
       </c>
@@ -4428,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="27" spans="1:17">
+    <row r="61" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1021</v>
       </c>
@@ -4466,7 +3870,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B62" s="9" t="s">
         <v>184</v>
       </c>
@@ -4477,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1010</v>
       </c>
@@ -4518,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="27" spans="1:14">
+    <row r="65" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1114</v>
       </c>
@@ -4538,7 +3942,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="J66" s="2">
@@ -4548,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" ht="27" spans="1:14">
+    <row r="67" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1110</v>
       </c>
@@ -4571,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" ht="27" spans="1:14">
+    <row r="68" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1111</v>
       </c>
@@ -4594,7 +3998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" ht="40.5" spans="1:14">
+    <row r="69" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1112</v>
       </c>
@@ -4623,7 +4027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" ht="27" spans="1:11">
+    <row r="70" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1113</v>
       </c>
@@ -4643,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="2:11">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="2" t="s">
@@ -4656,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" ht="27" spans="1:11">
+    <row r="72" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>1115</v>
       </c>
@@ -4676,7 +4080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" ht="27" spans="1:20">
+    <row r="73" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>1116</v>
       </c>
@@ -4705,7 +4109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="2:11">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B74" s="9"/>
       <c r="J74" s="2">
         <v>0</v>
@@ -4714,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:11">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B75" s="9"/>
       <c r="C75" s="2"/>
       <c r="J75" s="2">
@@ -4724,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" ht="40.5" spans="1:17">
+    <row r="76" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>1117</v>
       </c>
@@ -4765,7 +4169,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B77" s="9" t="s">
         <v>205</v>
       </c>
@@ -4779,7 +4183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="27" spans="2:11">
+    <row r="78" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B78" s="9" t="s">
         <v>207</v>
       </c>
@@ -4793,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="27" spans="2:11">
+    <row r="79" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B79" s="9" t="s">
         <v>209</v>
       </c>
@@ -4807,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" ht="27" spans="2:11">
+    <row r="80" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B80" s="11" t="s">
         <v>211</v>
       </c>
@@ -4821,7 +4225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" ht="27" spans="2:11">
+    <row r="81" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B81" s="11" t="s">
         <v>213</v>
       </c>
@@ -4835,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>1201</v>
       </c>
@@ -4864,7 +4268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B83" s="11"/>
       <c r="C83" s="12"/>
       <c r="J83" s="2">
@@ -4874,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
         <v>217</v>
       </c>
@@ -4885,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" ht="27" spans="2:11">
+    <row r="85" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B85" s="11" t="s">
         <v>218</v>
       </c>
@@ -4899,7 +4303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" ht="27" spans="2:11">
+    <row r="86" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B86" s="11" t="s">
         <v>220</v>
       </c>
@@ -4913,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B87" s="11" t="s">
         <v>222</v>
       </c>
@@ -4921,7 +4325,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="88" s="3" customFormat="1" spans="1:26">
+    <row r="88" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>102</v>
       </c>
@@ -4947,10 +4351,10 @@
         <v>9</v>
       </c>
       <c r="Z88" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" s="3" customFormat="1" spans="1:26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>103</v>
       </c>
@@ -4985,7 +4389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" ht="27" spans="1:26">
+    <row r="90" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>104</v>
       </c>
@@ -5017,7 +4421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" ht="27" spans="1:30">
+    <row r="91" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>105</v>
       </c>
@@ -5058,7 +4462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>106</v>
       </c>
@@ -5087,7 +4491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>107</v>
       </c>
@@ -5116,7 +4520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>108</v>
       </c>
@@ -5148,7 +4552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" ht="27" spans="1:26">
+    <row r="95" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>109</v>
       </c>
@@ -5180,7 +4584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" ht="27" spans="1:26">
+    <row r="96" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>110</v>
       </c>
@@ -5212,7 +4616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>111</v>
       </c>
@@ -5241,10 +4645,10 @@
         <v>1</v>
       </c>
       <c r="Z97" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>112</v>
       </c>
@@ -5276,7 +4680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>113</v>
       </c>
@@ -5308,7 +4712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" s="2" customFormat="1" spans="1:26">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>114</v>
       </c>
@@ -5363,14 +4767,11 @@
       <c r="T100" s="2">
         <v>0</v>
       </c>
-      <c r="U100"/>
-      <c r="V100"/>
-      <c r="W100"/>
       <c r="Z100" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="101" s="2" customFormat="1" spans="1:26">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>115</v>
       </c>
@@ -5398,13 +4799,11 @@
       <c r="U101">
         <v>1</v>
       </c>
-      <c r="V101"/>
-      <c r="W101"/>
       <c r="Z101" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="102" s="4" customFormat="1" spans="1:26">
+    <row r="102" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>116</v>
       </c>
@@ -5436,7 +4835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" s="4" customFormat="1" spans="1:26">
+    <row r="103" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>117</v>
       </c>
@@ -5468,7 +4867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" ht="27" spans="1:28">
+    <row r="104" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>200</v>
       </c>
@@ -5509,7 +4908,7 @@
         <v>201</v>
       </c>
       <c r="Z104" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA104" s="2">
         <v>1</v>
@@ -5518,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" ht="27" spans="1:28">
+    <row r="105" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>201</v>
       </c>
@@ -5559,7 +4958,7 @@
         <v>202</v>
       </c>
       <c r="Z105" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA105" s="2">
         <v>3</v>
@@ -5568,7 +4967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" ht="27" spans="1:28">
+    <row r="106" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>202</v>
       </c>
@@ -5609,7 +5008,7 @@
         <v>203</v>
       </c>
       <c r="Z106" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA106" s="2">
         <v>4</v>
@@ -5618,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" ht="27" spans="1:28">
+    <row r="107" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>203</v>
       </c>
@@ -5659,7 +5058,7 @@
         <v>204</v>
       </c>
       <c r="Z107" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA107" s="2">
         <v>5</v>
@@ -5668,7 +5067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" ht="27" spans="1:28">
+    <row r="108" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>204</v>
       </c>
@@ -5709,7 +5108,7 @@
         <v>205</v>
       </c>
       <c r="Z108" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA108" s="2">
         <v>6</v>
@@ -5718,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" ht="27" spans="1:28">
+    <row r="109" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>205</v>
       </c>
@@ -5759,7 +5158,7 @@
         <v>206</v>
       </c>
       <c r="Z109" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA109" s="2">
         <v>7</v>
@@ -5768,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" ht="27" spans="1:28">
+    <row r="110" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>206</v>
       </c>
@@ -5809,7 +5208,7 @@
         <v>207</v>
       </c>
       <c r="Z110" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA110" s="2">
         <v>8</v>
@@ -5818,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" ht="27" spans="1:28">
+    <row r="111" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>207</v>
       </c>
@@ -5859,7 +5258,7 @@
         <v>208</v>
       </c>
       <c r="Z111" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA111" s="2">
         <v>9</v>
@@ -5868,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" ht="27" spans="1:28">
+    <row r="112" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>208</v>
       </c>
@@ -5909,7 +5308,7 @@
         <v>209</v>
       </c>
       <c r="Z112" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA112" s="2">
         <v>10</v>
@@ -5918,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" ht="27" spans="1:28">
+    <row r="113" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>209</v>
       </c>
@@ -5959,7 +5358,7 @@
         <v>210</v>
       </c>
       <c r="Z113" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA113" s="2">
         <v>11</v>
@@ -5968,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" ht="27" spans="1:28">
+    <row r="114" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>210</v>
       </c>
@@ -6009,7 +5408,7 @@
         <v>210</v>
       </c>
       <c r="Z114" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA114" s="2">
         <v>12</v>
@@ -6018,7 +5417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" ht="40.5" spans="1:33">
+    <row r="115" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>211</v>
       </c>
@@ -6050,13 +5449,13 @@
         <v>1</v>
       </c>
       <c r="Z115" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG115" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="2:3">
+    <row r="116" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B116" s="17" t="s">
         <v>269</v>
       </c>
@@ -6064,7 +5463,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="2:3">
+    <row r="117" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B117" s="17" t="s">
         <v>271</v>
       </c>
@@ -6072,7 +5471,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="118" ht="42.75" spans="2:3">
+    <row r="118" spans="1:33" ht="47.25" x14ac:dyDescent="0.2">
       <c r="B118" s="17" t="s">
         <v>273</v>
       </c>
@@ -6080,7 +5479,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="119" ht="28.5" spans="2:3">
+    <row r="119" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B119" s="17" t="s">
         <v>275</v>
       </c>
@@ -6088,7 +5487,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="120" ht="14.25" spans="2:3">
+    <row r="120" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B120" s="17" t="s">
         <v>277</v>
       </c>
@@ -6096,7 +5495,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="121" ht="14.25" spans="2:3">
+    <row r="121" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B121" s="17" t="s">
         <v>279</v>
       </c>
@@ -6104,7 +5503,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="122" ht="28.5" spans="2:3">
+    <row r="122" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B122" s="17" t="s">
         <v>281</v>
       </c>
@@ -6112,7 +5511,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="123" ht="14.25" spans="2:8">
+    <row r="123" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B123" s="17" t="s">
         <v>283</v>
       </c>
@@ -6123,7 +5522,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" ht="28.5" spans="2:3">
+    <row r="124" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B124" s="17" t="s">
         <v>285</v>
       </c>
@@ -6131,7 +5530,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="125" ht="28.5" spans="2:3">
+    <row r="125" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B125" s="17" t="s">
         <v>287</v>
       </c>
@@ -6139,12 +5538,12 @@
         <v>288</v>
       </c>
     </row>
-    <row r="126" ht="14.25" spans="2:2">
+    <row r="126" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B126" s="17" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="127" ht="57" spans="2:3">
+    <row r="127" spans="1:33" ht="63" x14ac:dyDescent="0.2">
       <c r="B127" s="17" t="s">
         <v>290</v>
       </c>
@@ -6152,7 +5551,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="128" ht="14.25" spans="2:8">
+    <row r="128" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B128" s="17" t="s">
         <v>292</v>
       </c>
@@ -6163,10 +5562,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="14.25" spans="3:3">
+    <row r="129" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C129" s="17"/>
     </row>
-    <row r="130" ht="28.5" spans="2:3">
+    <row r="130" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B130" s="17" t="s">
         <v>294</v>
       </c>
@@ -6174,7 +5573,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="131" ht="14.25" spans="2:3">
+    <row r="131" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B131" s="17" t="s">
         <v>296</v>
       </c>
@@ -6182,11 +5581,11 @@
         <v>297</v>
       </c>
     </row>
-    <row r="132" ht="14.25" spans="2:3">
+    <row r="132" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
     </row>
-    <row r="133" ht="28.5" spans="2:3">
+    <row r="133" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B133" s="17" t="s">
         <v>298</v>
       </c>
@@ -6194,7 +5593,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="134" ht="14.25" spans="2:3">
+    <row r="134" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B134" s="17" t="s">
         <v>300</v>
       </c>
@@ -6202,7 +5601,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="135" ht="28.5" spans="2:3">
+    <row r="135" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B135" s="17" t="s">
         <v>302</v>
       </c>
@@ -6210,11 +5609,11 @@
         <v>303</v>
       </c>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>1410</v>
       </c>
@@ -6246,7 +5645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" ht="27" spans="1:20">
+    <row r="138" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>1411</v>
       </c>
@@ -6287,7 +5686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" ht="27" spans="1:20">
+    <row r="139" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>1412</v>
       </c>
@@ -6334,7 +5733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" ht="54" spans="2:3">
+    <row r="140" spans="1:20" ht="57" x14ac:dyDescent="0.2">
       <c r="B140" s="9" t="s">
         <v>312</v>
       </c>
@@ -6342,7 +5741,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="141" ht="27" spans="2:3">
+    <row r="141" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B141" s="9" t="s">
         <v>314</v>
       </c>
@@ -6350,7 +5749,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="142" ht="40.5" spans="2:3">
+    <row r="142" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B142" s="9" t="s">
         <v>316</v>
       </c>
@@ -6358,7 +5757,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="143" ht="27" spans="2:3">
+    <row r="143" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B143" s="9" t="s">
         <v>318</v>
       </c>
@@ -6366,7 +5765,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="144" ht="40.5" spans="2:3">
+    <row r="144" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B144" s="9" t="s">
         <v>320</v>
       </c>
@@ -6374,7 +5773,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="145" ht="27" spans="2:9">
+    <row r="145" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B145" s="9" t="s">
         <v>322</v>
       </c>
@@ -6388,7 +5787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" ht="27" spans="2:8">
+    <row r="146" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B146" s="9" t="s">
         <v>324</v>
       </c>
@@ -6399,7 +5798,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="147" ht="40.5" spans="2:3">
+    <row r="147" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B147" s="9" t="s">
         <v>326</v>
       </c>
@@ -6407,7 +5806,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="148" ht="27" spans="2:3">
+    <row r="148" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B148" s="9" t="s">
         <v>328</v>
       </c>
@@ -6415,10 +5814,10 @@
         <v>329</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B149" s="9"/>
     </row>
-    <row r="151" spans="2:4">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B151" s="9" t="s">
         <v>330</v>
       </c>
@@ -6426,7 +5825,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="152" ht="27" spans="2:4">
+    <row r="152" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B152" s="9" t="s">
         <v>332</v>
       </c>
@@ -6437,7 +5836,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="153" spans="2:4">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B153" s="9" t="s">
         <v>334</v>
       </c>
@@ -6445,7 +5844,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="154" spans="2:4">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B154" s="9" t="s">
         <v>336</v>
       </c>
@@ -6453,7 +5852,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="155" spans="2:4">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B155" s="9" t="s">
         <v>337</v>
       </c>
@@ -6461,7 +5860,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="156" spans="2:4">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B156" s="9" t="s">
         <v>339</v>
       </c>
@@ -6469,7 +5868,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="157" spans="2:4">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B157" s="9" t="s">
         <v>341</v>
       </c>
@@ -6477,7 +5876,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="158" spans="2:4">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B158" s="9" t="s">
         <v>343</v>
       </c>
@@ -6485,20 +5884,20 @@
         <v>342</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B159" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B160" s="9" t="s">
         <v>345</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -1,31 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBB00C1-5B3F-4A17-957A-2FA0AF2BDB33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Z$1:$Z$169</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="359">
   <si>
     <t>技能ID</t>
   </si>
@@ -676,7 +673,16 @@
     <t>召唤一个口魔，持续15秒，每3秒进行一次治疗，回复自身1点生命</t>
   </si>
   <si>
-    <t>触发5点伤害</t>
+    <t>触发4点伤害</t>
+  </si>
+  <si>
+    <t>效果-2点治疗</t>
+  </si>
+  <si>
+    <t>效果-5点伤害</t>
+  </si>
+  <si>
+    <t>效果-2点伤害</t>
   </si>
   <si>
     <t>boss格挡</t>
@@ -1113,7 +1119,7 @@
     <t>尖刺外壳</t>
   </si>
   <si>
-    <t>每当获得护甲时，造成5点伤害</t>
+    <t>每当获得护甲时，造成4点伤害</t>
   </si>
   <si>
     <t>举起盾牌</t>
@@ -1126,6 +1132,36 @@
   </si>
   <si>
     <t>12秒内造成12点伤害</t>
+  </si>
+  <si>
+    <t>自然转化器</t>
+  </si>
+  <si>
+    <t>成功格挡时，回复2点生命</t>
+  </si>
+  <si>
+    <t>电能装甲</t>
+  </si>
+  <si>
+    <t>成功格挡时，造成5点伤害</t>
+  </si>
+  <si>
+    <t>致命投掷</t>
+  </si>
+  <si>
+    <t>造成8点伤害，移除</t>
+  </si>
+  <si>
+    <t>锯齿护臂</t>
+  </si>
+  <si>
+    <t>成功格挡时，造成2点伤害</t>
+  </si>
+  <si>
+    <t>能量再生</t>
+  </si>
+  <si>
+    <t>弃2张牌，回复1点能量</t>
   </si>
   <si>
     <t>圣剑</t>
@@ -1461,8 +1497,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1498,6 +1540,143 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1508,14 +1687,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1536,13 +1709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79995117038483843"/>
+        <fgColor theme="3" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1552,8 +1725,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1561,25 +1914,265 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1596,16 +2189,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1618,18 +2211,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1887,22 +2523,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AH169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
+      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
@@ -1930,7 +2567,7 @@
     <col min="35" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="30" customHeight="1" spans="1:34">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2034,7 +2671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2138,7 +2775,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2182,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2237,11 +2874,8 @@
       <c r="T4" s="2">
         <v>0</v>
       </c>
-      <c r="Z4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2303,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="27" spans="1:26">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2362,10 +2996,10 @@
         <v>2</v>
       </c>
       <c r="Z6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2421,7 +3055,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2477,7 +3111,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" s="1" customFormat="1" ht="27" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2530,7 +3164,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" s="1" customFormat="1" ht="27" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2583,7 +3217,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" s="1" customFormat="1" ht="27" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2636,7 +3270,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="27" spans="1:20">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2686,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="27" spans="1:20">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2736,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="27" spans="1:20">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2786,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="27" spans="1:20">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2836,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="27" spans="1:20">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2886,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="27" spans="1:20">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2936,282 +3570,309 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+    <row r="18" s="1" customFormat="1" ht="27" spans="1:23">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>4</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I19" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="20" ht="40.5" spans="1:28">
+      <c r="A20" s="2">
         <v>21</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2">
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1</v>
+      </c>
+      <c r="K20" s="2">
         <v>2</v>
       </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
         <v>5</v>
       </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="R19" s="2">
-        <v>1</v>
-      </c>
-      <c r="T19" s="2">
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>1</v>
+      </c>
+      <c r="T20" s="2">
         <v>1001</v>
       </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="2">
         <v>22</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
         <v>4</v>
       </c>
-      <c r="R20" s="2">
-        <v>1</v>
-      </c>
-      <c r="T20" s="2">
+      <c r="R21" s="2">
+        <v>1</v>
+      </c>
+      <c r="T21" s="2">
         <v>1002</v>
       </c>
-      <c r="W20">
+      <c r="W21">
         <v>2</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="Z21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="2">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" ht="27" spans="1:28">
+      <c r="A24" s="2">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>3</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>3</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2">
-        <v>1</v>
-      </c>
-      <c r="T21" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>24</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="2" t="s">
+      <c r="AB24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="2">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I22" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2">
-        <v>3</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>3</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA23" s="2">
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
         <v>2</v>
       </c>
-      <c r="AB23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-      <c r="L24" s="2">
-        <v>2</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2" t="s">
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="R24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="R25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="2">
         <v>27</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="N25" s="2">
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
         <v>5</v>
       </c>
-      <c r="O25" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="2">
         <v>28</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2">
-        <v>1</v>
-      </c>
-      <c r="O26" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="J27" s="2">
         <v>1</v>
@@ -3228,42 +3889,48 @@
       <c r="Q27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="T27" s="2">
+      <c r="Y27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="2">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="T28" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+    <row r="29" spans="1:19">
+      <c r="A29" s="2">
         <v>30</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2">
-        <v>3</v>
-      </c>
-      <c r="R28" s="2">
-        <v>1</v>
-      </c>
-      <c r="S28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="J29" s="2">
         <v>1</v>
@@ -3274,16 +3941,19 @@
       <c r="R29" s="2">
         <v>1</v>
       </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="S29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="J30" s="2">
         <v>1</v>
@@ -3291,28 +3961,19 @@
       <c r="K30" s="2">
         <v>3</v>
       </c>
-      <c r="L30" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="R30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="V30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="J31" s="2">
         <v>1</v>
@@ -3321,144 +3982,204 @@
         <v>3</v>
       </c>
       <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="1:28">
+      <c r="A32" s="2">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
         <v>3</v>
       </c>
-      <c r="N31" s="2">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="2">
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
         <v>3</v>
       </c>
-      <c r="AA31" s="2">
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="2">
         <v>13</v>
       </c>
-      <c r="AB31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="AB32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="2">
         <v>34</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1</v>
-      </c>
-      <c r="N32" s="2">
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="N33" s="2">
+        <v>4</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="1:23">
+      <c r="A34" s="2">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>3</v>
+      </c>
+      <c r="L34" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R34" s="2">
+        <v>1</v>
+      </c>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="1:23">
+      <c r="A35" s="2">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="F35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2">
         <v>5</v>
       </c>
-      <c r="O32" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="2" t="s">
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="1:23">
+      <c r="A36" s="2">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="F36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2">
+        <v>2</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="2">
         <v>50</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1</v>
-      </c>
-      <c r="R33" s="2">
-        <v>1</v>
-      </c>
-      <c r="T33" s="2">
+      <c r="B37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="R37" s="2">
+        <v>1</v>
+      </c>
+      <c r="T37" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-      <c r="K34" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="8" t="s">
+    <row r="38" spans="2:11">
+      <c r="B38" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="7" t="s">
+      <c r="C38" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0</v>
-      </c>
-      <c r="K36" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0</v>
-      </c>
-      <c r="K37" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
-        <v>1001</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J38" s="2">
         <v>0</v>
@@ -3467,23 +4188,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B39" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>143</v>
+    <row r="39" ht="27" spans="2:11">
+      <c r="B39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0</v>
       </c>
       <c r="K39" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>145</v>
+    <row r="40" spans="2:11">
+      <c r="B40" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -3492,12 +4216,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>147</v>
+    <row r="41" spans="2:11">
+      <c r="B41" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
@@ -3506,12 +4230,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>149</v>
+    <row r="42" ht="27" spans="1:11">
+      <c r="A42" s="2">
+        <v>1001</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -3520,38 +4250,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H43" s="2">
-        <v>10</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0</v>
+    <row r="43" ht="27" spans="2:11">
+      <c r="B43" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="K43" s="2">
         <v>9</v>
       </c>
-      <c r="N43" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B44" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>153</v>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
@@ -3560,21 +4275,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>1004</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H45" s="2">
-        <v>10</v>
+    <row r="45" spans="2:11">
+      <c r="B45" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="J45" s="2">
         <v>0</v>
@@ -3582,474 +4288,463 @@
       <c r="K45" s="2">
         <v>9</v>
       </c>
-      <c r="N45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>157</v>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="J46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14">
       <c r="A47" s="2">
-        <v>1011</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>158</v>
+        <v>1002</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="H47" s="2">
+        <v>10</v>
+      </c>
       <c r="J47" s="2">
         <v>0</v>
       </c>
       <c r="K47" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N47" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+    <row r="48" ht="27" spans="2:11">
+      <c r="B48" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="J48" s="2">
         <v>0</v>
       </c>
       <c r="K48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" ht="27" spans="1:14">
       <c r="A49" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H49" s="2">
+        <v>10</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>9</v>
+      </c>
+      <c r="N49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" ht="27" spans="1:14">
+      <c r="A51" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="40.5" spans="1:20">
+      <c r="A53" s="2">
         <v>1012</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="B53" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2">
-        <v>0</v>
-      </c>
-      <c r="N49" s="2">
+      <c r="J53" s="2">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2">
         <v>10</v>
       </c>
-      <c r="T49" s="2">
+      <c r="T53" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+    <row r="54" ht="27" spans="1:14">
+      <c r="A54" s="2">
         <v>1013</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="B54" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
-        <v>0</v>
-      </c>
-      <c r="N50" s="2">
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+    <row r="55" ht="27" spans="1:11">
+      <c r="A55" s="2">
         <v>1014</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="B55" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B53" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B54" s="9" t="s">
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="27" spans="2:11">
+      <c r="B56" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B55" s="9" t="s">
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C57" s="10"/>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="C58" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="27" spans="2:11">
+      <c r="B59" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="40.5" spans="1:11">
+      <c r="A60" s="2">
         <v>1018</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1</v>
-      </c>
-      <c r="J56" s="2">
-        <v>1</v>
-      </c>
-      <c r="K56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="B60" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:11">
+      <c r="A61" s="2">
         <v>1020</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H57" s="2">
+      <c r="B61" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="H61" s="2">
         <v>0.5</v>
       </c>
-      <c r="J57" s="2">
-        <v>1</v>
-      </c>
-      <c r="K57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B58" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="J58" s="2">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B59" s="10" t="s">
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J59" s="2">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B60" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J60" s="2">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="27" spans="1:17">
+      <c r="A65" s="2">
         <v>1021</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="B65" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H61" s="2">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2">
-        <v>0</v>
-      </c>
-      <c r="M61" s="2">
+      <c r="F65" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="M65" s="2">
         <v>10</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N65" s="2">
         <v>10</v>
       </c>
-      <c r="Q61" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B62" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="J62" s="2">
-        <v>1</v>
-      </c>
-      <c r="K62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="Q65" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
+      <c r="B66" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="2">
         <v>1010</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="B67" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H67" s="2">
         <v>2</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I67" s="2">
         <v>5</v>
       </c>
-      <c r="J63" s="2">
-        <v>1</v>
-      </c>
-      <c r="K63" s="2">
-        <v>0</v>
-      </c>
-      <c r="M63" s="2">
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="M67" s="2">
         <v>10</v>
       </c>
-      <c r="N63" s="2">
+      <c r="N67" s="2">
         <v>-10</v>
       </c>
-      <c r="Q63" s="2" t="s">
+      <c r="Q67" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="R63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="R67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" ht="27" spans="1:14">
+      <c r="A69" s="2">
         <v>1114</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="J65" s="2">
-        <v>0</v>
-      </c>
-      <c r="K65" s="2">
-        <v>1</v>
-      </c>
-      <c r="N65" s="2">
+      <c r="B69" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1</v>
+      </c>
+      <c r="N69" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="J66" s="2">
-        <v>0</v>
-      </c>
-      <c r="K66" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+    <row r="70" spans="2:11">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" ht="27" spans="1:14">
+      <c r="A71" s="2">
         <v>1110</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J67" s="2">
-        <v>0</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1</v>
-      </c>
-      <c r="N67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
-        <v>1111</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C68" s="9" t="s">
+      <c r="B71" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J68" s="2">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2">
-        <v>1</v>
-      </c>
-      <c r="N68" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
-        <v>1112</v>
-      </c>
-      <c r="B69" s="9" t="s">
+      <c r="C71" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C69" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H69" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J69" s="2">
-        <v>0</v>
-      </c>
-      <c r="K69" s="2">
-        <v>1</v>
-      </c>
-      <c r="N69" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>1113</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J70" s="2">
-        <v>0</v>
-      </c>
-      <c r="K70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
       <c r="D71" s="2" t="s">
         <v>81</v>
       </c>
@@ -4059,16 +4754,19 @@
       <c r="K71" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="N71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" ht="27" spans="1:14">
       <c r="A72" s="2">
-        <v>1115</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>199</v>
+        <v>1111</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>81</v>
@@ -4079,20 +4777,29 @@
       <c r="K72" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="N72" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" ht="40.5" spans="1:14">
       <c r="A73" s="2">
-        <v>1116</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>201</v>
+        <v>1112</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="G73" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.5</v>
+      </c>
       <c r="J73" s="2">
         <v>0</v>
       </c>
@@ -4100,467 +4807,415 @@
         <v>1</v>
       </c>
       <c r="N73" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" ht="27" spans="1:11">
+      <c r="A74" s="2">
+        <v>1113</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" ht="27" spans="1:11">
+      <c r="A76" s="2">
+        <v>1115</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" ht="27" spans="1:20">
+      <c r="A77" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2">
+        <v>1</v>
+      </c>
+      <c r="N77" s="2">
         <v>-1</v>
       </c>
-      <c r="R73" s="2">
-        <v>1</v>
-      </c>
-      <c r="T73" s="2">
+      <c r="R77" s="2">
+        <v>1</v>
+      </c>
+      <c r="T77" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B74" s="9"/>
-      <c r="J74" s="2">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B75" s="9"/>
-      <c r="C75" s="2"/>
-      <c r="J75" s="2">
-        <v>0</v>
-      </c>
-      <c r="K75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+    <row r="78" spans="2:11">
+      <c r="B78" s="10"/>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" s="10"/>
+      <c r="C79" s="2"/>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" ht="40.5" spans="1:17">
+      <c r="A80" s="2">
         <v>1117</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="B80" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H80" s="2">
         <v>0.5</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I80" s="2">
         <v>10</v>
       </c>
-      <c r="J76" s="2">
-        <v>1</v>
-      </c>
-      <c r="K76" s="2">
-        <v>1</v>
-      </c>
-      <c r="M76" s="2">
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1</v>
+      </c>
+      <c r="M80" s="2">
         <v>50</v>
       </c>
-      <c r="N76" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B77" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J77" s="2">
-        <v>0</v>
-      </c>
-      <c r="K77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B78" s="9" t="s">
+      <c r="N80" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C78" s="9" t="s">
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="J78" s="2">
-        <v>0</v>
-      </c>
-      <c r="K78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B79" s="9" t="s">
+      <c r="C81" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" ht="27" spans="2:11">
+      <c r="B82" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="J79" s="2">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B80" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="J82" s="2">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" ht="27" spans="2:11">
+      <c r="B83" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="J80" s="2">
-        <v>0</v>
-      </c>
-      <c r="K80" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B81" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" ht="27" spans="2:11">
+      <c r="B84" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="J81" s="2">
-        <v>0</v>
-      </c>
-      <c r="K81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+      <c r="C84" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" ht="27" spans="2:11">
+      <c r="B85" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="2">
         <v>1201</v>
       </c>
-      <c r="B82" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="B86" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H82" s="2">
-        <v>1</v>
-      </c>
-      <c r="J82" s="2">
-        <v>1</v>
-      </c>
-      <c r="K82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B83" s="11"/>
-      <c r="C83" s="12"/>
-      <c r="J83" s="2">
-        <v>1</v>
-      </c>
-      <c r="K83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B84" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="J84" s="2">
-        <v>1</v>
-      </c>
-      <c r="K84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B85" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J85" s="2">
-        <v>0</v>
-      </c>
-      <c r="K85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B86" s="11" t="s">
+      <c r="H86" s="2">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2">
+        <v>1</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="12"/>
+      <c r="C87" s="13"/>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="J88" s="2">
+        <v>1</v>
+      </c>
+      <c r="K88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" ht="27" spans="2:11">
+      <c r="B89" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="J86" s="2">
-        <v>0</v>
-      </c>
-      <c r="K86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B87" s="11" t="s">
+      <c r="C89" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="J89" s="2">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" ht="27" spans="2:11">
+      <c r="B90" s="12" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="88" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+      <c r="C90" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" s="3" customFormat="1" spans="1:26">
+      <c r="A92" s="3">
         <v>102</v>
       </c>
-      <c r="B88" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="B92" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J88" s="3">
-        <v>1</v>
-      </c>
-      <c r="M88" s="3">
+      <c r="J92" s="3">
+        <v>1</v>
+      </c>
+      <c r="M92" s="3">
         <v>2</v>
       </c>
-      <c r="R88" s="3">
-        <v>1</v>
-      </c>
-      <c r="T88" s="3">
+      <c r="R92" s="3">
+        <v>1</v>
+      </c>
+      <c r="T92" s="3">
         <v>9</v>
       </c>
-      <c r="Z88" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" s="3" customFormat="1" spans="1:26">
+      <c r="A93" s="3">
         <v>103</v>
       </c>
-      <c r="B89" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="D89" s="3" t="s">
+      <c r="B93" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J89" s="3">
-        <v>1</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="J93" s="3">
+        <v>1</v>
+      </c>
+      <c r="K93" s="3">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M93" s="3">
         <v>2</v>
       </c>
-      <c r="R89" s="3">
-        <v>1</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="R93" s="3">
+        <v>1</v>
+      </c>
+      <c r="T93" s="3">
         <v>1003</v>
       </c>
-      <c r="U89" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+      <c r="U93" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" ht="27" spans="1:26">
+      <c r="A94" s="2">
         <v>104</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="B94" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J90" s="2">
-        <v>1</v>
-      </c>
-      <c r="K90" s="2">
+      <c r="J94" s="2">
+        <v>1</v>
+      </c>
+      <c r="K94" s="2">
         <v>3</v>
       </c>
-      <c r="M90" s="2">
+      <c r="M94" s="2">
         <v>6</v>
       </c>
-      <c r="R90" s="2">
-        <v>1</v>
-      </c>
-      <c r="T90" s="2">
+      <c r="R94" s="2">
+        <v>1</v>
+      </c>
+      <c r="T94" s="2">
         <v>1005</v>
       </c>
-      <c r="Z90" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
+      <c r="Z94" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" ht="27" spans="1:30">
+      <c r="A95" s="2">
         <v>105</v>
       </c>
-      <c r="B91" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="D91" s="2" t="s">
+      <c r="B95" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="J91" s="2">
-        <v>1</v>
-      </c>
-      <c r="K91" s="2">
-        <v>0</v>
-      </c>
-      <c r="M91" s="2">
-        <v>3</v>
-      </c>
-      <c r="N91" s="2">
-        <v>2</v>
-      </c>
-      <c r="O91" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z91" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC91" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD91" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>106</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="J92" s="2">
-        <v>1</v>
-      </c>
-      <c r="K92" s="2">
-        <v>3</v>
-      </c>
-      <c r="M92" s="2">
-        <v>6</v>
-      </c>
-      <c r="R92" s="2">
-        <v>1</v>
-      </c>
-      <c r="T92" s="2">
-        <v>1004</v>
-      </c>
-      <c r="Z92" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>107</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J93" s="2">
-        <v>1</v>
-      </c>
-      <c r="K93" s="2">
-        <v>3</v>
-      </c>
-      <c r="M93" s="2">
-        <v>0</v>
-      </c>
-      <c r="R93" s="2">
-        <v>1</v>
-      </c>
-      <c r="W93">
-        <v>8</v>
-      </c>
-      <c r="Z93" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>108</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="J94" s="2">
-        <v>1</v>
-      </c>
-      <c r="K94" s="2">
-        <v>2</v>
-      </c>
-      <c r="M94" s="2">
-        <v>3</v>
-      </c>
-      <c r="R94" s="2">
-        <v>1</v>
-      </c>
-      <c r="T94" s="2">
-        <v>1007</v>
-      </c>
-      <c r="U94">
-        <v>1</v>
-      </c>
-      <c r="Z94" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
-        <v>109</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="J95" s="2">
         <v>1</v>
@@ -4572,91 +5227,91 @@
         <v>3</v>
       </c>
       <c r="N95" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O95" s="2">
         <v>1</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="Z95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96" s="2">
+        <v>106</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
-        <v>110</v>
-      </c>
-      <c r="B96" s="9" t="s">
+      <c r="M96" s="2">
+        <v>6</v>
+      </c>
+      <c r="R96" s="2">
+        <v>1</v>
+      </c>
+      <c r="T96" s="2">
+        <v>1004</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97" s="2">
+        <v>107</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2">
+        <v>3</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0</v>
+      </c>
+      <c r="R97" s="2">
+        <v>1</v>
+      </c>
+      <c r="W97">
+        <v>8</v>
+      </c>
+      <c r="Z97" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98" s="2">
+        <v>108</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="J96" s="2">
-        <v>1</v>
-      </c>
-      <c r="K96" s="2">
-        <v>1</v>
-      </c>
-      <c r="M96" s="2">
-        <v>3</v>
-      </c>
-      <c r="R96" s="2">
-        <v>1</v>
-      </c>
-      <c r="U96">
-        <v>1</v>
-      </c>
-      <c r="W96">
-        <v>8</v>
-      </c>
-      <c r="Z96" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
-        <v>111</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="J97" s="2">
-        <v>1</v>
-      </c>
-      <c r="K97" s="2">
-        <v>2</v>
-      </c>
-      <c r="M97" s="2">
-        <v>5</v>
-      </c>
-      <c r="R97" s="2">
-        <v>1</v>
-      </c>
-      <c r="T97" s="2">
-        <v>1010</v>
-      </c>
-      <c r="U97">
-        <v>1</v>
-      </c>
-      <c r="Z97" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
-        <v>112</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="J98" s="2">
         <v>1</v>
@@ -4671,115 +5326,88 @@
         <v>1</v>
       </c>
       <c r="T98" s="2">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="U98">
         <v>1</v>
       </c>
       <c r="Z98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" ht="27" spans="1:26">
+      <c r="A99" s="2">
+        <v>109</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J99" s="2">
+        <v>1</v>
+      </c>
+      <c r="K99" s="2">
+        <v>0</v>
+      </c>
+      <c r="M99" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
-        <v>113</v>
-      </c>
-      <c r="B99" s="9" t="s">
+      <c r="N99" s="2">
+        <v>5</v>
+      </c>
+      <c r="O99" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" ht="27" spans="1:26">
+      <c r="A100" s="2">
+        <v>110</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="J100" s="2">
+        <v>1</v>
+      </c>
+      <c r="K100" s="2">
+        <v>1</v>
+      </c>
+      <c r="M100" s="2">
+        <v>3</v>
+      </c>
+      <c r="R100" s="2">
+        <v>1</v>
+      </c>
+      <c r="U100">
+        <v>1</v>
+      </c>
+      <c r="W100">
+        <v>8</v>
+      </c>
+      <c r="Z100" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101" s="2">
+        <v>111</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="J99" s="2">
-        <v>1</v>
-      </c>
-      <c r="K99" s="2">
-        <v>2</v>
-      </c>
-      <c r="M99" s="2">
-        <v>4</v>
-      </c>
-      <c r="R99" s="2">
-        <v>1</v>
-      </c>
-      <c r="T99" s="2">
-        <v>1014</v>
-      </c>
-      <c r="U99">
-        <v>1</v>
-      </c>
-      <c r="Z99" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
-        <v>114</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H100" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="J100" s="2">
-        <v>1</v>
-      </c>
-      <c r="K100" s="2">
-        <v>0</v>
-      </c>
-      <c r="L100" s="2">
-        <v>0</v>
-      </c>
-      <c r="M100" s="2">
-        <v>4</v>
-      </c>
-      <c r="N100" s="2">
-        <v>5</v>
-      </c>
-      <c r="O100" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q100" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R100" s="2">
-        <v>0</v>
-      </c>
-      <c r="S100" s="2">
-        <v>0</v>
-      </c>
-      <c r="T100" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
-        <v>115</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>250</v>
       </c>
       <c r="J101" s="2">
         <v>1</v>
@@ -4788,147 +5416,153 @@
         <v>2</v>
       </c>
       <c r="M101" s="2">
+        <v>5</v>
+      </c>
+      <c r="R101" s="2">
+        <v>1</v>
+      </c>
+      <c r="T101" s="2">
+        <v>1010</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
+      </c>
+      <c r="Z101" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26">
+      <c r="A102" s="2">
+        <v>112</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="J102" s="2">
+        <v>1</v>
+      </c>
+      <c r="K102" s="2">
+        <v>2</v>
+      </c>
+      <c r="M102" s="2">
+        <v>3</v>
+      </c>
+      <c r="R102" s="2">
+        <v>1</v>
+      </c>
+      <c r="T102" s="2">
+        <v>1013</v>
+      </c>
+      <c r="U102">
+        <v>1</v>
+      </c>
+      <c r="Z102" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26">
+      <c r="A103" s="2">
+        <v>113</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J103" s="2">
+        <v>1</v>
+      </c>
+      <c r="K103" s="2">
+        <v>2</v>
+      </c>
+      <c r="M103" s="2">
         <v>4</v>
       </c>
-      <c r="R101" s="2">
-        <v>1</v>
-      </c>
-      <c r="T101" s="2">
-        <v>2008</v>
-      </c>
-      <c r="U101">
-        <v>1</v>
-      </c>
-      <c r="Z101" s="2">
+      <c r="R103" s="2">
+        <v>1</v>
+      </c>
+      <c r="T103" s="2">
+        <v>1014</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="Z103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26">
+      <c r="A104" s="2">
+        <v>114</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J104" s="2">
+        <v>1</v>
+      </c>
+      <c r="K104" s="2">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2">
+        <v>0</v>
+      </c>
+      <c r="M104" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
-        <v>116</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C102" s="16" t="s">
+      <c r="N104" s="2">
+        <v>5</v>
+      </c>
+      <c r="O104" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R104" s="2">
+        <v>0</v>
+      </c>
+      <c r="S104" s="2">
+        <v>0</v>
+      </c>
+      <c r="T104" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26">
+      <c r="A105" s="2">
+        <v>115</v>
+      </c>
+      <c r="B105" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J102" s="4">
-        <v>1</v>
-      </c>
-      <c r="M102" s="4">
-        <v>2</v>
-      </c>
-      <c r="R102" s="4">
-        <v>1</v>
-      </c>
-      <c r="T102" s="4">
-        <v>12</v>
-      </c>
-      <c r="V102" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z102" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
-        <v>117</v>
-      </c>
-      <c r="B103" s="15" t="s">
+      <c r="C105" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J103" s="4">
-        <v>1</v>
-      </c>
-      <c r="K103" s="4">
-        <v>0</v>
-      </c>
-      <c r="M103" s="4">
-        <v>5</v>
-      </c>
-      <c r="R103" s="4">
-        <v>0</v>
-      </c>
-      <c r="T103" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z103" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
-        <v>200</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="H104" s="2">
-        <v>1</v>
-      </c>
-      <c r="J104" s="2">
-        <v>1</v>
-      </c>
-      <c r="K104" s="2">
-        <v>2</v>
-      </c>
-      <c r="L104" s="2">
-        <v>0</v>
-      </c>
-      <c r="M104" s="2">
-        <v>5</v>
-      </c>
-      <c r="N104" s="2">
-        <v>0</v>
-      </c>
-      <c r="R104" s="2">
-        <v>1</v>
-      </c>
-      <c r="T104" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U104">
-        <v>1</v>
-      </c>
-      <c r="X104" s="2">
-        <v>201</v>
-      </c>
-      <c r="Z104" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA104" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB104" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
-        <v>201</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="H105" s="2">
-        <v>1</v>
       </c>
       <c r="J105" s="2">
         <v>1</v>
@@ -4936,149 +5570,95 @@
       <c r="K105" s="2">
         <v>2</v>
       </c>
-      <c r="L105" s="2">
-        <v>0</v>
-      </c>
       <c r="M105" s="2">
+        <v>4</v>
+      </c>
+      <c r="R105" s="2">
+        <v>1</v>
+      </c>
+      <c r="T105" s="2">
+        <v>2008</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="Z105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" s="4" customFormat="1" spans="1:26">
+      <c r="A106" s="4">
+        <v>116</v>
+      </c>
+      <c r="B106" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J106" s="4">
+        <v>1</v>
+      </c>
+      <c r="M106" s="4">
+        <v>2</v>
+      </c>
+      <c r="R106" s="4">
+        <v>1</v>
+      </c>
+      <c r="T106" s="4">
+        <v>12</v>
+      </c>
+      <c r="V106" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" s="4" customFormat="1" spans="1:26">
+      <c r="A107" s="4">
+        <v>117</v>
+      </c>
+      <c r="B107" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J107" s="4">
+        <v>1</v>
+      </c>
+      <c r="K107" s="4">
+        <v>0</v>
+      </c>
+      <c r="M107" s="4">
         <v>5</v>
       </c>
-      <c r="N105" s="2">
-        <v>0</v>
-      </c>
-      <c r="R105" s="2">
-        <v>1</v>
-      </c>
-      <c r="T105" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U105">
-        <v>1</v>
-      </c>
-      <c r="X105" s="2">
-        <v>202</v>
-      </c>
-      <c r="Z105" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA105" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB105" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
-        <v>202</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C106" s="5" t="s">
+      <c r="R107" s="4">
+        <v>0</v>
+      </c>
+      <c r="T107" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z107" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" s="2" customFormat="1" spans="1:26">
+      <c r="A108" s="4">
+        <v>118</v>
+      </c>
+      <c r="B108" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="H106" s="2">
-        <v>1</v>
-      </c>
-      <c r="J106" s="2">
-        <v>1</v>
-      </c>
-      <c r="K106" s="2">
-        <v>2</v>
-      </c>
-      <c r="L106" s="2">
-        <v>0</v>
-      </c>
-      <c r="M106" s="2">
-        <v>5</v>
-      </c>
-      <c r="N106" s="2">
-        <v>0</v>
-      </c>
-      <c r="R106" s="2">
-        <v>1</v>
-      </c>
-      <c r="T106" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U106">
-        <v>1</v>
-      </c>
-      <c r="X106" s="2">
-        <v>203</v>
-      </c>
-      <c r="Z106" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA106" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB106" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
-        <v>203</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C107" s="5" t="s">
+      <c r="C108" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="H107" s="2">
-        <v>1</v>
-      </c>
-      <c r="J107" s="2">
-        <v>1</v>
-      </c>
-      <c r="K107" s="2">
-        <v>2</v>
-      </c>
-      <c r="L107" s="2">
-        <v>0</v>
-      </c>
-      <c r="M107" s="2">
-        <v>5</v>
-      </c>
-      <c r="N107" s="2">
-        <v>0</v>
-      </c>
-      <c r="R107" s="2">
-        <v>1</v>
-      </c>
-      <c r="T107" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U107">
-        <v>1</v>
-      </c>
-      <c r="X107" s="2">
-        <v>204</v>
-      </c>
-      <c r="Z107" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA107" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB107" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
-        <v>204</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H108" s="2">
-        <v>1</v>
       </c>
       <c r="J108" s="2">
         <v>1</v>
@@ -5086,49 +5666,33 @@
       <c r="K108" s="2">
         <v>2</v>
       </c>
-      <c r="L108" s="2">
-        <v>0</v>
-      </c>
       <c r="M108" s="2">
-        <v>5</v>
-      </c>
-      <c r="N108" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R108" s="2">
         <v>1</v>
       </c>
-      <c r="T108" s="2">
-        <v>1001</v>
+      <c r="T108">
+        <v>1015</v>
       </c>
       <c r="U108">
         <v>1</v>
       </c>
-      <c r="X108" s="2">
-        <v>205</v>
-      </c>
+      <c r="V108"/>
+      <c r="W108"/>
       <c r="Z108" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA108" s="2">
-        <v>6</v>
-      </c>
-      <c r="AB108" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="2">
-        <v>205</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C109" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" s="2" customFormat="1" spans="1:26">
+      <c r="A109" s="4">
+        <v>119</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C109" s="10" t="s">
         <v>261</v>
-      </c>
-      <c r="H109" s="2">
-        <v>1</v>
       </c>
       <c r="J109" s="2">
         <v>1</v>
@@ -5136,55 +5700,54 @@
       <c r="K109" s="2">
         <v>2</v>
       </c>
-      <c r="L109" s="2">
-        <v>0</v>
-      </c>
       <c r="M109" s="2">
-        <v>5</v>
-      </c>
-      <c r="N109" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R109" s="2">
         <v>1</v>
       </c>
-      <c r="T109" s="2">
-        <v>1001</v>
+      <c r="T109">
+        <v>1016</v>
       </c>
       <c r="U109">
         <v>1</v>
       </c>
-      <c r="X109" s="2">
-        <v>206</v>
-      </c>
+      <c r="V109"/>
+      <c r="W109"/>
       <c r="Z109" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA109" s="2">
-        <v>7</v>
-      </c>
-      <c r="AB109" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="2">
-        <v>206</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" s="2" customFormat="1" spans="1:26">
+      <c r="A110" s="4">
+        <v>120</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="H110" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J110" s="2">
         <v>1</v>
       </c>
       <c r="K110" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L110" s="2">
         <v>0</v>
@@ -5193,42 +5756,41 @@
         <v>5</v>
       </c>
       <c r="N110" s="2">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="O110" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="R110" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S110" s="2">
+        <v>0</v>
       </c>
       <c r="T110" s="2">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="U110">
         <v>1</v>
       </c>
-      <c r="X110" s="2">
-        <v>207</v>
-      </c>
+      <c r="V110"/>
+      <c r="W110"/>
       <c r="Z110" s="2">
         <v>0</v>
       </c>
-      <c r="AA110" s="2">
-        <v>8</v>
-      </c>
-      <c r="AB110" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="2">
-        <v>207</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H111" s="2">
-        <v>1</v>
+    </row>
+    <row r="111" s="2" customFormat="1" spans="1:26">
+      <c r="A111" s="4">
+        <v>121</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>265</v>
       </c>
       <c r="J111" s="2">
         <v>1</v>
@@ -5236,96 +5798,82 @@
       <c r="K111" s="2">
         <v>2</v>
       </c>
-      <c r="L111" s="2">
-        <v>0</v>
-      </c>
       <c r="M111" s="2">
-        <v>5</v>
-      </c>
-      <c r="N111" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R111" s="2">
         <v>1</v>
       </c>
-      <c r="T111" s="2">
-        <v>1001</v>
+      <c r="T111">
+        <v>1017</v>
       </c>
       <c r="U111">
         <v>1</v>
       </c>
-      <c r="X111" s="2">
-        <v>208</v>
-      </c>
+      <c r="V111"/>
+      <c r="W111"/>
       <c r="Z111" s="2">
         <v>0</v>
       </c>
-      <c r="AA111" s="2">
-        <v>9</v>
-      </c>
-      <c r="AB111" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="2">
-        <v>208</v>
+    </row>
+    <row r="112" s="2" customFormat="1" spans="1:26">
+      <c r="A112" s="4">
+        <v>122</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H112" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J112" s="2">
         <v>1</v>
       </c>
       <c r="K112" s="2">
+        <v>3</v>
+      </c>
+      <c r="L112" s="2">
+        <v>0</v>
+      </c>
+      <c r="M112" s="2">
+        <v>0</v>
+      </c>
+      <c r="N112" s="2">
+        <v>0</v>
+      </c>
+      <c r="O112" s="2">
+        <v>1</v>
+      </c>
+      <c r="R112" s="2">
+        <v>0</v>
+      </c>
+      <c r="S112" s="2">
+        <v>1</v>
+      </c>
+      <c r="T112" s="2">
+        <v>0</v>
+      </c>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112">
         <v>2</v>
       </c>
-      <c r="L112" s="2">
-        <v>0</v>
-      </c>
-      <c r="M112" s="2">
-        <v>5</v>
-      </c>
-      <c r="N112" s="2">
-        <v>0</v>
-      </c>
-      <c r="R112" s="2">
-        <v>1</v>
-      </c>
-      <c r="T112" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U112">
-        <v>1</v>
-      </c>
-      <c r="X112" s="2">
-        <v>209</v>
-      </c>
       <c r="Z112" s="2">
         <v>0</v>
       </c>
-      <c r="AA112" s="2">
-        <v>10</v>
-      </c>
-      <c r="AB112" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" ht="27" spans="1:28">
       <c r="A113" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H113" s="2">
         <v>1</v>
@@ -5355,27 +5903,27 @@
         <v>1</v>
       </c>
       <c r="X113" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="Z113" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA113" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB113" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" ht="27" spans="1:28">
       <c r="A114" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H114" s="2">
         <v>1</v>
@@ -5405,499 +5953,952 @@
         <v>1</v>
       </c>
       <c r="X114" s="2">
+        <v>202</v>
+      </c>
+      <c r="Z114" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA114" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" ht="27" spans="1:28">
+      <c r="A115" s="2">
+        <v>202</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="J115" s="2">
+        <v>1</v>
+      </c>
+      <c r="K115" s="2">
+        <v>2</v>
+      </c>
+      <c r="L115" s="2">
+        <v>0</v>
+      </c>
+      <c r="M115" s="2">
+        <v>5</v>
+      </c>
+      <c r="N115" s="2">
+        <v>0</v>
+      </c>
+      <c r="R115" s="2">
+        <v>1</v>
+      </c>
+      <c r="T115" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U115">
+        <v>1</v>
+      </c>
+      <c r="X115" s="2">
+        <v>203</v>
+      </c>
+      <c r="Z115" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA115" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" ht="27" spans="1:28">
+      <c r="A116" s="2">
+        <v>203</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="J116" s="2">
+        <v>1</v>
+      </c>
+      <c r="K116" s="2">
+        <v>2</v>
+      </c>
+      <c r="L116" s="2">
+        <v>0</v>
+      </c>
+      <c r="M116" s="2">
+        <v>5</v>
+      </c>
+      <c r="N116" s="2">
+        <v>0</v>
+      </c>
+      <c r="R116" s="2">
+        <v>1</v>
+      </c>
+      <c r="T116" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U116">
+        <v>1</v>
+      </c>
+      <c r="X116" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z116" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA116" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" ht="27" spans="1:28">
+      <c r="A117" s="2">
+        <v>204</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H117" s="2">
+        <v>1</v>
+      </c>
+      <c r="J117" s="2">
+        <v>1</v>
+      </c>
+      <c r="K117" s="2">
+        <v>2</v>
+      </c>
+      <c r="L117" s="2">
+        <v>0</v>
+      </c>
+      <c r="M117" s="2">
+        <v>5</v>
+      </c>
+      <c r="N117" s="2">
+        <v>0</v>
+      </c>
+      <c r="R117" s="2">
+        <v>1</v>
+      </c>
+      <c r="T117" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U117">
+        <v>1</v>
+      </c>
+      <c r="X117" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z117" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA117" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" ht="27" spans="1:28">
+      <c r="A118" s="2">
+        <v>205</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H118" s="2">
+        <v>1</v>
+      </c>
+      <c r="J118" s="2">
+        <v>1</v>
+      </c>
+      <c r="K118" s="2">
+        <v>2</v>
+      </c>
+      <c r="L118" s="2">
+        <v>0</v>
+      </c>
+      <c r="M118" s="2">
+        <v>5</v>
+      </c>
+      <c r="N118" s="2">
+        <v>0</v>
+      </c>
+      <c r="R118" s="2">
+        <v>1</v>
+      </c>
+      <c r="T118" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U118">
+        <v>1</v>
+      </c>
+      <c r="X118" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z118" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA118" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB118" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" ht="27" spans="1:28">
+      <c r="A119" s="2">
+        <v>206</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H119" s="2">
+        <v>1</v>
+      </c>
+      <c r="J119" s="2">
+        <v>1</v>
+      </c>
+      <c r="K119" s="2">
+        <v>2</v>
+      </c>
+      <c r="L119" s="2">
+        <v>0</v>
+      </c>
+      <c r="M119" s="2">
+        <v>5</v>
+      </c>
+      <c r="N119" s="2">
+        <v>0</v>
+      </c>
+      <c r="R119" s="2">
+        <v>1</v>
+      </c>
+      <c r="T119" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U119">
+        <v>1</v>
+      </c>
+      <c r="X119" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z119" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA119" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" ht="27" spans="1:28">
+      <c r="A120" s="2">
+        <v>207</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="H120" s="2">
+        <v>1</v>
+      </c>
+      <c r="J120" s="2">
+        <v>1</v>
+      </c>
+      <c r="K120" s="2">
+        <v>2</v>
+      </c>
+      <c r="L120" s="2">
+        <v>0</v>
+      </c>
+      <c r="M120" s="2">
+        <v>5</v>
+      </c>
+      <c r="N120" s="2">
+        <v>0</v>
+      </c>
+      <c r="R120" s="2">
+        <v>1</v>
+      </c>
+      <c r="T120" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U120">
+        <v>1</v>
+      </c>
+      <c r="X120" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z120" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA120" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" ht="27" spans="1:28">
+      <c r="A121" s="2">
+        <v>208</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H121" s="2">
+        <v>1</v>
+      </c>
+      <c r="J121" s="2">
+        <v>1</v>
+      </c>
+      <c r="K121" s="2">
+        <v>2</v>
+      </c>
+      <c r="L121" s="2">
+        <v>0</v>
+      </c>
+      <c r="M121" s="2">
+        <v>5</v>
+      </c>
+      <c r="N121" s="2">
+        <v>0</v>
+      </c>
+      <c r="R121" s="2">
+        <v>1</v>
+      </c>
+      <c r="T121" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U121">
+        <v>1</v>
+      </c>
+      <c r="X121" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z121" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA121" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" ht="27" spans="1:28">
+      <c r="A122" s="2">
+        <v>209</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="H122" s="2">
+        <v>1</v>
+      </c>
+      <c r="J122" s="2">
+        <v>1</v>
+      </c>
+      <c r="K122" s="2">
+        <v>2</v>
+      </c>
+      <c r="L122" s="2">
+        <v>0</v>
+      </c>
+      <c r="M122" s="2">
+        <v>5</v>
+      </c>
+      <c r="N122" s="2">
+        <v>0</v>
+      </c>
+      <c r="R122" s="2">
+        <v>1</v>
+      </c>
+      <c r="T122" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U122">
+        <v>1</v>
+      </c>
+      <c r="X122" s="2">
         <v>210</v>
       </c>
-      <c r="Z114" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA114" s="2">
+      <c r="Z122" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA122" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" ht="27" spans="1:28">
+      <c r="A123" s="2">
+        <v>210</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="H123" s="2">
+        <v>1</v>
+      </c>
+      <c r="J123" s="2">
+        <v>1</v>
+      </c>
+      <c r="K123" s="2">
+        <v>2</v>
+      </c>
+      <c r="L123" s="2">
+        <v>0</v>
+      </c>
+      <c r="M123" s="2">
+        <v>5</v>
+      </c>
+      <c r="N123" s="2">
+        <v>0</v>
+      </c>
+      <c r="R123" s="2">
+        <v>1</v>
+      </c>
+      <c r="T123" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U123">
+        <v>1</v>
+      </c>
+      <c r="X123" s="2">
+        <v>210</v>
+      </c>
+      <c r="Z123" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA123" s="2">
         <v>12</v>
       </c>
-      <c r="AB114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A115" s="2">
+      <c r="AB123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" ht="40.5" spans="1:33">
+      <c r="A124" s="2">
         <v>211</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="J115" s="2">
-        <v>1</v>
-      </c>
-      <c r="K115" s="2">
-        <v>1</v>
-      </c>
-      <c r="M115" s="2">
+      <c r="B124" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J124" s="2">
+        <v>1</v>
+      </c>
+      <c r="K124" s="2">
+        <v>1</v>
+      </c>
+      <c r="M124" s="2">
         <v>10</v>
       </c>
-      <c r="N115" s="2">
+      <c r="N124" s="2">
         <v>12</v>
       </c>
-      <c r="O115" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q115" s="2" t="s">
+      <c r="O124" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Y115" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z115" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG115" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B116" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="117" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B117" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="118" spans="1:33" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="B118" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="119" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B119" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C119" s="17" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="120" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B120" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="121" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B121" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="122" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B122" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="C122" s="18" t="s">
+      <c r="Y124" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z124" s="2">
+        <v>2</v>
+      </c>
+      <c r="AG124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" ht="14.25" spans="2:3">
+      <c r="B125" s="18" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="123" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B123" s="17" t="s">
+      <c r="C125" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="C123" s="17" t="s">
+    </row>
+    <row r="126" ht="14.25" spans="2:3">
+      <c r="B126" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="H123" s="2">
+      <c r="C126" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="127" ht="42.75" spans="2:3">
+      <c r="B127" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="128" ht="28.5" spans="2:3">
+      <c r="B128" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="129" ht="14.25" spans="2:3">
+      <c r="B129" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="130" ht="14.25" spans="2:3">
+      <c r="B130" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" ht="28.5" spans="2:3">
+      <c r="B131" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" ht="14.25" spans="2:8">
+      <c r="B132" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="H132" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B124" s="17" t="s">
-        <v>285</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="125" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B125" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="126" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B126" s="17" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="127" spans="1:33" ht="63" x14ac:dyDescent="0.2">
-      <c r="B127" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="128" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B128" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>293</v>
-      </c>
-      <c r="H128" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C129" s="17"/>
-    </row>
-    <row r="130" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B130" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B131" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="C131" s="17" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
-    </row>
-    <row r="133" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B133" s="17" t="s">
+    <row r="133" ht="28.5" spans="2:3">
+      <c r="B133" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="C133" s="20" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B134" s="17" t="s">
+    <row r="134" ht="28.5" spans="2:3">
+      <c r="B134" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C134" s="17" t="s">
+      <c r="C134" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="B135" s="17" t="s">
+    <row r="135" ht="14.25" spans="2:2">
+      <c r="B135" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="C135" s="17" t="s">
+    </row>
+    <row r="136" ht="57" spans="2:3">
+      <c r="B136" s="18" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A137" s="2">
+      <c r="C136" s="18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="137" ht="14.25" spans="2:8">
+      <c r="B137" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="H137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" spans="3:3">
+      <c r="C138" s="18"/>
+    </row>
+    <row r="139" ht="28.5" spans="2:3">
+      <c r="B139" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="140" ht="14.25" spans="2:3">
+      <c r="B140" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" spans="2:3">
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+    </row>
+    <row r="142" ht="28.5" spans="2:3">
+      <c r="B142" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" spans="2:3">
+      <c r="B143" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="144" ht="28.5" spans="2:3">
+      <c r="B144" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+    </row>
+    <row r="146" spans="1:20">
+      <c r="A146" s="2">
         <v>1410</v>
       </c>
-      <c r="B137" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="B146" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H137" s="2">
+      <c r="H146" s="2">
         <v>10</v>
       </c>
-      <c r="J137" s="2">
-        <v>0</v>
-      </c>
-      <c r="K137" s="2">
+      <c r="J146" s="2">
+        <v>0</v>
+      </c>
+      <c r="K146" s="2">
         <v>3</v>
       </c>
-      <c r="N137" s="2">
-        <v>1</v>
-      </c>
-      <c r="R137" s="2">
-        <v>1</v>
-      </c>
-      <c r="T137" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
+      <c r="N146" s="2">
+        <v>1</v>
+      </c>
+      <c r="R146" s="2">
+        <v>1</v>
+      </c>
+      <c r="T146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" ht="27" spans="1:20">
+      <c r="A147" s="2">
         <v>1411</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="B147" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H138" s="2">
-        <v>1</v>
-      </c>
-      <c r="I138" s="2">
+      <c r="H147" s="2">
+        <v>1</v>
+      </c>
+      <c r="I147" s="2">
         <v>10</v>
       </c>
-      <c r="J138" s="2">
-        <v>1</v>
-      </c>
-      <c r="K138" s="2">
+      <c r="J147" s="2">
+        <v>1</v>
+      </c>
+      <c r="K147" s="2">
         <v>3</v>
       </c>
-      <c r="M138" s="2">
+      <c r="M147" s="2">
         <v>10</v>
       </c>
-      <c r="N138" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q138" s="2" t="s">
+      <c r="N147" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="R138" s="2">
-        <v>1</v>
-      </c>
-      <c r="T138" s="2">
+      <c r="R147" s="2">
+        <v>1</v>
+      </c>
+      <c r="T147" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
+    <row r="148" ht="27" spans="1:20">
+      <c r="A148" s="2">
         <v>1412</v>
       </c>
-      <c r="B139" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="B148" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E139" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F139" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G139" s="1" t="s">
+      <c r="E148" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H139" s="2">
+      <c r="H148" s="2">
         <v>2</v>
       </c>
-      <c r="I139" s="2">
+      <c r="I148" s="2">
         <v>10</v>
       </c>
-      <c r="J139" s="2">
-        <v>1</v>
-      </c>
-      <c r="K139" s="2">
+      <c r="J148" s="2">
+        <v>1</v>
+      </c>
+      <c r="K148" s="2">
         <v>3</v>
       </c>
-      <c r="M139" s="2">
+      <c r="M148" s="2">
         <v>10</v>
       </c>
-      <c r="N139" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q139" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="T139" s="2">
+      <c r="N148" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="T148" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="57" x14ac:dyDescent="0.2">
-      <c r="B140" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B141" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B142" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B143" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C143" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B144" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B145" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="H145" s="2">
+    <row r="149" ht="54" spans="2:3">
+      <c r="B149" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="150" ht="27" spans="2:3">
+      <c r="B150" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="151" ht="40.5" spans="2:3">
+      <c r="B151" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="152" ht="27" spans="2:3">
+      <c r="B152" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="153" ht="40.5" spans="2:3">
+      <c r="B153" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="154" ht="27" spans="2:9">
+      <c r="B154" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H154" s="2">
         <v>5</v>
       </c>
-      <c r="I145" s="2">
+      <c r="I154" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B146" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="H146" s="2">
+    <row r="155" ht="27" spans="2:8">
+      <c r="B155" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="H155" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="147" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B147" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B148" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B149" s="9"/>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B151" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B152" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B153" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B154" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B155" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B156" s="9" t="s">
+    <row r="156" ht="40.5" spans="2:3">
+      <c r="B156" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="C156" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B157" s="9" t="s">
+    <row r="157" ht="27" spans="2:3">
+      <c r="B157" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="C157" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B158" s="9" t="s">
+    <row r="158" spans="2:2">
+      <c r="B158" s="10"/>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="B160" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D158" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B159" s="9" t="s">
+      <c r="D160" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B160" s="9" t="s">
+    <row r="161" ht="27" spans="2:4">
+      <c r="B161" s="10" t="s">
         <v>345</v>
       </c>
+      <c r="C161" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="B162" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="B163" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="B164" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="B166" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="B167" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="10" t="s">
+        <v>358</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <autoFilter ref="Z1:Z169">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Z$1:$Z$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Z$1:$Z$178</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="373">
   <si>
     <t>技能ID</t>
   </si>
@@ -685,6 +685,15 @@
     <t>效果-2点伤害</t>
   </si>
   <si>
+    <t>效果-回复1.5点能量</t>
+  </si>
+  <si>
+    <t>每当成功格挡时，回复1.5点能量</t>
+  </si>
+  <si>
+    <t>触发6点伤害</t>
+  </si>
+  <si>
     <t>boss格挡</t>
   </si>
   <si>
@@ -1125,13 +1134,16 @@
     <t>举起盾牌</t>
   </si>
   <si>
-    <t>获得6点护甲并抽1张牌</t>
+    <t>获得5点护甲并抽1张牌</t>
   </si>
   <si>
     <t>点燃攻击</t>
   </si>
   <si>
-    <t>12秒内造成12点伤害</t>
+    <t>10秒内造成14点伤害</t>
+  </si>
+  <si>
+    <t>1,0.1;2,0.1;3,0.1;4,0.1;5,0.1;6,0.1;7,0.1;8,0.1;9,0.1;10,0.1</t>
   </si>
   <si>
     <t>自然转化器</t>
@@ -1162,6 +1174,36 @@
   </si>
   <si>
     <t>弃2张牌，回复1点能量</t>
+  </si>
+  <si>
+    <t>强化抽牌攻击</t>
+  </si>
+  <si>
+    <t>强化弃牌攻击</t>
+  </si>
+  <si>
+    <t>强化能量再生</t>
+  </si>
+  <si>
+    <t>弃2张牌，回复2点能量</t>
+  </si>
+  <si>
+    <t>强化斩杀</t>
+  </si>
+  <si>
+    <t>威力一击</t>
+  </si>
+  <si>
+    <t>强化动能回收器</t>
+  </si>
+  <si>
+    <t>成功格挡时，回复1.5点能量</t>
+  </si>
+  <si>
+    <t>强化尖刺外壳</t>
+  </si>
+  <si>
+    <t>每当获得护甲时，造成6点伤害</t>
   </si>
   <si>
     <t>圣剑</t>
@@ -1499,10 +1541,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1541,7 +1583,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,21 +1667,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1579,15 +1675,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1607,64 +1704,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1727,7 +1769,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,7 +1793,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,19 +1913,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,73 +1931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,49 +1943,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,6 +1957,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1925,16 +1982,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1975,31 +2032,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2018,10 +2060,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2030,133 +2072,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2529,14 +2571,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AH169"/>
+  <dimension ref="A1:AH178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomRight" activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2552,7 +2594,7 @@
     <col min="11" max="14" width="9" style="2"/>
     <col min="15" max="15" width="14.75" style="2" customWidth="1"/>
     <col min="16" max="16" width="14.375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="19.875" style="2" customWidth="1"/>
     <col min="18" max="20" width="9" style="2"/>
     <col min="21" max="21" width="23.5" customWidth="1"/>
     <col min="22" max="23" width="22.375" customWidth="1"/>
@@ -4154,60 +4196,91 @@
       <c r="V36"/>
       <c r="W36"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" s="2" customFormat="1" spans="1:23">
       <c r="A37" s="2">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="C37" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="J37" s="2">
         <v>1</v>
       </c>
       <c r="K37" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R37" s="2">
         <v>1</v>
       </c>
-      <c r="T37" s="2">
+      <c r="S37" s="2">
+        <v>2</v>
+      </c>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="1:23">
+      <c r="A38" s="2">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="F38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="N38" s="2">
+        <v>6</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="2">
+        <v>50</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="R39" s="2">
+        <v>1</v>
+      </c>
+      <c r="T39" s="2">
         <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="2:11">
-      <c r="B39" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="J39" s="2">
-        <v>0</v>
-      </c>
-      <c r="K39" s="2">
-        <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="J40" s="2">
         <v>0</v>
@@ -4216,12 +4289,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" ht="27" spans="2:11">
       <c r="B41" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>141</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="J41" s="2">
         <v>0</v>
@@ -4230,18 +4303,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" ht="27" spans="1:11">
-      <c r="A42" s="2">
-        <v>1001</v>
-      </c>
+    <row r="42" spans="2:11">
       <c r="B42" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J42" s="2">
         <v>0</v>
@@ -4250,23 +4317,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" ht="27" spans="2:11">
+    <row r="43" spans="2:11">
       <c r="B43" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>146</v>
+      <c r="J43" s="2">
+        <v>0</v>
       </c>
       <c r="K43" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" ht="27" spans="1:11">
+      <c r="A44" s="2">
+        <v>1001</v>
+      </c>
       <c r="B44" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>148</v>
+      <c r="D44" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="J44" s="2">
         <v>0</v>
@@ -4275,15 +4351,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" ht="27" spans="2:11">
       <c r="B45" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0</v>
       </c>
       <c r="K45" s="2">
         <v>9</v>
@@ -4291,10 +4364,10 @@
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>151</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="J46" s="2">
         <v>0</v>
@@ -4303,21 +4376,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="2">
-        <v>1002</v>
-      </c>
+    <row r="47" spans="2:11">
       <c r="B47" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H47" s="2">
-        <v>10</v>
       </c>
       <c r="J47" s="2">
         <v>0</v>
@@ -4325,16 +4389,13 @@
       <c r="K47" s="2">
         <v>9</v>
       </c>
-      <c r="N47" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" ht="27" spans="2:11">
+    </row>
+    <row r="48" spans="2:11">
       <c r="B48" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>155</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>156</v>
       </c>
       <c r="J48" s="2">
         <v>0</v>
@@ -4343,18 +4404,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" ht="27" spans="1:14">
+    <row r="49" spans="1:14">
       <c r="A49" s="2">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>158</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H49" s="2">
         <v>10</v>
@@ -4366,18 +4427,18 @@
         <v>9</v>
       </c>
       <c r="N49" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" ht="27" spans="2:11">
       <c r="B50" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>160</v>
-      </c>
       <c r="J50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2">
         <v>9</v>
@@ -4385,49 +4446,56 @@
     </row>
     <row r="51" ht="27" spans="1:14">
       <c r="A51" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="2">
+        <v>10</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>9</v>
+      </c>
+      <c r="N51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" ht="27" spans="1:14">
+      <c r="A53" s="2">
         <v>1011</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="B53" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="J52" s="2">
-        <v>0</v>
-      </c>
-      <c r="K52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="40.5" spans="1:20">
-      <c r="A53" s="2">
-        <v>1012</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="J53" s="2">
         <v>0</v>
@@ -4438,42 +4506,26 @@
       <c r="N53" s="2">
         <v>10</v>
       </c>
-      <c r="T53" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" ht="27" spans="1:14">
-      <c r="A54" s="2">
-        <v>1013</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54" s="10" t="s">
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="40.5" spans="1:20">
+      <c r="A55" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" ht="27" spans="1:11">
-      <c r="A55" s="2">
-        <v>1014</v>
-      </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>74</v>
@@ -4484,26 +4536,49 @@
       <c r="K55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" ht="27" spans="2:11">
+      <c r="N55" s="2">
+        <v>10</v>
+      </c>
+      <c r="T55" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" ht="27" spans="1:14">
+      <c r="A56" s="2">
+        <v>1013</v>
+      </c>
       <c r="B56" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="D56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0</v>
+      </c>
+      <c r="N56" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" ht="27" spans="1:11">
+      <c r="A57" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="J56" s="2">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="10"/>
+      <c r="D57" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="J57" s="2">
         <v>0</v>
       </c>
@@ -4511,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" ht="27" spans="2:11">
       <c r="B58" s="10" t="s">
         <v>172</v>
       </c>
@@ -4525,154 +4600,131 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="27" spans="2:11">
-      <c r="B59" s="10" t="s">
+    <row r="59" spans="2:11">
+      <c r="B59" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="10"/>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="J59" s="2">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" ht="40.5" spans="1:11">
-      <c r="A60" s="2">
+      <c r="C60" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="2:11">
+      <c r="B61" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="40.5" spans="1:11">
+      <c r="A62" s="2">
         <v>1018</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
-      <c r="J60" s="2">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" ht="27" spans="1:11">
-      <c r="A61" s="2">
+      <c r="B62" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" ht="27" spans="1:11">
+      <c r="A63" s="2">
         <v>1020</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="H61" s="2">
+      <c r="B63" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="H63" s="2">
         <v>0.5</v>
       </c>
-      <c r="J61" s="2">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="B62" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="J62" s="2">
-        <v>1</v>
-      </c>
-      <c r="K62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11">
-      <c r="B63" s="11" t="s">
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
+      <c r="B65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J63" s="2">
-        <v>1</v>
-      </c>
-      <c r="K63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J64" s="2">
-        <v>1</v>
-      </c>
-      <c r="K64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" ht="27" spans="1:17">
-      <c r="A65" s="2">
-        <v>1021</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H65" s="2">
-        <v>1</v>
-      </c>
       <c r="J65" s="2">
         <v>1</v>
       </c>
       <c r="K65" s="2">
         <v>0</v>
-      </c>
-      <c r="M65" s="2">
-        <v>10</v>
-      </c>
-      <c r="N65" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="27" spans="1:17">
+      <c r="A67" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="J66" s="2">
-        <v>1</v>
-      </c>
-      <c r="K66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18">
-      <c r="A67" s="2">
-        <v>1010</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>70</v>
@@ -4680,11 +4732,11 @@
       <c r="E67" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="F67" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="H67" s="2">
-        <v>2</v>
-      </c>
-      <c r="I67" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J67" s="2">
         <v>1</v>
@@ -4696,129 +4748,126 @@
         <v>10</v>
       </c>
       <c r="N67" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11">
+      <c r="B68" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" s="2">
+        <v>2</v>
+      </c>
+      <c r="I69" s="2">
+        <v>5</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="M69" s="2">
+        <v>10</v>
+      </c>
+      <c r="N69" s="2">
         <v>-10</v>
       </c>
-      <c r="Q67" s="2" t="s">
+      <c r="Q69" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="R67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" ht="27" spans="1:14">
-      <c r="A69" s="2">
-        <v>1114</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="J69" s="2">
-        <v>0</v>
-      </c>
-      <c r="K69" s="2">
-        <v>1</v>
-      </c>
-      <c r="N69" s="2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11">
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="J70" s="2">
-        <v>0</v>
-      </c>
-      <c r="K70" s="2">
+      <c r="R69" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="71" ht="27" spans="1:14">
       <c r="A71" s="2">
+        <v>1114</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <v>1</v>
+      </c>
+      <c r="N71" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" ht="27" spans="1:14">
+      <c r="A73" s="2">
         <v>1110</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J71" s="2">
-        <v>0</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-      <c r="N71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" ht="27" spans="1:14">
-      <c r="A72" s="2">
-        <v>1111</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C72" s="10" t="s">
+      <c r="B73" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J72" s="2">
-        <v>0</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-      <c r="N72" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" ht="40.5" spans="1:14">
-      <c r="A73" s="2">
-        <v>1112</v>
-      </c>
-      <c r="B73" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+      <c r="N73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" ht="27" spans="1:14">
+      <c r="A74" s="2">
+        <v>1111</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="H73" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J73" s="2">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-      <c r="N73" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" ht="27" spans="1:11">
-      <c r="A74" s="2">
-        <v>1113</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>81</v>
@@ -4829,29 +4878,48 @@
       <c r="K74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="2:11">
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
+      <c r="N74" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" ht="40.5" spans="1:14">
+      <c r="A75" s="2">
+        <v>1112</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>200</v>
+      </c>
       <c r="D75" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="G75" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.5</v>
+      </c>
       <c r="J75" s="2">
         <v>0</v>
       </c>
       <c r="K75" s="2">
         <v>1</v>
+      </c>
+      <c r="N75" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="76" ht="27" spans="1:11">
       <c r="A76" s="2">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>81</v>
@@ -4863,16 +4931,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" ht="27" spans="1:20">
-      <c r="A77" s="2">
-        <v>1116</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>204</v>
-      </c>
+    <row r="77" spans="2:11">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
       <c r="D77" s="2" t="s">
         <v>81</v>
       </c>
@@ -4882,188 +4943,207 @@
       <c r="K77" s="2">
         <v>1</v>
       </c>
-      <c r="N77" s="2">
+    </row>
+    <row r="78" ht="27" spans="1:11">
+      <c r="A78" s="2">
+        <v>1115</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="27" spans="1:20">
+      <c r="A79" s="2">
+        <v>1116</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2">
+        <v>1</v>
+      </c>
+      <c r="N79" s="2">
         <v>-1</v>
       </c>
-      <c r="R77" s="2">
-        <v>1</v>
-      </c>
-      <c r="T77" s="2">
+      <c r="R79" s="2">
+        <v>1</v>
+      </c>
+      <c r="T79" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="2:11">
-      <c r="B78" s="10"/>
-      <c r="J78" s="2">
-        <v>0</v>
-      </c>
-      <c r="K78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79" s="10"/>
-      <c r="C79" s="2"/>
-      <c r="J79" s="2">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" ht="40.5" spans="1:17">
-      <c r="A80" s="2">
+    <row r="80" spans="2:11">
+      <c r="B80" s="10"/>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" s="10"/>
+      <c r="C81" s="2"/>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" ht="40.5" spans="1:17">
+      <c r="A82" s="2">
         <v>1117</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="B82" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H82" s="2">
         <v>0.5</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I82" s="2">
         <v>10</v>
       </c>
-      <c r="J80" s="2">
-        <v>1</v>
-      </c>
-      <c r="K80" s="2">
-        <v>1</v>
-      </c>
-      <c r="M80" s="2">
+      <c r="J82" s="2">
+        <v>1</v>
+      </c>
+      <c r="K82" s="2">
+        <v>1</v>
+      </c>
+      <c r="M82" s="2">
         <v>50</v>
       </c>
-      <c r="N80" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J81" s="2">
-        <v>0</v>
-      </c>
-      <c r="K81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" ht="27" spans="2:11">
-      <c r="B82" s="10" t="s">
+      <c r="N82" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C82" s="10" t="s">
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="J82" s="2">
-        <v>0</v>
-      </c>
-      <c r="K82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" ht="27" spans="2:11">
-      <c r="B83" s="10" t="s">
+      <c r="C83" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" ht="27" spans="2:11">
+      <c r="B84" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="J83" s="2">
-        <v>0</v>
-      </c>
-      <c r="K83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" ht="27" spans="2:11">
-      <c r="B84" s="12" t="s">
+      <c r="C84" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" ht="27" spans="2:11">
+      <c r="B85" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="J84" s="2">
-        <v>0</v>
-      </c>
-      <c r="K84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" ht="27" spans="2:11">
-      <c r="B85" s="12" t="s">
+      <c r="C85" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" ht="27" spans="2:11">
+      <c r="B86" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="J85" s="2">
-        <v>0</v>
-      </c>
-      <c r="K85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="2">
+      <c r="C86" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" ht="27" spans="2:11">
+      <c r="B87" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="2">
         <v>1201</v>
       </c>
-      <c r="B86" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="B88" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H86" s="2">
-        <v>1</v>
-      </c>
-      <c r="J86" s="2">
-        <v>1</v>
-      </c>
-      <c r="K86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11">
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="J87" s="2">
-        <v>1</v>
-      </c>
-      <c r="K87" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11">
-      <c r="B88" s="12" t="s">
-        <v>220</v>
+      <c r="H88" s="2">
+        <v>1</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
@@ -5072,188 +5152,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" ht="27" spans="2:11">
-      <c r="B89" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>222</v>
-      </c>
+    <row r="89" spans="2:11">
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
       <c r="J89" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="90" ht="27" spans="2:11">
+    <row r="90" spans="2:11">
       <c r="B90" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="J90" s="2">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" ht="27" spans="2:11">
+      <c r="B91" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="J90" s="2">
-        <v>0</v>
-      </c>
-      <c r="K90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="12" t="s">
+      <c r="C91" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" ht="27" spans="2:11">
+      <c r="B92" s="12" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="92" s="3" customFormat="1" spans="1:26">
-      <c r="A92" s="3">
+      <c r="C92" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="J92" s="2">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" s="3" customFormat="1" spans="1:26">
+      <c r="A94" s="3">
         <v>102</v>
       </c>
-      <c r="B92" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="B94" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J92" s="3">
-        <v>1</v>
-      </c>
-      <c r="M92" s="3">
+      <c r="J94" s="3">
+        <v>1</v>
+      </c>
+      <c r="M94" s="3">
         <v>2</v>
       </c>
-      <c r="R92" s="3">
-        <v>1</v>
-      </c>
-      <c r="T92" s="3">
+      <c r="R94" s="3">
+        <v>1</v>
+      </c>
+      <c r="T94" s="3">
         <v>9</v>
       </c>
-      <c r="Z92" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" s="3" customFormat="1" spans="1:26">
-      <c r="A93" s="3">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" s="3" customFormat="1" spans="1:26">
+      <c r="A95" s="3">
         <v>103</v>
       </c>
-      <c r="B93" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="B95" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J93" s="3">
-        <v>1</v>
-      </c>
-      <c r="K93" s="3">
+      <c r="J95" s="3">
+        <v>1</v>
+      </c>
+      <c r="K95" s="3">
         <v>3</v>
       </c>
-      <c r="M93" s="3">
+      <c r="M95" s="3">
         <v>2</v>
       </c>
-      <c r="R93" s="3">
-        <v>1</v>
-      </c>
-      <c r="T93" s="3">
+      <c r="R95" s="3">
+        <v>1</v>
+      </c>
+      <c r="T95" s="3">
         <v>1003</v>
       </c>
-      <c r="U93" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z93" s="3">
+      <c r="U95" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z95" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="94" ht="27" spans="1:26">
-      <c r="A94" s="2">
+    <row r="96" ht="27" spans="1:26">
+      <c r="A96" s="2">
         <v>104</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="B96" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="J94" s="2">
-        <v>1</v>
-      </c>
-      <c r="K94" s="2">
-        <v>3</v>
-      </c>
-      <c r="M94" s="2">
-        <v>6</v>
-      </c>
-      <c r="R94" s="2">
-        <v>1</v>
-      </c>
-      <c r="T94" s="2">
-        <v>1005</v>
-      </c>
-      <c r="Z94" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" ht="27" spans="1:30">
-      <c r="A95" s="2">
-        <v>105</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J95" s="2">
-        <v>1</v>
-      </c>
-      <c r="K95" s="2">
-        <v>0</v>
-      </c>
-      <c r="M95" s="2">
-        <v>3</v>
-      </c>
-      <c r="N95" s="2">
-        <v>2</v>
-      </c>
-      <c r="O95" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z95" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC95" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD95" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26">
-      <c r="A96" s="2">
-        <v>106</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="J96" s="2">
         <v>1</v>
@@ -5268,120 +5299,126 @@
         <v>1</v>
       </c>
       <c r="T96" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="Z96" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" ht="27" spans="1:30">
       <c r="A97" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B97" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>238</v>
+      <c r="D97" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="J97" s="2">
         <v>1</v>
       </c>
       <c r="K97" s="2">
+        <v>0</v>
+      </c>
+      <c r="M97" s="2">
         <v>3</v>
       </c>
-      <c r="M97" s="2">
-        <v>0</v>
-      </c>
-      <c r="R97" s="2">
-        <v>1</v>
-      </c>
-      <c r="W97">
-        <v>8</v>
+      <c r="N97" s="2">
+        <v>2</v>
+      </c>
+      <c r="O97" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="Z97" s="2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="AC97" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD97" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="2">
+        <v>106</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+      <c r="K98" s="2">
+        <v>3</v>
+      </c>
+      <c r="M98" s="2">
+        <v>6</v>
+      </c>
+      <c r="R98" s="2">
+        <v>1</v>
+      </c>
+      <c r="T98" s="2">
+        <v>1004</v>
+      </c>
+      <c r="Z98" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99" s="2">
+        <v>107</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J99" s="2">
+        <v>1</v>
+      </c>
+      <c r="K99" s="2">
+        <v>3</v>
+      </c>
+      <c r="M99" s="2">
+        <v>0</v>
+      </c>
+      <c r="R99" s="2">
+        <v>1</v>
+      </c>
+      <c r="W99">
+        <v>8</v>
+      </c>
+      <c r="Z99" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100" s="2">
         <v>108</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="J98" s="2">
-        <v>1</v>
-      </c>
-      <c r="K98" s="2">
+      <c r="B100" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="J100" s="2">
+        <v>1</v>
+      </c>
+      <c r="K100" s="2">
         <v>2</v>
-      </c>
-      <c r="M98" s="2">
-        <v>3</v>
-      </c>
-      <c r="R98" s="2">
-        <v>1</v>
-      </c>
-      <c r="T98" s="2">
-        <v>1007</v>
-      </c>
-      <c r="U98">
-        <v>1</v>
-      </c>
-      <c r="Z98" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" ht="27" spans="1:26">
-      <c r="A99" s="2">
-        <v>109</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="J99" s="2">
-        <v>1</v>
-      </c>
-      <c r="K99" s="2">
-        <v>0</v>
-      </c>
-      <c r="M99" s="2">
-        <v>3</v>
-      </c>
-      <c r="N99" s="2">
-        <v>5</v>
-      </c>
-      <c r="O99" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q99" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z99" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" ht="27" spans="1:26">
-      <c r="A100" s="2">
-        <v>110</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J100" s="2">
-        <v>1</v>
-      </c>
-      <c r="K100" s="2">
-        <v>1</v>
       </c>
       <c r="M100" s="2">
         <v>3</v>
@@ -5389,63 +5426,63 @@
       <c r="R100" s="2">
         <v>1</v>
       </c>
+      <c r="T100" s="2">
+        <v>1007</v>
+      </c>
       <c r="U100">
         <v>1</v>
       </c>
-      <c r="W100">
-        <v>8</v>
-      </c>
       <c r="Z100" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" ht="27" spans="1:26">
       <c r="A101" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B101" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="J101" s="2">
+        <v>1</v>
+      </c>
+      <c r="K101" s="2">
+        <v>0</v>
+      </c>
+      <c r="M101" s="2">
+        <v>3</v>
+      </c>
+      <c r="N101" s="2">
+        <v>5</v>
+      </c>
+      <c r="O101" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" ht="27" spans="1:26">
+      <c r="A102" s="2">
+        <v>110</v>
+      </c>
+      <c r="B102" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="J101" s="2">
-        <v>1</v>
-      </c>
-      <c r="K101" s="2">
-        <v>2</v>
-      </c>
-      <c r="M101" s="2">
-        <v>5</v>
-      </c>
-      <c r="R101" s="2">
-        <v>1</v>
-      </c>
-      <c r="T101" s="2">
-        <v>1010</v>
-      </c>
-      <c r="U101">
-        <v>1</v>
-      </c>
-      <c r="Z101" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:26">
-      <c r="A102" s="2">
-        <v>112</v>
-      </c>
-      <c r="B102" s="10" t="s">
+      <c r="C102" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="J102" s="2">
         <v>1</v>
       </c>
       <c r="K102" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M102" s="2">
         <v>3</v>
@@ -5453,25 +5490,25 @@
       <c r="R102" s="2">
         <v>1</v>
       </c>
-      <c r="T102" s="2">
-        <v>1013</v>
-      </c>
       <c r="U102">
         <v>1</v>
       </c>
+      <c r="W102">
+        <v>8</v>
+      </c>
       <c r="Z102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B103" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>250</v>
       </c>
       <c r="J103" s="2">
         <v>1</v>
@@ -5480,75 +5517,48 @@
         <v>2</v>
       </c>
       <c r="M103" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R103" s="2">
         <v>1</v>
       </c>
       <c r="T103" s="2">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="U103">
         <v>1</v>
       </c>
       <c r="Z103" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="2">
-        <v>114</v>
-      </c>
-      <c r="B104" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H104" s="2">
-        <v>0.8</v>
-      </c>
       <c r="J104" s="2">
         <v>1</v>
       </c>
       <c r="K104" s="2">
-        <v>0</v>
-      </c>
-      <c r="L104" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M104" s="2">
-        <v>4</v>
-      </c>
-      <c r="N104" s="2">
-        <v>5</v>
-      </c>
-      <c r="O104" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q104" s="2" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="R104" s="2">
-        <v>0</v>
-      </c>
-      <c r="S104" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T104" s="2">
-        <v>0</v>
+        <v>1013</v>
+      </c>
+      <c r="U104">
+        <v>1</v>
       </c>
       <c r="Z104" s="2">
         <v>1</v>
@@ -5556,7 +5566,7 @@
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B105" s="10" t="s">
         <v>252</v>
@@ -5577,201 +5587,203 @@
         <v>1</v>
       </c>
       <c r="T105" s="2">
+        <v>1014</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="Z105" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="A106" s="2">
+        <v>114</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H106" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J106" s="2">
+        <v>1</v>
+      </c>
+      <c r="K106" s="2">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2">
+        <v>0</v>
+      </c>
+      <c r="M106" s="2">
+        <v>3</v>
+      </c>
+      <c r="N106" s="2">
+        <v>4</v>
+      </c>
+      <c r="O106" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R106" s="2">
+        <v>0</v>
+      </c>
+      <c r="S106" s="2">
+        <v>0</v>
+      </c>
+      <c r="T106" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26">
+      <c r="A107" s="2">
+        <v>115</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="J107" s="2">
+        <v>1</v>
+      </c>
+      <c r="K107" s="2">
+        <v>2</v>
+      </c>
+      <c r="M107" s="2">
+        <v>4</v>
+      </c>
+      <c r="R107" s="2">
+        <v>1</v>
+      </c>
+      <c r="T107" s="2">
         <v>2008</v>
       </c>
-      <c r="U105">
-        <v>1</v>
-      </c>
-      <c r="Z105" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" s="4" customFormat="1" spans="1:26">
-      <c r="A106" s="4">
+      <c r="U107">
+        <v>1</v>
+      </c>
+      <c r="Z107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" s="4" customFormat="1" spans="1:26">
+      <c r="A108" s="4">
         <v>116</v>
       </c>
-      <c r="B106" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="D106" s="4" t="s">
+      <c r="B108" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J106" s="4">
-        <v>1</v>
-      </c>
-      <c r="M106" s="4">
+      <c r="J108" s="4">
+        <v>1</v>
+      </c>
+      <c r="M108" s="4">
         <v>2</v>
       </c>
-      <c r="R106" s="4">
-        <v>1</v>
-      </c>
-      <c r="T106" s="4">
+      <c r="R108" s="4">
+        <v>1</v>
+      </c>
+      <c r="T108" s="4">
         <v>12</v>
       </c>
-      <c r="V106" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z106" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" s="4" customFormat="1" spans="1:26">
-      <c r="A107" s="4">
+      <c r="V108" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" s="4" customFormat="1" spans="1:26">
+      <c r="A109" s="4">
         <v>117</v>
       </c>
-      <c r="B107" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="D107" s="4" t="s">
+      <c r="B109" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J107" s="4">
-        <v>1</v>
-      </c>
-      <c r="K107" s="4">
-        <v>0</v>
-      </c>
-      <c r="M107" s="4">
+      <c r="J109" s="4">
+        <v>1</v>
+      </c>
+      <c r="K109" s="4">
+        <v>0</v>
+      </c>
+      <c r="M109" s="4">
         <v>5</v>
       </c>
-      <c r="R107" s="4">
-        <v>0</v>
-      </c>
-      <c r="T107" s="4">
-        <v>4</v>
-      </c>
-      <c r="Z107" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" s="2" customFormat="1" spans="1:26">
-      <c r="A108" s="4">
-        <v>118</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="J108" s="2">
-        <v>1</v>
-      </c>
-      <c r="K108" s="2">
-        <v>2</v>
-      </c>
-      <c r="M108" s="2">
-        <v>4</v>
-      </c>
-      <c r="R108" s="2">
-        <v>1</v>
-      </c>
-      <c r="T108">
-        <v>1015</v>
-      </c>
-      <c r="U108">
-        <v>1</v>
-      </c>
-      <c r="V108"/>
-      <c r="W108"/>
-      <c r="Z108" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" s="2" customFormat="1" spans="1:26">
-      <c r="A109" s="4">
-        <v>119</v>
-      </c>
-      <c r="B109" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="C109" s="10" t="s">
+      <c r="N109" s="4">
+        <v>14</v>
+      </c>
+      <c r="O109" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J109" s="2">
-        <v>1</v>
-      </c>
-      <c r="K109" s="2">
-        <v>2</v>
-      </c>
-      <c r="M109" s="2">
-        <v>4</v>
-      </c>
-      <c r="R109" s="2">
-        <v>1</v>
-      </c>
-      <c r="T109">
-        <v>1016</v>
-      </c>
-      <c r="U109">
-        <v>1</v>
-      </c>
-      <c r="V109"/>
-      <c r="W109"/>
-      <c r="Z109" s="2">
+      <c r="R109" s="4">
+        <v>0</v>
+      </c>
+      <c r="T109" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="110" s="2" customFormat="1" spans="1:26">
       <c r="A110" s="4">
-        <v>120</v>
-      </c>
-      <c r="B110" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B110" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H110" s="2">
-        <v>0.8</v>
-      </c>
       <c r="J110" s="2">
         <v>1</v>
       </c>
       <c r="K110" s="2">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M110" s="2">
-        <v>5</v>
-      </c>
-      <c r="N110" s="2">
-        <v>8</v>
-      </c>
-      <c r="O110" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="2" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="R110" s="2">
-        <v>0</v>
-      </c>
-      <c r="S110" s="2">
-        <v>0</v>
-      </c>
-      <c r="T110" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T110">
+        <v>1015</v>
       </c>
       <c r="U110">
         <v>1</v>
@@ -5779,12 +5791,12 @@
       <c r="V110"/>
       <c r="W110"/>
       <c r="Z110" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" s="2" customFormat="1" spans="1:26">
       <c r="A111" s="4">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B111" s="10" t="s">
         <v>264</v>
@@ -5799,13 +5811,13 @@
         <v>2</v>
       </c>
       <c r="M111" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R111" s="2">
         <v>1</v>
       </c>
       <c r="T111">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="U111">
         <v>1</v>
@@ -5813,12 +5825,12 @@
       <c r="V111"/>
       <c r="W111"/>
       <c r="Z111" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" s="2" customFormat="1" spans="1:26">
       <c r="A112" s="4">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>266</v>
@@ -5826,6 +5838,18 @@
       <c r="C112" s="5" t="s">
         <v>267</v>
       </c>
+      <c r="D112" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="H112" s="2">
         <v>0.8</v>
       </c>
@@ -5833,50 +5857,50 @@
         <v>1</v>
       </c>
       <c r="K112" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L112" s="2">
         <v>0</v>
       </c>
       <c r="M112" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N112" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O112" s="2">
         <v>1</v>
       </c>
+      <c r="Q112" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="R112" s="2">
         <v>0</v>
       </c>
       <c r="S112" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T112" s="2">
         <v>0</v>
       </c>
-      <c r="U112"/>
+      <c r="U112">
+        <v>1</v>
+      </c>
       <c r="V112"/>
-      <c r="W112">
-        <v>2</v>
-      </c>
+      <c r="W112"/>
       <c r="Z112" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="113" ht="27" spans="1:28">
-      <c r="A113" s="2">
-        <v>200</v>
-      </c>
-      <c r="B113" s="2" t="s">
+    <row r="113" s="2" customFormat="1" spans="1:26">
+      <c r="A113" s="4">
+        <v>121</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="10" t="s">
         <v>269</v>
-      </c>
-      <c r="H113" s="2">
-        <v>1</v>
       </c>
       <c r="J113" s="2">
         <v>1</v>
@@ -5884,349 +5908,356 @@
       <c r="K113" s="2">
         <v>2</v>
       </c>
-      <c r="L113" s="2">
-        <v>0</v>
-      </c>
       <c r="M113" s="2">
+        <v>3</v>
+      </c>
+      <c r="R113" s="2">
+        <v>1</v>
+      </c>
+      <c r="T113">
+        <v>1017</v>
+      </c>
+      <c r="U113">
+        <v>1</v>
+      </c>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="Z113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" s="2" customFormat="1" spans="1:26">
+      <c r="A114" s="4">
+        <v>122</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J114" s="2">
+        <v>1</v>
+      </c>
+      <c r="K114" s="2">
+        <v>3</v>
+      </c>
+      <c r="L114" s="2">
+        <v>0</v>
+      </c>
+      <c r="M114" s="2">
+        <v>0</v>
+      </c>
+      <c r="N114" s="2">
+        <v>0</v>
+      </c>
+      <c r="O114" s="2">
+        <v>1</v>
+      </c>
+      <c r="R114" s="2">
+        <v>0</v>
+      </c>
+      <c r="S114" s="2">
+        <v>1</v>
+      </c>
+      <c r="T114" s="2">
+        <v>0</v>
+      </c>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114">
+        <v>2</v>
+      </c>
+      <c r="Z114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" s="2" customFormat="1" spans="1:26">
+      <c r="A115" s="4">
+        <v>123</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="J115" s="2">
+        <v>1</v>
+      </c>
+      <c r="K115" s="2">
+        <v>1</v>
+      </c>
+      <c r="L115" s="2">
+        <v>0</v>
+      </c>
+      <c r="M115" s="2">
+        <v>4</v>
+      </c>
+      <c r="N115" s="2">
         <v>5</v>
       </c>
-      <c r="N113" s="2">
-        <v>0</v>
-      </c>
-      <c r="R113" s="2">
-        <v>1</v>
-      </c>
-      <c r="T113" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U113">
-        <v>1</v>
-      </c>
-      <c r="X113" s="2">
-        <v>201</v>
-      </c>
-      <c r="Z113" s="2">
+      <c r="O115" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R115" s="2">
+        <v>0</v>
+      </c>
+      <c r="S115" s="2">
+        <v>0</v>
+      </c>
+      <c r="T115" s="2">
+        <v>0</v>
+      </c>
+      <c r="U115"/>
+      <c r="V115">
+        <v>2</v>
+      </c>
+      <c r="W115"/>
+      <c r="Z115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" s="2" customFormat="1" ht="27" spans="1:26">
+      <c r="A116" s="4">
+        <v>124</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H116" s="2">
         <v>3</v>
       </c>
-      <c r="AA113" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB113" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" ht="27" spans="1:28">
-      <c r="A114" s="2">
-        <v>201</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="H114" s="2">
-        <v>1</v>
-      </c>
-      <c r="J114" s="2">
-        <v>1</v>
-      </c>
-      <c r="K114" s="2">
+      <c r="I116" s="2">
+        <v>4</v>
+      </c>
+      <c r="J116" s="2">
+        <v>1</v>
+      </c>
+      <c r="K116" s="2">
+        <v>1</v>
+      </c>
+      <c r="L116" s="2">
+        <v>0</v>
+      </c>
+      <c r="M116" s="2">
+        <v>3</v>
+      </c>
+      <c r="N116" s="2">
+        <v>8</v>
+      </c>
+      <c r="O116" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R116" s="2">
+        <v>0</v>
+      </c>
+      <c r="T116" s="2">
+        <v>0</v>
+      </c>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116">
         <v>2</v>
       </c>
-      <c r="L114" s="2">
-        <v>0</v>
-      </c>
-      <c r="M114" s="2">
-        <v>5</v>
-      </c>
-      <c r="N114" s="2">
-        <v>0</v>
-      </c>
-      <c r="R114" s="2">
-        <v>1</v>
-      </c>
-      <c r="T114" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U114">
-        <v>1</v>
-      </c>
-      <c r="X114" s="2">
-        <v>202</v>
-      </c>
-      <c r="Z114" s="2">
+      <c r="Z116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" s="2" customFormat="1" spans="1:26">
+      <c r="A117" s="4">
+        <v>125</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J117" s="2">
+        <v>1</v>
+      </c>
+      <c r="K117" s="2">
         <v>3</v>
       </c>
-      <c r="AA114" s="2">
+      <c r="L117" s="2">
+        <v>0</v>
+      </c>
+      <c r="M117" s="2">
+        <v>0</v>
+      </c>
+      <c r="N117" s="2">
+        <v>0</v>
+      </c>
+      <c r="O117" s="2">
+        <v>1</v>
+      </c>
+      <c r="R117" s="2">
+        <v>0</v>
+      </c>
+      <c r="S117" s="2">
+        <v>2</v>
+      </c>
+      <c r="T117" s="2">
+        <v>0</v>
+      </c>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117">
+        <v>2</v>
+      </c>
+      <c r="Z117" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" s="2" customFormat="1" ht="27" spans="1:26">
+      <c r="A118" s="4">
+        <v>126</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="J118" s="2">
+        <v>1</v>
+      </c>
+      <c r="K118" s="2">
+        <v>0</v>
+      </c>
+      <c r="M118" s="2">
+        <v>4</v>
+      </c>
+      <c r="N118" s="2">
+        <v>9</v>
+      </c>
+      <c r="O118" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U118"/>
+      <c r="V118"/>
+      <c r="W118"/>
+      <c r="Z118" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" s="2" customFormat="1" spans="1:26">
+      <c r="A119" s="4">
+        <v>127</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H119" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="J119" s="2">
+        <v>1</v>
+      </c>
+      <c r="K119" s="2">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2">
+        <v>0</v>
+      </c>
+      <c r="M119" s="2">
         <v>3</v>
       </c>
-      <c r="AB114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" ht="27" spans="1:28">
-      <c r="A115" s="2">
-        <v>202</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-      <c r="J115" s="2">
-        <v>1</v>
-      </c>
-      <c r="K115" s="2">
+      <c r="N119" s="2">
+        <v>7</v>
+      </c>
+      <c r="O119" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R119" s="2">
+        <v>0</v>
+      </c>
+      <c r="S119" s="2">
+        <v>0</v>
+      </c>
+      <c r="T119" s="2">
+        <v>0</v>
+      </c>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+      <c r="Z119" s="2">
         <v>2</v>
       </c>
-      <c r="L115" s="2">
-        <v>0</v>
-      </c>
-      <c r="M115" s="2">
-        <v>5</v>
-      </c>
-      <c r="N115" s="2">
-        <v>0</v>
-      </c>
-      <c r="R115" s="2">
-        <v>1</v>
-      </c>
-      <c r="T115" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U115">
-        <v>1</v>
-      </c>
-      <c r="X115" s="2">
-        <v>203</v>
-      </c>
-      <c r="Z115" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA115" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB115" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" ht="27" spans="1:28">
-      <c r="A116" s="2">
-        <v>203</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="H116" s="2">
-        <v>1</v>
-      </c>
-      <c r="J116" s="2">
-        <v>1</v>
-      </c>
-      <c r="K116" s="2">
-        <v>2</v>
-      </c>
-      <c r="L116" s="2">
-        <v>0</v>
-      </c>
-      <c r="M116" s="2">
-        <v>5</v>
-      </c>
-      <c r="N116" s="2">
-        <v>0</v>
-      </c>
-      <c r="R116" s="2">
-        <v>1</v>
-      </c>
-      <c r="T116" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U116">
-        <v>1</v>
-      </c>
-      <c r="X116" s="2">
-        <v>204</v>
-      </c>
-      <c r="Z116" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA116" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB116" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" ht="27" spans="1:28">
-      <c r="A117" s="2">
-        <v>204</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="H117" s="2">
-        <v>1</v>
-      </c>
-      <c r="J117" s="2">
-        <v>1</v>
-      </c>
-      <c r="K117" s="2">
-        <v>2</v>
-      </c>
-      <c r="L117" s="2">
-        <v>0</v>
-      </c>
-      <c r="M117" s="2">
-        <v>5</v>
-      </c>
-      <c r="N117" s="2">
-        <v>0</v>
-      </c>
-      <c r="R117" s="2">
-        <v>1</v>
-      </c>
-      <c r="T117" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U117">
-        <v>1</v>
-      </c>
-      <c r="X117" s="2">
-        <v>205</v>
-      </c>
-      <c r="Z117" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA117" s="2">
-        <v>6</v>
-      </c>
-      <c r="AB117" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" ht="27" spans="1:28">
-      <c r="A118" s="2">
-        <v>205</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="H118" s="2">
-        <v>1</v>
-      </c>
-      <c r="J118" s="2">
-        <v>1</v>
-      </c>
-      <c r="K118" s="2">
-        <v>2</v>
-      </c>
-      <c r="L118" s="2">
-        <v>0</v>
-      </c>
-      <c r="M118" s="2">
-        <v>5</v>
-      </c>
-      <c r="N118" s="2">
-        <v>0</v>
-      </c>
-      <c r="R118" s="2">
-        <v>1</v>
-      </c>
-      <c r="T118" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U118">
-        <v>1</v>
-      </c>
-      <c r="X118" s="2">
-        <v>206</v>
-      </c>
-      <c r="Z118" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA118" s="2">
-        <v>7</v>
-      </c>
-      <c r="AB118" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" ht="27" spans="1:28">
-      <c r="A119" s="2">
-        <v>206</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="H119" s="2">
-        <v>1</v>
-      </c>
-      <c r="J119" s="2">
-        <v>1</v>
-      </c>
-      <c r="K119" s="2">
-        <v>2</v>
-      </c>
-      <c r="L119" s="2">
-        <v>0</v>
-      </c>
-      <c r="M119" s="2">
-        <v>5</v>
-      </c>
-      <c r="N119" s="2">
-        <v>0</v>
-      </c>
-      <c r="R119" s="2">
-        <v>1</v>
-      </c>
-      <c r="T119" s="2">
-        <v>1001</v>
-      </c>
-      <c r="U119">
-        <v>1</v>
-      </c>
-      <c r="X119" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z119" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA119" s="2">
-        <v>8</v>
-      </c>
-      <c r="AB119" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" ht="27" spans="1:28">
-      <c r="A120" s="2">
-        <v>207</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H120" s="2">
-        <v>1</v>
+    </row>
+    <row r="120" s="2" customFormat="1" spans="1:26">
+      <c r="A120" s="4">
+        <v>128</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>279</v>
       </c>
       <c r="J120" s="2">
         <v>1</v>
@@ -6234,49 +6265,33 @@
       <c r="K120" s="2">
         <v>2</v>
       </c>
-      <c r="L120" s="2">
-        <v>0</v>
-      </c>
       <c r="M120" s="2">
-        <v>5</v>
-      </c>
-      <c r="N120" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R120" s="2">
         <v>1</v>
       </c>
       <c r="T120" s="2">
-        <v>1001</v>
+        <v>1018</v>
       </c>
       <c r="U120">
         <v>1</v>
       </c>
-      <c r="X120" s="2">
-        <v>208</v>
-      </c>
+      <c r="V120"/>
+      <c r="W120"/>
       <c r="Z120" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA120" s="2">
-        <v>9</v>
-      </c>
-      <c r="AB120" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" ht="27" spans="1:28">
-      <c r="A121" s="2">
-        <v>208</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H121" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" s="2" customFormat="1" spans="1:26">
+      <c r="A121" s="4">
+        <v>129</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>281</v>
       </c>
       <c r="J121" s="2">
         <v>1</v>
@@ -6284,46 +6299,33 @@
       <c r="K121" s="2">
         <v>2</v>
       </c>
-      <c r="L121" s="2">
-        <v>0</v>
-      </c>
       <c r="M121" s="2">
         <v>5</v>
       </c>
-      <c r="N121" s="2">
-        <v>0</v>
-      </c>
       <c r="R121" s="2">
         <v>1</v>
       </c>
       <c r="T121" s="2">
-        <v>1001</v>
+        <v>2009</v>
       </c>
       <c r="U121">
         <v>1</v>
       </c>
-      <c r="X121" s="2">
-        <v>209</v>
-      </c>
+      <c r="V121"/>
+      <c r="W121"/>
       <c r="Z121" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA121" s="2">
-        <v>10</v>
-      </c>
-      <c r="AB121" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" ht="27" spans="1:28">
       <c r="A122" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H122" s="2">
         <v>1</v>
@@ -6353,13 +6355,13 @@
         <v>1</v>
       </c>
       <c r="X122" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="Z122" s="2">
         <v>3</v>
       </c>
       <c r="AA122" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB122" s="2">
         <v>1</v>
@@ -6367,13 +6369,13 @@
     </row>
     <row r="123" ht="27" spans="1:28">
       <c r="A123" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="H123" s="2">
         <v>1</v>
@@ -6403,497 +6405,947 @@
         <v>1</v>
       </c>
       <c r="X123" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="Z123" s="2">
         <v>3</v>
       </c>
       <c r="AA123" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB123" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" ht="27" spans="1:28">
+      <c r="A124" s="2">
+        <v>202</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H124" s="2">
+        <v>1</v>
+      </c>
+      <c r="J124" s="2">
+        <v>1</v>
+      </c>
+      <c r="K124" s="2">
+        <v>2</v>
+      </c>
+      <c r="L124" s="2">
+        <v>0</v>
+      </c>
+      <c r="M124" s="2">
+        <v>5</v>
+      </c>
+      <c r="N124" s="2">
+        <v>0</v>
+      </c>
+      <c r="R124" s="2">
+        <v>1</v>
+      </c>
+      <c r="T124" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U124">
+        <v>1</v>
+      </c>
+      <c r="X124" s="2">
+        <v>203</v>
+      </c>
+      <c r="Z124" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA124" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" ht="27" spans="1:28">
+      <c r="A125" s="2">
+        <v>203</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H125" s="2">
+        <v>1</v>
+      </c>
+      <c r="J125" s="2">
+        <v>1</v>
+      </c>
+      <c r="K125" s="2">
+        <v>2</v>
+      </c>
+      <c r="L125" s="2">
+        <v>0</v>
+      </c>
+      <c r="M125" s="2">
+        <v>5</v>
+      </c>
+      <c r="N125" s="2">
+        <v>0</v>
+      </c>
+      <c r="R125" s="2">
+        <v>1</v>
+      </c>
+      <c r="T125" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U125">
+        <v>1</v>
+      </c>
+      <c r="X125" s="2">
+        <v>204</v>
+      </c>
+      <c r="Z125" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA125" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB125" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" ht="27" spans="1:28">
+      <c r="A126" s="2">
+        <v>204</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="H126" s="2">
+        <v>1</v>
+      </c>
+      <c r="J126" s="2">
+        <v>1</v>
+      </c>
+      <c r="K126" s="2">
+        <v>2</v>
+      </c>
+      <c r="L126" s="2">
+        <v>0</v>
+      </c>
+      <c r="M126" s="2">
+        <v>5</v>
+      </c>
+      <c r="N126" s="2">
+        <v>0</v>
+      </c>
+      <c r="R126" s="2">
+        <v>1</v>
+      </c>
+      <c r="T126" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U126">
+        <v>1</v>
+      </c>
+      <c r="X126" s="2">
+        <v>205</v>
+      </c>
+      <c r="Z126" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA126" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB126" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" ht="27" spans="1:28">
+      <c r="A127" s="2">
+        <v>205</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H127" s="2">
+        <v>1</v>
+      </c>
+      <c r="J127" s="2">
+        <v>1</v>
+      </c>
+      <c r="K127" s="2">
+        <v>2</v>
+      </c>
+      <c r="L127" s="2">
+        <v>0</v>
+      </c>
+      <c r="M127" s="2">
+        <v>5</v>
+      </c>
+      <c r="N127" s="2">
+        <v>0</v>
+      </c>
+      <c r="R127" s="2">
+        <v>1</v>
+      </c>
+      <c r="T127" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U127">
+        <v>1</v>
+      </c>
+      <c r="X127" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z127" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA127" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB127" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" ht="27" spans="1:28">
+      <c r="A128" s="2">
+        <v>206</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H128" s="2">
+        <v>1</v>
+      </c>
+      <c r="J128" s="2">
+        <v>1</v>
+      </c>
+      <c r="K128" s="2">
+        <v>2</v>
+      </c>
+      <c r="L128" s="2">
+        <v>0</v>
+      </c>
+      <c r="M128" s="2">
+        <v>5</v>
+      </c>
+      <c r="N128" s="2">
+        <v>0</v>
+      </c>
+      <c r="R128" s="2">
+        <v>1</v>
+      </c>
+      <c r="T128" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U128">
+        <v>1</v>
+      </c>
+      <c r="X128" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z128" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA128" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" ht="27" spans="1:28">
+      <c r="A129" s="2">
+        <v>207</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H129" s="2">
+        <v>1</v>
+      </c>
+      <c r="J129" s="2">
+        <v>1</v>
+      </c>
+      <c r="K129" s="2">
+        <v>2</v>
+      </c>
+      <c r="L129" s="2">
+        <v>0</v>
+      </c>
+      <c r="M129" s="2">
+        <v>5</v>
+      </c>
+      <c r="N129" s="2">
+        <v>0</v>
+      </c>
+      <c r="R129" s="2">
+        <v>1</v>
+      </c>
+      <c r="T129" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U129">
+        <v>1</v>
+      </c>
+      <c r="X129" s="2">
+        <v>208</v>
+      </c>
+      <c r="Z129" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA129" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" ht="27" spans="1:28">
+      <c r="A130" s="2">
+        <v>208</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="H130" s="2">
+        <v>1</v>
+      </c>
+      <c r="J130" s="2">
+        <v>1</v>
+      </c>
+      <c r="K130" s="2">
+        <v>2</v>
+      </c>
+      <c r="L130" s="2">
+        <v>0</v>
+      </c>
+      <c r="M130" s="2">
+        <v>5</v>
+      </c>
+      <c r="N130" s="2">
+        <v>0</v>
+      </c>
+      <c r="R130" s="2">
+        <v>1</v>
+      </c>
+      <c r="T130" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U130">
+        <v>1</v>
+      </c>
+      <c r="X130" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z130" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA130" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" ht="27" spans="1:28">
+      <c r="A131" s="2">
+        <v>209</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H131" s="2">
+        <v>1</v>
+      </c>
+      <c r="J131" s="2">
+        <v>1</v>
+      </c>
+      <c r="K131" s="2">
+        <v>2</v>
+      </c>
+      <c r="L131" s="2">
+        <v>0</v>
+      </c>
+      <c r="M131" s="2">
+        <v>5</v>
+      </c>
+      <c r="N131" s="2">
+        <v>0</v>
+      </c>
+      <c r="R131" s="2">
+        <v>1</v>
+      </c>
+      <c r="T131" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U131">
+        <v>1</v>
+      </c>
+      <c r="X131" s="2">
+        <v>210</v>
+      </c>
+      <c r="Z131" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA131" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" ht="27" spans="1:28">
+      <c r="A132" s="2">
+        <v>210</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H132" s="2">
+        <v>1</v>
+      </c>
+      <c r="J132" s="2">
+        <v>1</v>
+      </c>
+      <c r="K132" s="2">
+        <v>2</v>
+      </c>
+      <c r="L132" s="2">
+        <v>0</v>
+      </c>
+      <c r="M132" s="2">
+        <v>5</v>
+      </c>
+      <c r="N132" s="2">
+        <v>0</v>
+      </c>
+      <c r="R132" s="2">
+        <v>1</v>
+      </c>
+      <c r="T132" s="2">
+        <v>1001</v>
+      </c>
+      <c r="U132">
+        <v>1</v>
+      </c>
+      <c r="X132" s="2">
+        <v>210</v>
+      </c>
+      <c r="Z132" s="2">
+        <v>3</v>
+      </c>
+      <c r="AA132" s="2">
         <v>12</v>
       </c>
-      <c r="AB123" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" ht="40.5" spans="1:33">
-      <c r="A124" s="2">
+      <c r="AB132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" ht="40.5" spans="1:33">
+      <c r="A133" s="2">
         <v>211</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="J124" s="2">
-        <v>1</v>
-      </c>
-      <c r="K124" s="2">
-        <v>1</v>
-      </c>
-      <c r="M124" s="2">
+      <c r="B133" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="J133" s="2">
+        <v>1</v>
+      </c>
+      <c r="K133" s="2">
+        <v>1</v>
+      </c>
+      <c r="M133" s="2">
         <v>10</v>
       </c>
-      <c r="N124" s="2">
+      <c r="N133" s="2">
         <v>12</v>
       </c>
-      <c r="O124" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q124" s="2" t="s">
+      <c r="O133" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Y124" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z124" s="2">
+      <c r="Y133" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z133" s="2">
         <v>2</v>
       </c>
-      <c r="AG124" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" spans="2:3">
-      <c r="B125" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C125" s="18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25" spans="2:3">
-      <c r="B126" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="C126" s="18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="127" ht="42.75" spans="2:3">
-      <c r="B127" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="128" ht="28.5" spans="2:3">
-      <c r="B128" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C128" s="18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25" spans="2:3">
-      <c r="B129" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="C129" s="18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="130" ht="14.25" spans="2:3">
-      <c r="B130" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="131" ht="28.5" spans="2:3">
-      <c r="B131" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="C131" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25" spans="2:8">
-      <c r="B132" s="18" t="s">
+      <c r="AG133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" ht="14.25" spans="2:3">
+      <c r="B134" s="18" t="s">
         <v>296</v>
       </c>
-      <c r="C132" s="18" t="s">
+      <c r="C134" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="H132" s="2">
+    </row>
+    <row r="135" ht="14.25" spans="2:3">
+      <c r="B135" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="136" ht="42.75" spans="2:3">
+      <c r="B136" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="137" ht="28.5" spans="2:3">
+      <c r="B137" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" spans="2:3">
+      <c r="B138" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" ht="14.25" spans="2:3">
+      <c r="B139" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="140" ht="28.5" spans="2:3">
+      <c r="B140" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="C140" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="141" ht="14.25" spans="2:8">
+      <c r="B141" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="H141" s="2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="133" ht="28.5" spans="2:3">
-      <c r="B133" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="134" ht="28.5" spans="2:3">
-      <c r="B134" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="C134" s="19" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" spans="2:2">
-      <c r="B135" s="18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="136" ht="57" spans="2:3">
-      <c r="B136" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" spans="2:8">
-      <c r="B137" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="C137" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="H137" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" spans="3:3">
-      <c r="C138" s="18"/>
-    </row>
-    <row r="139" ht="28.5" spans="2:3">
-      <c r="B139" s="18" t="s">
-        <v>307</v>
-      </c>
-      <c r="C139" s="18" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25" spans="2:3">
-      <c r="B140" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C140" s="18" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25" spans="2:3">
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
     </row>
     <row r="142" ht="28.5" spans="2:3">
       <c r="B142" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="C142" s="18" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="143" ht="14.25" spans="2:3">
+      <c r="C142" s="20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="143" ht="28.5" spans="2:3">
       <c r="B143" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="C143" s="18" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="144" ht="28.5" spans="2:3">
+      <c r="C143" s="19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="144" ht="14.25" spans="2:2">
       <c r="B144" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C144" s="18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="145" spans="2:3">
-      <c r="B145" s="10"/>
-      <c r="C145" s="10"/>
-    </row>
-    <row r="146" spans="1:20">
-      <c r="A146" s="2">
+    <row r="145" ht="57" spans="2:3">
+      <c r="B145" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="146" ht="14.25" spans="2:8">
+      <c r="B146" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="H146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" ht="14.25" spans="3:3">
+      <c r="C147" s="18"/>
+    </row>
+    <row r="148" ht="28.5" spans="2:3">
+      <c r="B148" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="149" ht="14.25" spans="2:3">
+      <c r="B149" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="C149" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="150" ht="14.25" spans="2:3">
+      <c r="B150" s="18"/>
+      <c r="C150" s="18"/>
+    </row>
+    <row r="151" ht="28.5" spans="2:3">
+      <c r="B151" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="152" ht="14.25" spans="2:3">
+      <c r="B152" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" ht="28.5" spans="2:3">
+      <c r="B153" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="C153" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+    </row>
+    <row r="155" spans="1:20">
+      <c r="A155" s="2">
         <v>1410</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D146" s="2" t="s">
+      <c r="B155" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H146" s="2">
+      <c r="H155" s="2">
         <v>10</v>
       </c>
-      <c r="J146" s="2">
-        <v>0</v>
-      </c>
-      <c r="K146" s="2">
+      <c r="J155" s="2">
+        <v>0</v>
+      </c>
+      <c r="K155" s="2">
         <v>3</v>
       </c>
-      <c r="N146" s="2">
-        <v>1</v>
-      </c>
-      <c r="R146" s="2">
-        <v>1</v>
-      </c>
-      <c r="T146" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" ht="27" spans="1:20">
-      <c r="A147" s="2">
+      <c r="N155" s="2">
+        <v>1</v>
+      </c>
+      <c r="R155" s="2">
+        <v>1</v>
+      </c>
+      <c r="T155" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" ht="27" spans="1:20">
+      <c r="A156" s="2">
         <v>1411</v>
       </c>
-      <c r="B147" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="B156" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H147" s="2">
-        <v>1</v>
-      </c>
-      <c r="I147" s="2">
+      <c r="H156" s="2">
+        <v>1</v>
+      </c>
+      <c r="I156" s="2">
         <v>10</v>
       </c>
-      <c r="J147" s="2">
-        <v>1</v>
-      </c>
-      <c r="K147" s="2">
+      <c r="J156" s="2">
+        <v>1</v>
+      </c>
+      <c r="K156" s="2">
         <v>3</v>
       </c>
-      <c r="M147" s="2">
+      <c r="M156" s="2">
         <v>10</v>
       </c>
-      <c r="N147" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q147" s="2" t="s">
+      <c r="N156" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="R147" s="2">
-        <v>1</v>
-      </c>
-      <c r="T147" s="2">
+      <c r="R156" s="2">
+        <v>1</v>
+      </c>
+      <c r="T156" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="148" ht="27" spans="1:20">
-      <c r="A148" s="2">
+    <row r="157" ht="27" spans="1:20">
+      <c r="A157" s="2">
         <v>1412</v>
       </c>
-      <c r="B148" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="D148" s="2" t="s">
+      <c r="B157" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E148" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G148" s="1" t="s">
+      <c r="E157" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H148" s="2">
+      <c r="H157" s="2">
         <v>2</v>
       </c>
-      <c r="I148" s="2">
+      <c r="I157" s="2">
         <v>10</v>
       </c>
-      <c r="J148" s="2">
-        <v>1</v>
-      </c>
-      <c r="K148" s="2">
+      <c r="J157" s="2">
+        <v>1</v>
+      </c>
+      <c r="K157" s="2">
         <v>3</v>
       </c>
-      <c r="M148" s="2">
+      <c r="M157" s="2">
         <v>10</v>
       </c>
-      <c r="N148" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q148" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="T148" s="2">
+      <c r="N157" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="T157" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="149" ht="54" spans="2:3">
-      <c r="B149" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="150" ht="27" spans="2:3">
-      <c r="B150" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="151" ht="40.5" spans="2:3">
-      <c r="B151" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="152" ht="27" spans="2:3">
-      <c r="B152" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="153" ht="40.5" spans="2:3">
-      <c r="B153" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="154" ht="27" spans="2:9">
-      <c r="B154" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="H154" s="2">
-        <v>5</v>
-      </c>
-      <c r="I154" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="155" ht="27" spans="2:8">
-      <c r="B155" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="H155" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="156" ht="40.5" spans="2:3">
-      <c r="B156" s="10" t="s">
+    <row r="158" ht="54" spans="2:3">
+      <c r="B158" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C158" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="157" ht="27" spans="2:3">
-      <c r="B157" s="10" t="s">
+    <row r="159" ht="27" spans="2:3">
+      <c r="B159" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C159" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="10"/>
-    </row>
-    <row r="160" spans="2:4">
+    <row r="160" ht="40.5" spans="2:3">
       <c r="B160" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="C160" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="161" ht="27" spans="2:4">
+    <row r="161" ht="27" spans="2:3">
       <c r="B161" s="10" t="s">
         <v>345</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D161" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4">
+    </row>
+    <row r="162" ht="40.5" spans="2:3">
       <c r="B162" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="C162" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="163" spans="2:4">
+    <row r="163" ht="27" spans="2:9">
       <c r="B163" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D163" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4">
+      <c r="C163" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="H163" s="2">
+        <v>5</v>
+      </c>
+      <c r="I163" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" ht="27" spans="2:8">
       <c r="B164" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="D164" s="5" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="165" spans="2:4">
+      <c r="C164" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="H164" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="165" ht="40.5" spans="2:3">
       <c r="B165" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="D165" s="5" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="166" spans="2:4">
+      <c r="C165" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="166" ht="27" spans="2:3">
       <c r="B166" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D166" s="5" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="167" spans="2:4">
-      <c r="B167" s="10" t="s">
+      <c r="C166" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D167" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="10" t="s">
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="10"/>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="B169" s="10" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="10" t="s">
+      <c r="D169" s="5" t="s">
         <v>358</v>
       </c>
     </row>
+    <row r="170" ht="27" spans="2:4">
+      <c r="B170" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="B171" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="B172" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="B173" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="B174" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="Z1:Z169">
+  <autoFilter ref="Z1:Z178">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117FBC11-55C2-491B-893D-E46A279AAF95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="374">
   <si>
     <t>技能ID</t>
   </si>
@@ -1535,18 +1541,16 @@
   <si>
     <t>集束闪电</t>
   </si>
+  <si>
+    <t>0.5,1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1582,143 +1586,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1729,8 +1596,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1751,13 +1624,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799951170384838"/>
+        <fgColor theme="3" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,188 +1640,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1956,249 +1649,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2206,8 +1660,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2231,16 +1685,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2253,61 +1707,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2565,23 +1976,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L18" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U36" sqref="U36"/>
+      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
@@ -2609,7 +2019,7 @@
     <col min="35" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2713,7 +2123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2817,7 +2227,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2861,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2917,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2979,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:26">
+    <row r="6" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3041,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="27" spans="1:23">
+    <row r="7" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3097,7 +2507,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="27" spans="1:23">
+    <row r="8" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3153,7 +2563,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="27" spans="1:23">
+    <row r="9" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3206,7 +2616,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="27" spans="1:23">
+    <row r="10" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3259,7 +2669,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="27" spans="1:23">
+    <row r="11" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3312,7 +2722,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" ht="27" spans="1:20">
+    <row r="12" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3362,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:20">
+    <row r="13" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3412,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="1:20">
+    <row r="14" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -3462,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="27" spans="1:20">
+    <row r="15" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3512,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="1:20">
+    <row r="16" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3562,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="27" spans="1:20">
+    <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -3612,7 +3022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="27" spans="1:23">
+    <row r="18" spans="1:28" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3668,7 +3078,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>20</v>
       </c>
@@ -3682,7 +3092,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" ht="40.5" spans="1:28">
+    <row r="20" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>21</v>
       </c>
@@ -3726,7 +3136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>22</v>
       </c>
@@ -3758,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>23</v>
       </c>
@@ -3778,7 +3188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>24</v>
       </c>
@@ -3807,7 +3217,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" ht="27" spans="1:28">
+    <row r="24" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>25</v>
       </c>
@@ -3848,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>26</v>
       </c>
@@ -3880,7 +3290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>27</v>
       </c>
@@ -3899,11 +3309,14 @@
       <c r="O26" s="2">
         <v>1</v>
       </c>
+      <c r="Q26" s="2" t="s">
+        <v>373</v>
+      </c>
       <c r="Y26" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>28</v>
       </c>
@@ -3935,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>29</v>
       </c>
@@ -3964,7 +3377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>30</v>
       </c>
@@ -3987,7 +3400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>31</v>
       </c>
@@ -4010,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>32</v>
       </c>
@@ -4033,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="27" spans="1:28">
+    <row r="32" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>33</v>
       </c>
@@ -4074,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>34</v>
       </c>
@@ -4103,14 +3516,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:23">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="5"/>
       <c r="J34" s="2">
         <v>1</v>
       </c>
@@ -4126,18 +3538,14 @@
       <c r="R34" s="2">
         <v>1</v>
       </c>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-    </row>
-    <row r="35" s="2" customFormat="1" spans="1:23">
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="5"/>
       <c r="F35" s="7" t="s">
         <v>96</v>
       </c>
@@ -4159,18 +3567,14 @@
       <c r="Q35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:23">
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="5"/>
       <c r="F36" s="7" t="s">
         <v>96</v>
       </c>
@@ -4192,11 +3596,8 @@
       <c r="Q36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-    </row>
-    <row r="37" s="2" customFormat="1" spans="1:23">
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>38</v>
       </c>
@@ -4218,18 +3619,14 @@
       <c r="S37" s="2">
         <v>2</v>
       </c>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-    </row>
-    <row r="38" s="2" customFormat="1" spans="1:23">
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="5"/>
       <c r="F38" s="2" t="s">
         <v>83</v>
       </c>
@@ -4251,11 +3648,8 @@
       <c r="Q38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-    </row>
-    <row r="39" spans="1:20">
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>50</v>
       </c>
@@ -4275,7 +3669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
         <v>138</v>
       </c>
@@ -4289,7 +3683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" ht="27" spans="2:11">
+    <row r="41" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
         <v>140</v>
       </c>
@@ -4303,7 +3697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
         <v>142</v>
       </c>
@@ -4317,7 +3711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
         <v>144</v>
       </c>
@@ -4331,7 +3725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" ht="27" spans="1:11">
+    <row r="44" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1001</v>
       </c>
@@ -4351,7 +3745,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" ht="27" spans="2:11">
+    <row r="45" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
         <v>148</v>
       </c>
@@ -4362,7 +3756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
         <v>150</v>
       </c>
@@ -4376,7 +3770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
         <v>152</v>
       </c>
@@ -4390,7 +3784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
         <v>154</v>
       </c>
@@ -4404,7 +3798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1002</v>
       </c>
@@ -4430,7 +3824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" ht="27" spans="2:11">
+    <row r="50" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
         <v>158</v>
       </c>
@@ -4444,7 +3838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" ht="27" spans="1:14">
+    <row r="51" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1004</v>
       </c>
@@ -4470,7 +3864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B52" s="8" t="s">
         <v>162</v>
       </c>
@@ -4484,7 +3878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" ht="27" spans="1:14">
+    <row r="53" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1011</v>
       </c>
@@ -4507,7 +3901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="J54" s="2">
@@ -4517,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="40.5" spans="1:20">
+    <row r="55" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1012</v>
       </c>
@@ -4543,7 +3937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" ht="27" spans="1:14">
+    <row r="56" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1013</v>
       </c>
@@ -4566,7 +3960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" ht="27" spans="1:11">
+    <row r="57" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1014</v>
       </c>
@@ -4586,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="27" spans="2:11">
+    <row r="58" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
         <v>172</v>
       </c>
@@ -4600,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B59" s="11" t="s">
         <v>174</v>
       </c>
@@ -4612,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
         <v>175</v>
       </c>
@@ -4626,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="27" spans="2:11">
+    <row r="61" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
         <v>177</v>
       </c>
@@ -4640,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="40.5" spans="1:11">
+    <row r="62" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1018</v>
       </c>
@@ -4660,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="27" spans="1:11">
+    <row r="63" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1020</v>
       </c>
@@ -4680,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B64" s="11" t="s">
         <v>183</v>
       </c>
@@ -4691,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B65" s="11" t="s">
         <v>68</v>
       </c>
@@ -4702,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B66" s="10" t="s">
         <v>184</v>
       </c>
@@ -4716,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="27" spans="1:17">
+    <row r="67" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1021</v>
       </c>
@@ -4754,7 +4148,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B68" s="10" t="s">
         <v>190</v>
       </c>
@@ -4765,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1010</v>
       </c>
@@ -4806,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" ht="27" spans="1:14">
+    <row r="71" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1114</v>
       </c>
@@ -4826,7 +4220,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="J72" s="2">
@@ -4836,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" ht="27" spans="1:14">
+    <row r="73" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>1110</v>
       </c>
@@ -4859,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" ht="27" spans="1:14">
+    <row r="74" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>1111</v>
       </c>
@@ -4882,7 +4276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" ht="40.5" spans="1:14">
+    <row r="75" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>1112</v>
       </c>
@@ -4911,7 +4305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" ht="27" spans="1:11">
+    <row r="76" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>1113</v>
       </c>
@@ -4931,7 +4325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:11">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="2" t="s">
@@ -4944,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="27" spans="1:11">
+    <row r="78" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>1115</v>
       </c>
@@ -4964,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="27" spans="1:20">
+    <row r="79" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>1116</v>
       </c>
@@ -4993,7 +4387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B80" s="10"/>
       <c r="J80" s="2">
         <v>0</v>
@@ -5002,7 +4396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B81" s="10"/>
       <c r="C81" s="2"/>
       <c r="J81" s="2">
@@ -5012,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" ht="40.5" spans="1:17">
+    <row r="82" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>1117</v>
       </c>
@@ -5053,7 +4447,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B83" s="10" t="s">
         <v>211</v>
       </c>
@@ -5067,7 +4461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" ht="27" spans="2:11">
+    <row r="84" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B84" s="10" t="s">
         <v>213</v>
       </c>
@@ -5081,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" ht="27" spans="2:11">
+    <row r="85" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B85" s="10" t="s">
         <v>215</v>
       </c>
@@ -5095,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" ht="27" spans="2:11">
+    <row r="86" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B86" s="12" t="s">
         <v>217</v>
       </c>
@@ -5109,7 +4503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" ht="27" spans="2:11">
+    <row r="87" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B87" s="12" t="s">
         <v>219</v>
       </c>
@@ -5123,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>1201</v>
       </c>
@@ -5152,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:11">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B89" s="12"/>
       <c r="C89" s="13"/>
       <c r="J89" s="2">
@@ -5162,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:11">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B90" s="12" t="s">
         <v>223</v>
       </c>
@@ -5173,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" ht="27" spans="2:11">
+    <row r="91" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B91" s="12" t="s">
         <v>224</v>
       </c>
@@ -5187,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" ht="27" spans="2:11">
+    <row r="92" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B92" s="12" t="s">
         <v>226</v>
       </c>
@@ -5201,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B93" s="12" t="s">
         <v>228</v>
       </c>
@@ -5209,7 +4603,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="94" s="3" customFormat="1" spans="1:26">
+    <row r="94" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>102</v>
       </c>
@@ -5238,7 +4632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" s="3" customFormat="1" spans="1:26">
+    <row r="95" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>103</v>
       </c>
@@ -5273,7 +4667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" ht="27" spans="1:26">
+    <row r="96" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>104</v>
       </c>
@@ -5305,7 +4699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" ht="27" spans="1:30">
+    <row r="97" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>105</v>
       </c>
@@ -5346,7 +4740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>106</v>
       </c>
@@ -5375,7 +4769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>107</v>
       </c>
@@ -5404,7 +4798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>108</v>
       </c>
@@ -5436,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" ht="27" spans="1:26">
+    <row r="101" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>109</v>
       </c>
@@ -5468,7 +4862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" ht="27" spans="1:26">
+    <row r="102" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>110</v>
       </c>
@@ -5500,7 +4894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>111</v>
       </c>
@@ -5532,7 +4926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>112</v>
       </c>
@@ -5564,7 +4958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>113</v>
       </c>
@@ -5596,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>114</v>
       </c>
@@ -5655,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>115</v>
       </c>
@@ -5687,7 +5081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" s="4" customFormat="1" spans="1:26">
+    <row r="108" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>116</v>
       </c>
@@ -5719,7 +5113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" s="4" customFormat="1" spans="1:26">
+    <row r="109" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>117</v>
       </c>
@@ -5760,7 +5154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" s="2" customFormat="1" spans="1:26">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>118</v>
       </c>
@@ -5788,13 +5182,11 @@
       <c r="U110">
         <v>1</v>
       </c>
-      <c r="V110"/>
-      <c r="W110"/>
       <c r="Z110" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="111" s="2" customFormat="1" spans="1:26">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>119</v>
       </c>
@@ -5822,13 +5214,11 @@
       <c r="U111">
         <v>1</v>
       </c>
-      <c r="V111"/>
-      <c r="W111"/>
       <c r="Z111" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="112" s="2" customFormat="1" spans="1:26">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>120</v>
       </c>
@@ -5886,13 +5276,11 @@
       <c r="U112">
         <v>1</v>
       </c>
-      <c r="V112"/>
-      <c r="W112"/>
       <c r="Z112" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="113" s="2" customFormat="1" spans="1:26">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>121</v>
       </c>
@@ -5920,13 +5308,11 @@
       <c r="U113">
         <v>1</v>
       </c>
-      <c r="V113"/>
-      <c r="W113"/>
       <c r="Z113" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="114" s="2" customFormat="1" spans="1:26">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>122</v>
       </c>
@@ -5966,8 +5352,6 @@
       <c r="T114" s="2">
         <v>0</v>
       </c>
-      <c r="U114"/>
-      <c r="V114"/>
       <c r="W114">
         <v>2</v>
       </c>
@@ -5975,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" s="2" customFormat="1" spans="1:26">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>123</v>
       </c>
@@ -6030,16 +5414,14 @@
       <c r="T115" s="2">
         <v>0</v>
       </c>
-      <c r="U115"/>
       <c r="V115">
         <v>2</v>
       </c>
-      <c r="W115"/>
       <c r="Z115" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="116" s="2" customFormat="1" ht="27" spans="1:26">
+    <row r="116" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>124</v>
       </c>
@@ -6094,8 +5476,6 @@
       <c r="T116" s="2">
         <v>0</v>
       </c>
-      <c r="U116"/>
-      <c r="V116"/>
       <c r="W116">
         <v>2</v>
       </c>
@@ -6103,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" s="2" customFormat="1" spans="1:26">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>125</v>
       </c>
@@ -6143,8 +5523,6 @@
       <c r="T117" s="2">
         <v>0</v>
       </c>
-      <c r="U117"/>
-      <c r="V117"/>
       <c r="W117">
         <v>2</v>
       </c>
@@ -6152,7 +5530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" s="2" customFormat="1" ht="27" spans="1:26">
+    <row r="118" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>126</v>
       </c>
@@ -6180,14 +5558,11 @@
       <c r="Q118" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="U118"/>
-      <c r="V118"/>
-      <c r="W118"/>
       <c r="Z118" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:26">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>127</v>
       </c>
@@ -6242,14 +5617,11 @@
       <c r="T119" s="2">
         <v>0</v>
       </c>
-      <c r="U119"/>
-      <c r="V119"/>
-      <c r="W119"/>
       <c r="Z119" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="120" s="2" customFormat="1" spans="1:26">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>128</v>
       </c>
@@ -6277,13 +5649,11 @@
       <c r="U120">
         <v>1</v>
       </c>
-      <c r="V120"/>
-      <c r="W120"/>
       <c r="Z120" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="121" s="2" customFormat="1" spans="1:26">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>129</v>
       </c>
@@ -6311,13 +5681,11 @@
       <c r="U121">
         <v>1</v>
       </c>
-      <c r="V121"/>
-      <c r="W121"/>
       <c r="Z121" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="122" ht="27" spans="1:28">
+    <row r="122" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>200</v>
       </c>
@@ -6367,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" ht="27" spans="1:28">
+    <row r="123" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>201</v>
       </c>
@@ -6417,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="27" spans="1:28">
+    <row r="124" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>202</v>
       </c>
@@ -6467,7 +5835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" ht="27" spans="1:28">
+    <row r="125" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>203</v>
       </c>
@@ -6517,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="27" spans="1:28">
+    <row r="126" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>204</v>
       </c>
@@ -6567,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" ht="27" spans="1:28">
+    <row r="127" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>205</v>
       </c>
@@ -6617,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" ht="27" spans="1:28">
+    <row r="128" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>206</v>
       </c>
@@ -6667,7 +6035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="27" spans="1:28">
+    <row r="129" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>207</v>
       </c>
@@ -6717,7 +6085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" ht="27" spans="1:28">
+    <row r="130" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>208</v>
       </c>
@@ -6767,7 +6135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="27" spans="1:28">
+    <row r="131" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>209</v>
       </c>
@@ -6817,7 +6185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" ht="27" spans="1:28">
+    <row r="132" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>210</v>
       </c>
@@ -6867,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" ht="40.5" spans="1:33">
+    <row r="133" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>211</v>
       </c>
@@ -6905,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" ht="14.25" spans="2:3">
+    <row r="134" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B134" s="18" t="s">
         <v>296</v>
       </c>
@@ -6913,7 +6281,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="135" ht="14.25" spans="2:3">
+    <row r="135" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B135" s="18" t="s">
         <v>298</v>
       </c>
@@ -6921,7 +6289,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="136" ht="42.75" spans="2:3">
+    <row r="136" spans="1:33" ht="47.25" x14ac:dyDescent="0.2">
       <c r="B136" s="18" t="s">
         <v>300</v>
       </c>
@@ -6929,7 +6297,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="137" ht="28.5" spans="2:3">
+    <row r="137" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B137" s="18" t="s">
         <v>302</v>
       </c>
@@ -6937,7 +6305,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="138" ht="14.25" spans="2:3">
+    <row r="138" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B138" s="18" t="s">
         <v>304</v>
       </c>
@@ -6945,7 +6313,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="139" ht="14.25" spans="2:3">
+    <row r="139" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B139" s="18" t="s">
         <v>306</v>
       </c>
@@ -6953,7 +6321,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="140" ht="28.5" spans="2:3">
+    <row r="140" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B140" s="18" t="s">
         <v>308</v>
       </c>
@@ -6961,7 +6329,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" ht="14.25" spans="2:8">
+    <row r="141" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B141" s="18" t="s">
         <v>310</v>
       </c>
@@ -6972,7 +6340,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="142" ht="28.5" spans="2:3">
+    <row r="142" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B142" s="18" t="s">
         <v>312</v>
       </c>
@@ -6980,7 +6348,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="143" ht="28.5" spans="2:3">
+    <row r="143" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B143" s="18" t="s">
         <v>314</v>
       </c>
@@ -6988,12 +6356,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="144" ht="14.25" spans="2:2">
+    <row r="144" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B144" s="18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="145" ht="57" spans="2:3">
+    <row r="145" spans="1:20" ht="63" x14ac:dyDescent="0.2">
       <c r="B145" s="18" t="s">
         <v>317</v>
       </c>
@@ -7001,7 +6369,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="146" ht="14.25" spans="2:8">
+    <row r="146" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B146" s="18" t="s">
         <v>319</v>
       </c>
@@ -7012,10 +6380,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" ht="14.25" spans="3:3">
+    <row r="147" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="C147" s="18"/>
     </row>
-    <row r="148" ht="28.5" spans="2:3">
+    <row r="148" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B148" s="18" t="s">
         <v>321</v>
       </c>
@@ -7023,7 +6391,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="149" ht="14.25" spans="2:3">
+    <row r="149" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B149" s="18" t="s">
         <v>323</v>
       </c>
@@ -7031,11 +6399,11 @@
         <v>324</v>
       </c>
     </row>
-    <row r="150" ht="14.25" spans="2:3">
+    <row r="150" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
     </row>
-    <row r="151" ht="28.5" spans="2:3">
+    <row r="151" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B151" s="18" t="s">
         <v>325</v>
       </c>
@@ -7043,7 +6411,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="152" ht="14.25" spans="2:3">
+    <row r="152" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B152" s="18" t="s">
         <v>327</v>
       </c>
@@ -7051,7 +6419,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="153" ht="28.5" spans="2:3">
+    <row r="153" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B153" s="18" t="s">
         <v>329</v>
       </c>
@@ -7059,11 +6427,11 @@
         <v>330</v>
       </c>
     </row>
-    <row r="154" spans="2:3">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>1410</v>
       </c>
@@ -7095,7 +6463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" ht="27" spans="1:20">
+    <row r="156" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>1411</v>
       </c>
@@ -7136,7 +6504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" ht="27" spans="1:20">
+    <row r="157" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>1412</v>
       </c>
@@ -7183,7 +6551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" ht="54" spans="2:3">
+    <row r="158" spans="1:20" ht="57" x14ac:dyDescent="0.2">
       <c r="B158" s="10" t="s">
         <v>339</v>
       </c>
@@ -7191,7 +6559,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="159" ht="27" spans="2:3">
+    <row r="159" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B159" s="10" t="s">
         <v>341</v>
       </c>
@@ -7199,7 +6567,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="160" ht="40.5" spans="2:3">
+    <row r="160" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B160" s="10" t="s">
         <v>343</v>
       </c>
@@ -7207,7 +6575,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="161" ht="27" spans="2:3">
+    <row r="161" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B161" s="10" t="s">
         <v>345</v>
       </c>
@@ -7215,7 +6583,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="162" ht="40.5" spans="2:3">
+    <row r="162" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B162" s="10" t="s">
         <v>347</v>
       </c>
@@ -7223,7 +6591,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="163" ht="27" spans="2:9">
+    <row r="163" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B163" s="10" t="s">
         <v>349</v>
       </c>
@@ -7237,7 +6605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" ht="27" spans="2:8">
+    <row r="164" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B164" s="10" t="s">
         <v>351</v>
       </c>
@@ -7248,7 +6616,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="165" ht="40.5" spans="2:3">
+    <row r="165" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B165" s="10" t="s">
         <v>353</v>
       </c>
@@ -7256,7 +6624,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="166" ht="27" spans="2:3">
+    <row r="166" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B166" s="10" t="s">
         <v>355</v>
       </c>
@@ -7264,10 +6632,10 @@
         <v>356</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B167" s="10"/>
     </row>
-    <row r="169" spans="2:4">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B169" s="10" t="s">
         <v>357</v>
       </c>
@@ -7275,7 +6643,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="170" ht="27" spans="2:4">
+    <row r="170" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B170" s="10" t="s">
         <v>359</v>
       </c>
@@ -7286,7 +6654,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="171" spans="2:4">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B171" s="10" t="s">
         <v>361</v>
       </c>
@@ -7294,7 +6662,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="172" spans="2:4">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B172" s="10" t="s">
         <v>363</v>
       </c>
@@ -7302,7 +6670,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="173" spans="2:4">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B173" s="10" t="s">
         <v>364</v>
       </c>
@@ -7310,7 +6678,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="174" spans="2:4">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B174" s="10" t="s">
         <v>366</v>
       </c>
@@ -7318,7 +6686,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="175" spans="2:4">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B175" s="10" t="s">
         <v>368</v>
       </c>
@@ -7326,7 +6694,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B176" s="10" t="s">
         <v>370</v>
       </c>
@@ -7334,23 +6702,21 @@
         <v>369</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B177" s="10" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B178" s="10" t="s">
         <v>372</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="Z1:Z178">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="Z1:Z178" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117FBC11-55C2-491B-893D-E46A279AAF95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Z$1:$Z$178</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Z$1:$Z$180</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="375">
   <si>
     <t>技能ID</t>
   </si>
@@ -1167,7 +1161,7 @@
     <t>致命投掷</t>
   </si>
   <si>
-    <t>造成8点伤害，移除</t>
+    <t>造成10点伤害，移除</t>
   </si>
   <si>
     <t>锯齿护臂</t>
@@ -1421,6 +1415,12 @@
     </r>
   </si>
   <si>
+    <t>怪物自杀</t>
+  </si>
+  <si>
+    <t>怪物格挡1</t>
+  </si>
+  <si>
     <t>不动如山</t>
   </si>
   <si>
@@ -1541,16 +1541,18 @@
   <si>
     <t>集束闪电</t>
   </si>
-  <si>
-    <t>0.5,1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1586,6 +1588,143 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1596,14 +1735,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1624,13 +1757,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79992065187536243"/>
+        <fgColor theme="5" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79992065187536243"/>
+        <fgColor theme="3" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,8 +1773,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1649,19 +1962,258 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1685,16 +2237,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1707,18 +2259,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1976,482 +2571,483 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AH180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q26" sqref="Q26"/>
+      <selection pane="bottomRight" activeCell="O110" sqref="O110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="21.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="21.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="38.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="2" customWidth="1"/>
-    <col min="6" max="7" width="21.375" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="12" style="2" customWidth="1"/>
-    <col min="11" max="14" width="9" style="2"/>
-    <col min="15" max="15" width="14.75" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14.375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="19.875" style="2" customWidth="1"/>
-    <col min="18" max="20" width="9" style="2"/>
+    <col min="4" max="4" width="15.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="4" customWidth="1"/>
+    <col min="6" max="7" width="21.375" style="4" customWidth="1"/>
+    <col min="8" max="9" width="9" style="4"/>
+    <col min="10" max="10" width="12" style="4" customWidth="1"/>
+    <col min="11" max="14" width="9" style="4"/>
+    <col min="15" max="15" width="14.75" style="4" customWidth="1"/>
+    <col min="16" max="16" width="14.375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="19.875" style="4" customWidth="1"/>
+    <col min="18" max="20" width="9" style="4"/>
     <col min="21" max="21" width="23.5" customWidth="1"/>
     <col min="22" max="23" width="22.375" customWidth="1"/>
-    <col min="24" max="26" width="9" style="2"/>
-    <col min="27" max="27" width="12.125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="11.625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="19.5" style="2" customWidth="1"/>
-    <col min="30" max="30" width="16" style="2" customWidth="1"/>
-    <col min="31" max="31" width="15.375" style="2" customWidth="1"/>
-    <col min="32" max="33" width="19.875" style="2" customWidth="1"/>
-    <col min="34" max="34" width="20.25" style="2" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="2"/>
+    <col min="24" max="26" width="9" style="4"/>
+    <col min="27" max="27" width="12.125" style="4" customWidth="1"/>
+    <col min="28" max="28" width="11.625" style="4" customWidth="1"/>
+    <col min="29" max="29" width="19.5" style="4" customWidth="1"/>
+    <col min="30" max="30" width="16" style="4" customWidth="1"/>
+    <col min="31" max="31" width="15.375" style="4" customWidth="1"/>
+    <col min="32" max="33" width="19.875" style="4" customWidth="1"/>
+    <col min="34" max="34" width="20.25" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:34">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:34">
+      <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="4" t="s">
         <v>53</v>
       </c>
       <c r="U2" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AF2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:20">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>3</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
         <v>100</v>
       </c>
-      <c r="O3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2" t="s">
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>0.8</v>
       </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
         <v>3</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="4">
         <v>2</v>
       </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
         <v>4</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="4">
         <v>3</v>
       </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
         <v>0</v>
       </c>
       <c r="V5">
         <v>2</v>
       </c>
-      <c r="Z5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:26">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>3</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>4</v>
       </c>
-      <c r="J6" s="2">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
         <v>3</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="4">
         <v>5</v>
       </c>
-      <c r="O6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
         <v>0</v>
       </c>
       <c r="W6">
         <v>2</v>
       </c>
-      <c r="Z6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="28.5" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2470,7 +3066,7 @@
       <c r="F7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H7" s="1">
@@ -2507,7 +3103,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" ht="28.5" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2526,7 +3122,7 @@
       <c r="F8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H8" s="1">
@@ -2563,7 +3159,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" s="1" customFormat="1" ht="28.5" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2582,7 +3178,7 @@
       <c r="F9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H9" s="1">
@@ -2616,7 +3212,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" s="1" customFormat="1" ht="28.5" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2635,7 +3231,7 @@
       <c r="F10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H10" s="1">
@@ -2669,7 +3265,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" s="1" customFormat="1" ht="28.5" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2688,7 +3284,7 @@
       <c r="F11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H11" s="1">
@@ -2722,307 +3318,307 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+    <row r="12" ht="28.5" spans="1:20">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>4</v>
       </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
         <v>4</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" spans="1:20">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>1.2</v>
       </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
         <v>3</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" spans="1:20">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>6.5</v>
       </c>
-      <c r="J14" s="2">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
         <v>8</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:20">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="4">
         <v>5</v>
       </c>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
         <v>20</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" spans="1:20">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="4">
         <v>2</v>
       </c>
-      <c r="J16" s="2">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
         <v>10</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" spans="1:20">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="4">
         <v>8</v>
       </c>
-      <c r="J17" s="2">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
         <v>50</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="28.5" spans="1:23">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3041,7 +3637,7 @@
       <c r="F18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H18" s="1">
@@ -3078,655 +3674,655 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+    <row r="19" spans="1:17">
+      <c r="A19" s="4">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="4">
         <v>0.5</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="20" ht="42.75" spans="1:28">
+      <c r="A20" s="4">
         <v>21</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2">
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
         <v>2</v>
       </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
         <v>5</v>
       </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>1</v>
-      </c>
-      <c r="T20" s="2">
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4">
         <v>1001</v>
       </c>
       <c r="U20">
         <v>1</v>
       </c>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="AA20" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="4">
         <v>22</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K21" s="2">
-        <v>1</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
         <v>4</v>
       </c>
-      <c r="R21" s="2">
-        <v>1</v>
-      </c>
-      <c r="T21" s="2">
+      <c r="R21" s="4">
+        <v>1</v>
+      </c>
+      <c r="T21" s="4">
         <v>1002</v>
       </c>
       <c r="W21">
         <v>2</v>
       </c>
-      <c r="Z21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="Z21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="4">
         <v>23</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="2">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2">
-        <v>1</v>
-      </c>
-      <c r="T22" s="2">
+      <c r="J22" s="4">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1</v>
+      </c>
+      <c r="R22" s="4">
+        <v>1</v>
+      </c>
+      <c r="T22" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    <row r="23" spans="1:17">
+      <c r="A23" s="4">
         <v>24</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="4">
         <v>0.25</v>
       </c>
-      <c r="J23" s="2">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2" t="s">
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    <row r="24" ht="28.5" spans="1:28">
+      <c r="A24" s="4">
         <v>25</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
         <v>3</v>
       </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
         <v>3</v>
       </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="2">
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="4">
         <v>2</v>
       </c>
-      <c r="AB24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="AB24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="4">
         <v>26</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1</v>
-      </c>
-      <c r="L25" s="2">
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4">
         <v>2</v>
       </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2" t="s">
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="R25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="4">
         <v>27</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J26" s="2">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1</v>
-      </c>
-      <c r="N26" s="2">
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+      <c r="N26" s="4">
         <v>5</v>
       </c>
-      <c r="O26" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="O26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="4">
         <v>28</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J27" s="2">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1</v>
-      </c>
-      <c r="N27" s="2">
-        <v>1</v>
-      </c>
-      <c r="O27" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="2" t="s">
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Y27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="Y27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="4">
         <v>29</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J28" s="2">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1</v>
-      </c>
-      <c r="O28" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="2" t="s">
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="T28" s="2">
+      <c r="T28" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+    <row r="29" spans="1:19">
+      <c r="A29" s="4">
         <v>30</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>123</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="J29" s="2">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2">
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
         <v>3</v>
       </c>
-      <c r="R29" s="2">
-        <v>1</v>
-      </c>
-      <c r="S29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="R29" s="4">
+        <v>1</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="4">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>125</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="J30" s="2">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2">
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
         <v>3</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="4">
         <v>1</v>
       </c>
       <c r="V30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+    <row r="31" spans="1:18">
+      <c r="A31" s="4">
         <v>32</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J31" s="2">
-        <v>1</v>
-      </c>
-      <c r="K31" s="2">
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
         <v>3</v>
       </c>
-      <c r="L31" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="2" t="s">
+      <c r="L31" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="R31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="28.5" spans="1:28">
+      <c r="A32" s="4">
         <v>33</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="2">
-        <v>1</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2">
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4">
         <v>3</v>
       </c>
-      <c r="L32" s="2">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2">
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
         <v>3</v>
       </c>
-      <c r="N32" s="2">
-        <v>0</v>
-      </c>
-      <c r="R32" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="2">
+      <c r="N32" s="4">
+        <v>0</v>
+      </c>
+      <c r="R32" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="4">
         <v>13</v>
       </c>
-      <c r="AB32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="AB32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="4">
         <v>34</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J33" s="2">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1</v>
-      </c>
-      <c r="N33" s="2">
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+      <c r="N33" s="4">
         <v>4</v>
       </c>
-      <c r="O33" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="2" t="s">
+      <c r="O33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+    <row r="34" spans="1:18">
+      <c r="A34" s="4">
         <v>35</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J34" s="2">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2">
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
         <v>3</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="4">
         <v>2</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="Q34" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="R34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="R34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="4">
         <v>36</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>132</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J35" s="2">
-        <v>1</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1</v>
-      </c>
-      <c r="N35" s="2">
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+      <c r="N35" s="4">
         <v>5</v>
       </c>
-      <c r="O35" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="2" t="s">
+      <c r="O35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+    <row r="36" spans="1:17">
+      <c r="A36" s="4">
         <v>37</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>133</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J36" s="2">
-        <v>1</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1</v>
-      </c>
-      <c r="N36" s="2">
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+      <c r="N36" s="4">
         <v>2</v>
       </c>
-      <c r="O36" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="2" t="s">
+      <c r="O36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+    <row r="37" spans="1:19">
+      <c r="A37" s="4">
         <v>38</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="J37" s="2">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2">
+      <c r="J37" s="4">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4">
         <v>3</v>
       </c>
-      <c r="R37" s="2">
-        <v>1</v>
-      </c>
-      <c r="S37" s="2">
+      <c r="R37" s="4">
+        <v>1</v>
+      </c>
+      <c r="S37" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+    <row r="38" spans="1:17">
+      <c r="A38" s="4">
         <v>39</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J38" s="2">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1</v>
-      </c>
-      <c r="N38" s="2">
+      <c r="J38" s="4">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+      <c r="N38" s="4">
         <v>6</v>
       </c>
-      <c r="O38" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="2" t="s">
+      <c r="O38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+    <row r="39" spans="1:20">
+      <c r="A39" s="4">
         <v>50</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J39" s="2">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1</v>
-      </c>
-      <c r="R39" s="2">
-        <v>1</v>
-      </c>
-      <c r="T39" s="2">
+      <c r="J39" s="4">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1</v>
+      </c>
+      <c r="R39" s="4">
+        <v>1</v>
+      </c>
+      <c r="T39" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11">
       <c r="B40" s="8" t="s">
         <v>138</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="J40" s="2">
-        <v>0</v>
-      </c>
-      <c r="K40" s="2">
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" ht="28.5" spans="2:11">
       <c r="B41" s="8" t="s">
         <v>140</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="J41" s="2">
-        <v>0</v>
-      </c>
-      <c r="K41" s="2">
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11">
       <c r="B42" s="8" t="s">
         <v>142</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="J42" s="2">
-        <v>0</v>
-      </c>
-      <c r="K42" s="2">
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11">
       <c r="B43" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="J43" s="2">
-        <v>0</v>
-      </c>
-      <c r="K43" s="2">
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+    <row r="44" ht="28.5" spans="1:11">
+      <c r="A44" s="4">
         <v>1001</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -3735,71 +4331,71 @@
       <c r="C44" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J44" s="2">
-        <v>0</v>
-      </c>
-      <c r="K44" s="2">
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
+      <c r="K44" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" ht="28.5" spans="2:11">
       <c r="B45" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11">
       <c r="B46" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="J46" s="2">
-        <v>0</v>
-      </c>
-      <c r="K46" s="2">
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11">
       <c r="B47" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J47" s="2">
-        <v>0</v>
-      </c>
-      <c r="K47" s="2">
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11">
       <c r="B48" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="J48" s="2">
-        <v>0</v>
-      </c>
-      <c r="K48" s="2">
+      <c r="J48" s="4">
+        <v>0</v>
+      </c>
+      <c r="K48" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+    <row r="49" spans="1:14">
+      <c r="A49" s="4">
         <v>1002</v>
       </c>
       <c r="B49" s="8" t="s">
@@ -3808,38 +4404,38 @@
       <c r="C49" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="4">
         <v>10</v>
       </c>
-      <c r="J49" s="2">
-        <v>0</v>
-      </c>
-      <c r="K49" s="2">
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
+      <c r="K49" s="4">
         <v>9</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" ht="28.5" spans="2:11">
       <c r="B50" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C50" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="J50" s="2">
-        <v>0</v>
-      </c>
-      <c r="K50" s="2">
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+    <row r="51" ht="28.5" spans="1:14">
+      <c r="A51" s="4">
         <v>1004</v>
       </c>
       <c r="B51" s="8" t="s">
@@ -3848,38 +4444,38 @@
       <c r="C51" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="4">
         <v>10</v>
       </c>
-      <c r="J51" s="2">
-        <v>0</v>
-      </c>
-      <c r="K51" s="2">
+      <c r="J51" s="4">
+        <v>0</v>
+      </c>
+      <c r="K51" s="4">
         <v>9</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:11">
       <c r="B52" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J52" s="2">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2">
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+    <row r="53" ht="28.5" spans="1:14">
+      <c r="A53" s="4">
         <v>1011</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -3888,31 +4484,31 @@
       <c r="C53" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J53" s="2">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>0</v>
-      </c>
-      <c r="N53" s="2">
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:11">
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
-      <c r="J54" s="2">
-        <v>0</v>
-      </c>
-      <c r="K54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="42.75" spans="1:20">
+      <c r="A55" s="4">
         <v>1012</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -3921,24 +4517,24 @@
       <c r="C55" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2">
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4">
         <v>10</v>
       </c>
-      <c r="T55" s="2">
+      <c r="T55" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+    <row r="56" ht="28.5" spans="1:14">
+      <c r="A56" s="4">
         <v>1013</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -3947,21 +4543,21 @@
       <c r="C56" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J56" s="2">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2">
-        <v>0</v>
-      </c>
-      <c r="N56" s="2">
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+      <c r="N56" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+    <row r="57" ht="28.5" spans="1:11">
+      <c r="A57" s="4">
         <v>1014</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -3970,72 +4566,72 @@
       <c r="C57" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J57" s="2">
-        <v>0</v>
-      </c>
-      <c r="K57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="28.5" spans="2:11">
       <c r="B58" s="10" t="s">
         <v>172</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="J58" s="2">
-        <v>0</v>
-      </c>
-      <c r="K58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
       <c r="B59" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C59" s="10"/>
-      <c r="J59" s="2">
-        <v>0</v>
-      </c>
-      <c r="K59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
       <c r="B60" s="10" t="s">
         <v>175</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="J60" s="2">
-        <v>0</v>
-      </c>
-      <c r="K60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="28.5" spans="2:11">
       <c r="B61" s="10" t="s">
         <v>177</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="J61" s="2">
-        <v>0</v>
-      </c>
-      <c r="K61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" ht="42.75" spans="1:11">
+      <c r="A62" s="4">
         <v>1018</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -4044,18 +4640,18 @@
       <c r="C62" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H62" s="2">
-        <v>1</v>
-      </c>
-      <c r="J62" s="2">
-        <v>1</v>
-      </c>
-      <c r="K62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+      <c r="J62" s="4">
+        <v>1</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" ht="28.5" spans="1:11">
+      <c r="A63" s="4">
         <v>1020</v>
       </c>
       <c r="B63" s="11" t="s">
@@ -4064,54 +4660,54 @@
       <c r="C63" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="4">
         <v>0.5</v>
       </c>
-      <c r="J63" s="2">
-        <v>1</v>
-      </c>
-      <c r="K63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J63" s="4">
+        <v>1</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
       <c r="B64" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="J64" s="2">
-        <v>1</v>
-      </c>
-      <c r="K64" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
       <c r="B65" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J65" s="2">
-        <v>1</v>
-      </c>
-      <c r="K65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J65" s="4">
+        <v>1</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
       <c r="B66" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="J66" s="2">
-        <v>1</v>
-      </c>
-      <c r="K66" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" ht="28.5" spans="1:17">
+      <c r="A67" s="4">
         <v>1021</v>
       </c>
       <c r="B67" s="11" t="s">
@@ -4120,47 +4716,47 @@
       <c r="C67" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H67" s="2">
-        <v>1</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2">
-        <v>0</v>
-      </c>
-      <c r="M67" s="2">
+      <c r="H67" s="4">
+        <v>1</v>
+      </c>
+      <c r="J67" s="4">
+        <v>1</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+      <c r="M67" s="4">
         <v>10</v>
       </c>
-      <c r="N67" s="2">
+      <c r="N67" s="4">
         <v>10</v>
       </c>
-      <c r="Q67" s="2" t="s">
+      <c r="Q67" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11">
       <c r="B68" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="J68" s="2">
-        <v>1</v>
-      </c>
-      <c r="K68" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="J68" s="4">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="4">
         <v>1010</v>
       </c>
       <c r="B69" s="10" t="s">
@@ -4169,39 +4765,39 @@
       <c r="C69" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="4">
         <v>2</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="4">
         <v>5</v>
       </c>
-      <c r="J69" s="2">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2">
-        <v>0</v>
-      </c>
-      <c r="M69" s="2">
+      <c r="J69" s="4">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+      <c r="M69" s="4">
         <v>10</v>
       </c>
-      <c r="N69" s="2">
+      <c r="N69" s="4">
         <v>-10</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="Q69" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="R69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+      <c r="R69" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" ht="28.5" spans="1:14">
+      <c r="A71" s="4">
         <v>1114</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -4210,28 +4806,28 @@
       <c r="C71" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="J71" s="2">
-        <v>0</v>
-      </c>
-      <c r="K71" s="2">
-        <v>1</v>
-      </c>
-      <c r="N71" s="2">
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <v>1</v>
+      </c>
+      <c r="N71" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11">
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
-      <c r="J72" s="2">
-        <v>0</v>
-      </c>
-      <c r="K72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" ht="28.5" spans="1:14">
+      <c r="A73" s="4">
         <v>1110</v>
       </c>
       <c r="B73" s="10" t="s">
@@ -4240,21 +4836,21 @@
       <c r="C73" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J73" s="2">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2">
-        <v>1</v>
-      </c>
-      <c r="N73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1</v>
+      </c>
+      <c r="N73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" ht="28.5" spans="1:14">
+      <c r="A74" s="4">
         <v>1111</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -4263,21 +4859,21 @@
       <c r="C74" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J74" s="2">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2">
-        <v>1</v>
-      </c>
-      <c r="N74" s="2">
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1</v>
+      </c>
+      <c r="N74" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+    <row r="75" ht="42.75" spans="1:14">
+      <c r="A75" s="4">
         <v>1112</v>
       </c>
       <c r="B75" s="10" t="s">
@@ -4286,27 +4882,27 @@
       <c r="C75" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="4">
         <v>0.5</v>
       </c>
-      <c r="J75" s="2">
-        <v>0</v>
-      </c>
-      <c r="K75" s="2">
-        <v>1</v>
-      </c>
-      <c r="N75" s="2">
+      <c r="J75" s="4">
+        <v>0</v>
+      </c>
+      <c r="K75" s="4">
+        <v>1</v>
+      </c>
+      <c r="N75" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+    <row r="76" ht="28.5" spans="1:11">
+      <c r="A76" s="4">
         <v>1113</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -4315,31 +4911,31 @@
       <c r="C76" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J76" s="2">
-        <v>0</v>
-      </c>
-      <c r="K76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="J76" s="4">
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11">
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J77" s="2">
-        <v>0</v>
-      </c>
-      <c r="K77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+      <c r="J77" s="4">
+        <v>0</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" ht="28.5" spans="1:11">
+      <c r="A78" s="4">
         <v>1115</v>
       </c>
       <c r="B78" s="10" t="s">
@@ -4348,18 +4944,18 @@
       <c r="C78" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J78" s="2">
-        <v>0</v>
-      </c>
-      <c r="K78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+      <c r="J78" s="4">
+        <v>0</v>
+      </c>
+      <c r="K78" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" ht="28.5" spans="1:20">
+      <c r="A79" s="4">
         <v>1116</v>
       </c>
       <c r="B79" s="10" t="s">
@@ -4368,46 +4964,46 @@
       <c r="C79" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J79" s="2">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2">
-        <v>1</v>
-      </c>
-      <c r="N79" s="2">
+      <c r="J79" s="4">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <v>1</v>
+      </c>
+      <c r="N79" s="4">
         <v>-1</v>
       </c>
-      <c r="R79" s="2">
-        <v>1</v>
-      </c>
-      <c r="T79" s="2">
+      <c r="R79" s="4">
+        <v>1</v>
+      </c>
+      <c r="T79" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11">
       <c r="B80" s="10"/>
-      <c r="J80" s="2">
-        <v>0</v>
-      </c>
-      <c r="K80" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J80" s="4">
+        <v>0</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11">
       <c r="B81" s="10"/>
-      <c r="C81" s="2"/>
-      <c r="J81" s="2">
-        <v>0</v>
-      </c>
-      <c r="K81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+      <c r="C81" s="4"/>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" ht="42.75" spans="1:17">
+      <c r="A82" s="4">
         <v>1117</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -4416,109 +5012,109 @@
       <c r="C82" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="4">
         <v>0.5</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I82" s="4">
         <v>10</v>
       </c>
-      <c r="J82" s="2">
-        <v>1</v>
-      </c>
-      <c r="K82" s="2">
-        <v>1</v>
-      </c>
-      <c r="M82" s="2">
+      <c r="J82" s="4">
+        <v>1</v>
+      </c>
+      <c r="K82" s="4">
+        <v>1</v>
+      </c>
+      <c r="M82" s="4">
         <v>50</v>
       </c>
-      <c r="N82" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="2" t="s">
+      <c r="N82" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:11">
       <c r="B83" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="J83" s="2">
-        <v>0</v>
-      </c>
-      <c r="K83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" ht="28.5" spans="2:11">
       <c r="B84" s="10" t="s">
         <v>213</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="J84" s="2">
-        <v>0</v>
-      </c>
-      <c r="K84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J84" s="4">
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" ht="28.5" spans="2:11">
       <c r="B85" s="10" t="s">
         <v>215</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="J85" s="2">
-        <v>0</v>
-      </c>
-      <c r="K85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J85" s="4">
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" ht="28.5" spans="2:11">
       <c r="B86" s="12" t="s">
         <v>217</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="J86" s="2">
-        <v>0</v>
-      </c>
-      <c r="K86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" ht="28.5" spans="2:11">
       <c r="B87" s="12" t="s">
         <v>219</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="J87" s="2">
-        <v>0</v>
-      </c>
-      <c r="K87" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+      <c r="J87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" s="4">
         <v>1201</v>
       </c>
       <c r="B88" s="12" t="s">
@@ -4527,75 +5123,75 @@
       <c r="C88" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H88" s="2">
-        <v>1</v>
-      </c>
-      <c r="J88" s="2">
-        <v>1</v>
-      </c>
-      <c r="K88" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="H88" s="4">
+        <v>1</v>
+      </c>
+      <c r="J88" s="4">
+        <v>1</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
       <c r="B89" s="12"/>
       <c r="C89" s="13"/>
-      <c r="J89" s="2">
-        <v>1</v>
-      </c>
-      <c r="K89" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J89" s="4">
+        <v>1</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11">
       <c r="B90" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="J90" s="2">
-        <v>1</v>
-      </c>
-      <c r="K90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J90" s="4">
+        <v>1</v>
+      </c>
+      <c r="K90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" ht="28.5" spans="2:11">
       <c r="B91" s="12" t="s">
         <v>224</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="J91" s="2">
-        <v>0</v>
-      </c>
-      <c r="K91" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="J91" s="4">
+        <v>0</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" ht="28.5" spans="2:11">
       <c r="B92" s="12" t="s">
         <v>226</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="J92" s="2">
-        <v>0</v>
-      </c>
-      <c r="K92" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J92" s="4">
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
       <c r="B93" s="12" t="s">
         <v>228</v>
       </c>
@@ -4603,8 +5199,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="94" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
+    <row r="94" s="2" customFormat="1" spans="1:26">
+      <c r="A94" s="2">
         <v>102</v>
       </c>
       <c r="B94" s="14" t="s">
@@ -4613,27 +5209,27 @@
       <c r="C94" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J94" s="3">
-        <v>1</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="J94" s="2">
+        <v>1</v>
+      </c>
+      <c r="M94" s="2">
         <v>2</v>
       </c>
-      <c r="R94" s="3">
-        <v>1</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="R94" s="2">
+        <v>1</v>
+      </c>
+      <c r="T94" s="2">
         <v>9</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+      <c r="Z94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" s="2" customFormat="1" spans="1:26">
+      <c r="A95" s="2">
         <v>103</v>
       </c>
       <c r="B95" s="14" t="s">
@@ -4642,33 +5238,33 @@
       <c r="C95" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J95" s="3">
-        <v>1</v>
-      </c>
-      <c r="K95" s="3">
+      <c r="J95" s="2">
+        <v>1</v>
+      </c>
+      <c r="K95" s="2">
         <v>3</v>
       </c>
-      <c r="M95" s="3">
+      <c r="M95" s="2">
         <v>2</v>
       </c>
-      <c r="R95" s="3">
-        <v>1</v>
-      </c>
-      <c r="T95" s="3">
+      <c r="R95" s="2">
+        <v>1</v>
+      </c>
+      <c r="T95" s="2">
         <v>1003</v>
       </c>
-      <c r="U95" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z95" s="3">
+      <c r="U95" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z95" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
+    <row r="96" ht="28.5" spans="1:26">
+      <c r="A96" s="4">
         <v>104</v>
       </c>
       <c r="B96" s="10" t="s">
@@ -4677,30 +5273,30 @@
       <c r="C96" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J96" s="2">
-        <v>1</v>
-      </c>
-      <c r="K96" s="2">
+      <c r="J96" s="4">
+        <v>1</v>
+      </c>
+      <c r="K96" s="4">
         <v>3</v>
       </c>
-      <c r="M96" s="2">
+      <c r="M96" s="4">
         <v>6</v>
       </c>
-      <c r="R96" s="2">
-        <v>1</v>
-      </c>
-      <c r="T96" s="2">
+      <c r="R96" s="4">
+        <v>1</v>
+      </c>
+      <c r="T96" s="4">
         <v>1005</v>
       </c>
-      <c r="Z96" s="2">
+      <c r="Z96" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+    <row r="97" ht="28.5" spans="1:30">
+      <c r="A97" s="4">
         <v>105</v>
       </c>
       <c r="B97" s="10" t="s">
@@ -4709,39 +5305,39 @@
       <c r="C97" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J97" s="2">
-        <v>1</v>
-      </c>
-      <c r="K97" s="2">
-        <v>0</v>
-      </c>
-      <c r="M97" s="2">
+      <c r="J97" s="4">
+        <v>1</v>
+      </c>
+      <c r="K97" s="4">
+        <v>0</v>
+      </c>
+      <c r="M97" s="4">
         <v>3</v>
       </c>
-      <c r="N97" s="2">
+      <c r="N97" s="4">
         <v>2</v>
       </c>
-      <c r="O97" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q97" s="2" t="s">
+      <c r="O97" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Z97" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC97" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD97" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
+      <c r="Z97" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98" s="4">
         <v>106</v>
       </c>
       <c r="B98" s="10" t="s">
@@ -4750,27 +5346,27 @@
       <c r="C98" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="J98" s="2">
-        <v>1</v>
-      </c>
-      <c r="K98" s="2">
+      <c r="J98" s="4">
+        <v>1</v>
+      </c>
+      <c r="K98" s="4">
         <v>3</v>
       </c>
-      <c r="M98" s="2">
+      <c r="M98" s="4">
         <v>6</v>
       </c>
-      <c r="R98" s="2">
-        <v>1</v>
-      </c>
-      <c r="T98" s="2">
+      <c r="R98" s="4">
+        <v>1</v>
+      </c>
+      <c r="T98" s="4">
         <v>1004</v>
       </c>
-      <c r="Z98" s="2">
+      <c r="Z98" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
+    <row r="99" spans="1:26">
+      <c r="A99" s="4">
         <v>107</v>
       </c>
       <c r="B99" s="10" t="s">
@@ -4779,27 +5375,27 @@
       <c r="C99" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="J99" s="2">
-        <v>1</v>
-      </c>
-      <c r="K99" s="2">
+      <c r="J99" s="4">
+        <v>1</v>
+      </c>
+      <c r="K99" s="4">
         <v>3</v>
       </c>
-      <c r="M99" s="2">
-        <v>0</v>
-      </c>
-      <c r="R99" s="2">
+      <c r="M99" s="4">
+        <v>0</v>
+      </c>
+      <c r="R99" s="4">
         <v>1</v>
       </c>
       <c r="W99">
         <v>8</v>
       </c>
-      <c r="Z99" s="2">
+      <c r="Z99" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
+    <row r="100" spans="1:26">
+      <c r="A100" s="4">
         <v>108</v>
       </c>
       <c r="B100" s="10" t="s">
@@ -4808,30 +5404,30 @@
       <c r="C100" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J100" s="2">
-        <v>1</v>
-      </c>
-      <c r="K100" s="2">
+      <c r="J100" s="4">
+        <v>1</v>
+      </c>
+      <c r="K100" s="4">
         <v>2</v>
       </c>
-      <c r="M100" s="2">
+      <c r="M100" s="4">
         <v>3</v>
       </c>
-      <c r="R100" s="2">
-        <v>1</v>
-      </c>
-      <c r="T100" s="2">
+      <c r="R100" s="4">
+        <v>1</v>
+      </c>
+      <c r="T100" s="4">
         <v>1007</v>
       </c>
       <c r="U100">
         <v>1</v>
       </c>
-      <c r="Z100" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
+      <c r="Z100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" ht="28.5" spans="1:26">
+      <c r="A101" s="4">
         <v>109</v>
       </c>
       <c r="B101" s="10" t="s">
@@ -4840,30 +5436,30 @@
       <c r="C101" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="J101" s="2">
-        <v>1</v>
-      </c>
-      <c r="K101" s="2">
-        <v>0</v>
-      </c>
-      <c r="M101" s="2">
+      <c r="J101" s="4">
+        <v>1</v>
+      </c>
+      <c r="K101" s="4">
+        <v>0</v>
+      </c>
+      <c r="M101" s="4">
         <v>3</v>
       </c>
-      <c r="N101" s="2">
+      <c r="N101" s="4">
         <v>5</v>
       </c>
-      <c r="O101" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="2" t="s">
+      <c r="O101" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Z101" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
+      <c r="Z101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" ht="28.5" spans="1:26">
+      <c r="A102" s="4">
         <v>110</v>
       </c>
       <c r="B102" s="10" t="s">
@@ -4872,16 +5468,16 @@
       <c r="C102" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="J102" s="2">
-        <v>1</v>
-      </c>
-      <c r="K102" s="2">
-        <v>1</v>
-      </c>
-      <c r="M102" s="2">
+      <c r="J102" s="4">
+        <v>1</v>
+      </c>
+      <c r="K102" s="4">
+        <v>1</v>
+      </c>
+      <c r="M102" s="4">
         <v>3</v>
       </c>
-      <c r="R102" s="2">
+      <c r="R102" s="4">
         <v>1</v>
       </c>
       <c r="U102">
@@ -4890,12 +5486,12 @@
       <c r="W102">
         <v>8</v>
       </c>
-      <c r="Z102" s="2">
+      <c r="Z102" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
+    <row r="103" spans="1:26">
+      <c r="A103" s="4">
         <v>111</v>
       </c>
       <c r="B103" s="10" t="s">
@@ -4904,30 +5500,30 @@
       <c r="C103" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="J103" s="2">
-        <v>1</v>
-      </c>
-      <c r="K103" s="2">
+      <c r="J103" s="4">
+        <v>1</v>
+      </c>
+      <c r="K103" s="4">
         <v>2</v>
       </c>
-      <c r="M103" s="2">
+      <c r="M103" s="4">
         <v>5</v>
       </c>
-      <c r="R103" s="2">
-        <v>1</v>
-      </c>
-      <c r="T103" s="2">
+      <c r="R103" s="4">
+        <v>1</v>
+      </c>
+      <c r="T103" s="4">
         <v>1010</v>
       </c>
       <c r="U103">
         <v>1</v>
       </c>
-      <c r="Z103" s="2">
+      <c r="Z103" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+    <row r="104" spans="1:26">
+      <c r="A104" s="4">
         <v>112</v>
       </c>
       <c r="B104" s="10" t="s">
@@ -4936,30 +5532,30 @@
       <c r="C104" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="J104" s="2">
-        <v>1</v>
-      </c>
-      <c r="K104" s="2">
+      <c r="J104" s="4">
+        <v>1</v>
+      </c>
+      <c r="K104" s="4">
         <v>2</v>
       </c>
-      <c r="M104" s="2">
+      <c r="M104" s="4">
         <v>3</v>
       </c>
-      <c r="R104" s="2">
-        <v>1</v>
-      </c>
-      <c r="T104" s="2">
+      <c r="R104" s="4">
+        <v>1</v>
+      </c>
+      <c r="T104" s="4">
         <v>1013</v>
       </c>
       <c r="U104">
         <v>1</v>
       </c>
-      <c r="Z104" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
+      <c r="Z104" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26">
+      <c r="A105" s="4">
         <v>113</v>
       </c>
       <c r="B105" s="10" t="s">
@@ -4968,89 +5564,89 @@
       <c r="C105" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="J105" s="2">
-        <v>1</v>
-      </c>
-      <c r="K105" s="2">
+      <c r="J105" s="4">
+        <v>1</v>
+      </c>
+      <c r="K105" s="4">
         <v>2</v>
       </c>
-      <c r="M105" s="2">
+      <c r="M105" s="4">
         <v>4</v>
       </c>
-      <c r="R105" s="2">
-        <v>1</v>
-      </c>
-      <c r="T105" s="2">
+      <c r="R105" s="4">
+        <v>1</v>
+      </c>
+      <c r="T105" s="4">
         <v>1014</v>
       </c>
       <c r="U105">
         <v>1</v>
       </c>
-      <c r="Z105" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
+      <c r="Z105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="A106" s="4">
         <v>114</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="4" t="s">
         <v>254</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G106" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="4">
         <v>0.8</v>
       </c>
-      <c r="J106" s="2">
-        <v>1</v>
-      </c>
-      <c r="K106" s="2">
-        <v>0</v>
-      </c>
-      <c r="L106" s="2">
-        <v>0</v>
-      </c>
-      <c r="M106" s="2">
+      <c r="J106" s="4">
+        <v>1</v>
+      </c>
+      <c r="K106" s="4">
+        <v>0</v>
+      </c>
+      <c r="L106" s="4">
+        <v>0</v>
+      </c>
+      <c r="M106" s="4">
         <v>3</v>
       </c>
-      <c r="N106" s="2">
+      <c r="N106" s="4">
         <v>4</v>
       </c>
-      <c r="O106" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="2" t="s">
+      <c r="O106" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R106" s="2">
-        <v>0</v>
-      </c>
-      <c r="S106" s="2">
-        <v>0</v>
-      </c>
-      <c r="T106" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z106" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
+      <c r="R106" s="4">
+        <v>0</v>
+      </c>
+      <c r="S106" s="4">
+        <v>0</v>
+      </c>
+      <c r="T106" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26">
+      <c r="A107" s="4">
         <v>115</v>
       </c>
       <c r="B107" s="10" t="s">
@@ -5059,30 +5655,30 @@
       <c r="C107" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="J107" s="2">
-        <v>1</v>
-      </c>
-      <c r="K107" s="2">
+      <c r="J107" s="4">
+        <v>1</v>
+      </c>
+      <c r="K107" s="4">
         <v>2</v>
       </c>
-      <c r="M107" s="2">
+      <c r="M107" s="4">
         <v>4</v>
       </c>
-      <c r="R107" s="2">
-        <v>1</v>
-      </c>
-      <c r="T107" s="2">
+      <c r="R107" s="4">
+        <v>1</v>
+      </c>
+      <c r="T107" s="4">
         <v>2008</v>
       </c>
       <c r="U107">
         <v>1</v>
       </c>
-      <c r="Z107" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+      <c r="Z107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" s="3" customFormat="1" spans="1:26">
+      <c r="A108" s="3">
         <v>116</v>
       </c>
       <c r="B108" s="16" t="s">
@@ -5091,30 +5687,30 @@
       <c r="C108" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J108" s="4">
-        <v>1</v>
-      </c>
-      <c r="M108" s="4">
+      <c r="J108" s="3">
+        <v>1</v>
+      </c>
+      <c r="M108" s="3">
         <v>2</v>
       </c>
-      <c r="R108" s="4">
-        <v>1</v>
-      </c>
-      <c r="T108" s="4">
+      <c r="R108" s="3">
+        <v>1</v>
+      </c>
+      <c r="T108" s="3">
         <v>12</v>
       </c>
-      <c r="V108" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z108" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+      <c r="V108" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" s="3" customFormat="1" spans="1:26">
+      <c r="A109" s="3">
         <v>117</v>
       </c>
       <c r="B109" s="16" t="s">
@@ -5123,39 +5719,39 @@
       <c r="C109" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="D109" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J109" s="4">
-        <v>1</v>
-      </c>
-      <c r="K109" s="4">
-        <v>0</v>
-      </c>
-      <c r="M109" s="4">
+      <c r="J109" s="3">
+        <v>1</v>
+      </c>
+      <c r="K109" s="3">
+        <v>0</v>
+      </c>
+      <c r="M109" s="3">
         <v>5</v>
       </c>
-      <c r="N109" s="4">
+      <c r="N109" s="3">
         <v>14</v>
       </c>
-      <c r="O109" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q109" s="2" t="s">
+      <c r="O109" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="R109" s="4">
-        <v>0</v>
-      </c>
-      <c r="T109" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z109" s="4">
+      <c r="R109" s="3">
+        <v>0</v>
+      </c>
+      <c r="T109" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+    <row r="110" spans="1:26">
+      <c r="A110" s="3">
         <v>118</v>
       </c>
       <c r="B110" s="10" t="s">
@@ -5164,16 +5760,16 @@
       <c r="C110" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="J110" s="2">
-        <v>1</v>
-      </c>
-      <c r="K110" s="2">
+      <c r="J110" s="4">
+        <v>1</v>
+      </c>
+      <c r="K110" s="4">
         <v>2</v>
       </c>
-      <c r="M110" s="2">
+      <c r="M110" s="4">
         <v>4</v>
       </c>
-      <c r="R110" s="2">
+      <c r="R110" s="4">
         <v>1</v>
       </c>
       <c r="T110">
@@ -5182,12 +5778,12 @@
       <c r="U110">
         <v>1</v>
       </c>
-      <c r="Z110" s="2">
+      <c r="Z110" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+    <row r="111" spans="1:26">
+      <c r="A111" s="3">
         <v>119</v>
       </c>
       <c r="B111" s="10" t="s">
@@ -5196,16 +5792,16 @@
       <c r="C111" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="J111" s="2">
-        <v>1</v>
-      </c>
-      <c r="K111" s="2">
+      <c r="J111" s="4">
+        <v>1</v>
+      </c>
+      <c r="K111" s="4">
         <v>2</v>
       </c>
-      <c r="M111" s="2">
+      <c r="M111" s="4">
         <v>4</v>
       </c>
-      <c r="R111" s="2">
+      <c r="R111" s="4">
         <v>1</v>
       </c>
       <c r="T111">
@@ -5214,74 +5810,74 @@
       <c r="U111">
         <v>1</v>
       </c>
-      <c r="Z111" s="2">
+      <c r="Z111" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+    <row r="112" spans="1:26">
+      <c r="A112" s="3">
         <v>120</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="F112" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="G112" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="4">
         <v>0.8</v>
       </c>
-      <c r="J112" s="2">
-        <v>1</v>
-      </c>
-      <c r="K112" s="2">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2">
-        <v>0</v>
-      </c>
-      <c r="M112" s="2">
+      <c r="J112" s="4">
+        <v>1</v>
+      </c>
+      <c r="K112" s="4">
+        <v>0</v>
+      </c>
+      <c r="L112" s="4">
+        <v>0</v>
+      </c>
+      <c r="M112" s="4">
         <v>5</v>
       </c>
-      <c r="N112" s="2">
-        <v>8</v>
-      </c>
-      <c r="O112" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q112" s="2" t="s">
+      <c r="N112" s="4">
+        <v>10</v>
+      </c>
+      <c r="O112" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R112" s="2">
-        <v>0</v>
-      </c>
-      <c r="S112" s="2">
-        <v>0</v>
-      </c>
-      <c r="T112" s="2">
+      <c r="R112" s="4">
+        <v>0</v>
+      </c>
+      <c r="S112" s="4">
+        <v>0</v>
+      </c>
+      <c r="T112" s="4">
         <v>0</v>
       </c>
       <c r="U112">
         <v>1</v>
       </c>
-      <c r="Z112" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
+      <c r="Z112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26">
+      <c r="A113" s="3">
         <v>121</v>
       </c>
       <c r="B113" s="10" t="s">
@@ -5290,16 +5886,16 @@
       <c r="C113" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="J113" s="2">
-        <v>1</v>
-      </c>
-      <c r="K113" s="2">
+      <c r="J113" s="4">
+        <v>1</v>
+      </c>
+      <c r="K113" s="4">
         <v>2</v>
       </c>
-      <c r="M113" s="2">
+      <c r="M113" s="4">
         <v>3</v>
       </c>
-      <c r="R113" s="2">
+      <c r="R113" s="4">
         <v>1</v>
       </c>
       <c r="T113">
@@ -5308,230 +5904,230 @@
       <c r="U113">
         <v>1</v>
       </c>
-      <c r="Z113" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
+      <c r="Z113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26">
+      <c r="A114" s="3">
         <v>122</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="4" t="s">
         <v>270</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114" s="4">
         <v>0.8</v>
       </c>
-      <c r="J114" s="2">
-        <v>1</v>
-      </c>
-      <c r="K114" s="2">
+      <c r="J114" s="4">
+        <v>1</v>
+      </c>
+      <c r="K114" s="4">
         <v>3</v>
       </c>
-      <c r="L114" s="2">
-        <v>0</v>
-      </c>
-      <c r="M114" s="2">
-        <v>0</v>
-      </c>
-      <c r="N114" s="2">
-        <v>0</v>
-      </c>
-      <c r="O114" s="2">
-        <v>1</v>
-      </c>
-      <c r="R114" s="2">
-        <v>0</v>
-      </c>
-      <c r="S114" s="2">
-        <v>1</v>
-      </c>
-      <c r="T114" s="2">
+      <c r="L114" s="4">
+        <v>0</v>
+      </c>
+      <c r="M114" s="4">
+        <v>0</v>
+      </c>
+      <c r="N114" s="4">
+        <v>0</v>
+      </c>
+      <c r="O114" s="4">
+        <v>1</v>
+      </c>
+      <c r="R114" s="4">
+        <v>0</v>
+      </c>
+      <c r="S114" s="4">
+        <v>1</v>
+      </c>
+      <c r="T114" s="4">
         <v>0</v>
       </c>
       <c r="W114">
         <v>2</v>
       </c>
-      <c r="Z114" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+      <c r="Z114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26">
+      <c r="A115" s="3">
         <v>123</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="4" t="s">
         <v>272</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F115" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="G115" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-      <c r="J115" s="2">
-        <v>1</v>
-      </c>
-      <c r="K115" s="2">
-        <v>1</v>
-      </c>
-      <c r="L115" s="2">
-        <v>0</v>
-      </c>
-      <c r="M115" s="2">
+      <c r="H115" s="4">
+        <v>1</v>
+      </c>
+      <c r="J115" s="4">
+        <v>1</v>
+      </c>
+      <c r="K115" s="4">
+        <v>1</v>
+      </c>
+      <c r="L115" s="4">
+        <v>0</v>
+      </c>
+      <c r="M115" s="4">
         <v>4</v>
       </c>
-      <c r="N115" s="2">
+      <c r="N115" s="4">
         <v>5</v>
       </c>
-      <c r="O115" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q115" s="2" t="s">
+      <c r="O115" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="R115" s="2">
-        <v>0</v>
-      </c>
-      <c r="S115" s="2">
-        <v>0</v>
-      </c>
-      <c r="T115" s="2">
+      <c r="R115" s="4">
+        <v>0</v>
+      </c>
+      <c r="S115" s="4">
+        <v>0</v>
+      </c>
+      <c r="T115" s="4">
         <v>0</v>
       </c>
       <c r="V115">
         <v>2</v>
       </c>
-      <c r="Z115" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+      <c r="Z115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" ht="28.5" spans="1:26">
+      <c r="A116" s="3">
         <v>124</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F116" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="G116" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H116" s="2">
+      <c r="H116" s="4">
         <v>3</v>
       </c>
-      <c r="I116" s="2">
+      <c r="I116" s="4">
         <v>4</v>
       </c>
-      <c r="J116" s="2">
-        <v>1</v>
-      </c>
-      <c r="K116" s="2">
-        <v>1</v>
-      </c>
-      <c r="L116" s="2">
-        <v>0</v>
-      </c>
-      <c r="M116" s="2">
+      <c r="J116" s="4">
+        <v>1</v>
+      </c>
+      <c r="K116" s="4">
+        <v>1</v>
+      </c>
+      <c r="L116" s="4">
+        <v>0</v>
+      </c>
+      <c r="M116" s="4">
         <v>3</v>
       </c>
-      <c r="N116" s="2">
+      <c r="N116" s="4">
         <v>8</v>
       </c>
-      <c r="O116" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q116" s="2" t="s">
+      <c r="O116" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R116" s="2">
-        <v>0</v>
-      </c>
-      <c r="T116" s="2">
+      <c r="R116" s="4">
+        <v>0</v>
+      </c>
+      <c r="T116" s="4">
         <v>0</v>
       </c>
       <c r="W116">
         <v>2</v>
       </c>
-      <c r="Z116" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+      <c r="Z116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26">
+      <c r="A117" s="3">
         <v>125</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="4" t="s">
         <v>274</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="H117" s="2">
+      <c r="H117" s="4">
         <v>0.8</v>
       </c>
-      <c r="J117" s="2">
-        <v>1</v>
-      </c>
-      <c r="K117" s="2">
+      <c r="J117" s="4">
+        <v>1</v>
+      </c>
+      <c r="K117" s="4">
         <v>3</v>
       </c>
-      <c r="L117" s="2">
-        <v>0</v>
-      </c>
-      <c r="M117" s="2">
-        <v>0</v>
-      </c>
-      <c r="N117" s="2">
-        <v>0</v>
-      </c>
-      <c r="O117" s="2">
-        <v>1</v>
-      </c>
-      <c r="R117" s="2">
-        <v>0</v>
-      </c>
-      <c r="S117" s="2">
+      <c r="L117" s="4">
+        <v>0</v>
+      </c>
+      <c r="M117" s="4">
+        <v>0</v>
+      </c>
+      <c r="N117" s="4">
+        <v>0</v>
+      </c>
+      <c r="O117" s="4">
+        <v>1</v>
+      </c>
+      <c r="R117" s="4">
+        <v>0</v>
+      </c>
+      <c r="S117" s="4">
         <v>2</v>
       </c>
-      <c r="T117" s="2">
+      <c r="T117" s="4">
         <v>0</v>
       </c>
       <c r="W117">
         <v>2</v>
       </c>
-      <c r="Z117" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+      <c r="Z117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" ht="28.5" spans="1:26">
+      <c r="A118" s="3">
         <v>126</v>
       </c>
       <c r="B118" s="10" t="s">
@@ -5540,89 +6136,89 @@
       <c r="C118" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="J118" s="2">
-        <v>1</v>
-      </c>
-      <c r="K118" s="2">
-        <v>0</v>
-      </c>
-      <c r="M118" s="2">
+      <c r="J118" s="4">
+        <v>1</v>
+      </c>
+      <c r="K118" s="4">
+        <v>0</v>
+      </c>
+      <c r="M118" s="4">
         <v>4</v>
       </c>
-      <c r="N118" s="2">
+      <c r="N118" s="4">
         <v>9</v>
       </c>
-      <c r="O118" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q118" s="2" t="s">
+      <c r="O118" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Z118" s="2">
+      <c r="Z118" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+    <row r="119" spans="1:26">
+      <c r="A119" s="3">
         <v>127</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="4" t="s">
         <v>277</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F119" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="G119" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H119" s="2">
+      <c r="H119" s="4">
         <v>0.8</v>
       </c>
-      <c r="J119" s="2">
-        <v>1</v>
-      </c>
-      <c r="K119" s="2">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2">
-        <v>0</v>
-      </c>
-      <c r="M119" s="2">
+      <c r="J119" s="4">
+        <v>1</v>
+      </c>
+      <c r="K119" s="4">
+        <v>0</v>
+      </c>
+      <c r="L119" s="4">
+        <v>0</v>
+      </c>
+      <c r="M119" s="4">
         <v>3</v>
       </c>
-      <c r="N119" s="2">
+      <c r="N119" s="4">
         <v>7</v>
       </c>
-      <c r="O119" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q119" s="2" t="s">
+      <c r="O119" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R119" s="2">
-        <v>0</v>
-      </c>
-      <c r="S119" s="2">
-        <v>0</v>
-      </c>
-      <c r="T119" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z119" s="2">
+      <c r="R119" s="4">
+        <v>0</v>
+      </c>
+      <c r="S119" s="4">
+        <v>0</v>
+      </c>
+      <c r="T119" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z119" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
+    <row r="120" spans="1:26">
+      <c r="A120" s="3">
         <v>128</v>
       </c>
       <c r="B120" s="10" t="s">
@@ -5631,30 +6227,30 @@
       <c r="C120" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="J120" s="2">
-        <v>1</v>
-      </c>
-      <c r="K120" s="2">
+      <c r="J120" s="4">
+        <v>1</v>
+      </c>
+      <c r="K120" s="4">
         <v>2</v>
       </c>
-      <c r="M120" s="2">
+      <c r="M120" s="4">
         <v>3</v>
       </c>
-      <c r="R120" s="2">
-        <v>1</v>
-      </c>
-      <c r="T120" s="2">
+      <c r="R120" s="4">
+        <v>1</v>
+      </c>
+      <c r="T120" s="4">
         <v>1018</v>
       </c>
       <c r="U120">
         <v>1</v>
       </c>
-      <c r="Z120" s="2">
+      <c r="Z120" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
+    <row r="121" spans="1:26">
+      <c r="A121" s="3">
         <v>129</v>
       </c>
       <c r="B121" s="10" t="s">
@@ -5663,617 +6259,617 @@
       <c r="C121" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="J121" s="2">
-        <v>1</v>
-      </c>
-      <c r="K121" s="2">
+      <c r="J121" s="4">
+        <v>1</v>
+      </c>
+      <c r="K121" s="4">
         <v>2</v>
       </c>
-      <c r="M121" s="2">
+      <c r="M121" s="4">
         <v>5</v>
       </c>
-      <c r="R121" s="2">
-        <v>1</v>
-      </c>
-      <c r="T121" s="2">
+      <c r="R121" s="4">
+        <v>1</v>
+      </c>
+      <c r="T121" s="4">
         <v>2009</v>
       </c>
       <c r="U121">
         <v>1</v>
       </c>
-      <c r="Z121" s="2">
+      <c r="Z121" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="2">
+    <row r="122" ht="28.5" spans="1:28">
+      <c r="A122" s="4">
         <v>200</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="H122" s="2">
-        <v>1</v>
-      </c>
-      <c r="J122" s="2">
-        <v>1</v>
-      </c>
-      <c r="K122" s="2">
+      <c r="H122" s="4">
+        <v>1</v>
+      </c>
+      <c r="J122" s="4">
+        <v>1</v>
+      </c>
+      <c r="K122" s="4">
         <v>2</v>
       </c>
-      <c r="L122" s="2">
-        <v>0</v>
-      </c>
-      <c r="M122" s="2">
+      <c r="L122" s="4">
+        <v>0</v>
+      </c>
+      <c r="M122" s="4">
         <v>5</v>
       </c>
-      <c r="N122" s="2">
-        <v>0</v>
-      </c>
-      <c r="R122" s="2">
-        <v>1</v>
-      </c>
-      <c r="T122" s="2">
+      <c r="N122" s="4">
+        <v>0</v>
+      </c>
+      <c r="R122" s="4">
+        <v>1</v>
+      </c>
+      <c r="T122" s="4">
         <v>1001</v>
       </c>
       <c r="U122">
         <v>1</v>
       </c>
-      <c r="X122" s="2">
+      <c r="X122" s="4">
         <v>201</v>
       </c>
-      <c r="Z122" s="2">
+      <c r="Z122" s="4">
         <v>3</v>
       </c>
-      <c r="AA122" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB122" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="2">
+      <c r="AA122" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB122" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" ht="28.5" spans="1:28">
+      <c r="A123" s="4">
         <v>201</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="H123" s="2">
-        <v>1</v>
-      </c>
-      <c r="J123" s="2">
-        <v>1</v>
-      </c>
-      <c r="K123" s="2">
+      <c r="H123" s="4">
+        <v>1</v>
+      </c>
+      <c r="J123" s="4">
+        <v>1</v>
+      </c>
+      <c r="K123" s="4">
         <v>2</v>
       </c>
-      <c r="L123" s="2">
-        <v>0</v>
-      </c>
-      <c r="M123" s="2">
+      <c r="L123" s="4">
+        <v>0</v>
+      </c>
+      <c r="M123" s="4">
         <v>5</v>
       </c>
-      <c r="N123" s="2">
-        <v>0</v>
-      </c>
-      <c r="R123" s="2">
-        <v>1</v>
-      </c>
-      <c r="T123" s="2">
+      <c r="N123" s="4">
+        <v>0</v>
+      </c>
+      <c r="R123" s="4">
+        <v>1</v>
+      </c>
+      <c r="T123" s="4">
         <v>1001</v>
       </c>
       <c r="U123">
         <v>1</v>
       </c>
-      <c r="X123" s="2">
+      <c r="X123" s="4">
         <v>202</v>
       </c>
-      <c r="Z123" s="2">
+      <c r="Z123" s="4">
         <v>3</v>
       </c>
-      <c r="AA123" s="2">
+      <c r="AA123" s="4">
         <v>3</v>
       </c>
-      <c r="AB123" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="2">
+      <c r="AB123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" ht="28.5" spans="1:28">
+      <c r="A124" s="4">
         <v>202</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H124" s="2">
-        <v>1</v>
-      </c>
-      <c r="J124" s="2">
-        <v>1</v>
-      </c>
-      <c r="K124" s="2">
+      <c r="H124" s="4">
+        <v>1</v>
+      </c>
+      <c r="J124" s="4">
+        <v>1</v>
+      </c>
+      <c r="K124" s="4">
         <v>2</v>
       </c>
-      <c r="L124" s="2">
-        <v>0</v>
-      </c>
-      <c r="M124" s="2">
+      <c r="L124" s="4">
+        <v>0</v>
+      </c>
+      <c r="M124" s="4">
         <v>5</v>
       </c>
-      <c r="N124" s="2">
-        <v>0</v>
-      </c>
-      <c r="R124" s="2">
-        <v>1</v>
-      </c>
-      <c r="T124" s="2">
+      <c r="N124" s="4">
+        <v>0</v>
+      </c>
+      <c r="R124" s="4">
+        <v>1</v>
+      </c>
+      <c r="T124" s="4">
         <v>1001</v>
       </c>
       <c r="U124">
         <v>1</v>
       </c>
-      <c r="X124" s="2">
+      <c r="X124" s="4">
         <v>203</v>
       </c>
-      <c r="Z124" s="2">
+      <c r="Z124" s="4">
         <v>3</v>
       </c>
-      <c r="AA124" s="2">
+      <c r="AA124" s="4">
         <v>4</v>
       </c>
-      <c r="AB124" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="2">
+      <c r="AB124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" ht="28.5" spans="1:28">
+      <c r="A125" s="4">
         <v>203</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="H125" s="2">
-        <v>1</v>
-      </c>
-      <c r="J125" s="2">
-        <v>1</v>
-      </c>
-      <c r="K125" s="2">
+      <c r="H125" s="4">
+        <v>1</v>
+      </c>
+      <c r="J125" s="4">
+        <v>1</v>
+      </c>
+      <c r="K125" s="4">
         <v>2</v>
       </c>
-      <c r="L125" s="2">
-        <v>0</v>
-      </c>
-      <c r="M125" s="2">
+      <c r="L125" s="4">
+        <v>0</v>
+      </c>
+      <c r="M125" s="4">
         <v>5</v>
       </c>
-      <c r="N125" s="2">
-        <v>0</v>
-      </c>
-      <c r="R125" s="2">
-        <v>1</v>
-      </c>
-      <c r="T125" s="2">
+      <c r="N125" s="4">
+        <v>0</v>
+      </c>
+      <c r="R125" s="4">
+        <v>1</v>
+      </c>
+      <c r="T125" s="4">
         <v>1001</v>
       </c>
       <c r="U125">
         <v>1</v>
       </c>
-      <c r="X125" s="2">
+      <c r="X125" s="4">
         <v>204</v>
       </c>
-      <c r="Z125" s="2">
+      <c r="Z125" s="4">
         <v>3</v>
       </c>
-      <c r="AA125" s="2">
+      <c r="AA125" s="4">
         <v>5</v>
       </c>
-      <c r="AB125" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A126" s="2">
+      <c r="AB125" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" ht="28.5" spans="1:28">
+      <c r="A126" s="4">
         <v>204</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="H126" s="2">
-        <v>1</v>
-      </c>
-      <c r="J126" s="2">
-        <v>1</v>
-      </c>
-      <c r="K126" s="2">
+      <c r="H126" s="4">
+        <v>1</v>
+      </c>
+      <c r="J126" s="4">
+        <v>1</v>
+      </c>
+      <c r="K126" s="4">
         <v>2</v>
       </c>
-      <c r="L126" s="2">
-        <v>0</v>
-      </c>
-      <c r="M126" s="2">
+      <c r="L126" s="4">
+        <v>0</v>
+      </c>
+      <c r="M126" s="4">
         <v>5</v>
       </c>
-      <c r="N126" s="2">
-        <v>0</v>
-      </c>
-      <c r="R126" s="2">
-        <v>1</v>
-      </c>
-      <c r="T126" s="2">
+      <c r="N126" s="4">
+        <v>0</v>
+      </c>
+      <c r="R126" s="4">
+        <v>1</v>
+      </c>
+      <c r="T126" s="4">
         <v>1001</v>
       </c>
       <c r="U126">
         <v>1</v>
       </c>
-      <c r="X126" s="2">
+      <c r="X126" s="4">
         <v>205</v>
       </c>
-      <c r="Z126" s="2">
+      <c r="Z126" s="4">
         <v>3</v>
       </c>
-      <c r="AA126" s="2">
+      <c r="AA126" s="4">
         <v>6</v>
       </c>
-      <c r="AB126" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="2">
+      <c r="AB126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" ht="28.5" spans="1:28">
+      <c r="A127" s="4">
         <v>205</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="H127" s="2">
-        <v>1</v>
-      </c>
-      <c r="J127" s="2">
-        <v>1</v>
-      </c>
-      <c r="K127" s="2">
+      <c r="H127" s="4">
+        <v>1</v>
+      </c>
+      <c r="J127" s="4">
+        <v>1</v>
+      </c>
+      <c r="K127" s="4">
         <v>2</v>
       </c>
-      <c r="L127" s="2">
-        <v>0</v>
-      </c>
-      <c r="M127" s="2">
+      <c r="L127" s="4">
+        <v>0</v>
+      </c>
+      <c r="M127" s="4">
         <v>5</v>
       </c>
-      <c r="N127" s="2">
-        <v>0</v>
-      </c>
-      <c r="R127" s="2">
-        <v>1</v>
-      </c>
-      <c r="T127" s="2">
+      <c r="N127" s="4">
+        <v>0</v>
+      </c>
+      <c r="R127" s="4">
+        <v>1</v>
+      </c>
+      <c r="T127" s="4">
         <v>1001</v>
       </c>
       <c r="U127">
         <v>1</v>
       </c>
-      <c r="X127" s="2">
+      <c r="X127" s="4">
         <v>206</v>
       </c>
-      <c r="Z127" s="2">
+      <c r="Z127" s="4">
         <v>3</v>
       </c>
-      <c r="AA127" s="2">
+      <c r="AA127" s="4">
         <v>7</v>
       </c>
-      <c r="AB127" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="2">
+      <c r="AB127" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" ht="28.5" spans="1:28">
+      <c r="A128" s="4">
         <v>206</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H128" s="2">
-        <v>1</v>
-      </c>
-      <c r="J128" s="2">
-        <v>1</v>
-      </c>
-      <c r="K128" s="2">
+      <c r="H128" s="4">
+        <v>1</v>
+      </c>
+      <c r="J128" s="4">
+        <v>1</v>
+      </c>
+      <c r="K128" s="4">
         <v>2</v>
       </c>
-      <c r="L128" s="2">
-        <v>0</v>
-      </c>
-      <c r="M128" s="2">
+      <c r="L128" s="4">
+        <v>0</v>
+      </c>
+      <c r="M128" s="4">
         <v>5</v>
       </c>
-      <c r="N128" s="2">
-        <v>0</v>
-      </c>
-      <c r="R128" s="2">
-        <v>1</v>
-      </c>
-      <c r="T128" s="2">
+      <c r="N128" s="4">
+        <v>0</v>
+      </c>
+      <c r="R128" s="4">
+        <v>1</v>
+      </c>
+      <c r="T128" s="4">
         <v>1001</v>
       </c>
       <c r="U128">
         <v>1</v>
       </c>
-      <c r="X128" s="2">
+      <c r="X128" s="4">
         <v>207</v>
       </c>
-      <c r="Z128" s="2">
+      <c r="Z128" s="4">
         <v>3</v>
       </c>
-      <c r="AA128" s="2">
+      <c r="AA128" s="4">
         <v>8</v>
       </c>
-      <c r="AB128" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="2">
+      <c r="AB128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" ht="28.5" spans="1:28">
+      <c r="A129" s="4">
         <v>207</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="H129" s="2">
-        <v>1</v>
-      </c>
-      <c r="J129" s="2">
-        <v>1</v>
-      </c>
-      <c r="K129" s="2">
+      <c r="H129" s="4">
+        <v>1</v>
+      </c>
+      <c r="J129" s="4">
+        <v>1</v>
+      </c>
+      <c r="K129" s="4">
         <v>2</v>
       </c>
-      <c r="L129" s="2">
-        <v>0</v>
-      </c>
-      <c r="M129" s="2">
+      <c r="L129" s="4">
+        <v>0</v>
+      </c>
+      <c r="M129" s="4">
         <v>5</v>
       </c>
-      <c r="N129" s="2">
-        <v>0</v>
-      </c>
-      <c r="R129" s="2">
-        <v>1</v>
-      </c>
-      <c r="T129" s="2">
+      <c r="N129" s="4">
+        <v>0</v>
+      </c>
+      <c r="R129" s="4">
+        <v>1</v>
+      </c>
+      <c r="T129" s="4">
         <v>1001</v>
       </c>
       <c r="U129">
         <v>1</v>
       </c>
-      <c r="X129" s="2">
+      <c r="X129" s="4">
         <v>208</v>
       </c>
-      <c r="Z129" s="2">
+      <c r="Z129" s="4">
         <v>3</v>
       </c>
-      <c r="AA129" s="2">
+      <c r="AA129" s="4">
         <v>9</v>
       </c>
-      <c r="AB129" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="2">
+      <c r="AB129" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" ht="28.5" spans="1:28">
+      <c r="A130" s="4">
         <v>208</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="H130" s="2">
-        <v>1</v>
-      </c>
-      <c r="J130" s="2">
-        <v>1</v>
-      </c>
-      <c r="K130" s="2">
+      <c r="H130" s="4">
+        <v>1</v>
+      </c>
+      <c r="J130" s="4">
+        <v>1</v>
+      </c>
+      <c r="K130" s="4">
         <v>2</v>
       </c>
-      <c r="L130" s="2">
-        <v>0</v>
-      </c>
-      <c r="M130" s="2">
+      <c r="L130" s="4">
+        <v>0</v>
+      </c>
+      <c r="M130" s="4">
         <v>5</v>
       </c>
-      <c r="N130" s="2">
-        <v>0</v>
-      </c>
-      <c r="R130" s="2">
-        <v>1</v>
-      </c>
-      <c r="T130" s="2">
+      <c r="N130" s="4">
+        <v>0</v>
+      </c>
+      <c r="R130" s="4">
+        <v>1</v>
+      </c>
+      <c r="T130" s="4">
         <v>1001</v>
       </c>
       <c r="U130">
         <v>1</v>
       </c>
-      <c r="X130" s="2">
+      <c r="X130" s="4">
         <v>209</v>
       </c>
-      <c r="Z130" s="2">
+      <c r="Z130" s="4">
         <v>3</v>
       </c>
-      <c r="AA130" s="2">
+      <c r="AA130" s="4">
         <v>10</v>
       </c>
-      <c r="AB130" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="2">
+      <c r="AB130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" ht="28.5" spans="1:28">
+      <c r="A131" s="4">
         <v>209</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="H131" s="2">
-        <v>1</v>
-      </c>
-      <c r="J131" s="2">
-        <v>1</v>
-      </c>
-      <c r="K131" s="2">
+      <c r="H131" s="4">
+        <v>1</v>
+      </c>
+      <c r="J131" s="4">
+        <v>1</v>
+      </c>
+      <c r="K131" s="4">
         <v>2</v>
       </c>
-      <c r="L131" s="2">
-        <v>0</v>
-      </c>
-      <c r="M131" s="2">
+      <c r="L131" s="4">
+        <v>0</v>
+      </c>
+      <c r="M131" s="4">
         <v>5</v>
       </c>
-      <c r="N131" s="2">
-        <v>0</v>
-      </c>
-      <c r="R131" s="2">
-        <v>1</v>
-      </c>
-      <c r="T131" s="2">
+      <c r="N131" s="4">
+        <v>0</v>
+      </c>
+      <c r="R131" s="4">
+        <v>1</v>
+      </c>
+      <c r="T131" s="4">
         <v>1001</v>
       </c>
       <c r="U131">
         <v>1</v>
       </c>
-      <c r="X131" s="2">
+      <c r="X131" s="4">
         <v>210</v>
       </c>
-      <c r="Z131" s="2">
+      <c r="Z131" s="4">
         <v>3</v>
       </c>
-      <c r="AA131" s="2">
+      <c r="AA131" s="4">
         <v>11</v>
       </c>
-      <c r="AB131" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="2">
+      <c r="AB131" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" ht="28.5" spans="1:28">
+      <c r="A132" s="4">
         <v>210</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="H132" s="2">
-        <v>1</v>
-      </c>
-      <c r="J132" s="2">
-        <v>1</v>
-      </c>
-      <c r="K132" s="2">
+      <c r="H132" s="4">
+        <v>1</v>
+      </c>
+      <c r="J132" s="4">
+        <v>1</v>
+      </c>
+      <c r="K132" s="4">
         <v>2</v>
       </c>
-      <c r="L132" s="2">
-        <v>0</v>
-      </c>
-      <c r="M132" s="2">
+      <c r="L132" s="4">
+        <v>0</v>
+      </c>
+      <c r="M132" s="4">
         <v>5</v>
       </c>
-      <c r="N132" s="2">
-        <v>0</v>
-      </c>
-      <c r="R132" s="2">
-        <v>1</v>
-      </c>
-      <c r="T132" s="2">
+      <c r="N132" s="4">
+        <v>0</v>
+      </c>
+      <c r="R132" s="4">
+        <v>1</v>
+      </c>
+      <c r="T132" s="4">
         <v>1001</v>
       </c>
       <c r="U132">
         <v>1</v>
       </c>
-      <c r="X132" s="2">
+      <c r="X132" s="4">
         <v>210</v>
       </c>
-      <c r="Z132" s="2">
+      <c r="Z132" s="4">
         <v>3</v>
       </c>
-      <c r="AA132" s="2">
+      <c r="AA132" s="4">
         <v>12</v>
       </c>
-      <c r="AB132" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
+      <c r="AB132" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" ht="28.5" spans="1:33">
+      <c r="A133" s="4">
         <v>211</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="4" t="s">
         <v>294</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="J133" s="2">
-        <v>1</v>
-      </c>
-      <c r="K133" s="2">
-        <v>1</v>
-      </c>
-      <c r="M133" s="2">
+      <c r="J133" s="4">
+        <v>1</v>
+      </c>
+      <c r="K133" s="4">
+        <v>1</v>
+      </c>
+      <c r="M133" s="4">
         <v>10</v>
       </c>
-      <c r="N133" s="2">
+      <c r="N133" s="4">
         <v>12</v>
       </c>
-      <c r="O133" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="2" t="s">
+      <c r="O133" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Y133" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z133" s="2">
+      <c r="Y133" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z133" s="4">
         <v>2</v>
       </c>
-      <c r="AG133" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="AG133" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" spans="2:3">
       <c r="B134" s="18" t="s">
         <v>296</v>
       </c>
@@ -6281,7 +6877,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="135" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="135" ht="15.75" spans="2:3">
       <c r="B135" s="18" t="s">
         <v>298</v>
       </c>
@@ -6289,7 +6885,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="136" spans="1:33" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="136" ht="47.25" spans="2:3">
       <c r="B136" s="18" t="s">
         <v>300</v>
       </c>
@@ -6297,7 +6893,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="137" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="137" ht="31.5" spans="2:3">
       <c r="B137" s="18" t="s">
         <v>302</v>
       </c>
@@ -6305,7 +6901,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="138" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="138" ht="15.75" spans="2:3">
       <c r="B138" s="18" t="s">
         <v>304</v>
       </c>
@@ -6313,7 +6909,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="139" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="139" ht="15.75" spans="2:3">
       <c r="B139" s="18" t="s">
         <v>306</v>
       </c>
@@ -6321,7 +6917,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="140" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="140" ht="31.5" spans="2:3">
       <c r="B140" s="18" t="s">
         <v>308</v>
       </c>
@@ -6329,18 +6925,18 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="141" ht="15.75" spans="2:8">
       <c r="B141" s="18" t="s">
         <v>310</v>
       </c>
       <c r="C141" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="H141" s="2">
+      <c r="H141" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="142" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="142" ht="31.5" spans="2:3">
       <c r="B142" s="18" t="s">
         <v>312</v>
       </c>
@@ -6348,7 +6944,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="143" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="143" ht="31.5" spans="2:3">
       <c r="B143" s="18" t="s">
         <v>314</v>
       </c>
@@ -6356,12 +6952,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="144" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="144" ht="15.75" spans="2:2">
       <c r="B144" s="18" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="63" x14ac:dyDescent="0.2">
+    <row r="145" ht="63" spans="2:3">
       <c r="B145" s="18" t="s">
         <v>317</v>
       </c>
@@ -6369,21 +6965,21 @@
         <v>318</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="146" ht="15.75" spans="2:8">
       <c r="B146" s="18" t="s">
         <v>319</v>
       </c>
       <c r="C146" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="H146" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H146" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" spans="3:3">
       <c r="C147" s="18"/>
     </row>
-    <row r="148" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="148" ht="31.5" spans="2:3">
       <c r="B148" s="18" t="s">
         <v>321</v>
       </c>
@@ -6391,7 +6987,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="149" ht="15.75" spans="2:3">
       <c r="B149" s="18" t="s">
         <v>323</v>
       </c>
@@ -6399,11 +6995,11 @@
         <v>324</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="150" ht="15.75" spans="2:3">
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
     </row>
-    <row r="151" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="151" ht="31.5" spans="2:3">
       <c r="B151" s="18" t="s">
         <v>325</v>
       </c>
@@ -6411,7 +7007,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="152" ht="15.75" spans="2:3">
       <c r="B152" s="18" t="s">
         <v>327</v>
       </c>
@@ -6419,7 +7015,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="153" ht="31.5" spans="2:3">
       <c r="B153" s="18" t="s">
         <v>329</v>
       </c>
@@ -6427,44 +7023,44 @@
         <v>330</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:3">
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
+    <row r="155" spans="1:20">
+      <c r="A155" s="4">
         <v>1410</v>
       </c>
       <c r="B155" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H155" s="2">
+      <c r="H155" s="4">
         <v>10</v>
       </c>
-      <c r="J155" s="2">
-        <v>0</v>
-      </c>
-      <c r="K155" s="2">
+      <c r="J155" s="4">
+        <v>0</v>
+      </c>
+      <c r="K155" s="4">
         <v>3</v>
       </c>
-      <c r="N155" s="2">
-        <v>1</v>
-      </c>
-      <c r="R155" s="2">
-        <v>1</v>
-      </c>
-      <c r="T155" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="2">
+      <c r="N155" s="4">
+        <v>1</v>
+      </c>
+      <c r="R155" s="4">
+        <v>1</v>
+      </c>
+      <c r="T155" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" ht="28.5" spans="1:20">
+      <c r="A156" s="4">
         <v>1411</v>
       </c>
       <c r="B156" s="10" t="s">
@@ -6473,39 +7069,39 @@
       <c r="C156" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H156" s="2">
-        <v>1</v>
-      </c>
-      <c r="I156" s="2">
+      <c r="H156" s="4">
+        <v>1</v>
+      </c>
+      <c r="I156" s="4">
         <v>10</v>
       </c>
-      <c r="J156" s="2">
-        <v>1</v>
-      </c>
-      <c r="K156" s="2">
+      <c r="J156" s="4">
+        <v>1</v>
+      </c>
+      <c r="K156" s="4">
         <v>3</v>
       </c>
-      <c r="M156" s="2">
+      <c r="M156" s="4">
         <v>10</v>
       </c>
-      <c r="N156" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q156" s="2" t="s">
+      <c r="N156" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="R156" s="2">
-        <v>1</v>
-      </c>
-      <c r="T156" s="2">
+      <c r="R156" s="4">
+        <v>1</v>
+      </c>
+      <c r="T156" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
+    <row r="157" ht="28.5" spans="1:20">
+      <c r="A157" s="4">
         <v>1412</v>
       </c>
       <c r="B157" s="10" t="s">
@@ -6514,7 +7110,7 @@
       <c r="C157" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -6526,197 +7122,279 @@
       <c r="G157" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H157" s="2">
+      <c r="H157" s="4">
         <v>2</v>
       </c>
-      <c r="I157" s="2">
+      <c r="I157" s="4">
         <v>10</v>
       </c>
-      <c r="J157" s="2">
-        <v>1</v>
-      </c>
-      <c r="K157" s="2">
+      <c r="J157" s="4">
+        <v>1</v>
+      </c>
+      <c r="K157" s="4">
         <v>3</v>
       </c>
-      <c r="M157" s="2">
+      <c r="M157" s="4">
         <v>10</v>
       </c>
-      <c r="N157" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q157" s="2" t="s">
+      <c r="N157" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="T157" s="2">
+      <c r="T157" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="57" x14ac:dyDescent="0.2">
-      <c r="B158" s="10" t="s">
+    <row r="158" s="1" customFormat="1" ht="28.5" spans="1:23">
+      <c r="A158" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J158" s="1">
+        <v>1</v>
+      </c>
+      <c r="K158" s="1">
+        <v>1</v>
+      </c>
+      <c r="L158" s="1">
+        <v>0</v>
+      </c>
+      <c r="M158" s="1">
+        <v>0</v>
+      </c>
+      <c r="N158" s="1">
+        <v>1200</v>
+      </c>
+      <c r="O158" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R158" s="1">
+        <v>1</v>
+      </c>
+      <c r="T158" s="1">
+        <v>0</v>
+      </c>
+      <c r="U158"/>
+      <c r="V158"/>
+      <c r="W158"/>
+    </row>
+    <row r="159" s="4" customFormat="1" spans="1:23">
+      <c r="A159" s="4">
+        <v>1501</v>
+      </c>
+      <c r="B159" s="4" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B159" s="10" t="s">
+      <c r="C159" s="5"/>
+      <c r="J159" s="4">
+        <v>1</v>
+      </c>
+      <c r="K159" s="4">
+        <v>1</v>
+      </c>
+      <c r="R159" s="4">
+        <v>1</v>
+      </c>
+      <c r="T159" s="4">
+        <v>13</v>
+      </c>
+      <c r="U159"/>
+      <c r="V159"/>
+      <c r="W159"/>
+    </row>
+    <row r="160" ht="57" spans="2:3">
+      <c r="B160" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C160" s="5" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B160" s="10" t="s">
+    <row r="161" ht="28.5" spans="2:3">
+      <c r="B161" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C161" s="5" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B161" s="10" t="s">
+    <row r="162" ht="42.75" spans="2:3">
+      <c r="B162" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C162" s="5" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="162" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B162" s="10" t="s">
+    <row r="163" ht="28.5" spans="2:3">
+      <c r="B163" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C163" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="163" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B163" s="10" t="s">
+    <row r="164" ht="42.75" spans="2:3">
+      <c r="B164" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C164" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="H163" s="2">
+    </row>
+    <row r="165" ht="28.5" spans="2:9">
+      <c r="B165" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="H165" s="4">
         <v>5</v>
       </c>
-      <c r="I163" s="2">
+      <c r="I165" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B164" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="H164" s="2">
+    <row r="166" ht="28.5" spans="2:8">
+      <c r="B166" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="H166" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="165" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B165" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B166" s="10" t="s">
+    <row r="167" ht="42.75" spans="2:3">
+      <c r="B167" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C167" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B167" s="10"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B169" s="10" t="s">
+    <row r="168" ht="28.5" spans="2:3">
+      <c r="B168" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="C168" s="5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="170" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B170" s="10" t="s">
+    <row r="169" spans="2:2">
+      <c r="B169" s="10"/>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="B171" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="D171" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D170" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B171" s="10" t="s">
+    </row>
+    <row r="172" ht="28.5" spans="2:4">
+      <c r="B172" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="C172" s="5" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B172" s="10" t="s">
+      <c r="D172" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="B173" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="D172" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B173" s="10" t="s">
+      <c r="D173" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D173" s="5" t="s">
+    </row>
+    <row r="174" spans="2:4">
+      <c r="B174" s="10" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B174" s="10" t="s">
+      <c r="D174" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D175" s="5" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B175" s="10" t="s">
+    <row r="176" spans="2:4">
+      <c r="B176" s="10" t="s">
         <v>368</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B176" s="10" t="s">
-        <v>370</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:4">
       <c r="B177" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:4">
       <c r="B178" s="10" t="s">
         <v>372</v>
       </c>
+      <c r="D178" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="10" t="s">
+        <v>374</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="Z1:Z178" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <autoFilter ref="Z1:Z180">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="374">
   <si>
     <t>技能ID</t>
   </si>
@@ -652,7 +652,7 @@
     <t>1点伤害并击晕3秒</t>
   </si>
   <si>
-    <t>效果-回复1点能量</t>
+    <t>效果-回复1.5点能量</t>
   </si>
   <si>
     <t>每当成功格挡时，回复1点能量</t>
@@ -683,9 +683,6 @@
   </si>
   <si>
     <t>效果-2点伤害</t>
-  </si>
-  <si>
-    <t>效果-回复1.5点能量</t>
   </si>
   <si>
     <t>每当成功格挡时，回复1.5点能量</t>
@@ -1548,9 +1545,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1589,25 +1586,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1626,8 +1628,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1635,7 +1638,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,29 +1685,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1695,33 +1706,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1775,19 +1772,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1799,61 +1814,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1865,73 +1838,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1949,7 +1856,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1963,41 +1960,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2014,16 +1981,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2055,8 +2022,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2066,10 +2063,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2078,133 +2075,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2580,11 +2577,11 @@
   <dimension ref="A1:AH180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O110" sqref="O110"/>
+      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3993,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -4198,10 +4195,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="J37" s="4">
         <v>1</v>
@@ -4221,7 +4218,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>83</v>
@@ -4250,7 +4247,7 @@
         <v>50</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J39" s="4">
         <v>1</v>
@@ -4267,10 +4264,10 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="J40" s="4">
         <v>0</v>
@@ -4281,10 +4278,10 @@
     </row>
     <row r="41" ht="28.5" spans="2:11">
       <c r="B41" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="J41" s="4">
         <v>0</v>
@@ -4295,10 +4292,10 @@
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="J42" s="4">
         <v>0</v>
@@ -4309,10 +4306,10 @@
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="J43" s="4">
         <v>0</v>
@@ -4326,10 +4323,10 @@
         <v>1001</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>70</v>
@@ -4343,10 +4340,10 @@
     </row>
     <row r="45" ht="28.5" spans="2:11">
       <c r="B45" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="K45" s="4">
         <v>9</v>
@@ -4354,10 +4351,10 @@
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="J46" s="4">
         <v>0</v>
@@ -4368,10 +4365,10 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="J47" s="4">
         <v>0</v>
@@ -4382,10 +4379,10 @@
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
@@ -4399,10 +4396,10 @@
         <v>1002</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>70</v>
@@ -4422,10 +4419,10 @@
     </row>
     <row r="50" ht="28.5" spans="2:11">
       <c r="B50" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="J50" s="4">
         <v>0</v>
@@ -4439,10 +4436,10 @@
         <v>1004</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>88</v>
@@ -4462,10 +4459,10 @@
     </row>
     <row r="52" spans="2:11">
       <c r="B52" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>163</v>
       </c>
       <c r="J52" s="4">
         <v>1</v>
@@ -4479,10 +4476,10 @@
         <v>1011</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>70</v>
@@ -4512,10 +4509,10 @@
         <v>1012</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>74</v>
@@ -4538,10 +4535,10 @@
         <v>1013</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>74</v>
@@ -4561,10 +4558,10 @@
         <v>1014</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>74</v>
@@ -4578,10 +4575,10 @@
     </row>
     <row r="58" ht="28.5" spans="2:11">
       <c r="B58" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="J58" s="4">
         <v>0</v>
@@ -4592,7 +4589,7 @@
     </row>
     <row r="59" spans="2:11">
       <c r="B59" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C59" s="10"/>
       <c r="J59" s="4">
@@ -4604,10 +4601,10 @@
     </row>
     <row r="60" spans="2:11">
       <c r="B60" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="J60" s="4">
         <v>0</v>
@@ -4618,10 +4615,10 @@
     </row>
     <row r="61" ht="28.5" spans="2:11">
       <c r="B61" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="J61" s="4">
         <v>0</v>
@@ -4635,10 +4632,10 @@
         <v>1018</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="H62" s="4">
         <v>1</v>
@@ -4655,10 +4652,10 @@
         <v>1020</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>182</v>
       </c>
       <c r="H63" s="4">
         <v>0.5</v>
@@ -4672,7 +4669,7 @@
     </row>
     <row r="64" spans="2:11">
       <c r="B64" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J64" s="4">
         <v>1</v>
@@ -4694,10 +4691,10 @@
     </row>
     <row r="66" spans="2:11">
       <c r="B66" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="J66" s="4">
         <v>1</v>
@@ -4711,10 +4708,10 @@
         <v>1021</v>
       </c>
       <c r="B67" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>70</v>
@@ -4723,7 +4720,7 @@
         <v>75</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H67" s="4">
         <v>1</v>
@@ -4741,12 +4738,12 @@
         <v>10</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="2:11">
       <c r="B68" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J68" s="4">
         <v>1</v>
@@ -4760,10 +4757,10 @@
         <v>1010</v>
       </c>
       <c r="B69" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>70</v>
@@ -4801,10 +4798,10 @@
         <v>1114</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>193</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>194</v>
       </c>
       <c r="J71" s="4">
         <v>0</v>
@@ -4831,10 +4828,10 @@
         <v>1110</v>
       </c>
       <c r="B73" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>196</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>81</v>
@@ -4854,10 +4851,10 @@
         <v>1111</v>
       </c>
       <c r="B74" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>81</v>
@@ -4877,16 +4874,16 @@
         <v>1112</v>
       </c>
       <c r="B75" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="10" t="s">
         <v>199</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>200</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H75" s="4">
         <v>0.5</v>
@@ -4906,10 +4903,10 @@
         <v>1113</v>
       </c>
       <c r="B76" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>203</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>81</v>
@@ -4939,10 +4936,10 @@
         <v>1115</v>
       </c>
       <c r="B78" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>205</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>81</v>
@@ -4959,10 +4956,10 @@
         <v>1116</v>
       </c>
       <c r="B79" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C79" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>81</v>
@@ -5007,10 +5004,10 @@
         <v>1117</v>
       </c>
       <c r="B82" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C82" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>209</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>88</v>
@@ -5040,15 +5037,15 @@
         <v>1</v>
       </c>
       <c r="Q82" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="2:11">
       <c r="B83" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>212</v>
       </c>
       <c r="J83" s="4">
         <v>0</v>
@@ -5059,10 +5056,10 @@
     </row>
     <row r="84" ht="28.5" spans="2:11">
       <c r="B84" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C84" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="J84" s="4">
         <v>0</v>
@@ -5073,10 +5070,10 @@
     </row>
     <row r="85" ht="28.5" spans="2:11">
       <c r="B85" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="J85" s="4">
         <v>0</v>
@@ -5087,10 +5084,10 @@
     </row>
     <row r="86" ht="28.5" spans="2:11">
       <c r="B86" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="J86" s="4">
         <v>0</v>
@@ -5101,10 +5098,10 @@
     </row>
     <row r="87" ht="28.5" spans="2:11">
       <c r="B87" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="J87" s="4">
         <v>0</v>
@@ -5118,10 +5115,10 @@
         <v>1201</v>
       </c>
       <c r="B88" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>81</v>
@@ -5154,7 +5151,7 @@
     </row>
     <row r="90" spans="2:11">
       <c r="B90" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J90" s="4">
         <v>1</v>
@@ -5165,10 +5162,10 @@
     </row>
     <row r="91" ht="28.5" spans="2:11">
       <c r="B91" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="J91" s="4">
         <v>0</v>
@@ -5179,10 +5176,10 @@
     </row>
     <row r="92" ht="28.5" spans="2:11">
       <c r="B92" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>227</v>
       </c>
       <c r="J92" s="4">
         <v>0</v>
@@ -5193,10 +5190,10 @@
     </row>
     <row r="93" spans="2:3">
       <c r="B93" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="94" s="2" customFormat="1" spans="1:26">
@@ -5204,10 +5201,10 @@
         <v>102</v>
       </c>
       <c r="B94" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C94" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>231</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>81</v>
@@ -5233,10 +5230,10 @@
         <v>103</v>
       </c>
       <c r="B95" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>233</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>81</v>
@@ -5268,10 +5265,10 @@
         <v>104</v>
       </c>
       <c r="B96" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>70</v>
@@ -5300,10 +5297,10 @@
         <v>105</v>
       </c>
       <c r="B97" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C97" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>81</v>
@@ -5341,10 +5338,10 @@
         <v>106</v>
       </c>
       <c r="B98" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C98" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>239</v>
       </c>
       <c r="J98" s="4">
         <v>1</v>
@@ -5370,10 +5367,10 @@
         <v>107</v>
       </c>
       <c r="B99" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C99" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="J99" s="4">
         <v>1</v>
@@ -5399,10 +5396,10 @@
         <v>108</v>
       </c>
       <c r="B100" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="J100" s="4">
         <v>1</v>
@@ -5431,10 +5428,10 @@
         <v>109</v>
       </c>
       <c r="B101" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="J101" s="4">
         <v>1</v>
@@ -5463,10 +5460,10 @@
         <v>110</v>
       </c>
       <c r="B102" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="J102" s="4">
         <v>1</v>
@@ -5495,10 +5492,10 @@
         <v>111</v>
       </c>
       <c r="B103" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>249</v>
       </c>
       <c r="J103" s="4">
         <v>1</v>
@@ -5527,10 +5524,10 @@
         <v>112</v>
       </c>
       <c r="B104" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>251</v>
       </c>
       <c r="J104" s="4">
         <v>1</v>
@@ -5559,10 +5556,10 @@
         <v>113</v>
       </c>
       <c r="B105" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>252</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>253</v>
       </c>
       <c r="J105" s="4">
         <v>1</v>
@@ -5591,7 +5588,7 @@
         <v>114</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>73</v>
@@ -5650,10 +5647,10 @@
         <v>115</v>
       </c>
       <c r="B107" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>256</v>
       </c>
       <c r="J107" s="4">
         <v>1</v>
@@ -5682,10 +5679,10 @@
         <v>116</v>
       </c>
       <c r="B108" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C108" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>258</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>81</v>
@@ -5714,10 +5711,10 @@
         <v>117</v>
       </c>
       <c r="B109" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C109" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>260</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>81</v>
@@ -5738,7 +5735,7 @@
         <v>1</v>
       </c>
       <c r="Q109" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R109" s="3">
         <v>0</v>
@@ -5755,10 +5752,10 @@
         <v>118</v>
       </c>
       <c r="B110" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C110" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="J110" s="4">
         <v>1</v>
@@ -5787,10 +5784,10 @@
         <v>119</v>
       </c>
       <c r="B111" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" s="10" t="s">
         <v>264</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>265</v>
       </c>
       <c r="J111" s="4">
         <v>1</v>
@@ -5819,10 +5816,10 @@
         <v>120</v>
       </c>
       <c r="B112" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>74</v>
@@ -5881,10 +5878,10 @@
         <v>121</v>
       </c>
       <c r="B113" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C113" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="J113" s="4">
         <v>1</v>
@@ -5913,10 +5910,10 @@
         <v>122</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>271</v>
       </c>
       <c r="H114" s="4">
         <v>0.8</v>
@@ -5960,7 +5957,7 @@
         <v>123</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>80</v>
@@ -6022,7 +6019,7 @@
         <v>124</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>87</v>
@@ -6084,10 +6081,10 @@
         <v>125</v>
       </c>
       <c r="B117" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>275</v>
       </c>
       <c r="H117" s="4">
         <v>0.8</v>
@@ -6131,10 +6128,10 @@
         <v>126</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J118" s="4">
         <v>1</v>
@@ -6163,7 +6160,7 @@
         <v>127</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>73</v>
@@ -6222,10 +6219,10 @@
         <v>128</v>
       </c>
       <c r="B120" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C120" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>279</v>
       </c>
       <c r="J120" s="4">
         <v>1</v>
@@ -6254,10 +6251,10 @@
         <v>129</v>
       </c>
       <c r="B121" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C121" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>281</v>
       </c>
       <c r="J121" s="4">
         <v>1</v>
@@ -6286,10 +6283,10 @@
         <v>200</v>
       </c>
       <c r="B122" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C122" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="H122" s="4">
         <v>1</v>
@@ -6336,10 +6333,10 @@
         <v>201</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H123" s="4">
         <v>1</v>
@@ -6386,10 +6383,10 @@
         <v>202</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H124" s="4">
         <v>1</v>
@@ -6436,10 +6433,10 @@
         <v>203</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H125" s="4">
         <v>1</v>
@@ -6486,10 +6483,10 @@
         <v>204</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H126" s="4">
         <v>1</v>
@@ -6536,10 +6533,10 @@
         <v>205</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H127" s="4">
         <v>1</v>
@@ -6586,10 +6583,10 @@
         <v>206</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H128" s="4">
         <v>1</v>
@@ -6636,10 +6633,10 @@
         <v>207</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H129" s="4">
         <v>1</v>
@@ -6686,10 +6683,10 @@
         <v>208</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H130" s="4">
         <v>1</v>
@@ -6736,10 +6733,10 @@
         <v>209</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H131" s="4">
         <v>1</v>
@@ -6786,10 +6783,10 @@
         <v>210</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H132" s="4">
         <v>1</v>
@@ -6836,10 +6833,10 @@
         <v>211</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C133" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="J133" s="4">
         <v>1</v>
@@ -6871,66 +6868,66 @@
     </row>
     <row r="134" ht="15.75" spans="2:3">
       <c r="B134" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C134" s="18" t="s">
         <v>296</v>
-      </c>
-      <c r="C134" s="18" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="135" ht="15.75" spans="2:3">
       <c r="B135" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="C135" s="18" t="s">
         <v>298</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="136" ht="47.25" spans="2:3">
       <c r="B136" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="C136" s="18" t="s">
         <v>300</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="137" ht="31.5" spans="2:3">
       <c r="B137" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C137" s="18" t="s">
         <v>302</v>
-      </c>
-      <c r="C137" s="18" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="138" ht="15.75" spans="2:3">
       <c r="B138" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C138" s="18" t="s">
         <v>304</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="139" ht="15.75" spans="2:3">
       <c r="B139" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C139" s="18" t="s">
         <v>306</v>
-      </c>
-      <c r="C139" s="18" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="140" ht="31.5" spans="2:3">
       <c r="B140" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C140" s="19" t="s">
         <v>308</v>
-      </c>
-      <c r="C140" s="19" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="141" ht="15.75" spans="2:8">
       <c r="B141" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C141" s="18" t="s">
         <v>310</v>
-      </c>
-      <c r="C141" s="18" t="s">
-        <v>311</v>
       </c>
       <c r="H141" s="4">
         <v>0.5</v>
@@ -6938,39 +6935,39 @@
     </row>
     <row r="142" ht="31.5" spans="2:3">
       <c r="B142" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="C142" s="20" t="s">
         <v>312</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="143" ht="31.5" spans="2:3">
       <c r="B143" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C143" s="19" t="s">
         <v>314</v>
-      </c>
-      <c r="C143" s="19" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="144" ht="15.75" spans="2:2">
       <c r="B144" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="145" ht="63" spans="2:3">
       <c r="B145" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="C145" s="18" t="s">
         <v>317</v>
-      </c>
-      <c r="C145" s="18" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="146" ht="15.75" spans="2:8">
       <c r="B146" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C146" s="18" t="s">
         <v>319</v>
-      </c>
-      <c r="C146" s="18" t="s">
-        <v>320</v>
       </c>
       <c r="H146" s="4">
         <v>1</v>
@@ -6981,18 +6978,18 @@
     </row>
     <row r="148" ht="31.5" spans="2:3">
       <c r="B148" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C148" s="18" t="s">
         <v>321</v>
-      </c>
-      <c r="C148" s="18" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="149" ht="15.75" spans="2:3">
       <c r="B149" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C149" s="18" t="s">
         <v>323</v>
-      </c>
-      <c r="C149" s="18" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="150" ht="15.75" spans="2:3">
@@ -7001,26 +6998,26 @@
     </row>
     <row r="151" ht="31.5" spans="2:3">
       <c r="B151" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C151" s="18" t="s">
         <v>325</v>
-      </c>
-      <c r="C151" s="18" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="152" ht="15.75" spans="2:3">
       <c r="B152" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C152" s="18" t="s">
         <v>327</v>
-      </c>
-      <c r="C152" s="18" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="153" ht="31.5" spans="2:3">
       <c r="B153" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="C153" s="18" t="s">
         <v>329</v>
-      </c>
-      <c r="C153" s="18" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="154" spans="2:3">
@@ -7032,10 +7029,10 @@
         <v>1410</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>81</v>
@@ -7064,10 +7061,10 @@
         <v>1411</v>
       </c>
       <c r="B156" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C156" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>333</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>81</v>
@@ -7105,19 +7102,19 @@
         <v>1412</v>
       </c>
       <c r="B157" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C157" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>335</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>97</v>
@@ -7141,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="Q157" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T157" s="4">
         <v>5</v>
@@ -7152,7 +7149,7 @@
         <v>1500</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>94</v>
@@ -7208,7 +7205,7 @@
         <v>1501</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C159" s="5"/>
       <c r="J159" s="4">
@@ -7229,50 +7226,50 @@
     </row>
     <row r="160" ht="57" spans="2:3">
       <c r="B160" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C160" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="161" ht="28.5" spans="2:3">
       <c r="B161" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="C161" s="5" t="s">
         <v>343</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="162" ht="42.75" spans="2:3">
       <c r="B162" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C162" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="163" ht="28.5" spans="2:3">
       <c r="B163" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C163" s="5" t="s">
         <v>347</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="164" ht="42.75" spans="2:3">
       <c r="B164" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C164" s="5" t="s">
         <v>349</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="165" ht="28.5" spans="2:9">
       <c r="B165" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="C165" s="5" t="s">
         <v>351</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>352</v>
       </c>
       <c r="H165" s="4">
         <v>5</v>
@@ -7283,10 +7280,10 @@
     </row>
     <row r="166" ht="28.5" spans="2:8">
       <c r="B166" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C166" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>354</v>
       </c>
       <c r="H166" s="4">
         <v>1.5</v>
@@ -7294,18 +7291,18 @@
     </row>
     <row r="167" ht="42.75" spans="2:3">
       <c r="B167" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C167" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="168" ht="28.5" spans="2:3">
       <c r="B168" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C168" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="169" spans="2:2">
@@ -7313,79 +7310,79 @@
     </row>
     <row r="171" spans="2:4">
       <c r="B171" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D171" s="5" t="s">
         <v>359</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="172" ht="28.5" spans="2:4">
       <c r="B172" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C172" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C172" s="5" t="s">
-        <v>362</v>
-      </c>
       <c r="D172" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="173" spans="2:4">
       <c r="B173" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="174" spans="2:4">
       <c r="B174" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="175" spans="2:4">
       <c r="B175" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>366</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="176" spans="2:4">
       <c r="B176" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="177" spans="2:4">
       <c r="B177" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="178" spans="2:4">
       <c r="B178" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -673,22 +673,22 @@
     <t>召唤一个口魔，持续15秒，每3秒进行一次治疗，回复自身1点生命</t>
   </si>
   <si>
+    <t>触发2点伤害</t>
+  </si>
+  <si>
+    <t>效果-2点治疗</t>
+  </si>
+  <si>
+    <t>效果-5点伤害</t>
+  </si>
+  <si>
+    <t>效果-2点伤害</t>
+  </si>
+  <si>
+    <t>每当成功格挡时，回复1.5点能量</t>
+  </si>
+  <si>
     <t>触发4点伤害</t>
-  </si>
-  <si>
-    <t>效果-2点治疗</t>
-  </si>
-  <si>
-    <t>效果-5点伤害</t>
-  </si>
-  <si>
-    <t>效果-2点伤害</t>
-  </si>
-  <si>
-    <t>每当成功格挡时，回复1.5点能量</t>
-  </si>
-  <si>
-    <t>触发6点伤害</t>
   </si>
   <si>
     <t>boss格挡</t>
@@ -1050,7 +1050,7 @@
     <t>格挡</t>
   </si>
   <si>
-    <t>获得4点护甲。</t>
+    <t>获得2点护甲。</t>
   </si>
   <si>
     <t>气定神闲</t>
@@ -1125,82 +1125,82 @@
     <t>尖刺外壳</t>
   </si>
   <si>
+    <t>每当获得护甲时，造成2点伤害</t>
+  </si>
+  <si>
+    <t>举起盾牌</t>
+  </si>
+  <si>
+    <t>获得3点护甲并抽1张牌</t>
+  </si>
+  <si>
+    <t>点燃攻击</t>
+  </si>
+  <si>
+    <t>10秒内造成14点伤害</t>
+  </si>
+  <si>
+    <t>1,0.1;2,0.1;3,0.1;4,0.1;5,0.1;6,0.1;7,0.1;8,0.1;9,0.1;10,0.1</t>
+  </si>
+  <si>
+    <t>自然转化器</t>
+  </si>
+  <si>
+    <t>成功格挡时，回复2点生命</t>
+  </si>
+  <si>
+    <t>电能装甲</t>
+  </si>
+  <si>
+    <t>成功格挡时，造成5点伤害</t>
+  </si>
+  <si>
+    <t>致命投掷</t>
+  </si>
+  <si>
+    <t>造成10点伤害，移除</t>
+  </si>
+  <si>
+    <t>锯齿护臂</t>
+  </si>
+  <si>
+    <t>成功格挡时，造成2点伤害</t>
+  </si>
+  <si>
+    <t>能量再生</t>
+  </si>
+  <si>
+    <t>弃2张牌，回复1点能量</t>
+  </si>
+  <si>
+    <t>强化抽牌攻击</t>
+  </si>
+  <si>
+    <t>强化弃牌攻击</t>
+  </si>
+  <si>
+    <t>强化能量再生</t>
+  </si>
+  <si>
+    <t>弃2张牌，回复2点能量</t>
+  </si>
+  <si>
+    <t>强化斩杀</t>
+  </si>
+  <si>
+    <t>威力一击</t>
+  </si>
+  <si>
+    <t>强化动能回收器</t>
+  </si>
+  <si>
+    <t>成功格挡时，回复1.5点能量</t>
+  </si>
+  <si>
+    <t>强化尖刺外壳</t>
+  </si>
+  <si>
     <t>每当获得护甲时，造成4点伤害</t>
-  </si>
-  <si>
-    <t>举起盾牌</t>
-  </si>
-  <si>
-    <t>获得5点护甲并抽1张牌</t>
-  </si>
-  <si>
-    <t>点燃攻击</t>
-  </si>
-  <si>
-    <t>10秒内造成14点伤害</t>
-  </si>
-  <si>
-    <t>1,0.1;2,0.1;3,0.1;4,0.1;5,0.1;6,0.1;7,0.1;8,0.1;9,0.1;10,0.1</t>
-  </si>
-  <si>
-    <t>自然转化器</t>
-  </si>
-  <si>
-    <t>成功格挡时，回复2点生命</t>
-  </si>
-  <si>
-    <t>电能装甲</t>
-  </si>
-  <si>
-    <t>成功格挡时，造成5点伤害</t>
-  </si>
-  <si>
-    <t>致命投掷</t>
-  </si>
-  <si>
-    <t>造成10点伤害，移除</t>
-  </si>
-  <si>
-    <t>锯齿护臂</t>
-  </si>
-  <si>
-    <t>成功格挡时，造成2点伤害</t>
-  </si>
-  <si>
-    <t>能量再生</t>
-  </si>
-  <si>
-    <t>弃2张牌，回复1点能量</t>
-  </si>
-  <si>
-    <t>强化抽牌攻击</t>
-  </si>
-  <si>
-    <t>强化弃牌攻击</t>
-  </si>
-  <si>
-    <t>强化能量再生</t>
-  </si>
-  <si>
-    <t>弃2张牌，回复2点能量</t>
-  </si>
-  <si>
-    <t>强化斩杀</t>
-  </si>
-  <si>
-    <t>威力一击</t>
-  </si>
-  <si>
-    <t>强化动能回收器</t>
-  </si>
-  <si>
-    <t>成功格挡时，回复1.5点能量</t>
-  </si>
-  <si>
-    <t>强化尖刺外壳</t>
-  </si>
-  <si>
-    <t>每当获得护甲时，造成6点伤害</t>
   </si>
   <si>
     <t>圣剑</t>
@@ -1545,9 +1545,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1586,6 +1586,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1593,36 +1600,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,10 +1615,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1652,8 +1630,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1675,16 +1667,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1708,17 +1716,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1772,19 +1772,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,7 +1808,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,13 +1856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1826,55 +1868,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,13 +1898,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1910,43 +1940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,6 +1969,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1981,16 +2020,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2018,55 +2057,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2075,133 +2075,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2577,11 +2577,11 @@
   <dimension ref="A1:AH180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomRight" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
@@ -4100,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="N33" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O33" s="4">
         <v>1</v>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="N38" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O38" s="4">
         <v>1</v>
@@ -5691,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="M108" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R108" s="3">
         <v>1</v>

--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -1,28 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20633466-DAE8-4429-80B8-37AB21E95D93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Z$1:$Z$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Z$1:$Z$181</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="377">
   <si>
     <t>技能ID</t>
   </si>
@@ -1538,18 +1544,50 @@
   <si>
     <t>集束闪电</t>
   </si>
+  <si>
+    <r>
+      <t>勇气手环-治疗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4点</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_heal_01</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5,1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1585,143 +1623,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1732,8 +1633,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1754,13 +1669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799920651875362"/>
+        <fgColor theme="5" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799920651875362"/>
+        <fgColor theme="3" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1770,188 +1685,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1959,257 +1694,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2234,16 +1730,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2255,62 +1751,20 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2568,23 +2022,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AH180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C90" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E105" sqref="E105"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="21.5" style="4" customWidth="1"/>
@@ -2612,7 +2065,7 @@
     <col min="35" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:34">
+    <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2716,7 +2169,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -2820,7 +2273,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2864,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2920,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2982,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:26">
+    <row r="6" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3044,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="28.5" spans="1:23">
+    <row r="7" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3100,7 +2553,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="28.5" spans="1:23">
+    <row r="8" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3156,7 +2609,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="28.5" spans="1:23">
+    <row r="9" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3209,7 +2662,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="28.5" spans="1:23">
+    <row r="10" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3262,7 +2715,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="28.5" spans="1:23">
+    <row r="11" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3315,7 +2768,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" ht="28.5" spans="1:20">
+    <row r="12" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -3365,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="28.5" spans="1:20">
+    <row r="13" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -3415,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="28.5" spans="1:20">
+    <row r="14" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -3465,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="28.5" spans="1:20">
+    <row r="15" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -3515,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="28.5" spans="1:20">
+    <row r="16" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -3565,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="1:20">
+    <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -3615,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="28.5" spans="1:23">
+    <row r="18" spans="1:28" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3671,7 +3124,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>20</v>
       </c>
@@ -3685,7 +3138,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" ht="42.75" spans="1:28">
+    <row r="20" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>21</v>
       </c>
@@ -3729,7 +3182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>22</v>
       </c>
@@ -3761,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>23</v>
       </c>
@@ -3781,7 +3234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>24</v>
       </c>
@@ -3810,7 +3263,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" ht="28.5" spans="1:28">
+    <row r="24" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -3851,15 +3304,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>77</v>
+      <c r="F25" s="21" t="s">
+        <v>375</v>
       </c>
       <c r="J25" s="4">
         <v>1</v>
@@ -3883,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -3909,7 +3362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -3941,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>29</v>
       </c>
@@ -3970,7 +3423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>30</v>
       </c>
@@ -3993,7 +3446,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>31</v>
       </c>
@@ -4003,6 +3456,9 @@
       <c r="C30" s="5" t="s">
         <v>126</v>
       </c>
+      <c r="F30" s="21" t="s">
+        <v>375</v>
+      </c>
       <c r="J30" s="4">
         <v>1</v>
       </c>
@@ -4016,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -4039,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="28.5" spans="1:28">
+    <row r="32" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -4080,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -4109,13 +3565,16 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>131</v>
       </c>
+      <c r="G34" s="21" t="s">
+        <v>375</v>
+      </c>
       <c r="J34" s="4">
         <v>1</v>
       </c>
@@ -4132,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -4161,7 +3620,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -4190,7 +3649,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>38</v>
       </c>
@@ -4213,7 +3672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>39</v>
       </c>
@@ -4242,46 +3701,58 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="J39" s="4">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4">
+        <v>3</v>
+      </c>
+      <c r="L39" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="R39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>50</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J39" s="4">
-        <v>1</v>
-      </c>
-      <c r="K39" s="4">
-        <v>1</v>
-      </c>
-      <c r="R39" s="4">
-        <v>1</v>
-      </c>
-      <c r="T39" s="4">
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <v>1</v>
+      </c>
+      <c r="R40" s="4">
+        <v>1</v>
+      </c>
+      <c r="T40" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="8" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" ht="28.5" spans="2:11">
-      <c r="B41" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="J41" s="4">
         <v>0</v>
@@ -4290,12 +3761,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B42" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J42" s="4">
         <v>0</v>
@@ -4304,12 +3775,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J43" s="4">
         <v>0</v>
@@ -4318,18 +3789,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" ht="28.5" spans="1:11">
-      <c r="A44" s="4">
-        <v>1001</v>
-      </c>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="J44" s="4">
         <v>0</v>
@@ -4338,37 +3803,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" ht="28.5" spans="2:11">
+    <row r="45" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>1001</v>
+      </c>
       <c r="B45" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="4">
+        <v>0</v>
       </c>
       <c r="K45" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="J46" s="4">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="K46" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J47" s="4">
         <v>0</v>
@@ -4377,12 +3848,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
@@ -4391,21 +3862,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="4">
-        <v>1002</v>
-      </c>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H49" s="4">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="J49" s="4">
         <v>0</v>
@@ -4413,16 +3875,22 @@
       <c r="K49" s="4">
         <v>9</v>
       </c>
-      <c r="N49" s="4">
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="4">
         <v>10</v>
-      </c>
-    </row>
-    <row r="50" ht="28.5" spans="2:11">
-      <c r="B50" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="J50" s="4">
         <v>0</v>
@@ -4430,22 +3898,16 @@
       <c r="K50" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" ht="28.5" spans="1:14">
-      <c r="A51" s="4">
-        <v>1004</v>
-      </c>
+      <c r="N50" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B51" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H51" s="4">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="J51" s="4">
         <v>0</v>
@@ -4453,92 +3915,89 @@
       <c r="K51" s="4">
         <v>9</v>
       </c>
-      <c r="N51" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
+    </row>
+    <row r="52" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>1004</v>
+      </c>
       <c r="B52" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" s="4">
+        <v>10</v>
       </c>
       <c r="J52" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" ht="28.5" spans="1:14">
-      <c r="A53" s="4">
+      <c r="N52" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B53" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>1011</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J53" s="4">
-        <v>0</v>
-      </c>
-      <c r="K53" s="4">
-        <v>0</v>
-      </c>
-      <c r="N53" s="4">
+      <c r="J54" s="4">
+        <v>0</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="N54" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="J54" s="4">
-        <v>0</v>
-      </c>
-      <c r="K54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" ht="42.75" spans="1:20">
-      <c r="A55" s="4">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
         <v>1012</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J55" s="4">
-        <v>0</v>
-      </c>
-      <c r="K55" s="4">
-        <v>0</v>
-      </c>
-      <c r="N55" s="4">
-        <v>10</v>
-      </c>
-      <c r="T55" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" ht="28.5" spans="1:14">
-      <c r="A56" s="4">
-        <v>1013</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>74</v>
@@ -4550,18 +4009,21 @@
         <v>0</v>
       </c>
       <c r="N56" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" ht="28.5" spans="1:11">
+        <v>10</v>
+      </c>
+      <c r="T56" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>74</v>
@@ -4572,289 +4034,289 @@
       <c r="K57" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" ht="28.5" spans="2:11">
+      <c r="N57" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>1014</v>
+      </c>
       <c r="B58" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B59" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="J58" s="4">
-        <v>0</v>
-      </c>
-      <c r="K58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="11" t="s">
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B60" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="J59" s="4">
-        <v>0</v>
-      </c>
-      <c r="K59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="10"/>
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B61" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="J60" s="4">
-        <v>0</v>
-      </c>
-      <c r="K60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" ht="28.5" spans="2:11">
-      <c r="B61" s="10" t="s">
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B62" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J61" s="4">
-        <v>0</v>
-      </c>
-      <c r="K61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="42.75" spans="1:11">
-      <c r="A62" s="4">
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
         <v>1018</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B63" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H62" s="4">
-        <v>1</v>
-      </c>
-      <c r="J62" s="4">
-        <v>1</v>
-      </c>
-      <c r="K62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="28.5" spans="1:11">
-      <c r="A63" s="4">
+      <c r="H63" s="4">
+        <v>1</v>
+      </c>
+      <c r="J63" s="4">
+        <v>1</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
         <v>1020</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B64" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H64" s="4">
         <v>0.5</v>
       </c>
-      <c r="J63" s="4">
-        <v>1</v>
-      </c>
-      <c r="K63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64" s="11" t="s">
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="J64" s="4">
-        <v>1</v>
-      </c>
-      <c r="K64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="B65" s="11" t="s">
+      <c r="J65" s="4">
+        <v>1</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B66" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J65" s="4">
-        <v>1</v>
-      </c>
-      <c r="K65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66" s="10" t="s">
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B67" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F67" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="J66" s="4">
-        <v>1</v>
-      </c>
-      <c r="K66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" ht="28.5" spans="1:17">
-      <c r="A67" s="4">
+      <c r="J67" s="4">
+        <v>1</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
         <v>1021</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B68" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D68" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E68" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H67" s="4">
-        <v>1</v>
-      </c>
-      <c r="J67" s="4">
-        <v>1</v>
-      </c>
-      <c r="K67" s="4">
-        <v>0</v>
-      </c>
-      <c r="M67" s="4">
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+      <c r="J68" s="4">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
+      <c r="M68" s="4">
         <v>10</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N68" s="4">
         <v>10</v>
       </c>
-      <c r="Q67" s="4" t="s">
+      <c r="Q68" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="10" t="s">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B69" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="J68" s="4">
-        <v>1</v>
-      </c>
-      <c r="K68" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18">
-      <c r="A69" s="4">
+      <c r="J69" s="4">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
         <v>1010</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B70" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D70" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H70" s="4">
         <v>2</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I70" s="4">
         <v>5</v>
       </c>
-      <c r="J69" s="4">
-        <v>1</v>
-      </c>
-      <c r="K69" s="4">
-        <v>0</v>
-      </c>
-      <c r="M69" s="4">
+      <c r="J70" s="4">
+        <v>1</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0</v>
+      </c>
+      <c r="M70" s="4">
         <v>10</v>
       </c>
-      <c r="N69" s="4">
+      <c r="N70" s="4">
         <v>-10</v>
       </c>
-      <c r="Q69" s="4" t="s">
+      <c r="Q70" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="R69" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" ht="28.5" spans="1:14">
-      <c r="A71" s="4">
+      <c r="R70" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
         <v>1114</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B72" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="J71" s="4">
-        <v>0</v>
-      </c>
-      <c r="K71" s="4">
-        <v>1</v>
-      </c>
-      <c r="N71" s="4">
+      <c r="J72" s="4">
+        <v>0</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1</v>
+      </c>
+      <c r="N72" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="2:11">
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="J72" s="4">
-        <v>0</v>
-      </c>
-      <c r="K72" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" ht="28.5" spans="1:14">
-      <c r="A73" s="4">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
         <v>1110</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B74" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>195</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J73" s="4">
-        <v>0</v>
-      </c>
-      <c r="K73" s="4">
-        <v>1</v>
-      </c>
-      <c r="N73" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" ht="28.5" spans="1:14">
-      <c r="A74" s="4">
-        <v>1111</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>81</v>
@@ -4866,28 +4328,22 @@
         <v>1</v>
       </c>
       <c r="N74" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" ht="42.75" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G75" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H75" s="4">
-        <v>0.5</v>
-      </c>
       <c r="J75" s="4">
         <v>0</v>
       </c>
@@ -4895,32 +4351,48 @@
         <v>1</v>
       </c>
       <c r="N75" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" ht="28.5" spans="1:11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="G76" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H76" s="4">
+        <v>0.5</v>
+      </c>
       <c r="J76" s="4">
         <v>0</v>
       </c>
       <c r="K76" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:11">
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
+      <c r="N76" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>1113</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>202</v>
+      </c>
       <c r="D77" s="4" t="s">
         <v>81</v>
       </c>
@@ -4931,16 +4403,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="28.5" spans="1:11">
-      <c r="A78" s="4">
-        <v>1115</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>204</v>
-      </c>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
       <c r="D78" s="4" t="s">
         <v>81</v>
       </c>
@@ -4951,15 +4416,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="28.5" spans="1:20">
+    <row r="79" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>81</v>
@@ -4970,28 +4435,38 @@
       <c r="K79" s="4">
         <v>1</v>
       </c>
-      <c r="N79" s="4">
+    </row>
+    <row r="80" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>1116</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J80" s="4">
+        <v>0</v>
+      </c>
+      <c r="K80" s="4">
+        <v>1</v>
+      </c>
+      <c r="N80" s="4">
         <v>-1</v>
       </c>
-      <c r="R79" s="4">
-        <v>1</v>
-      </c>
-      <c r="T79" s="4">
+      <c r="R80" s="4">
+        <v>1</v>
+      </c>
+      <c r="T80" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
-      <c r="B80" s="10"/>
-      <c r="J80" s="4">
-        <v>0</v>
-      </c>
-      <c r="K80" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:11">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B81" s="10"/>
-      <c r="C81" s="4"/>
       <c r="J81" s="4">
         <v>0</v>
       </c>
@@ -4999,149 +4474,149 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" ht="42.75" spans="1:17">
-      <c r="A82" s="4">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B82" s="10"/>
+      <c r="C82" s="4"/>
+      <c r="J82" s="4">
+        <v>0</v>
+      </c>
+      <c r="K82" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
         <v>1117</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B83" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="D82" s="4" t="s">
+      <c r="D83" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E83" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G83" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H83" s="4">
         <v>0.5</v>
       </c>
-      <c r="I82" s="4">
+      <c r="I83" s="4">
         <v>10</v>
       </c>
-      <c r="J82" s="4">
-        <v>1</v>
-      </c>
-      <c r="K82" s="4">
-        <v>1</v>
-      </c>
-      <c r="M82" s="4">
+      <c r="J83" s="4">
+        <v>1</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1</v>
+      </c>
+      <c r="M83" s="4">
         <v>50</v>
       </c>
-      <c r="N82" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="4" t="s">
+      <c r="N83" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="2:11">
-      <c r="B83" s="10" t="s">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B84" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="J83" s="4">
-        <v>0</v>
-      </c>
-      <c r="K83" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" ht="28.5" spans="2:11">
-      <c r="B84" s="10" t="s">
+      <c r="J84" s="4">
+        <v>0</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B85" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="J84" s="4">
-        <v>0</v>
-      </c>
-      <c r="K84" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" ht="28.5" spans="2:11">
-      <c r="B85" s="10" t="s">
+      <c r="J85" s="4">
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B86" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="J85" s="4">
-        <v>0</v>
-      </c>
-      <c r="K85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" ht="28.5" spans="2:11">
-      <c r="B86" s="12" t="s">
+      <c r="J86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B87" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="J86" s="4">
-        <v>0</v>
-      </c>
-      <c r="K86" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" ht="28.5" spans="2:11">
-      <c r="B87" s="12" t="s">
+      <c r="J87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B88" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="J87" s="4">
-        <v>0</v>
-      </c>
-      <c r="K87" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="4">
+      <c r="J88" s="4">
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
         <v>1201</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B89" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G89" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H88" s="4">
-        <v>1</v>
-      </c>
-      <c r="J88" s="4">
-        <v>1</v>
-      </c>
-      <c r="K88" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11">
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
+      <c r="H89" s="4">
+        <v>1</v>
+      </c>
       <c r="J89" s="4">
         <v>1</v>
       </c>
@@ -5149,91 +4624,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:11">
-      <c r="B90" s="12" t="s">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="J90" s="4">
+        <v>1</v>
+      </c>
+      <c r="K90" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B91" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="J90" s="4">
-        <v>1</v>
-      </c>
-      <c r="K90" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" ht="28.5" spans="2:11">
-      <c r="B91" s="12" t="s">
+      <c r="J91" s="4">
+        <v>1</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B92" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="J91" s="4">
-        <v>0</v>
-      </c>
-      <c r="K91" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" ht="28.5" spans="2:11">
-      <c r="B92" s="12" t="s">
+      <c r="J92" s="4">
+        <v>0</v>
+      </c>
+      <c r="K92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B93" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C93" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="J92" s="4">
-        <v>0</v>
-      </c>
-      <c r="K92" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3">
-      <c r="B93" s="12" t="s">
+      <c r="J93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B94" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="94" s="2" customFormat="1" spans="1:26">
-      <c r="A94" s="2">
+    <row r="95" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
         <v>102</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B95" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C95" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J94" s="2">
-        <v>1</v>
-      </c>
-      <c r="M94" s="2">
-        <v>2</v>
-      </c>
-      <c r="R94" s="2">
-        <v>1</v>
-      </c>
-      <c r="T94" s="2">
-        <v>9</v>
-      </c>
-      <c r="Z94" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" s="2" customFormat="1" spans="1:26">
-      <c r="A95" s="2">
-        <v>103</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>81</v>
@@ -5241,9 +4697,6 @@
       <c r="J95" s="2">
         <v>1</v>
       </c>
-      <c r="K95" s="2">
-        <v>3</v>
-      </c>
       <c r="M95" s="2">
         <v>2</v>
       </c>
@@ -5251,126 +4704,129 @@
         <v>1</v>
       </c>
       <c r="T95" s="2">
+        <v>9</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>103</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2">
+        <v>3</v>
+      </c>
+      <c r="M96" s="2">
+        <v>2</v>
+      </c>
+      <c r="R96" s="2">
+        <v>1</v>
+      </c>
+      <c r="T96" s="2">
         <v>1003</v>
       </c>
-      <c r="U95" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z95" s="2">
+      <c r="U96" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z96" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="96" ht="28.5" spans="1:26">
-      <c r="A96" s="4">
+    <row r="97" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
         <v>104</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B97" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C97" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D97" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J96" s="4">
-        <v>1</v>
-      </c>
-      <c r="K96" s="4">
+      <c r="J97" s="4">
+        <v>1</v>
+      </c>
+      <c r="K97" s="4">
         <v>3</v>
       </c>
-      <c r="M96" s="4">
+      <c r="M97" s="4">
         <v>6</v>
       </c>
-      <c r="R96" s="4">
-        <v>1</v>
-      </c>
-      <c r="T96" s="4">
+      <c r="R97" s="4">
+        <v>1</v>
+      </c>
+      <c r="T97" s="4">
         <v>1005</v>
       </c>
-      <c r="Z96" s="4">
+      <c r="Z97" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="97" ht="28.5" spans="1:30">
-      <c r="A97" s="4">
+    <row r="98" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
         <v>105</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B98" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C98" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D98" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J97" s="4">
-        <v>1</v>
-      </c>
-      <c r="K97" s="4">
-        <v>0</v>
-      </c>
-      <c r="M97" s="4">
+      <c r="J98" s="4">
+        <v>1</v>
+      </c>
+      <c r="K98" s="4">
+        <v>0</v>
+      </c>
+      <c r="M98" s="4">
         <v>3</v>
       </c>
-      <c r="N97" s="4">
+      <c r="N98" s="4">
         <v>2</v>
       </c>
-      <c r="O97" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q97" s="4" t="s">
+      <c r="O98" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Z97" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC97" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD97" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26">
-      <c r="A98" s="4">
+      <c r="Z98" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
         <v>106</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B99" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C99" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="J98" s="4">
-        <v>1</v>
-      </c>
-      <c r="K98" s="4">
-        <v>3</v>
-      </c>
-      <c r="M98" s="4">
-        <v>6</v>
-      </c>
-      <c r="R98" s="4">
-        <v>1</v>
-      </c>
-      <c r="T98" s="4">
-        <v>1004</v>
-      </c>
-      <c r="Z98" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26">
-      <c r="A99" s="4">
-        <v>107</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="J99" s="4">
         <v>1</v>
@@ -5379,155 +4835,152 @@
         <v>3</v>
       </c>
       <c r="M99" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R99" s="4">
         <v>1</v>
       </c>
-      <c r="W99">
-        <v>8</v>
+      <c r="T99" s="4">
+        <v>1004</v>
       </c>
       <c r="Z99" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
+        <v>107</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J100" s="4">
+        <v>1</v>
+      </c>
+      <c r="K100" s="4">
+        <v>3</v>
+      </c>
+      <c r="M100" s="4">
+        <v>0</v>
+      </c>
+      <c r="R100" s="4">
+        <v>1</v>
+      </c>
+      <c r="W100">
+        <v>8</v>
+      </c>
+      <c r="Z100" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
         <v>108</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B101" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C101" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="J100" s="4">
-        <v>1</v>
-      </c>
-      <c r="K100" s="4">
+      <c r="J101" s="4">
+        <v>1</v>
+      </c>
+      <c r="K101" s="4">
         <v>2</v>
-      </c>
-      <c r="M100" s="4">
-        <v>3</v>
-      </c>
-      <c r="R100" s="4">
-        <v>1</v>
-      </c>
-      <c r="T100" s="4">
-        <v>1007</v>
-      </c>
-      <c r="U100">
-        <v>1</v>
-      </c>
-      <c r="Z100" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" ht="28.5" spans="1:26">
-      <c r="A101" s="4">
-        <v>109</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J101" s="4">
-        <v>1</v>
-      </c>
-      <c r="K101" s="4">
-        <v>0</v>
       </c>
       <c r="M101" s="4">
         <v>3</v>
       </c>
-      <c r="N101" s="4">
-        <v>5</v>
-      </c>
-      <c r="O101" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="4" t="s">
-        <v>85</v>
+      <c r="R101" s="4">
+        <v>1</v>
+      </c>
+      <c r="T101" s="4">
+        <v>1007</v>
+      </c>
+      <c r="U101">
+        <v>1</v>
       </c>
       <c r="Z101" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" ht="28.5" spans="1:26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J102" s="4">
         <v>1</v>
       </c>
       <c r="K102" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102" s="4">
         <v>3</v>
       </c>
-      <c r="R102" s="4">
-        <v>1</v>
-      </c>
-      <c r="U102">
-        <v>1</v>
-      </c>
-      <c r="W102">
+      <c r="N102" s="4">
+        <v>5</v>
+      </c>
+      <c r="O102" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>110</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J103" s="4">
+        <v>1</v>
+      </c>
+      <c r="K103" s="4">
+        <v>1</v>
+      </c>
+      <c r="M103" s="4">
+        <v>3</v>
+      </c>
+      <c r="R103" s="4">
+        <v>1</v>
+      </c>
+      <c r="U103">
+        <v>1</v>
+      </c>
+      <c r="W103">
         <v>8</v>
-      </c>
-      <c r="Z102" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:26">
-      <c r="A103" s="4">
-        <v>111</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="J103" s="4">
-        <v>1</v>
-      </c>
-      <c r="K103" s="4">
-        <v>2</v>
-      </c>
-      <c r="M103" s="4">
-        <v>5</v>
-      </c>
-      <c r="R103" s="4">
-        <v>1</v>
-      </c>
-      <c r="T103" s="4">
-        <v>1010</v>
-      </c>
-      <c r="U103">
-        <v>1</v>
       </c>
       <c r="Z103" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J104" s="4">
         <v>1</v>
@@ -5536,30 +4989,30 @@
         <v>2</v>
       </c>
       <c r="M104" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R104" s="4">
         <v>1</v>
       </c>
       <c r="T104" s="4">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="U104">
         <v>1</v>
       </c>
       <c r="Z104" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J105" s="4">
         <v>1</v>
@@ -5568,153 +5021,153 @@
         <v>2</v>
       </c>
       <c r="M105" s="4">
+        <v>3</v>
+      </c>
+      <c r="R105" s="4">
+        <v>1</v>
+      </c>
+      <c r="T105" s="4">
+        <v>1013</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="Z105" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>113</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="J106" s="4">
+        <v>1</v>
+      </c>
+      <c r="K106" s="4">
+        <v>2</v>
+      </c>
+      <c r="M106" s="4">
         <v>4</v>
       </c>
-      <c r="R105" s="4">
-        <v>1</v>
-      </c>
-      <c r="T105" s="4">
+      <c r="R106" s="4">
+        <v>1</v>
+      </c>
+      <c r="T106" s="4">
         <v>1014</v>
       </c>
-      <c r="U105">
-        <v>1</v>
-      </c>
-      <c r="Z105" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26">
-      <c r="A106" s="4">
+      <c r="U106">
+        <v>1</v>
+      </c>
+      <c r="Z106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
         <v>114</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B107" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C107" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F107" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="G107" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H106" s="4">
+      <c r="H107" s="4">
         <v>0.8</v>
       </c>
-      <c r="J106" s="4">
-        <v>1</v>
-      </c>
-      <c r="K106" s="4">
-        <v>0</v>
-      </c>
-      <c r="L106" s="4">
-        <v>0</v>
-      </c>
-      <c r="M106" s="4">
+      <c r="J107" s="4">
+        <v>1</v>
+      </c>
+      <c r="K107" s="4">
+        <v>0</v>
+      </c>
+      <c r="L107" s="4">
+        <v>0</v>
+      </c>
+      <c r="M107" s="4">
         <v>3</v>
       </c>
-      <c r="N106" s="4">
+      <c r="N107" s="4">
         <v>4</v>
       </c>
-      <c r="O106" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="4" t="s">
+      <c r="O107" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R106" s="4">
-        <v>0</v>
-      </c>
-      <c r="S106" s="4">
-        <v>0</v>
-      </c>
-      <c r="T106" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z106" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:26">
-      <c r="A107" s="4">
+      <c r="R107" s="4">
+        <v>0</v>
+      </c>
+      <c r="S107" s="4">
+        <v>0</v>
+      </c>
+      <c r="T107" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
         <v>115</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B108" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C108" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="J107" s="4">
-        <v>1</v>
-      </c>
-      <c r="K107" s="4">
+      <c r="J108" s="4">
+        <v>1</v>
+      </c>
+      <c r="K108" s="4">
         <v>2</v>
       </c>
-      <c r="M107" s="4">
+      <c r="M108" s="4">
         <v>4</v>
       </c>
-      <c r="R107" s="4">
-        <v>1</v>
-      </c>
-      <c r="T107" s="4">
+      <c r="R108" s="4">
+        <v>1</v>
+      </c>
+      <c r="T108" s="4">
         <v>2008</v>
       </c>
-      <c r="U107">
-        <v>1</v>
-      </c>
-      <c r="Z107" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" s="3" customFormat="1" spans="1:26">
-      <c r="A108" s="3">
+      <c r="U108">
+        <v>1</v>
+      </c>
+      <c r="Z108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
         <v>116</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B109" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C109" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J108" s="3">
-        <v>1</v>
-      </c>
-      <c r="M108" s="3">
-        <v>3</v>
-      </c>
-      <c r="R108" s="3">
-        <v>1</v>
-      </c>
-      <c r="T108" s="3">
-        <v>12</v>
-      </c>
-      <c r="V108" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z108" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" s="3" customFormat="1" spans="1:26">
-      <c r="A109" s="3">
-        <v>117</v>
-      </c>
-      <c r="B109" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>259</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>81</v>
@@ -5722,72 +5175,72 @@
       <c r="J109" s="3">
         <v>1</v>
       </c>
-      <c r="K109" s="3">
-        <v>0</v>
-      </c>
       <c r="M109" s="3">
+        <v>3</v>
+      </c>
+      <c r="R109" s="3">
+        <v>1</v>
+      </c>
+      <c r="T109" s="3">
+        <v>12</v>
+      </c>
+      <c r="V109" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>117</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="C110" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J110" s="3">
+        <v>1</v>
+      </c>
+      <c r="K110" s="3">
+        <v>0</v>
+      </c>
+      <c r="M110" s="3">
         <v>5</v>
       </c>
-      <c r="N109" s="3">
+      <c r="N110" s="3">
         <v>14</v>
       </c>
-      <c r="O109" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q109" s="4" t="s">
+      <c r="O110" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="R109" s="3">
-        <v>0</v>
-      </c>
-      <c r="T109" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z109" s="3">
+      <c r="R110" s="3">
+        <v>0</v>
+      </c>
+      <c r="T110" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:26">
-      <c r="A110" s="3">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
         <v>118</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B111" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C111" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="J110" s="4">
-        <v>1</v>
-      </c>
-      <c r="K110" s="4">
-        <v>2</v>
-      </c>
-      <c r="M110" s="4">
-        <v>4</v>
-      </c>
-      <c r="R110" s="4">
-        <v>1</v>
-      </c>
-      <c r="T110">
-        <v>1015</v>
-      </c>
-      <c r="U110">
-        <v>1</v>
-      </c>
-      <c r="Z110" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26">
-      <c r="A111" s="3">
-        <v>119</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="J111" s="4">
         <v>1</v>
@@ -5802,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="T111">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="U111">
         <v>1</v>
@@ -5811,307 +5264,292 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
+        <v>119</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="J112" s="4">
+        <v>1</v>
+      </c>
+      <c r="K112" s="4">
+        <v>2</v>
+      </c>
+      <c r="M112" s="4">
+        <v>4</v>
+      </c>
+      <c r="R112" s="4">
+        <v>1</v>
+      </c>
+      <c r="T112">
+        <v>1016</v>
+      </c>
+      <c r="U112">
+        <v>1</v>
+      </c>
+      <c r="Z112" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
         <v>120</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B113" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C113" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D113" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E113" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F113" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="G113" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H112" s="4">
+      <c r="H113" s="4">
         <v>0.8</v>
       </c>
-      <c r="J112" s="4">
-        <v>1</v>
-      </c>
-      <c r="K112" s="4">
-        <v>0</v>
-      </c>
-      <c r="L112" s="4">
-        <v>0</v>
-      </c>
-      <c r="M112" s="4">
+      <c r="J113" s="4">
+        <v>1</v>
+      </c>
+      <c r="K113" s="4">
+        <v>0</v>
+      </c>
+      <c r="L113" s="4">
+        <v>0</v>
+      </c>
+      <c r="M113" s="4">
         <v>5</v>
       </c>
-      <c r="N112" s="4">
+      <c r="N113" s="4">
         <v>10</v>
       </c>
-      <c r="O112" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q112" s="4" t="s">
+      <c r="O113" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="R112" s="4">
-        <v>0</v>
-      </c>
-      <c r="S112" s="4">
-        <v>0</v>
-      </c>
-      <c r="T112" s="4">
-        <v>0</v>
-      </c>
-      <c r="U112">
-        <v>1</v>
-      </c>
-      <c r="Z112" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:26">
-      <c r="A113" s="3">
+      <c r="R113" s="4">
+        <v>0</v>
+      </c>
+      <c r="S113" s="4">
+        <v>0</v>
+      </c>
+      <c r="T113" s="4">
+        <v>0</v>
+      </c>
+      <c r="U113">
+        <v>1</v>
+      </c>
+      <c r="Z113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
         <v>121</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B114" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C114" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="J113" s="4">
-        <v>1</v>
-      </c>
-      <c r="K113" s="4">
+      <c r="J114" s="4">
+        <v>1</v>
+      </c>
+      <c r="K114" s="4">
         <v>2</v>
       </c>
-      <c r="M113" s="4">
+      <c r="M114" s="4">
         <v>3</v>
       </c>
-      <c r="R113" s="4">
-        <v>1</v>
-      </c>
-      <c r="T113">
+      <c r="R114" s="4">
+        <v>1</v>
+      </c>
+      <c r="T114">
         <v>1017</v>
       </c>
-      <c r="U113">
-        <v>1</v>
-      </c>
-      <c r="Z113" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:26">
-      <c r="A114" s="3">
+      <c r="U114">
+        <v>1</v>
+      </c>
+      <c r="Z114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
         <v>122</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B115" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C115" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="H114" s="4">
+      <c r="H115" s="4">
         <v>0.8</v>
       </c>
-      <c r="J114" s="4">
-        <v>1</v>
-      </c>
-      <c r="K114" s="4">
+      <c r="J115" s="4">
+        <v>1</v>
+      </c>
+      <c r="K115" s="4">
         <v>3</v>
       </c>
-      <c r="L114" s="4">
-        <v>0</v>
-      </c>
-      <c r="M114" s="4">
-        <v>0</v>
-      </c>
-      <c r="N114" s="4">
-        <v>0</v>
-      </c>
-      <c r="O114" s="4">
-        <v>1</v>
-      </c>
-      <c r="R114" s="4">
-        <v>0</v>
-      </c>
-      <c r="S114" s="4">
-        <v>1</v>
-      </c>
-      <c r="T114" s="4">
-        <v>0</v>
-      </c>
-      <c r="W114">
+      <c r="L115" s="4">
+        <v>0</v>
+      </c>
+      <c r="M115" s="4">
+        <v>0</v>
+      </c>
+      <c r="N115" s="4">
+        <v>0</v>
+      </c>
+      <c r="O115" s="4">
+        <v>1</v>
+      </c>
+      <c r="R115" s="4">
+        <v>0</v>
+      </c>
+      <c r="S115" s="4">
+        <v>1</v>
+      </c>
+      <c r="T115" s="4">
+        <v>0</v>
+      </c>
+      <c r="W115">
         <v>2</v>
       </c>
-      <c r="Z114" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26">
-      <c r="A115" s="3">
+      <c r="Z115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
         <v>123</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B116" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C116" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D116" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E116" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F116" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="G116" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H115" s="4">
-        <v>1</v>
-      </c>
-      <c r="J115" s="4">
-        <v>1</v>
-      </c>
-      <c r="K115" s="4">
-        <v>1</v>
-      </c>
-      <c r="L115" s="4">
-        <v>0</v>
-      </c>
-      <c r="M115" s="4">
+      <c r="H116" s="4">
+        <v>1</v>
+      </c>
+      <c r="J116" s="4">
+        <v>1</v>
+      </c>
+      <c r="K116" s="4">
+        <v>1</v>
+      </c>
+      <c r="L116" s="4">
+        <v>0</v>
+      </c>
+      <c r="M116" s="4">
         <v>4</v>
       </c>
-      <c r="N115" s="4">
+      <c r="N116" s="4">
         <v>5</v>
       </c>
-      <c r="O115" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q115" s="4" t="s">
+      <c r="O116" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="R115" s="4">
-        <v>0</v>
-      </c>
-      <c r="S115" s="4">
-        <v>0</v>
-      </c>
-      <c r="T115" s="4">
-        <v>0</v>
-      </c>
-      <c r="V115">
+      <c r="R116" s="4">
+        <v>0</v>
+      </c>
+      <c r="S116" s="4">
+        <v>0</v>
+      </c>
+      <c r="T116" s="4">
+        <v>0</v>
+      </c>
+      <c r="V116">
         <v>2</v>
       </c>
-      <c r="Z115" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" ht="28.5" spans="1:26">
-      <c r="A116" s="3">
+      <c r="Z116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
         <v>124</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B117" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C117" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D117" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E117" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F117" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="G117" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H116" s="4">
+      <c r="H117" s="4">
         <v>3</v>
       </c>
-      <c r="I116" s="4">
+      <c r="I117" s="4">
         <v>4</v>
       </c>
-      <c r="J116" s="4">
-        <v>1</v>
-      </c>
-      <c r="K116" s="4">
-        <v>1</v>
-      </c>
-      <c r="L116" s="4">
-        <v>0</v>
-      </c>
-      <c r="M116" s="4">
+      <c r="J117" s="4">
+        <v>1</v>
+      </c>
+      <c r="K117" s="4">
+        <v>1</v>
+      </c>
+      <c r="L117" s="4">
+        <v>0</v>
+      </c>
+      <c r="M117" s="4">
         <v>3</v>
       </c>
-      <c r="N116" s="4">
+      <c r="N117" s="4">
         <v>8</v>
       </c>
-      <c r="O116" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q116" s="4" t="s">
+      <c r="O117" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="R116" s="4">
-        <v>0</v>
-      </c>
-      <c r="T116" s="4">
-        <v>0</v>
-      </c>
-      <c r="W116">
-        <v>2</v>
-      </c>
-      <c r="Z116" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:26">
-      <c r="A117" s="3">
-        <v>125</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="H117" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J117" s="4">
-        <v>1</v>
-      </c>
-      <c r="K117" s="4">
-        <v>3</v>
-      </c>
-      <c r="L117" s="4">
-        <v>0</v>
-      </c>
-      <c r="M117" s="4">
-        <v>0</v>
-      </c>
-      <c r="N117" s="4">
-        <v>0</v>
-      </c>
-      <c r="O117" s="4">
-        <v>1</v>
-      </c>
       <c r="R117" s="4">
         <v>0</v>
-      </c>
-      <c r="S117" s="4">
-        <v>2</v>
       </c>
       <c r="T117" s="4">
         <v>0</v>
@@ -6123,138 +5561,153 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" ht="28.5" spans="1:26">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
+        <v>125</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J118" s="4">
+        <v>1</v>
+      </c>
+      <c r="K118" s="4">
+        <v>3</v>
+      </c>
+      <c r="L118" s="4">
+        <v>0</v>
+      </c>
+      <c r="M118" s="4">
+        <v>0</v>
+      </c>
+      <c r="N118" s="4">
+        <v>0</v>
+      </c>
+      <c r="O118" s="4">
+        <v>1</v>
+      </c>
+      <c r="R118" s="4">
+        <v>0</v>
+      </c>
+      <c r="S118" s="4">
+        <v>2</v>
+      </c>
+      <c r="T118" s="4">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>2</v>
+      </c>
+      <c r="Z118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
         <v>126</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B119" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C119" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="J118" s="4">
-        <v>1</v>
-      </c>
-      <c r="K118" s="4">
-        <v>0</v>
-      </c>
-      <c r="M118" s="4">
+      <c r="J119" s="4">
+        <v>1</v>
+      </c>
+      <c r="K119" s="4">
+        <v>0</v>
+      </c>
+      <c r="M119" s="4">
         <v>4</v>
       </c>
-      <c r="N118" s="4">
+      <c r="N119" s="4">
         <v>9</v>
       </c>
-      <c r="O118" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q118" s="4" t="s">
+      <c r="O119" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="Z118" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:26">
-      <c r="A119" s="3">
-        <v>127</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H119" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J119" s="4">
-        <v>1</v>
-      </c>
-      <c r="K119" s="4">
-        <v>0</v>
-      </c>
-      <c r="L119" s="4">
-        <v>0</v>
-      </c>
-      <c r="M119" s="4">
-        <v>3</v>
-      </c>
-      <c r="N119" s="4">
-        <v>7</v>
-      </c>
-      <c r="O119" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q119" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R119" s="4">
-        <v>0</v>
-      </c>
-      <c r="S119" s="4">
-        <v>0</v>
-      </c>
-      <c r="T119" s="4">
-        <v>0</v>
       </c>
       <c r="Z119" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>128</v>
-      </c>
-      <c r="B120" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>278</v>
+        <v>127</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0.8</v>
       </c>
       <c r="J120" s="4">
         <v>1</v>
       </c>
       <c r="K120" s="4">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="L120" s="4">
+        <v>0</v>
       </c>
       <c r="M120" s="4">
         <v>3</v>
       </c>
+      <c r="N120" s="4">
+        <v>7</v>
+      </c>
+      <c r="O120" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="R120" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S120" s="4">
+        <v>0</v>
       </c>
       <c r="T120" s="4">
-        <v>1018</v>
-      </c>
-      <c r="U120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z120" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J121" s="4">
         <v>1</v>
@@ -6263,13 +5716,13 @@
         <v>2</v>
       </c>
       <c r="M121" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R121" s="4">
         <v>1</v>
       </c>
       <c r="T121" s="4">
-        <v>2009</v>
+        <v>1018</v>
       </c>
       <c r="U121">
         <v>1</v>
@@ -6278,18 +5731,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" ht="28.5" spans="1:28">
-      <c r="A122" s="4">
-        <v>200</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="H122" s="4">
-        <v>1</v>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>129</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="J122" s="4">
         <v>1</v>
@@ -6297,46 +5747,31 @@
       <c r="K122" s="4">
         <v>2</v>
       </c>
-      <c r="L122" s="4">
-        <v>0</v>
-      </c>
       <c r="M122" s="4">
         <v>5</v>
       </c>
-      <c r="N122" s="4">
-        <v>0</v>
-      </c>
       <c r="R122" s="4">
         <v>1</v>
       </c>
       <c r="T122" s="4">
-        <v>1001</v>
+        <v>2009</v>
       </c>
       <c r="U122">
         <v>1</v>
       </c>
-      <c r="X122" s="4">
-        <v>201</v>
-      </c>
       <c r="Z122" s="4">
-        <v>3</v>
-      </c>
-      <c r="AA122" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB122" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" ht="28.5" spans="1:28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H123" s="4">
         <v>1</v>
@@ -6366,27 +5801,27 @@
         <v>1</v>
       </c>
       <c r="X123" s="4">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z123" s="4">
         <v>3</v>
       </c>
       <c r="AA123" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB123" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="124" ht="28.5" spans="1:28">
+    <row r="124" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H124" s="4">
         <v>1</v>
@@ -6416,27 +5851,27 @@
         <v>1</v>
       </c>
       <c r="X124" s="4">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z124" s="4">
         <v>3</v>
       </c>
       <c r="AA124" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB124" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="125" ht="28.5" spans="1:28">
+    <row r="125" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H125" s="4">
         <v>1</v>
@@ -6466,27 +5901,27 @@
         <v>1</v>
       </c>
       <c r="X125" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z125" s="4">
         <v>3</v>
       </c>
       <c r="AA125" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB125" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="126" ht="28.5" spans="1:28">
+    <row r="126" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H126" s="4">
         <v>1</v>
@@ -6516,27 +5951,27 @@
         <v>1</v>
       </c>
       <c r="X126" s="4">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z126" s="4">
         <v>3</v>
       </c>
       <c r="AA126" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB126" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="127" ht="28.5" spans="1:28">
+    <row r="127" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H127" s="4">
         <v>1</v>
@@ -6566,27 +6001,27 @@
         <v>1</v>
       </c>
       <c r="X127" s="4">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z127" s="4">
         <v>3</v>
       </c>
       <c r="AA127" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB127" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="128" ht="28.5" spans="1:28">
+    <row r="128" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H128" s="4">
         <v>1</v>
@@ -6616,27 +6051,27 @@
         <v>1</v>
       </c>
       <c r="X128" s="4">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z128" s="4">
         <v>3</v>
       </c>
       <c r="AA128" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB128" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="129" ht="28.5" spans="1:28">
+    <row r="129" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H129" s="4">
         <v>1</v>
@@ -6666,27 +6101,27 @@
         <v>1</v>
       </c>
       <c r="X129" s="4">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z129" s="4">
         <v>3</v>
       </c>
       <c r="AA129" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB129" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="130" ht="28.5" spans="1:28">
+    <row r="130" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H130" s="4">
         <v>1</v>
@@ -6716,27 +6151,27 @@
         <v>1</v>
       </c>
       <c r="X130" s="4">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z130" s="4">
         <v>3</v>
       </c>
       <c r="AA130" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB130" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="131" ht="28.5" spans="1:28">
+    <row r="131" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H131" s="4">
         <v>1</v>
@@ -6766,27 +6201,27 @@
         <v>1</v>
       </c>
       <c r="X131" s="4">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z131" s="4">
         <v>3</v>
       </c>
       <c r="AA131" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB131" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="132" ht="28.5" spans="1:28">
+    <row r="132" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H132" s="4">
         <v>1</v>
@@ -6822,305 +6257,305 @@
         <v>3</v>
       </c>
       <c r="AA132" s="4">
+        <v>11</v>
+      </c>
+      <c r="AB132" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>210</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="H133" s="4">
+        <v>1</v>
+      </c>
+      <c r="J133" s="4">
+        <v>1</v>
+      </c>
+      <c r="K133" s="4">
+        <v>2</v>
+      </c>
+      <c r="L133" s="4">
+        <v>0</v>
+      </c>
+      <c r="M133" s="4">
+        <v>5</v>
+      </c>
+      <c r="N133" s="4">
+        <v>0</v>
+      </c>
+      <c r="R133" s="4">
+        <v>1</v>
+      </c>
+      <c r="T133" s="4">
+        <v>1001</v>
+      </c>
+      <c r="U133">
+        <v>1</v>
+      </c>
+      <c r="X133" s="4">
+        <v>210</v>
+      </c>
+      <c r="Z133" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA133" s="4">
         <v>12</v>
       </c>
-      <c r="AB132" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" ht="28.5" spans="1:33">
-      <c r="A133" s="4">
+      <c r="AB133" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
         <v>211</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B134" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C134" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="J133" s="4">
-        <v>1</v>
-      </c>
-      <c r="K133" s="4">
-        <v>1</v>
-      </c>
-      <c r="M133" s="4">
+      <c r="J134" s="4">
+        <v>1</v>
+      </c>
+      <c r="K134" s="4">
+        <v>1</v>
+      </c>
+      <c r="M134" s="4">
         <v>10</v>
       </c>
-      <c r="N133" s="4">
+      <c r="N134" s="4">
         <v>12</v>
       </c>
-      <c r="O133" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q133" s="4" t="s">
+      <c r="O134" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Y133" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z133" s="4">
+      <c r="Y134" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z134" s="4">
         <v>2</v>
       </c>
-      <c r="AG133" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" ht="15.75" spans="2:3">
-      <c r="B134" s="18" t="s">
+      <c r="AG134" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B135" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C135" s="18" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="135" ht="15.75" spans="2:3">
-      <c r="B135" s="18" t="s">
+    <row r="136" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B136" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C136" s="18" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="136" ht="47.25" spans="2:3">
-      <c r="B136" s="18" t="s">
+    <row r="137" spans="1:33" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="B137" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C136" s="18" t="s">
+      <c r="C137" s="18" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="137" ht="31.5" spans="2:3">
-      <c r="B137" s="18" t="s">
+    <row r="138" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B138" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C138" s="18" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="138" ht="15.75" spans="2:3">
-      <c r="B138" s="18" t="s">
+    <row r="139" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B139" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="C138" s="18" t="s">
+      <c r="C139" s="18" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="139" ht="15.75" spans="2:3">
-      <c r="B139" s="18" t="s">
+    <row r="140" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B140" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C140" s="18" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="140" ht="31.5" spans="2:3">
-      <c r="B140" s="18" t="s">
+    <row r="141" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B141" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="C140" s="19" t="s">
+      <c r="C141" s="19" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="141" ht="15.75" spans="2:8">
-      <c r="B141" s="18" t="s">
+    <row r="142" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B142" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C142" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="H141" s="4">
+      <c r="H142" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="142" ht="31.5" spans="2:3">
-      <c r="B142" s="18" t="s">
+    <row r="143" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B143" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="C142" s="20" t="s">
+      <c r="C143" s="20" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="143" ht="31.5" spans="2:3">
-      <c r="B143" s="18" t="s">
+    <row r="144" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B144" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C143" s="19" t="s">
+      <c r="C144" s="19" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="144" ht="15.75" spans="2:2">
-      <c r="B144" s="18" t="s">
+    <row r="145" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B145" s="18" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="145" ht="63" spans="2:3">
-      <c r="B145" s="18" t="s">
+    <row r="146" spans="1:23" ht="63" x14ac:dyDescent="0.2">
+      <c r="B146" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C146" s="18" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="146" ht="15.75" spans="2:8">
-      <c r="B146" s="18" t="s">
+    <row r="147" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B147" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C147" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="H146" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" ht="15.75" spans="3:3">
-      <c r="C147" s="18"/>
-    </row>
-    <row r="148" ht="31.5" spans="2:3">
-      <c r="B148" s="18" t="s">
+      <c r="H147" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="C148" s="18"/>
+    </row>
+    <row r="149" spans="1:23" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B149" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C149" s="18" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="149" ht="15.75" spans="2:3">
-      <c r="B149" s="18" t="s">
+    <row r="150" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B150" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C149" s="18" t="s">
+      <c r="C150" s="18" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="150" ht="15.75" spans="2:3">
-      <c r="B150" s="18"/>
-      <c r="C150" s="18"/>
-    </row>
-    <row r="151" ht="31.5" spans="2:3">
-      <c r="B151" s="18" t="s">
+    <row r="151" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B151" s="18"/>
+      <c r="C151" s="18"/>
+    </row>
+    <row r="152" spans="1:23" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B152" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C152" s="18" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="152" ht="15.75" spans="2:3">
-      <c r="B152" s="18" t="s">
+    <row r="153" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B153" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C153" s="18" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="153" ht="31.5" spans="2:3">
-      <c r="B153" s="18" t="s">
+    <row r="154" spans="1:23" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="B154" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C154" s="18" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="154" spans="2:3">
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
-    </row>
-    <row r="155" spans="1:20">
-      <c r="A155" s="4">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
         <v>1410</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B156" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C156" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H155" s="4">
-        <v>10</v>
-      </c>
-      <c r="J155" s="4">
-        <v>0</v>
-      </c>
-      <c r="K155" s="4">
-        <v>3</v>
-      </c>
-      <c r="N155" s="4">
-        <v>1</v>
-      </c>
-      <c r="R155" s="4">
-        <v>1</v>
-      </c>
-      <c r="T155" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" ht="28.5" spans="1:20">
-      <c r="A156" s="4">
-        <v>1411</v>
-      </c>
-      <c r="B156" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>332</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H156" s="4">
-        <v>1</v>
-      </c>
-      <c r="I156" s="4">
         <v>10</v>
       </c>
       <c r="J156" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" s="4">
         <v>3</v>
       </c>
-      <c r="M156" s="4">
-        <v>10</v>
-      </c>
       <c r="N156" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q156" s="4" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="R156" s="4">
         <v>1</v>
       </c>
       <c r="T156" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" ht="28.5" spans="1:20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E157" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="H157" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" s="4">
         <v>10</v>
@@ -7135,263 +6570,307 @@
         <v>10</v>
       </c>
       <c r="N157" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q157" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="R157" s="4">
+        <v>1</v>
+      </c>
+      <c r="T157" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <v>1412</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H158" s="4">
+        <v>2</v>
+      </c>
+      <c r="I158" s="4">
+        <v>10</v>
+      </c>
+      <c r="J158" s="4">
+        <v>1</v>
+      </c>
+      <c r="K158" s="4">
+        <v>3</v>
+      </c>
+      <c r="M158" s="4">
+        <v>10</v>
+      </c>
+      <c r="N158" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="T157" s="4">
+      <c r="T158" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="158" s="1" customFormat="1" ht="28.5" spans="1:23">
-      <c r="A158" s="1">
+    <row r="159" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
         <v>1500</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C159" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F159" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G158" s="4" t="s">
+      <c r="G159" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H158" s="1">
+      <c r="H159" s="1">
         <v>0.5</v>
       </c>
-      <c r="J158" s="1">
-        <v>1</v>
-      </c>
-      <c r="K158" s="1">
-        <v>1</v>
-      </c>
-      <c r="L158" s="1">
-        <v>0</v>
-      </c>
-      <c r="M158" s="1">
-        <v>0</v>
-      </c>
-      <c r="N158" s="1">
+      <c r="J159" s="1">
+        <v>1</v>
+      </c>
+      <c r="K159" s="1">
+        <v>1</v>
+      </c>
+      <c r="L159" s="1">
+        <v>0</v>
+      </c>
+      <c r="M159" s="1">
+        <v>0</v>
+      </c>
+      <c r="N159" s="1">
         <v>1200</v>
       </c>
-      <c r="O158" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q158" s="1" t="s">
+      <c r="O159" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R158" s="1">
-        <v>1</v>
-      </c>
-      <c r="T158" s="1">
-        <v>0</v>
-      </c>
-      <c r="U158"/>
-      <c r="V158"/>
-      <c r="W158"/>
-    </row>
-    <row r="159" s="4" customFormat="1" spans="1:23">
-      <c r="A159" s="4">
-        <v>1501</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C159" s="5"/>
-      <c r="J159" s="4">
-        <v>1</v>
-      </c>
-      <c r="K159" s="4">
-        <v>1</v>
-      </c>
-      <c r="R159" s="4">
-        <v>1</v>
-      </c>
-      <c r="T159" s="4">
-        <v>13</v>
+      <c r="R159" s="1">
+        <v>1</v>
+      </c>
+      <c r="T159" s="1">
+        <v>0</v>
       </c>
       <c r="U159"/>
       <c r="V159"/>
       <c r="W159"/>
     </row>
-    <row r="160" ht="57" spans="2:3">
-      <c r="B160" s="10" t="s">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>1501</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="J160" s="4">
+        <v>1</v>
+      </c>
+      <c r="K160" s="4">
+        <v>1</v>
+      </c>
+      <c r="R160" s="4">
+        <v>1</v>
+      </c>
+      <c r="T160" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="B161" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C161" s="5" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="161" ht="28.5" spans="2:3">
-      <c r="B161" s="10" t="s">
+    <row r="162" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B162" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C162" s="5" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="162" ht="42.75" spans="2:3">
-      <c r="B162" s="10" t="s">
+    <row r="163" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B163" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C163" s="5" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="163" ht="28.5" spans="2:3">
-      <c r="B163" s="10" t="s">
+    <row r="164" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B164" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C164" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="164" ht="42.75" spans="2:3">
-      <c r="B164" s="10" t="s">
+    <row r="165" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B165" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C165" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="165" ht="28.5" spans="2:9">
-      <c r="B165" s="10" t="s">
+    <row r="166" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B166" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C166" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="H165" s="4">
+      <c r="H166" s="4">
         <v>5</v>
       </c>
-      <c r="I165" s="4">
+      <c r="I166" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="166" ht="28.5" spans="2:8">
-      <c r="B166" s="10" t="s">
+    <row r="167" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B167" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C167" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="H166" s="4">
+      <c r="H167" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="167" ht="42.75" spans="2:3">
-      <c r="B167" s="10" t="s">
+    <row r="168" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B168" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C168" s="5" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="168" ht="28.5" spans="2:3">
-      <c r="B168" s="10" t="s">
+    <row r="169" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B169" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C169" s="5" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="10"/>
-    </row>
-    <row r="171" spans="2:4">
-      <c r="B171" s="10" t="s">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B170" s="10"/>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B172" s="10" t="s">
         <v>358</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="172" ht="28.5" spans="2:4">
-      <c r="B172" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>361</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="173" spans="2:4">
+    <row r="173" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B173" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B174" s="10" t="s">
         <v>362</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="174" spans="2:4">
-      <c r="B174" s="10" t="s">
-        <v>364</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="175" spans="2:4">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B175" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B176" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D176" s="5" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
-      <c r="B176" s="10" t="s">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B177" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D177" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="177" spans="2:4">
-      <c r="B177" s="10" t="s">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B178" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4">
-      <c r="B178" s="10" t="s">
-        <v>371</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B179" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B180" s="10" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="10" t="s">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B181" s="10" t="s">
         <v>373</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="Z1:Z180">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="Z1:Z181" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20633466-DAE8-4429-80B8-37AB21E95D93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +17,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -133,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="376">
   <si>
     <t>技能ID</t>
   </si>
@@ -627,6 +621,9 @@
     <t>补牌治疗效果</t>
   </si>
   <si>
+    <t>Effect_heal_01</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -652,7 +649,7 @@
     <t>凸透镜-5点穿透伤害</t>
   </si>
   <si>
-    <t>触发1点穿刺伤害</t>
+    <t>触发1点伤害</t>
   </si>
   <si>
     <t>1点伤害并击晕3秒</t>
@@ -695,6 +692,9 @@
   </si>
   <si>
     <t>触发4点伤害</t>
+  </si>
+  <si>
+    <t>勇气手环-治疗2点</t>
   </si>
   <si>
     <t>boss格挡</t>
@@ -1544,50 +1544,18 @@
   <si>
     <t>集束闪电</t>
   </si>
-  <si>
-    <r>
-      <t>勇气手环-治疗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4点</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect_heal_01</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.5,1</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1623,6 +1591,143 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1633,22 +1738,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1669,13 +1760,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79989013336588644"/>
+        <fgColor theme="5" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79989013336588644"/>
+        <fgColor theme="3" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1685,8 +1776,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1694,18 +1965,257 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1730,16 +2240,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1751,20 +2261,62 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2022,22 +2574,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AH181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="$A27:$XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="21.5" style="4" customWidth="1"/>
@@ -2065,7 +2618,7 @@
     <col min="35" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="30" customHeight="1" spans="1:34">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2169,7 +2722,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -2273,7 +2826,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2317,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2373,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2435,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" ht="28.5" spans="1:26">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2497,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" s="1" customFormat="1" ht="28.5" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2553,7 +3106,7 @@
       <c r="V7"/>
       <c r="W7"/>
     </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" s="1" customFormat="1" ht="28.5" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2609,7 +3162,7 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" s="1" customFormat="1" ht="28.5" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2662,7 +3215,7 @@
       <c r="V9"/>
       <c r="W9"/>
     </row>
-    <row r="10" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" s="1" customFormat="1" ht="28.5" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2715,7 +3268,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:34" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" s="1" customFormat="1" ht="28.5" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2768,7 +3321,7 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" ht="28.5" spans="1:20">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -2818,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" ht="28.5" spans="1:20">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -2868,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" ht="28.5" spans="1:20">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -2918,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" ht="28.5" spans="1:20">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -2968,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" ht="28.5" spans="1:20">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -3018,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" ht="28.5" spans="1:20">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -3068,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" s="1" customFormat="1" ht="28.5" spans="1:23">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3124,7 +3677,7 @@
       <c r="V18"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="4">
         <v>20</v>
       </c>
@@ -3138,7 +3691,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="20" ht="42.75" spans="1:28">
       <c r="A20" s="4">
         <v>21</v>
       </c>
@@ -3182,7 +3735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26">
       <c r="A21" s="4">
         <v>22</v>
       </c>
@@ -3214,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20">
       <c r="A22" s="4">
         <v>23</v>
       </c>
@@ -3234,7 +3787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="4">
         <v>24</v>
       </c>
@@ -3263,7 +3816,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" ht="28.5" spans="1:28">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -3304,15 +3857,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="4">
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>375</v>
+      <c r="F25" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="J25" s="4">
         <v>1</v>
@@ -3321,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" s="4">
         <v>0</v>
@@ -3330,18 +3883,18 @@
         <v>0</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R25" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25">
       <c r="A26" s="4">
         <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J26" s="4">
         <v>1</v>
@@ -3362,12 +3915,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="4">
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>83</v>
@@ -3388,18 +3941,15 @@
         <v>1</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="4">
         <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>91</v>
@@ -3417,21 +3967,21 @@
         <v>1</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T28" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" s="4">
         <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J29" s="4">
         <v>1</v>
@@ -3446,18 +3996,18 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22">
       <c r="A30" s="4">
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>375</v>
+        <v>127</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="J30" s="4">
         <v>1</v>
@@ -3472,12 +4022,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="A31" s="4">
         <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
@@ -3489,21 +4039,21 @@
         <v>1</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R31" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" ht="28.5" spans="1:28">
       <c r="A32" s="4">
         <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
@@ -3536,12 +4086,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="4">
         <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>83</v>
@@ -3562,18 +4112,18 @@
         <v>1</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="4">
         <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" s="21" t="s">
-        <v>375</v>
+        <v>132</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="J34" s="4">
         <v>1</v>
@@ -3585,18 +4135,18 @@
         <v>2</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R34" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="4">
         <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>96</v>
@@ -3617,15 +4167,15 @@
         <v>1</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="4">
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>96</v>
@@ -3646,18 +4196,18 @@
         <v>1</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="4">
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J37" s="4">
         <v>1</v>
@@ -3672,12 +4222,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38" s="4">
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>83</v>
@@ -3698,18 +4248,18 @@
         <v>1</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" s="4">
         <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>375</v>
+        <v>137</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="J39" s="4">
         <v>1</v>
@@ -3718,21 +4268,21 @@
         <v>3</v>
       </c>
       <c r="L39" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>376</v>
+        <v>120</v>
       </c>
       <c r="R39" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20">
       <c r="A40" s="4">
         <v>50</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J40" s="4">
         <v>1</v>
@@ -3747,12 +4297,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11">
       <c r="B41" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="J41" s="4">
         <v>0</v>
@@ -3761,12 +4311,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" ht="28.5" spans="2:11">
       <c r="B42" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J42" s="4">
         <v>0</v>
@@ -3775,12 +4325,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11">
       <c r="B43" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J43" s="4">
         <v>0</v>
@@ -3789,12 +4339,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11">
       <c r="B44" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J44" s="4">
         <v>0</v>
@@ -3803,15 +4353,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" ht="28.5" spans="1:11">
       <c r="A45" s="4">
         <v>1001</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>70</v>
@@ -3823,23 +4373,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" ht="28.5" spans="2:11">
       <c r="B46" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K46" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11">
       <c r="B47" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J47" s="4">
         <v>0</v>
@@ -3848,12 +4398,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11">
       <c r="B48" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
@@ -3862,12 +4412,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:11">
       <c r="B49" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J49" s="4">
         <v>0</v>
@@ -3876,15 +4426,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14">
       <c r="A50" s="4">
         <v>1002</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>70</v>
@@ -3902,12 +4452,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" ht="28.5" spans="2:11">
       <c r="B51" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J51" s="4">
         <v>0</v>
@@ -3916,15 +4466,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="52" ht="28.5" spans="1:14">
       <c r="A52" s="4">
         <v>1004</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>88</v>
@@ -3942,12 +4492,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:11">
       <c r="B53" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J53" s="4">
         <v>1</v>
@@ -3956,15 +4506,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" ht="28.5" spans="1:14">
       <c r="A54" s="4">
         <v>1011</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>70</v>
@@ -3979,7 +4529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:11">
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="J55" s="4">
@@ -3989,15 +4539,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="56" ht="42.75" spans="1:20">
       <c r="A56" s="4">
         <v>1012</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>74</v>
@@ -4015,15 +4565,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" ht="28.5" spans="1:14">
       <c r="A57" s="4">
         <v>1013</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>74</v>
@@ -4038,15 +4588,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" ht="28.5" spans="1:11">
       <c r="A58" s="4">
         <v>1014</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>74</v>
@@ -4058,12 +4608,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" ht="28.5" spans="2:11">
       <c r="B59" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J59" s="4">
         <v>0</v>
@@ -4072,9 +4622,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:11">
       <c r="B60" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C60" s="10"/>
       <c r="J60" s="4">
@@ -4084,12 +4634,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:11">
       <c r="B61" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J61" s="4">
         <v>0</v>
@@ -4098,12 +4648,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" ht="28.5" spans="2:11">
       <c r="B62" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J62" s="4">
         <v>0</v>
@@ -4112,15 +4662,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="63" ht="42.75" spans="1:11">
       <c r="A63" s="4">
         <v>1018</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H63" s="4">
         <v>1</v>
@@ -4132,15 +4682,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="64" ht="28.5" spans="1:11">
       <c r="A64" s="4">
         <v>1020</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H64" s="4">
         <v>0.5</v>
@@ -4152,9 +4702,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11">
       <c r="B65" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J65" s="4">
         <v>1</v>
@@ -4163,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11">
       <c r="B66" s="11" t="s">
         <v>68</v>
       </c>
@@ -4174,12 +4724,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11">
       <c r="B67" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J67" s="4">
         <v>1</v>
@@ -4188,15 +4738,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="68" ht="28.5" spans="1:17">
       <c r="A68" s="4">
         <v>1021</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>70</v>
@@ -4205,7 +4755,7 @@
         <v>75</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H68" s="4">
         <v>1</v>
@@ -4223,12 +4773,12 @@
         <v>10</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11">
       <c r="B69" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J69" s="4">
         <v>1</v>
@@ -4237,15 +4787,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" s="4">
         <v>1010</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>70</v>
@@ -4278,15 +4828,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" ht="28.5" spans="1:14">
       <c r="A72" s="4">
         <v>1114</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J72" s="4">
         <v>0</v>
@@ -4298,7 +4848,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11">
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="J73" s="4">
@@ -4308,15 +4858,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" ht="28.5" spans="1:14">
       <c r="A74" s="4">
         <v>1110</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>81</v>
@@ -4331,15 +4881,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="75" ht="28.5" spans="1:14">
       <c r="A75" s="4">
         <v>1111</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>81</v>
@@ -4354,21 +4904,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" ht="42.75" spans="1:14">
       <c r="A76" s="4">
         <v>1112</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H76" s="4">
         <v>0.5</v>
@@ -4383,15 +4933,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" ht="28.5" spans="1:11">
       <c r="A77" s="4">
         <v>1113</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>81</v>
@@ -4403,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:11">
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="4" t="s">
@@ -4416,15 +4966,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="79" ht="28.5" spans="1:11">
       <c r="A79" s="4">
         <v>1115</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>81</v>
@@ -4436,15 +4986,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="80" ht="28.5" spans="1:20">
       <c r="A80" s="4">
         <v>1116</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>81</v>
@@ -4465,7 +5015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:11">
       <c r="B81" s="10"/>
       <c r="J81" s="4">
         <v>0</v>
@@ -4474,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:11">
       <c r="B82" s="10"/>
       <c r="C82" s="4"/>
       <c r="J82" s="4">
@@ -4484,15 +5034,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:26" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="83" ht="42.75" spans="1:17">
       <c r="A83" s="4">
         <v>1117</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D83" s="4" t="s">
         <v>88</v>
@@ -4522,15 +5072,15 @@
         <v>1</v>
       </c>
       <c r="Q83" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11">
       <c r="B84" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J84" s="4">
         <v>0</v>
@@ -4539,12 +5089,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="85" ht="28.5" spans="2:11">
       <c r="B85" s="10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="J85" s="4">
         <v>0</v>
@@ -4553,12 +5103,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" ht="28.5" spans="2:11">
       <c r="B86" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J86" s="4">
         <v>0</v>
@@ -4567,12 +5117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="87" ht="28.5" spans="2:11">
       <c r="B87" s="12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J87" s="4">
         <v>0</v>
@@ -4581,12 +5131,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="88" ht="28.5" spans="2:11">
       <c r="B88" s="12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J88" s="4">
         <v>0</v>
@@ -4595,15 +5145,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11">
       <c r="A89" s="4">
         <v>1201</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>81</v>
@@ -4624,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:11">
       <c r="B90" s="12"/>
       <c r="C90" s="13"/>
       <c r="J90" s="4">
@@ -4634,9 +5184,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:11">
       <c r="B91" s="12" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J91" s="4">
         <v>1</v>
@@ -4645,12 +5195,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" ht="28.5" spans="2:11">
       <c r="B92" s="12" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J92" s="4">
         <v>0</v>
@@ -4659,12 +5209,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:26" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="93" ht="28.5" spans="2:11">
       <c r="B93" s="12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J93" s="4">
         <v>0</v>
@@ -4673,23 +5223,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:3">
       <c r="B94" s="12" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="95" s="2" customFormat="1" spans="1:26">
       <c r="A95" s="2">
         <v>102</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>81</v>
@@ -4710,15 +5260,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" s="2" customFormat="1" spans="1:26">
       <c r="A96" s="2">
         <v>103</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>81</v>
@@ -4745,15 +5295,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="97" ht="28.5" spans="1:26">
       <c r="A97" s="4">
         <v>104</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>70</v>
@@ -4777,15 +5327,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" ht="28.5" spans="1:30">
       <c r="A98" s="4">
         <v>105</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>81</v>
@@ -4806,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Z98" s="4">
         <v>0</v>
@@ -4818,15 +5368,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26">
       <c r="A99" s="4">
         <v>106</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J99" s="4">
         <v>1</v>
@@ -4847,15 +5397,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26">
       <c r="A100" s="4">
         <v>107</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J100" s="4">
         <v>1</v>
@@ -4876,15 +5426,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26">
       <c r="A101" s="4">
         <v>108</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J101" s="4">
         <v>1</v>
@@ -4908,15 +5458,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="102" ht="28.5" spans="1:26">
       <c r="A102" s="4">
         <v>109</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J102" s="4">
         <v>1</v>
@@ -4940,15 +5490,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="103" ht="28.5" spans="1:26">
       <c r="A103" s="4">
         <v>110</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J103" s="4">
         <v>1</v>
@@ -4972,15 +5522,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26">
       <c r="A104" s="4">
         <v>111</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J104" s="4">
         <v>1</v>
@@ -5004,15 +5554,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26">
       <c r="A105" s="4">
         <v>112</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J105" s="4">
         <v>1</v>
@@ -5036,15 +5586,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26">
       <c r="A106" s="4">
         <v>113</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J106" s="4">
         <v>1</v>
@@ -5068,12 +5618,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26">
       <c r="A107" s="4">
         <v>114</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>73</v>
@@ -5127,15 +5677,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26">
       <c r="A108" s="4">
         <v>115</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J108" s="4">
         <v>1</v>
@@ -5159,15 +5709,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" s="3" customFormat="1" spans="1:26">
       <c r="A109" s="3">
         <v>116</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>81</v>
@@ -5191,15 +5741,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" s="3" customFormat="1" spans="1:26">
       <c r="A110" s="3">
         <v>117</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>81</v>
@@ -5220,7 +5770,7 @@
         <v>1</v>
       </c>
       <c r="Q110" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R110" s="3">
         <v>0</v>
@@ -5232,15 +5782,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26">
       <c r="A111" s="3">
         <v>118</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J111" s="4">
         <v>1</v>
@@ -5264,15 +5814,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26">
       <c r="A112" s="3">
         <v>119</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J112" s="4">
         <v>1</v>
@@ -5296,15 +5846,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26">
       <c r="A113" s="3">
         <v>120</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>74</v>
@@ -5358,15 +5908,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26">
       <c r="A114" s="3">
         <v>121</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J114" s="4">
         <v>1</v>
@@ -5390,15 +5940,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26">
       <c r="A115" s="3">
         <v>122</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H115" s="4">
         <v>0.8</v>
@@ -5437,12 +5987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26">
       <c r="A116" s="3">
         <v>123</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>80</v>
@@ -5499,12 +6049,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="117" ht="28.5" spans="1:26">
       <c r="A117" s="3">
         <v>124</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>87</v>
@@ -5561,15 +6111,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26">
       <c r="A118" s="3">
         <v>125</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H118" s="4">
         <v>0.8</v>
@@ -5608,15 +6158,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="119" ht="28.5" spans="1:26">
       <c r="A119" s="3">
         <v>126</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="J119" s="4">
         <v>1</v>
@@ -5640,12 +6190,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26">
       <c r="A120" s="3">
         <v>127</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>73</v>
@@ -5699,15 +6249,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26">
       <c r="A121" s="3">
         <v>128</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J121" s="4">
         <v>1</v>
@@ -5731,15 +6281,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26">
       <c r="A122" s="3">
         <v>129</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J122" s="4">
         <v>1</v>
@@ -5763,15 +6313,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="123" ht="28.5" spans="1:28">
       <c r="A123" s="4">
         <v>200</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H123" s="4">
         <v>1</v>
@@ -5813,15 +6363,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="124" ht="28.5" spans="1:28">
       <c r="A124" s="4">
         <v>201</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H124" s="4">
         <v>1</v>
@@ -5863,15 +6413,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" ht="28.5" spans="1:28">
       <c r="A125" s="4">
         <v>202</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H125" s="4">
         <v>1</v>
@@ -5913,15 +6463,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="126" ht="28.5" spans="1:28">
       <c r="A126" s="4">
         <v>203</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H126" s="4">
         <v>1</v>
@@ -5963,15 +6513,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="127" ht="28.5" spans="1:28">
       <c r="A127" s="4">
         <v>204</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H127" s="4">
         <v>1</v>
@@ -6013,15 +6563,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:28" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="128" ht="28.5" spans="1:28">
       <c r="A128" s="4">
         <v>205</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H128" s="4">
         <v>1</v>
@@ -6063,15 +6613,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="129" ht="28.5" spans="1:28">
       <c r="A129" s="4">
         <v>206</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H129" s="4">
         <v>1</v>
@@ -6113,15 +6663,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="130" ht="28.5" spans="1:28">
       <c r="A130" s="4">
         <v>207</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H130" s="4">
         <v>1</v>
@@ -6163,15 +6713,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="131" ht="28.5" spans="1:28">
       <c r="A131" s="4">
         <v>208</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H131" s="4">
         <v>1</v>
@@ -6213,15 +6763,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="132" ht="28.5" spans="1:28">
       <c r="A132" s="4">
         <v>209</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H132" s="4">
         <v>1</v>
@@ -6263,15 +6813,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="133" ht="28.5" spans="1:28">
       <c r="A133" s="4">
         <v>210</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H133" s="4">
         <v>1</v>
@@ -6313,15 +6863,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:33" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="134" ht="28.5" spans="1:33">
       <c r="A134" s="4">
         <v>211</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J134" s="4">
         <v>1</v>
@@ -6351,173 +6901,173 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="135" ht="15.75" spans="2:3">
       <c r="B135" s="18" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="136" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" spans="2:3">
       <c r="B136" s="18" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="137" spans="1:33" ht="47.25" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="137" ht="47.25" spans="2:3">
       <c r="B137" s="18" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="138" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="138" ht="31.5" spans="2:3">
       <c r="B138" s="18" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C138" s="18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="139" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" spans="2:3">
       <c r="B139" s="18" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="140" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" spans="2:3">
       <c r="B140" s="18" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="141" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="141" ht="31.5" spans="2:3">
       <c r="B141" s="18" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="142" spans="1:33" ht="15.75" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" spans="2:8">
       <c r="B142" s="18" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H142" s="4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="143" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="143" ht="31.5" spans="2:3">
       <c r="B143" s="18" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="144" spans="1:33" ht="31.5" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="144" ht="31.5" spans="2:3">
       <c r="B144" s="18" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" spans="2:2">
       <c r="B145" s="18" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" ht="63" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="146" ht="63" spans="2:3">
       <c r="B146" s="18" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" spans="2:8">
       <c r="B147" s="18" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H147" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="148" ht="15.75" spans="3:3">
       <c r="C148" s="18"/>
     </row>
-    <row r="149" spans="1:23" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="149" ht="31.5" spans="2:3">
       <c r="B149" s="18" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" spans="2:3">
       <c r="B150" s="18" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" spans="2:3">
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
     </row>
-    <row r="152" spans="1:23" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="152" ht="31.5" spans="2:3">
       <c r="B152" s="18" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C152" s="18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" ht="15.75" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" spans="2:3">
       <c r="B153" s="18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C153" s="18" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23" ht="31.5" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="154" ht="31.5" spans="2:3">
       <c r="B154" s="18" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20">
       <c r="A156" s="4">
         <v>1410</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>81</v>
@@ -6541,15 +7091,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="157" ht="28.5" spans="1:20">
       <c r="A157" s="4">
         <v>1411</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>81</v>
@@ -6582,24 +7132,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:23" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="158" ht="28.5" spans="1:20">
       <c r="A158" s="4">
         <v>1412</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>97</v>
@@ -6623,18 +7173,18 @@
         <v>1</v>
       </c>
       <c r="Q158" s="4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T158" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:23" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="159" s="1" customFormat="1" ht="28.5" spans="1:23">
       <c r="A159" s="1">
         <v>1500</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>94</v>
@@ -6685,12 +7235,12 @@
       <c r="V159"/>
       <c r="W159"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20">
       <c r="A160" s="4">
         <v>1501</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J160" s="4">
         <v>1</v>
@@ -6705,52 +7255,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="2:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="161" ht="57" spans="2:3">
       <c r="B161" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="162" ht="28.5" spans="2:3">
       <c r="B162" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="163" ht="42.75" spans="2:3">
       <c r="B163" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="164" ht="28.5" spans="2:3">
       <c r="B164" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="165" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="165" ht="42.75" spans="2:3">
       <c r="B165" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="166" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="166" ht="28.5" spans="2:9">
       <c r="B166" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H166" s="4">
         <v>5</v>
@@ -6759,118 +7309,120 @@
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="167" ht="28.5" spans="2:8">
       <c r="B167" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H167" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="168" spans="2:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="168" ht="42.75" spans="2:3">
       <c r="B168" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="169" ht="28.5" spans="2:3">
       <c r="B169" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
       <c r="B170" s="10"/>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4">
       <c r="B172" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="173" spans="2:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="173" ht="28.5" spans="2:4">
       <c r="B173" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C173" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D173" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="2:4">
       <c r="B174" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
       <c r="B175" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
       <c r="B176" s="10" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4">
       <c r="B177" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4">
       <c r="B178" s="10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4">
       <c r="B179" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
       <c r="B180" s="10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
       <c r="B181" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="Z1:Z181" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <autoFilter ref="Z1:Z181">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Assets/Data/Skill.xlsx
+++ b/Client/Assets/Data/Skill.xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snowm\Documents\GitHub\MagicPlay\Client\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91C74FE-D043-4CC1-8861-A61AD82DFEF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Z$1:$Z$181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$AA$1:$AA$195</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>幻月</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -37,6 +44,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -50,13 +58,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">幻月:
@@ -67,6 +76,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -74,13 +84,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -89,6 +100,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -99,13 +111,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>幻月:</t>
@@ -114,6 +127,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -127,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="432">
   <si>
     <t>技能ID</t>
   </si>
@@ -266,6 +280,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -276,6 +291,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -300,6 +316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -310,6 +327,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -442,6 +460,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -452,6 +471,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -476,6 +496,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -486,6 +507,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -496,6 +518,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -506,6 +529,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -518,6 +542,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -528,6 +553,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -538,6 +564,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -548,6 +575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -629,6 +657,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -639,6 +668,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -894,6 +924,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -904,6 +935,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -940,6 +972,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -950,6 +983,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -960,6 +994,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -975,6 +1010,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -985,6 +1021,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -995,6 +1032,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1098,9 +1136,6 @@
     <t>斩杀</t>
   </si>
   <si>
-    <t>造成{0}点伤害,如果杀死了敌人,那么便回复10点生命值。</t>
-  </si>
-  <si>
     <t>破釜沉舟</t>
   </si>
   <si>
@@ -1361,6 +1396,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1371,6 +1407,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1401,6 +1438,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1411,6 +1449,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1474,6 +1513,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1484,6 +1524,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1544,18 +1585,394 @@
   <si>
     <t>集束闪电</t>
   </si>
+  <si>
+    <r>
+      <t>检查B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UFFID</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UFF时造成穿透伤害？</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Buff</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBDamage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBHeal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBSeep</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBCrit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBManaCost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBmanaProduce</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UFF时额外效果</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBBuff</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Crit</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外暴击率加成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>有BUFF时减少魔法消耗</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UFF时增加暴击率</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>有BUFF时增加伤害值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>有BUFF时增加治疗值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>有BUFF时增加魔法生成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害,如果杀死了敌人,那么便回复5点生命值。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率提高10%,造成暴击后产生[兴奋]效果，持续10秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>致命一击</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正义宣言</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害,拥有额外30%的暴击率加成</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率提升10%,每当暴击便回复1点能量。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当暴击便回复1点生命值。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率提升40%,持续10秒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>异端审判</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>愈战愈勇</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>惩戒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正义枷锁</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>英勇斗篷</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkSelf</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查自身?</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害,若目标身上有忏悔,则转化为穿透伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气化身</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击力提高3点,持续10秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害,如果处于[兴奋]状态,则额外造成4点伤害。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶剑</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2点护甲,如果处于[兴奋]状态,则额外获得4点护甲</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公正裁决</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋面罩</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标施加3层忏悔,降低其30%伤害,持续10秒,若目标拥有5层忏悔,则消除其全部护甲。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUFF层数要求</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffNumLimit</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>正义出击</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>炽热防御</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.5,1</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect_wind_fly_01</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Effect_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_hit_01</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果层数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uffNum</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>额外B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uff数量</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBBuffNum</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害,如果处于[兴奋]状态,则能量消耗降低2点且必定会暴击。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{0}点伤害,并施加1层忏悔,降低目标10%伤害,最多叠加5层,持续10秒。</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高1点攻击力,持续6秒,若目标身上有忏悔,则额外提高1点攻击力</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>效果-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1点治疗</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1567,12 +1984,14 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1580,6 +1999,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1587,6 +2007,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1594,152 +2015,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1760,13 +2061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799890133365886"/>
+        <fgColor theme="5" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799890133365886"/>
+        <fgColor theme="3" tint="0.79985961485641044"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1776,188 +2077,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1965,257 +2086,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2240,16 +2122,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2261,62 +2143,23 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2574,23 +2417,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AH181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AU195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="$A27:$XFD27"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="21.5" style="4" customWidth="1"/>
@@ -2601,24 +2443,34 @@
     <col min="8" max="9" width="9" style="4"/>
     <col min="10" max="10" width="12" style="4" customWidth="1"/>
     <col min="11" max="14" width="9" style="4"/>
-    <col min="15" max="15" width="14.75" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="4" customWidth="1"/>
     <col min="16" max="16" width="14.375" style="4" customWidth="1"/>
     <col min="17" max="17" width="19.875" style="4" customWidth="1"/>
-    <col min="18" max="20" width="9" style="4"/>
-    <col min="21" max="21" width="23.5" customWidth="1"/>
-    <col min="22" max="23" width="22.375" customWidth="1"/>
-    <col min="24" max="26" width="9" style="4"/>
-    <col min="27" max="27" width="12.125" style="4" customWidth="1"/>
-    <col min="28" max="28" width="11.625" style="4" customWidth="1"/>
-    <col min="29" max="29" width="19.5" style="4" customWidth="1"/>
-    <col min="30" max="30" width="16" style="4" customWidth="1"/>
-    <col min="31" max="31" width="15.375" style="4" customWidth="1"/>
-    <col min="32" max="33" width="19.875" style="4" customWidth="1"/>
-    <col min="34" max="34" width="20.25" style="4" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="4"/>
+    <col min="18" max="21" width="9" style="4"/>
+    <col min="22" max="22" width="21.5" customWidth="1"/>
+    <col min="23" max="24" width="22.375" customWidth="1"/>
+    <col min="25" max="27" width="9" style="4"/>
+    <col min="28" max="28" width="12.125" style="4" customWidth="1"/>
+    <col min="29" max="29" width="11.625" style="4" customWidth="1"/>
+    <col min="30" max="30" width="19.5" style="4" customWidth="1"/>
+    <col min="31" max="31" width="16" style="4" customWidth="1"/>
+    <col min="32" max="32" width="15.375" style="4" customWidth="1"/>
+    <col min="33" max="34" width="19.875" style="4" customWidth="1"/>
+    <col min="35" max="35" width="20.25" style="4" customWidth="1"/>
+    <col min="36" max="38" width="10.375" style="4" customWidth="1"/>
+    <col min="39" max="39" width="12.625" style="4" customWidth="1"/>
+    <col min="40" max="40" width="10.75" style="4" customWidth="1"/>
+    <col min="41" max="41" width="10.25" style="4" customWidth="1"/>
+    <col min="42" max="42" width="11.875" style="4" customWidth="1"/>
+    <col min="43" max="43" width="10.5" style="4" customWidth="1"/>
+    <col min="44" max="44" width="10.875" style="4" customWidth="1"/>
+    <col min="45" max="45" width="14.875" style="4" customWidth="1"/>
+    <col min="46" max="46" width="9" style="4"/>
+    <col min="47" max="47" width="9.875" style="4" customWidth="1"/>
+    <col min="48" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:34">
+    <row r="1" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2661,7 +2513,7 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
@@ -2679,50 +2531,89 @@
       <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:34">
+      <c r="AJ1" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL1" s="21" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM1" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="AN1" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="AO1" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="AP1" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="AQ1" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="AR1" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="AS1" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -2783,50 +2674,89 @@
       <c r="T2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="V2" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AE2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="AJ2" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="AK2" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="AL2" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="AM2" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="AN2" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="AO2" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="AP2" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="AQ2" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="AR2" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="AS2" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="AT2" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="AU2" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -2870,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -2926,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -2981,14 +2911,14 @@
       <c r="T5" s="4">
         <v>0</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>2</v>
       </c>
-      <c r="Z5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="28.5" spans="1:26">
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -3043,14 +2973,14 @@
       <c r="T6" s="4">
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>2</v>
       </c>
-      <c r="Z6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="28.5" spans="1:23">
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -3102,11 +3032,11 @@
       <c r="T7" s="1">
         <v>0</v>
       </c>
-      <c r="U7"/>
       <c r="V7"/>
       <c r="W7"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="28.5" spans="1:23">
+      <c r="X7"/>
+    </row>
+    <row r="8" spans="1:47" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -3158,11 +3088,11 @@
       <c r="T8" s="1">
         <v>0</v>
       </c>
-      <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="28.5" spans="1:23">
+      <c r="X8"/>
+    </row>
+    <row r="9" spans="1:47" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3211,11 +3141,11 @@
       <c r="T9" s="1">
         <v>0</v>
       </c>
-      <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="28.5" spans="1:23">
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="1:47" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3264,11 +3194,11 @@
       <c r="T10" s="1">
         <v>0</v>
       </c>
-      <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="28.5" spans="1:23">
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="1:47" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3317,11 +3247,11 @@
       <c r="T11" s="1">
         <v>0</v>
       </c>
-      <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
-    </row>
-    <row r="12" ht="28.5" spans="1:20">
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="1:47" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -3371,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="28.5" spans="1:20">
+    <row r="13" spans="1:47" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -3421,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="28.5" spans="1:20">
+    <row r="14" spans="1:47" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -3471,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="28.5" spans="1:20">
+    <row r="15" spans="1:47" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -3521,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="28.5" spans="1:20">
+    <row r="16" spans="1:47" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -3571,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="1:20">
+    <row r="17" spans="1:29" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -3621,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="28.5" spans="1:23">
+    <row r="18" spans="1:29" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3673,11 +3603,11 @@
       <c r="T18" s="1">
         <v>0</v>
       </c>
-      <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>20</v>
       </c>
@@ -3691,7 +3621,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" ht="42.75" spans="1:28">
+    <row r="20" spans="1:29" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>21</v>
       </c>
@@ -3725,17 +3655,20 @@
       <c r="T20" s="4">
         <v>1001</v>
       </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="4">
+      <c r="U20" s="4">
+        <v>1</v>
+      </c>
+      <c r="V20">
         <v>1</v>
       </c>
       <c r="AB20" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AC20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>22</v>
       </c>
@@ -3760,14 +3693,17 @@
       <c r="T21" s="4">
         <v>1002</v>
       </c>
-      <c r="W21">
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21">
         <v>2</v>
       </c>
-      <c r="Z21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="AA21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>23</v>
       </c>
@@ -3786,8 +3722,11 @@
       <c r="T22" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="U22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>24</v>
       </c>
@@ -3816,7 +3755,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" ht="28.5" spans="1:28">
+    <row r="24" spans="1:29" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -3847,17 +3786,17 @@
       <c r="R24" s="4">
         <v>1</v>
       </c>
-      <c r="Z24" s="4">
-        <v>1</v>
-      </c>
       <c r="AA24" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="4">
         <v>2</v>
       </c>
-      <c r="AB24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="AC24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>26</v>
       </c>
@@ -3889,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -3911,11 +3850,11 @@
       <c r="Q26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Y26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="Z26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -3944,7 +3883,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>29</v>
       </c>
@@ -3972,8 +3911,11 @@
       <c r="T28" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="U28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>30</v>
       </c>
@@ -3996,7 +3938,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>31</v>
       </c>
@@ -4018,11 +3960,11 @@
       <c r="R30" s="4">
         <v>1</v>
       </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="W30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -4045,7 +3987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="28.5" spans="1:28">
+    <row r="32" spans="1:29" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -4076,17 +4018,17 @@
       <c r="R32" s="4">
         <v>1</v>
       </c>
-      <c r="Z32" s="4">
-        <v>1</v>
-      </c>
       <c r="AA32" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="4">
         <v>13</v>
       </c>
-      <c r="AB32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="AC32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -4115,7 +4057,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -4141,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -4170,7 +4112,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -4199,7 +4141,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>38</v>
       </c>
@@ -4222,7 +4164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>39</v>
       </c>
@@ -4251,7 +4193,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>40</v>
       </c>
@@ -4277,46 +4219,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
+        <v>41</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" s="4">
+        <v>1</v>
+      </c>
+      <c r="K40" s="4">
+        <v>3</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="R40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>50</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J40" s="4">
-        <v>1</v>
-      </c>
-      <c r="K40" s="4">
-        <v>1</v>
-      </c>
-      <c r="R40" s="4">
-        <v>1</v>
-      </c>
-      <c r="T40" s="4">
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+      <c r="R41" s="4">
+        <v>1</v>
+      </c>
+      <c r="T41" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="8" t="s">
+      <c r="U41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B42" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" ht="28.5" spans="2:11">
-      <c r="B42" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>142</v>
       </c>
       <c r="J42" s="4">
         <v>0</v>
@@ -4325,12 +4282,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J43" s="4">
         <v>0</v>
@@ -4339,12 +4296,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J44" s="4">
         <v>0</v>
@@ -4353,18 +4310,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" ht="28.5" spans="1:11">
-      <c r="A45" s="4">
-        <v>1001</v>
-      </c>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="J45" s="4">
         <v>0</v>
@@ -4373,37 +4324,43 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" ht="28.5" spans="2:11">
+    <row r="46" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>1001</v>
+      </c>
       <c r="B46" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
       </c>
       <c r="K46" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K47" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
@@ -4412,12 +4369,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J49" s="4">
         <v>0</v>
@@ -4426,21 +4383,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="4">
-        <v>1002</v>
-      </c>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H50" s="4">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="J50" s="4">
         <v>0</v>
@@ -4448,16 +4396,22 @@
       <c r="K50" s="4">
         <v>9</v>
       </c>
-      <c r="N50" s="4">
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>1002</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="4">
         <v>10</v>
-      </c>
-    </row>
-    <row r="51" ht="28.5" spans="2:11">
-      <c r="B51" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="J51" s="4">
         <v>0</v>
@@ -4465,22 +4419,16 @@
       <c r="K51" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" ht="28.5" spans="1:14">
-      <c r="A52" s="4">
-        <v>1004</v>
-      </c>
+      <c r="N51" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B52" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H52" s="4">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="J52" s="4">
         <v>0</v>
@@ -4488,92 +4436,89 @@
       <c r="K52" s="4">
         <v>9</v>
       </c>
-      <c r="N52" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11">
+    </row>
+    <row r="53" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>1004</v>
+      </c>
       <c r="B53" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="4">
+        <v>10</v>
       </c>
       <c r="J53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" ht="28.5" spans="1:14">
-      <c r="A54" s="4">
+      <c r="N53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B54" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J54" s="4">
+        <v>1</v>
+      </c>
+      <c r="K54" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
         <v>1011</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B55" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J54" s="4">
-        <v>0</v>
-      </c>
-      <c r="K54" s="4">
-        <v>0</v>
-      </c>
-      <c r="N54" s="4">
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="N55" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="J55" s="4">
-        <v>0</v>
-      </c>
-      <c r="K55" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" ht="42.75" spans="1:20">
-      <c r="A56" s="4">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>1012</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="J56" s="4">
-        <v>0</v>
-      </c>
-      <c r="K56" s="4">
-        <v>0</v>
-      </c>
-      <c r="N56" s="4">
-        <v>10</v>
-      </c>
-      <c r="T56" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" ht="28.5" spans="1:14">
-      <c r="A57" s="4">
-        <v>1013</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>74</v>
@@ -4585,18 +4530,24 @@
         <v>0</v>
       </c>
       <c r="N57" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" ht="28.5" spans="1:11">
+        <v>10</v>
+      </c>
+      <c r="T57" s="4">
+        <v>7</v>
+      </c>
+      <c r="U57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>74</v>
@@ -4607,289 +4558,289 @@
       <c r="K58" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" ht="28.5" spans="2:11">
+      <c r="N58" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>1014</v>
+      </c>
       <c r="B59" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B60" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="J59" s="4">
-        <v>0</v>
-      </c>
-      <c r="K59" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="11" t="s">
+      <c r="J60" s="4">
+        <v>0</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B61" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="J60" s="4">
-        <v>0</v>
-      </c>
-      <c r="K60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="10" t="s">
+      <c r="C61" s="10"/>
+      <c r="J61" s="4">
+        <v>0</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B62" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="J61" s="4">
-        <v>0</v>
-      </c>
-      <c r="K61" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="28.5" spans="2:11">
-      <c r="B62" s="10" t="s">
+      <c r="J62" s="4">
+        <v>0</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B63" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="J62" s="4">
-        <v>0</v>
-      </c>
-      <c r="K62" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="42.75" spans="1:11">
-      <c r="A63" s="4">
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
         <v>1018</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B64" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="H63" s="4">
-        <v>1</v>
-      </c>
-      <c r="J63" s="4">
-        <v>1</v>
-      </c>
-      <c r="K63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" ht="28.5" spans="1:11">
-      <c r="A64" s="4">
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
         <v>1020</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B65" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H65" s="4">
         <v>0.5</v>
       </c>
-      <c r="J64" s="4">
-        <v>1</v>
-      </c>
-      <c r="K64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="B65" s="11" t="s">
+      <c r="J65" s="4">
+        <v>1</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B66" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="J65" s="4">
-        <v>1</v>
-      </c>
-      <c r="K65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66" s="11" t="s">
+      <c r="J66" s="4">
+        <v>1</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B67" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J66" s="4">
-        <v>1</v>
-      </c>
-      <c r="K66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11">
-      <c r="B67" s="10" t="s">
+      <c r="J67" s="4">
+        <v>1</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B68" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F68" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="J67" s="4">
-        <v>1</v>
-      </c>
-      <c r="K67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" ht="28.5" spans="1:17">
-      <c r="A68" s="4">
+      <c r="J68" s="4">
+        <v>1</v>
+      </c>
+      <c r="K68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
         <v>1021</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B69" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F69" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H68" s="4">
-        <v>1</v>
-      </c>
-      <c r="J68" s="4">
-        <v>1</v>
-      </c>
-      <c r="K68" s="4">
-        <v>0</v>
-      </c>
-      <c r="M68" s="4">
+      <c r="H69" s="4">
+        <v>1</v>
+      </c>
+      <c r="J69" s="4">
+        <v>1</v>
+      </c>
+      <c r="K69" s="4">
+        <v>0</v>
+      </c>
+      <c r="M69" s="4">
         <v>10</v>
       </c>
-      <c r="N68" s="4">
+      <c r="N69" s="4">
         <v>10</v>
       </c>
-      <c r="Q68" s="4" t="s">
+      <c r="Q69" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="69" spans="2:11">
-      <c r="B69" s="10" t="s">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B70" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="J69" s="4">
-        <v>1</v>
-      </c>
-      <c r="K69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18">
-      <c r="A70" s="4">
+      <c r="J70" s="4">
+        <v>1</v>
+      </c>
+      <c r="K70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
         <v>1010</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B71" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E71" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H70" s="4">
+      <c r="H71" s="4">
         <v>2</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I71" s="4">
         <v>5</v>
       </c>
-      <c r="J70" s="4">
-        <v>1</v>
-      </c>
-      <c r="K70" s="4">
-        <v>0</v>
-      </c>
-      <c r="M70" s="4">
+      <c r="J71" s="4">
+        <v>1</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+      <c r="M71" s="4">
         <v>10</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N71" s="4">
         <v>-10</v>
       </c>
-      <c r="Q70" s="4" t="s">
+      <c r="Q71" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="R70" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" ht="28.5" spans="1:14">
-      <c r="A72" s="4">
+      <c r="R71" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
         <v>1114</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B73" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="J72" s="4">
-        <v>0</v>
-      </c>
-      <c r="K72" s="4">
-        <v>1</v>
-      </c>
-      <c r="N72" s="4">
+      <c r="J73" s="4">
+        <v>0</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1</v>
+      </c>
+      <c r="N73" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="2:11">
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="J73" s="4">
-        <v>0</v>
-      </c>
-      <c r="K73" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" ht="28.5" spans="1:14">
-      <c r="A74" s="4">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="J74" s="4">
+        <v>0</v>
+      </c>
+      <c r="K74" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
         <v>1110</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B75" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J74" s="4">
-        <v>0</v>
-      </c>
-      <c r="K74" s="4">
-        <v>1</v>
-      </c>
-      <c r="N74" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" ht="28.5" spans="1:14">
-      <c r="A75" s="4">
-        <v>1111</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>81</v>
@@ -4901,28 +4852,22 @@
         <v>1</v>
       </c>
       <c r="N75" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" ht="42.75" spans="1:14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H76" s="4">
-        <v>0.5</v>
-      </c>
       <c r="J76" s="4">
         <v>0</v>
       </c>
@@ -4930,32 +4875,48 @@
         <v>1</v>
       </c>
       <c r="N76" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" ht="28.5" spans="1:11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="G77" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H77" s="4">
+        <v>0.5</v>
+      </c>
       <c r="J77" s="4">
         <v>0</v>
       </c>
       <c r="K77" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
+      <c r="N77" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>1113</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>204</v>
+      </c>
       <c r="D78" s="4" t="s">
         <v>81</v>
       </c>
@@ -4966,16 +4927,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" ht="28.5" spans="1:11">
-      <c r="A79" s="4">
-        <v>1115</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>206</v>
-      </c>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="4" t="s">
         <v>81</v>
       </c>
@@ -4986,15 +4940,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" ht="28.5" spans="1:20">
+    <row r="80" spans="1:18" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>81</v>
@@ -5005,28 +4959,41 @@
       <c r="K80" s="4">
         <v>1</v>
       </c>
-      <c r="N80" s="4">
+    </row>
+    <row r="81" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>1116</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4">
+        <v>1</v>
+      </c>
+      <c r="N81" s="4">
         <v>-1</v>
       </c>
-      <c r="R80" s="4">
-        <v>1</v>
-      </c>
-      <c r="T80" s="4">
+      <c r="R81" s="4">
+        <v>1</v>
+      </c>
+      <c r="T81" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="2:11">
-      <c r="B81" s="10"/>
-      <c r="J81" s="4">
-        <v>0</v>
-      </c>
-      <c r="K81" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:11">
+      <c r="U81" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B82" s="10"/>
-      <c r="C82" s="4"/>
       <c r="J82" s="4">
         <v>0</v>
       </c>
@@ -5034,149 +5001,149 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" ht="42.75" spans="1:17">
-      <c r="A83" s="4">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B83" s="10"/>
+      <c r="C83" s="4"/>
+      <c r="J83" s="4">
+        <v>0</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
         <v>1117</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B84" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E84" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G84" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H83" s="4">
+      <c r="H84" s="4">
         <v>0.5</v>
       </c>
-      <c r="I83" s="4">
+      <c r="I84" s="4">
         <v>10</v>
       </c>
-      <c r="J83" s="4">
-        <v>1</v>
-      </c>
-      <c r="K83" s="4">
-        <v>1</v>
-      </c>
-      <c r="M83" s="4">
+      <c r="J84" s="4">
+        <v>1</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1</v>
+      </c>
+      <c r="M84" s="4">
         <v>50</v>
       </c>
-      <c r="N83" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="4" t="s">
+      <c r="N84" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="84" spans="2:11">
-      <c r="B84" s="10" t="s">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B85" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C85" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="J84" s="4">
-        <v>0</v>
-      </c>
-      <c r="K84" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" ht="28.5" spans="2:11">
-      <c r="B85" s="10" t="s">
+      <c r="J85" s="4">
+        <v>0</v>
+      </c>
+      <c r="K85" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B86" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="J85" s="4">
-        <v>0</v>
-      </c>
-      <c r="K85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" ht="28.5" spans="2:11">
-      <c r="B86" s="10" t="s">
+      <c r="J86" s="4">
+        <v>0</v>
+      </c>
+      <c r="K86" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B87" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="J86" s="4">
-        <v>0</v>
-      </c>
-      <c r="K86" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" ht="28.5" spans="2:11">
-      <c r="B87" s="12" t="s">
+      <c r="J87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B88" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="J87" s="4">
-        <v>0</v>
-      </c>
-      <c r="K87" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" ht="28.5" spans="2:11">
-      <c r="B88" s="12" t="s">
+      <c r="J88" s="4">
+        <v>0</v>
+      </c>
+      <c r="K88" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B89" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C89" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="J88" s="4">
-        <v>0</v>
-      </c>
-      <c r="K88" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="4">
+      <c r="J89" s="4">
+        <v>0</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
         <v>1201</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B90" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C90" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H89" s="4">
-        <v>1</v>
-      </c>
-      <c r="J89" s="4">
-        <v>1</v>
-      </c>
-      <c r="K89" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11">
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
+      <c r="H90" s="4">
+        <v>1</v>
+      </c>
       <c r="J90" s="4">
         <v>1</v>
       </c>
@@ -5184,91 +5151,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:11">
-      <c r="B91" s="12" t="s">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B91" s="12"/>
+      <c r="C91" s="13"/>
+      <c r="J91" s="4">
+        <v>1</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B92" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="J91" s="4">
-        <v>1</v>
-      </c>
-      <c r="K91" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" ht="28.5" spans="2:11">
-      <c r="B92" s="12" t="s">
+      <c r="J92" s="4">
+        <v>1</v>
+      </c>
+      <c r="K92" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B93" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="J92" s="4">
-        <v>0</v>
-      </c>
-      <c r="K92" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" ht="28.5" spans="2:11">
-      <c r="B93" s="12" t="s">
+      <c r="J93" s="4">
+        <v>0</v>
+      </c>
+      <c r="K93" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B94" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C94" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="J93" s="4">
-        <v>0</v>
-      </c>
-      <c r="K93" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="12" t="s">
+      <c r="J94" s="4">
+        <v>0</v>
+      </c>
+      <c r="K94" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B95" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="95" s="2" customFormat="1" spans="1:26">
-      <c r="A95" s="2">
+    <row r="96" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
         <v>102</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B96" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C96" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J95" s="2">
-        <v>1</v>
-      </c>
-      <c r="M95" s="2">
-        <v>2</v>
-      </c>
-      <c r="R95" s="2">
-        <v>1</v>
-      </c>
-      <c r="T95" s="2">
-        <v>9</v>
-      </c>
-      <c r="Z95" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" s="2" customFormat="1" spans="1:26">
-      <c r="A96" s="2">
-        <v>103</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>234</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>81</v>
@@ -5276,9 +5224,6 @@
       <c r="J96" s="2">
         <v>1</v>
       </c>
-      <c r="K96" s="2">
-        <v>3</v>
-      </c>
       <c r="M96" s="2">
         <v>2</v>
       </c>
@@ -5286,126 +5231,138 @@
         <v>1</v>
       </c>
       <c r="T96" s="2">
+        <v>9</v>
+      </c>
+      <c r="U96" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>103</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2">
+        <v>3</v>
+      </c>
+      <c r="M97" s="2">
+        <v>2</v>
+      </c>
+      <c r="R97" s="2">
+        <v>1</v>
+      </c>
+      <c r="T97" s="2">
         <v>1003</v>
       </c>
-      <c r="U96" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z96" s="2">
+      <c r="U97" s="2">
+        <v>1</v>
+      </c>
+      <c r="V97" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA97" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="97" ht="28.5" spans="1:26">
-      <c r="A97" s="4">
+    <row r="98" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
         <v>104</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B98" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C97" s="10" t="s">
+      <c r="C98" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="D98" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J97" s="4">
-        <v>1</v>
-      </c>
-      <c r="K97" s="4">
+      <c r="J98" s="4">
+        <v>1</v>
+      </c>
+      <c r="K98" s="4">
         <v>3</v>
       </c>
-      <c r="M97" s="4">
+      <c r="M98" s="4">
         <v>6</v>
       </c>
-      <c r="R97" s="4">
-        <v>1</v>
-      </c>
-      <c r="T97" s="4">
+      <c r="R98" s="4">
+        <v>1</v>
+      </c>
+      <c r="T98" s="4">
         <v>1005</v>
       </c>
-      <c r="Z97" s="4">
+      <c r="U98" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA98" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="98" ht="28.5" spans="1:30">
-      <c r="A98" s="4">
+    <row r="99" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
         <v>105</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B99" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C98" s="10" t="s">
+      <c r="C99" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D99" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J98" s="4">
-        <v>1</v>
-      </c>
-      <c r="K98" s="4">
-        <v>0</v>
-      </c>
-      <c r="M98" s="4">
+      <c r="J99" s="4">
+        <v>1</v>
+      </c>
+      <c r="K99" s="4">
+        <v>0</v>
+      </c>
+      <c r="M99" s="4">
         <v>3</v>
       </c>
-      <c r="N98" s="4">
+      <c r="N99" s="4">
         <v>2</v>
       </c>
-      <c r="O98" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q98" s="4" t="s">
+      <c r="O99" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="Z98" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC98" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD98" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:26">
-      <c r="A99" s="4">
+      <c r="AA99" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
         <v>106</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B100" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C99" s="10" t="s">
+      <c r="C100" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="J99" s="4">
-        <v>1</v>
-      </c>
-      <c r="K99" s="4">
-        <v>3</v>
-      </c>
-      <c r="M99" s="4">
-        <v>6</v>
-      </c>
-      <c r="R99" s="4">
-        <v>1</v>
-      </c>
-      <c r="T99" s="4">
-        <v>1004</v>
-      </c>
-      <c r="Z99" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:26">
-      <c r="A100" s="4">
-        <v>107</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="J100" s="4">
         <v>1</v>
@@ -5414,155 +5371,158 @@
         <v>3</v>
       </c>
       <c r="M100" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R100" s="4">
         <v>1</v>
       </c>
-      <c r="W100">
+      <c r="T100" s="4">
+        <v>1004</v>
+      </c>
+      <c r="U100" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA100" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>107</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="J101" s="4">
+        <v>1</v>
+      </c>
+      <c r="K101" s="4">
+        <v>3</v>
+      </c>
+      <c r="M101" s="4">
+        <v>0</v>
+      </c>
+      <c r="R101" s="4">
+        <v>1</v>
+      </c>
+      <c r="X101">
         <v>8</v>
       </c>
-      <c r="Z100" s="4">
+      <c r="AA101" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
-      <c r="A101" s="4">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
         <v>108</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B102" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C102" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="J101" s="4">
-        <v>1</v>
-      </c>
-      <c r="K101" s="4">
+      <c r="J102" s="4">
+        <v>1</v>
+      </c>
+      <c r="K102" s="4">
         <v>2</v>
-      </c>
-      <c r="M101" s="4">
-        <v>3</v>
-      </c>
-      <c r="R101" s="4">
-        <v>1</v>
-      </c>
-      <c r="T101" s="4">
-        <v>1007</v>
-      </c>
-      <c r="U101">
-        <v>1</v>
-      </c>
-      <c r="Z101" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" ht="28.5" spans="1:26">
-      <c r="A102" s="4">
-        <v>109</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="J102" s="4">
-        <v>1</v>
-      </c>
-      <c r="K102" s="4">
-        <v>0</v>
       </c>
       <c r="M102" s="4">
         <v>3</v>
       </c>
-      <c r="N102" s="4">
-        <v>5</v>
-      </c>
-      <c r="O102" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q102" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z102" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" ht="28.5" spans="1:26">
+      <c r="R102" s="4">
+        <v>1</v>
+      </c>
+      <c r="T102" s="4">
+        <v>1007</v>
+      </c>
+      <c r="U102" s="4">
+        <v>1</v>
+      </c>
+      <c r="V102">
+        <v>1</v>
+      </c>
+      <c r="AA102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>248</v>
+        <v>393</v>
       </c>
       <c r="J103" s="4">
         <v>1</v>
       </c>
       <c r="K103" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103" s="4">
         <v>3</v>
       </c>
-      <c r="R103" s="4">
-        <v>1</v>
-      </c>
-      <c r="U103">
-        <v>1</v>
-      </c>
-      <c r="W103">
+      <c r="N103" s="4">
+        <v>5</v>
+      </c>
+      <c r="O103" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA103" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>110</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="J104" s="4">
+        <v>1</v>
+      </c>
+      <c r="K104" s="4">
+        <v>1</v>
+      </c>
+      <c r="M104" s="4">
+        <v>3</v>
+      </c>
+      <c r="R104" s="4">
+        <v>1</v>
+      </c>
+      <c r="V104">
+        <v>1</v>
+      </c>
+      <c r="X104">
         <v>8</v>
       </c>
-      <c r="Z103" s="4">
+      <c r="AA104" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
-      <c r="A104" s="4">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
         <v>111</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B105" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C105" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="J104" s="4">
-        <v>1</v>
-      </c>
-      <c r="K104" s="4">
-        <v>2</v>
-      </c>
-      <c r="M104" s="4">
-        <v>5</v>
-      </c>
-      <c r="R104" s="4">
-        <v>1</v>
-      </c>
-      <c r="T104" s="4">
-        <v>1010</v>
-      </c>
-      <c r="U104">
-        <v>1</v>
-      </c>
-      <c r="Z104" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:26">
-      <c r="A105" s="4">
-        <v>112</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>252</v>
       </c>
       <c r="J105" s="4">
         <v>1</v>
@@ -5571,30 +5531,33 @@
         <v>2</v>
       </c>
       <c r="M105" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R105" s="4">
         <v>1</v>
       </c>
       <c r="T105" s="4">
-        <v>1013</v>
-      </c>
-      <c r="U105">
-        <v>1</v>
-      </c>
-      <c r="Z105" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26">
+        <v>1010</v>
+      </c>
+      <c r="U105" s="4">
+        <v>1</v>
+      </c>
+      <c r="V105">
+        <v>1</v>
+      </c>
+      <c r="AA105" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J106" s="4">
         <v>1</v>
@@ -5603,153 +5566,162 @@
         <v>2</v>
       </c>
       <c r="M106" s="4">
+        <v>3</v>
+      </c>
+      <c r="R106" s="4">
+        <v>1</v>
+      </c>
+      <c r="T106" s="4">
+        <v>1013</v>
+      </c>
+      <c r="U106" s="4">
+        <v>1</v>
+      </c>
+      <c r="V106">
+        <v>1</v>
+      </c>
+      <c r="AA106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <v>113</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="J107" s="4">
+        <v>1</v>
+      </c>
+      <c r="K107" s="4">
+        <v>2</v>
+      </c>
+      <c r="M107" s="4">
         <v>4</v>
       </c>
-      <c r="R106" s="4">
-        <v>1</v>
-      </c>
-      <c r="T106" s="4">
+      <c r="R107" s="4">
+        <v>1</v>
+      </c>
+      <c r="T107" s="4">
         <v>1014</v>
       </c>
-      <c r="U106">
-        <v>1</v>
-      </c>
-      <c r="Z106" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:26">
-      <c r="A107" s="4">
+      <c r="U107" s="4">
+        <v>1</v>
+      </c>
+      <c r="V107">
+        <v>1</v>
+      </c>
+      <c r="AA107" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
         <v>114</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B108" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J108" s="4">
+        <v>1</v>
+      </c>
+      <c r="K108" s="4">
+        <v>0</v>
+      </c>
+      <c r="L108" s="4">
+        <v>0</v>
+      </c>
+      <c r="M108" s="4">
+        <v>3</v>
+      </c>
+      <c r="N108" s="4">
+        <v>4</v>
+      </c>
+      <c r="O108" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R108" s="4">
+        <v>0</v>
+      </c>
+      <c r="S108" s="4">
+        <v>0</v>
+      </c>
+      <c r="T108" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <v>115</v>
+      </c>
+      <c r="B109" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H107" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J107" s="4">
-        <v>1</v>
-      </c>
-      <c r="K107" s="4">
-        <v>0</v>
-      </c>
-      <c r="L107" s="4">
-        <v>0</v>
-      </c>
-      <c r="M107" s="4">
-        <v>3</v>
-      </c>
-      <c r="N107" s="4">
+      <c r="C109" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="J109" s="4">
+        <v>1</v>
+      </c>
+      <c r="K109" s="4">
+        <v>2</v>
+      </c>
+      <c r="M109" s="4">
         <v>4</v>
       </c>
-      <c r="O107" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R107" s="4">
-        <v>0</v>
-      </c>
-      <c r="S107" s="4">
-        <v>0</v>
-      </c>
-      <c r="T107" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z107" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26">
-      <c r="A108" s="4">
-        <v>115</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C108" s="10" t="s">
+      <c r="R109" s="4">
+        <v>1</v>
+      </c>
+      <c r="T109" s="4">
+        <v>2008</v>
+      </c>
+      <c r="U109" s="4">
+        <v>1</v>
+      </c>
+      <c r="V109">
+        <v>1</v>
+      </c>
+      <c r="AA109" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>116</v>
+      </c>
+      <c r="B110" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="J108" s="4">
-        <v>1</v>
-      </c>
-      <c r="K108" s="4">
-        <v>2</v>
-      </c>
-      <c r="M108" s="4">
-        <v>4</v>
-      </c>
-      <c r="R108" s="4">
-        <v>1</v>
-      </c>
-      <c r="T108" s="4">
-        <v>2008</v>
-      </c>
-      <c r="U108">
-        <v>1</v>
-      </c>
-      <c r="Z108" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" s="3" customFormat="1" spans="1:26">
-      <c r="A109" s="3">
-        <v>116</v>
-      </c>
-      <c r="B109" s="16" t="s">
+      <c r="C110" s="17" t="s">
         <v>258</v>
-      </c>
-      <c r="C109" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="J109" s="3">
-        <v>1</v>
-      </c>
-      <c r="M109" s="3">
-        <v>3</v>
-      </c>
-      <c r="R109" s="3">
-        <v>1</v>
-      </c>
-      <c r="T109" s="3">
-        <v>12</v>
-      </c>
-      <c r="V109" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z109" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" s="3" customFormat="1" spans="1:26">
-      <c r="A110" s="3">
-        <v>117</v>
-      </c>
-      <c r="B110" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>261</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>81</v>
@@ -5757,72 +5729,75 @@
       <c r="J110" s="3">
         <v>1</v>
       </c>
-      <c r="K110" s="3">
-        <v>0</v>
-      </c>
       <c r="M110" s="3">
+        <v>3</v>
+      </c>
+      <c r="R110" s="3">
+        <v>1</v>
+      </c>
+      <c r="T110" s="3">
+        <v>12</v>
+      </c>
+      <c r="U110" s="3">
+        <v>1</v>
+      </c>
+      <c r="W110" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>117</v>
+      </c>
+      <c r="B111" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J111" s="3">
+        <v>1</v>
+      </c>
+      <c r="K111" s="3">
+        <v>0</v>
+      </c>
+      <c r="M111" s="3">
         <v>5</v>
       </c>
-      <c r="N110" s="3">
+      <c r="N111" s="3">
         <v>14</v>
       </c>
-      <c r="O110" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="4" t="s">
+      <c r="O111" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="R111" s="3">
+        <v>0</v>
+      </c>
+      <c r="T111" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>118</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R110" s="3">
-        <v>0</v>
-      </c>
-      <c r="T110" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z110" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26">
-      <c r="A111" s="3">
-        <v>118</v>
-      </c>
-      <c r="B111" s="10" t="s">
+      <c r="C112" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="J111" s="4">
-        <v>1</v>
-      </c>
-      <c r="K111" s="4">
-        <v>2</v>
-      </c>
-      <c r="M111" s="4">
-        <v>4</v>
-      </c>
-      <c r="R111" s="4">
-        <v>1</v>
-      </c>
-      <c r="T111">
-        <v>1015</v>
-      </c>
-      <c r="U111">
-        <v>1</v>
-      </c>
-      <c r="Z111" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26">
-      <c r="A112" s="3">
-        <v>119</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="J112" s="4">
         <v>1</v>
@@ -5837,268 +5812,247 @@
         <v>1</v>
       </c>
       <c r="T112">
+        <v>1015</v>
+      </c>
+      <c r="U112" s="4">
+        <v>1</v>
+      </c>
+      <c r="V112">
+        <v>1</v>
+      </c>
+      <c r="AA112" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>119</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="J113" s="4">
+        <v>1</v>
+      </c>
+      <c r="K113" s="4">
+        <v>2</v>
+      </c>
+      <c r="M113" s="4">
+        <v>4</v>
+      </c>
+      <c r="R113" s="4">
+        <v>1</v>
+      </c>
+      <c r="T113">
         <v>1016</v>
       </c>
-      <c r="U112">
-        <v>1</v>
-      </c>
-      <c r="Z112" s="4">
+      <c r="U113" s="4">
+        <v>1</v>
+      </c>
+      <c r="V113">
+        <v>1</v>
+      </c>
+      <c r="AA113" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:26">
-      <c r="A113" s="3">
+    <row r="114" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
         <v>120</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B114" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="D114" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H114" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J114" s="4">
+        <v>1</v>
+      </c>
+      <c r="K114" s="4">
+        <v>0</v>
+      </c>
+      <c r="L114" s="4">
+        <v>0</v>
+      </c>
+      <c r="M114" s="4">
+        <v>5</v>
+      </c>
+      <c r="N114" s="4">
+        <v>10</v>
+      </c>
+      <c r="O114" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R114" s="4">
+        <v>0</v>
+      </c>
+      <c r="S114" s="4">
+        <v>0</v>
+      </c>
+      <c r="T114" s="4">
+        <v>0</v>
+      </c>
+      <c r="V114">
+        <v>1</v>
+      </c>
+      <c r="AA114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>121</v>
+      </c>
+      <c r="B115" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H113" s="4">
+      <c r="C115" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="J115" s="4">
+        <v>1</v>
+      </c>
+      <c r="K115" s="4">
+        <v>2</v>
+      </c>
+      <c r="M115" s="4">
+        <v>3</v>
+      </c>
+      <c r="R115" s="4">
+        <v>1</v>
+      </c>
+      <c r="T115">
+        <v>1017</v>
+      </c>
+      <c r="U115" s="4">
+        <v>1</v>
+      </c>
+      <c r="V115">
+        <v>1</v>
+      </c>
+      <c r="AA115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>122</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H116" s="4">
         <v>0.8</v>
       </c>
-      <c r="J113" s="4">
-        <v>1</v>
-      </c>
-      <c r="K113" s="4">
-        <v>0</v>
-      </c>
-      <c r="L113" s="4">
-        <v>0</v>
-      </c>
-      <c r="M113" s="4">
+      <c r="J116" s="4">
+        <v>1</v>
+      </c>
+      <c r="K116" s="4">
+        <v>3</v>
+      </c>
+      <c r="L116" s="4">
+        <v>0</v>
+      </c>
+      <c r="M116" s="4">
+        <v>0</v>
+      </c>
+      <c r="N116" s="4">
+        <v>0</v>
+      </c>
+      <c r="O116" s="4">
+        <v>1</v>
+      </c>
+      <c r="R116" s="4">
+        <v>0</v>
+      </c>
+      <c r="S116" s="4">
+        <v>1</v>
+      </c>
+      <c r="T116" s="4">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>2</v>
+      </c>
+      <c r="AA116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>123</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H117" s="4">
+        <v>1</v>
+      </c>
+      <c r="J117" s="4">
+        <v>1</v>
+      </c>
+      <c r="K117" s="4">
+        <v>1</v>
+      </c>
+      <c r="L117" s="4">
+        <v>0</v>
+      </c>
+      <c r="M117" s="4">
+        <v>4</v>
+      </c>
+      <c r="N117" s="4">
         <v>5</v>
       </c>
-      <c r="N113" s="4">
-        <v>10</v>
-      </c>
-      <c r="O113" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q113" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R113" s="4">
-        <v>0</v>
-      </c>
-      <c r="S113" s="4">
-        <v>0</v>
-      </c>
-      <c r="T113" s="4">
-        <v>0</v>
-      </c>
-      <c r="U113">
-        <v>1</v>
-      </c>
-      <c r="Z113" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:26">
-      <c r="A114" s="3">
-        <v>121</v>
-      </c>
-      <c r="B114" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C114" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="J114" s="4">
-        <v>1</v>
-      </c>
-      <c r="K114" s="4">
-        <v>2</v>
-      </c>
-      <c r="M114" s="4">
-        <v>3</v>
-      </c>
-      <c r="R114" s="4">
-        <v>1</v>
-      </c>
-      <c r="T114">
-        <v>1017</v>
-      </c>
-      <c r="U114">
-        <v>1</v>
-      </c>
-      <c r="Z114" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:26">
-      <c r="A115" s="3">
-        <v>122</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="H115" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="J115" s="4">
-        <v>1</v>
-      </c>
-      <c r="K115" s="4">
-        <v>3</v>
-      </c>
-      <c r="L115" s="4">
-        <v>0</v>
-      </c>
-      <c r="M115" s="4">
-        <v>0</v>
-      </c>
-      <c r="N115" s="4">
-        <v>0</v>
-      </c>
-      <c r="O115" s="4">
-        <v>1</v>
-      </c>
-      <c r="R115" s="4">
-        <v>0</v>
-      </c>
-      <c r="S115" s="4">
-        <v>1</v>
-      </c>
-      <c r="T115" s="4">
-        <v>0</v>
-      </c>
-      <c r="W115">
-        <v>2</v>
-      </c>
-      <c r="Z115" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:26">
-      <c r="A116" s="3">
-        <v>123</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H116" s="4">
-        <v>1</v>
-      </c>
-      <c r="J116" s="4">
-        <v>1</v>
-      </c>
-      <c r="K116" s="4">
-        <v>1</v>
-      </c>
-      <c r="L116" s="4">
-        <v>0</v>
-      </c>
-      <c r="M116" s="4">
-        <v>4</v>
-      </c>
-      <c r="N116" s="4">
-        <v>5</v>
-      </c>
-      <c r="O116" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q116" s="4"